--- a/results/dwave_pegasus/spreadsheet25_annealing4.xlsx
+++ b/results/dwave_pegasus/spreadsheet25_annealing4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,31 +432,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{0: [1713, 1610, 1609, 3743], 2: [1728, 4118, 1731, 1729, 1730], 3: [3701, 3699, 3700], 4: [3953, 1940, 3954], 5: [3851, 3624, 2120, 3625, 2119, 2118, 3626], 7: [1595, 3910, 3909, 3908, 1699, 1698], 8: [2059, 3638, 3639, 3640, 2058], 9: [1938, 3836, 3835, 3758, 1939, 3759], 16: [1773, 3608, 2043, 3609, 3610], 21: [3685, 1909, 3593, 3594, 1908], 23: [2045, 4028, 4029, 4031, 4030], 25: [3744, 3820, 1774, 3819], 27: [3893, 1791, 1790, 3895, 3894], 31: [3866, 3863, 3865, 3864], 33: [1564, 1788, 3805, 3803, 1789, 3804], 35: [4088, 1716, 1714, 1715], 49: [4209, 1743, 1746, 1744, 1745], 1: [3983, 3984], 11: [4148, 2014, 2015, 4149, 4150, 2016], 14: [3971, 1910, 3969, 3970], 15: [1671, 1669, 1670], 18: [4015, 1820, 1821, 4014], 19: [1834, 3773, 3775, 3774], 29: [4119, 4120, 2106, 3716, 2104, 2105], 41: [1926, 3788, 4060, 4059, 1685, 1684, 3923], 46: [1775, 3880, 3879], 47: [2060, 4001, 3999, 4000], 6: [1758, 1759, 1761, 1760], 12: [1984, 4164, 4165, 1985, 1986], 28: [1849, 3790, 3789], 39: [4090, 4089, 1878, 1879, 1880], 42: [1654, 3939, 3938, 1655], 44: [1804, 1806, 3834, 1805], 10: [1835, 1836], 13: [1923, 3985, 1925, 1924], 38: [1971, 4045, 3714, 1970, 1969, 3715], 20: [1851, 1850, 3849, 3850], 30: [2121, 4135, 1656, 4133, 4134], 37: [2089, 2088, 1639, 3728, 3730, 3729], 40: [3745, 1955, 1954], 17: [4061, 2074, 2075], 22: [4074, 1999, 2000, 2001, 4075], 26: [3653, 3655, 3654], 43: [4073, 4044, 4043, 1566, 1565], 45: [3671, 3670, 1819, 3669], 34: [1626, 3878, 1623, 1625, 1624], 48: [4103, 1776, 4104, 1893, 1894, 1895], 36: [3924, 3925], 32: [1863, 1866, 4194, 1864, 1865], 24: [2029, 2030, 4210, 2031, 4105, 1956]}</t>
+          <t>{0: [4921], 1: [355], 2: [306]}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.02075433231396534</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01821386691786223</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01</v>
+        <v>0.999</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{0: [1713, 1610, 1609, 3743], 2: [1728, 4118, 1731, 1729, 1730], 3: [3701, 3699, 3700], 4: [3953, 1940, 3954], 5: [3851, 3624, 2120, 3625, 2119, 2118, 3626], 7: [1595, 3910, 3909, 3908, 1699, 1698], 8: [2059, 3638, 3639, 3640, 2058], 9: [1938, 3836, 3835, 3758, 1939, 3759], 16: [1773, 3608, 2043, 3609, 3610], 21: [3685, 1909, 3593, 3594, 1908], 23: [2045, 4028, 4029, 4031, 4030], 25: [3744, 3820, 1774, 3819], 27: [3893, 1791, 1790, 3895, 3894], 31: [3866, 3863, 3865, 3864], 33: [1564, 1788, 3805, 3803, 1789, 3804], 35: [4088, 1716, 1714, 1715], 49: [4209, 1743, 1746, 1744, 1745], 1: [3983, 3984], 11: [4148, 2014, 2015, 4149, 4150, 2016], 14: [3971, 1910, 3969, 3970], 15: [1671, 1669, 1670], 18: [4015, 1820, 1821, 4014], 19: [1834, 3773, 3775, 3774], 29: [4119, 4120, 2106, 3716, 2104, 2105], 41: [1926, 3788, 4060, 4059, 1685, 1684, 3923], 46: [1775, 3880, 3879], 47: [2060, 4001, 3999, 4000], 6: [1758, 1759, 1761, 1760], 12: [1984, 4164, 4165, 1985, 1986], 28: [1849, 3790, 3789], 39: [4090, 4089, 1878, 1879, 1880], 42: [1654, 3939, 3938, 1655], 44: [1804, 1806, 3834, 1805], 10: [1835, 1836], 13: [1923, 3985, 1925, 1924], 38: [1971, 4045, 3714, 1970, 1969, 3715], 20: [1851, 1850, 3849, 3850], 30: [2121, 4135, 1656, 4133, 4134], 37: [2089, 2088, 1639, 3728, 3730, 3729], 40: [3745, 1955, 1954], 17: [4061, 2074, 2075], 22: [4074, 1999, 2000, 2001, 4075], 26: [3653, 3655, 3654], 43: [4073, 4044, 4043, 1566, 1565], 45: [3671, 3670, 1819, 3669], 34: [1626, 3878, 1623, 1625, 1624], 48: [4103, 1776, 4104, 1893, 1894, 1895], 36: [3924, 3925], 32: [1863, 1866, 4194, 1864, 1865], 24: [2029, 2030, 4210, 2031, 4105, 1956]}</t>
+          <t>{0: [4921], 1: [355], 2: [306]}</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.02075433231396534</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01821386691786223</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -473,30 +473,3884 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>{0: [1057], 1: [1072], 's_0_1': [4235], 's_0_0': [4385], 's_1_1': [4355], 2: [5579], 's_2_2': [2849]}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{0: [1057], 1: [1072], 's_0_1': [4235], 's_0_0': [4385], 's_1_1': [4355], 2: [5579], 's_2_2': [2849]}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.984</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{0: [1430], 1: [3937]}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{0: [1430], 1: [3937]}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{0: [3807], 1: [2404], 's_0_1': [3792]}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{0: [3807], 1: [2404], 's_0_1': [3792]}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.923</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{0: [1066], 1: [3215], 4: [3200]}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{0: [1066], 1: [3215], 4: [3200]}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{0: [1959], 1: [4660], 's_0_1': [4675], 4: [4615], 's_0_4': [1974]}</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{0: [1959], 1: [4660], 's_0_1': [4675], 4: [4615], 's_0_4': [1974]}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{0: [2801], 5: [5024], 2: [5039], 4: [2681], 3: [2756], 1: [5069]}</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{0: [2801], 5: [5024], 2: [5039], 4: [2681], 3: [2756], 1: [5069]}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{0: [379], 5: [3676], 's_0_5': [364], 2: [348], 's_5_2': [3661], 4: [3526, 333], 's_5_4': [303], 3: [3586], 's_2_3': [3571], 's_2_4': [3601], 1: [378], 's_4_1': [3511], 's_1_3': [363]}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0001827151470856934</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.003744546232764334</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{0: [379], 5: [3676], 's_0_5': [364], 2: [348], 's_5_2': [3661], 4: [3526, 333], 's_5_4': [303], 3: [3586], 's_2_3': [3571], 's_2_4': [3601], 1: [378], 's_4_1': [3511], 's_1_3': [363]}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0001827151470856934</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.003744546232764334</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{0: [3035], 5: [1200], 2: [3096], 1: [1320]}</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{0: [3035], 5: [1200], 2: [3096], 1: [1320]}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{0: [2125], 5: [4946], 's_0_5': [4931], 2: [2155], 's_5_2': [2140], 1: [4826], 's_2_1': [4811]}</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{0: [2125], 5: [4946], 's_0_5': [4931], 2: [2155], 's_5_2': [2140], 1: [4826], 's_2_1': [4811]}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{0: [5104], 3: [762], 4: [806], 5: [777], 6: [5119], 1: [776], 2: [5120], 7: [1092]}</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{0: [5104], 3: [762], 4: [806], 5: [777], 6: [5119], 1: [776], 2: [5120], 7: [1092]}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{0: [299, 5581], 3: [314], 's_0_3': [5641], 4: [5596], 's_0_4': [359], 5: [329], 's_0_5': [5626], 6: [434], 's_0_6': [5611], 's_3_5': [5535], 's_4_6': [449], 1: [5550], 's_5_1': [5565], 2: [5642], 's_6_2': [5657], 7: [524], 's_2_7': [539]}</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6.855889208830385e-05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.002007031560167894</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{0: [299, 5581], 3: [314], 's_0_3': [5641], 4: [5596], 's_0_4': [359], 5: [329], 's_0_5': [5626], 6: [434], 's_0_6': [5611], 's_3_5': [5535], 's_4_6': [449], 1: [5550], 's_5_1': [5565], 2: [5642], 's_6_2': [5657], 7: [524], 's_2_7': [539]}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>6.855889208830385e-05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.002007031560167894</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{0: [1995], 5: [2920], 6: [2965], 8: [1980], 1: [2010], 3: [2950], 7: [3070], 4: [2951], 2: [1950]}</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{0: [1995], 5: [2920], 6: [2965], 8: [1980], 1: [2010], 3: [2950], 7: [3070], 4: [2951], 2: [1950]}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{0: [1757, 3429], 5: [1787], 's_0_5': [3354], 6: [1727], 's_0_6': [3398], 8: [3459], 's_0_8': [1742], 1: [3504], 's_5_1': [1772], 's_5_8': [3474], 3: [3519], 's_6_3': [1712], 7: [1818], 's_8_7': [1803], 4: [1697], 's_1_4': [1682], 's_3_4': [3534], 2: [3624], 's_7_2': [3609]}</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{0: [1757, 3429], 5: [1787], 's_0_5': [3354], 6: [1727], 's_0_6': [3398], 8: [3459], 's_0_8': [1742], 1: [3504], 's_5_1': [1772], 's_5_8': [3474], 3: [3519], 's_6_3': [1712], 7: [1818], 's_8_7': [1803], 4: [1697], 's_1_4': [1682], 's_3_4': [3534], 2: [3624], 's_7_2': [3609]}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{0: [3512], 2: [467], 6: [393], 5: [3452], 9: [3467], 1: [3616], 8: [527], 4: [3437], 3: [453], 7: [452]}</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{0: [3512], 2: [467], 6: [393], 5: [3452], 9: [3467], 1: [3616], 8: [527], 4: [3437], 3: [453], 7: [452]}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{0: [849], 2: [4730, 4729], 's_0_2': [4714], 6: [4668], 's_0_6': [4653], 5: [1029, 4700], 's_2_5': [4715], 9: [1014], 's_2_9': [999], 1: [729], 's_6_1': [744], 8: [4745], 's_5_8': [1044], 's_5_9': [4654], 's_9_8': [4760], 4: [1105], 's_8_4': [1090], 3: [1149], 7: [4805], 's_3_7': [1164], 's_7_4': [4820]}</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0001047723820001048</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.002231184393006114</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{0: [849], 2: [4730, 4729], 's_0_2': [4714], 6: [4668], 's_0_6': [4653], 5: [1029, 4700], 's_2_5': [4715], 9: [1014], 's_2_9': [999], 1: [729], 's_6_1': [744], 8: [4745], 's_5_8': [1044], 's_5_9': [4654], 's_9_8': [4760], 4: [1105], 's_8_4': [1090], 3: [1149], 7: [4805], 's_3_7': [1164], 's_7_4': [4820]}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0001047723820001048</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.002231184393006114</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{0: [5405], 4: [1033], 8: [1063, 5315], 2: [5374], 3: [1048], 6: [5480], 9: [5465], 7: [5375], 5: [5373], 10: [1018]}</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{0: [5405], 4: [1033], 8: [1063, 5315], 2: [5374], 3: [1048], 6: [5480], 9: [5465], 7: [5375], 5: [5373], 10: [1018]}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{0: [1126], 4: [3260, 1081], 's_0_4': [3230], 8: [1112, 3110, 1111], 's_0_8': [3171], 2: [3305, 991], 's_4_2': [1006], 3: [1036, 1035], 's_4_3': [3125], 6: [990, 3155], 's_4_6': [3185, 1051], 's_4_8': [3095, 1005], 9: [1096], 's_4_9': [3140], 's_8_3': [1020], 7: [3290], 's_8_7': [1127], 's_8_9': [3200], 's_2_3': [3229], 5: [961], 's_2_5': [3335], 's_2_7': [1082], 10: [3245, 1066], 's_2_10': [3320], 's_3_6': [3065], 's_6_10': [1021], 's_6_9': [3170], 's_9_10': [3215]}</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0001785714285714285</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.002519059996368908</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{0: [1126], 4: [3260, 1081], 's_0_4': [3230], 8: [1112, 3110, 1111], 's_0_8': [3171], 2: [3305, 991], 's_4_2': [1006], 3: [1036, 1035], 's_4_3': [3125], 6: [990, 3155], 's_4_6': [3185, 1051], 's_4_8': [3095, 1005], 9: [1096], 's_4_9': [3140], 's_8_3': [1020], 7: [3290], 's_8_7': [1127], 's_8_9': [3200], 's_2_3': [3229], 5: [961], 's_2_5': [3335], 's_2_7': [1082], 10: [3245, 1066], 's_2_10': [3320], 's_3_6': [3065], 's_6_10': [1021], 's_6_9': [3170], 's_9_10': [3215]}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0001785714285714285</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.002519059996368908</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{0: [543], 3: [3467], 4: [3617], 8: [3557], 9: [3452], 10: [542], 6: [527], 11: [528], 1: [602], 2: [3558], 5: [3542], 7: [3543]}</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{0: [543], 3: [3467], 4: [3617], 8: [3557], 9: [3452], 10: [542], 6: [527], 11: [528], 1: [602], 2: [3558], 5: [3542], 7: [3543]}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{0: [944, 5539], 3: [5434], 's_0_3': [988], 4: [884], 's_0_4': [5584], 8: [1109, 5495], 's_0_8': [5510], 9: [5464, 914], 's_0_9': [5465], 10: [5480], 's_0_10': [1003], 6: [929, 5569], 's_3_6': [959], 's_3_9': [898], 11: [5554], 's_4_11': [899], 1: [5449, 5450], 's_8_1': [973], 2: [1064], 's_8_2': [5570], 's_9_1': [868], 's_9_6': [5509], 's_6_11': [989], 5: [1034], 's_11_5': [1049], 7: [5600], 's_5_7': [5585]}</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3.703703703703704e-05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001170628194761415</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{0: [944, 5539], 3: [5434], 's_0_3': [988], 4: [884], 's_0_4': [5584], 8: [1109, 5495], 's_0_8': [5510], 9: [5464, 914], 's_0_9': [5465], 10: [5480], 's_0_10': [1003], 6: [929, 5569], 's_3_6': [959], 's_3_9': [898], 11: [5554], 's_4_11': [899], 1: [5449, 5450], 's_8_1': [973], 2: [1064], 's_8_2': [5570], 's_9_1': [868], 's_9_6': [5509], 's_6_11': [989], 5: [1034], 's_11_5': [1049], 7: [5600], 's_5_7': [5585]}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>3.703703703703704e-05</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001170628194761415</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{0: [1202], 9: [3365], 10: [3366], 12: [3290, 1082], 1: [1307], 8: [3291], 3: [3320], 11: [1051], 6: [3305], 7: [3410], 2: [3276], 4: [3306], 5: [1262]}</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001240694789081886</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.009690136074325874</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{0: [1202], 9: [3365], 10: [3366], 12: [3290, 1082], 1: [1307], 8: [3291], 3: [3320], 11: [1051], 6: [3305], 7: [3410], 2: [3276], 4: [3306], 5: [1262]}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.001240694789081886</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.009690136074325874</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{0: [4565], 9: [1043], 's_0_9': [4580], 10: [4535, 1163], 's_9_10': [4550], 12: [4520, 4521], 's_9_12': [1028], 1: [4611], 's_10_1': [1148], 8: [1193], 's_12_8': [1178], 3: [1223], 's_12_3': [4506], 11: [1208, 4416], 's_12_11': [1283], 6: [1133], 's_12_6': [4505], 7: [1253], 's_12_7': [1238], 2: [1269], 's_1_2': [1284], 's_1_8': [4596], 's_3_11': [4536], 's_11_6': [4431], 4: [1118], 's_6_4': [4370], 5: [4401], 's_4_5': [4386]}</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>7.142857142857142e-05</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001595593421692048</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{0: [4565], 9: [1043], 's_0_9': [4580], 10: [4535, 1163], 's_9_10': [4550], 12: [4520, 4521], 's_9_12': [1028], 1: [4611], 's_10_1': [1148], 8: [1193], 's_12_8': [1178], 3: [1223], 's_12_3': [4506], 11: [1208, 4416], 's_12_11': [1283], 6: [1133], 's_12_6': [4505], 7: [1253], 's_12_7': [1238], 2: [1269], 's_1_2': [1284], 's_1_8': [4596], 's_3_11': [4536], 's_11_6': [4431], 4: [1118], 's_6_4': [4370], 5: [4401], 's_4_5': [4386]}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>7.142857142857142e-05</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.001595593421692048</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{0: [3357], 7: [2266], 1: [3342], 8: [3221], 2: [2192], 3: [2297], 4: [3312, 2251], 5: [2221], 10: [3341], 12: [2342], 13: [3327, 2236], 6: [3236], 9: [3281], 11: [3371]}</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0004638218923933209</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.005737159961434594</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{0: [3357], 7: [2266], 1: [3342], 8: [3221], 2: [2192], 3: [2297], 4: [3312, 2251], 5: [2221], 10: [3341], 12: [2342], 13: [3327, 2236], 6: [3236], 9: [3281], 11: [3371]}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0004638218923933209</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.005737159961434594</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.756</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{0: [3409], 7: [3394], 's_0_7': [1022], 1: [918, 872, 3469], 's_7_1': [917], 8: [3335, 932], 's_7_8': [1037], 2: [3454, 962], 's_1_2': [827], 3: [3544], 's_1_3': [977], 4: [947, 3619, 948], 's_1_4': [3604], 5: [3424, 902], 's_1_5': [812], 10: [842], 's_1_10': [3484], 12: [3574], 's_1_12': [933], 13: [888, 887], 's_1_13': [3334], 's_8_4': [3320], 's_8_5': [3289], 6: [3379], 's_8_6': [1006], 's_2_4': [3515], 9: [857], 's_2_9': [3439], 11: [1007, 3530], 's_2_11': [3455], 's_3_11': [1038], 's_4_11': [3485], 's_4_13': [873], 's_5_9': [3349], 's_12_13': [3589], 's_13_6': [3364]}</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0001111111111111111</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.001753303759784389</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{0: [3409], 7: [3394], 's_0_7': [1022], 1: [918, 872, 3469], 's_7_1': [917], 8: [3335, 932], 's_7_8': [1037], 2: [3454, 962], 's_1_2': [827], 3: [3544], 's_1_3': [977], 4: [947, 3619, 948], 's_1_4': [3604], 5: [3424, 902], 's_1_5': [812], 10: [842], 's_1_10': [3484], 12: [3574], 's_1_12': [933], 13: [888, 887], 's_1_13': [3334], 's_8_4': [3320], 's_8_5': [3289], 6: [3379], 's_8_6': [1006], 's_2_4': [3515], 9: [857], 's_2_9': [3439], 11: [1007, 3530], 's_2_11': [3455], 's_3_11': [1038], 's_4_11': [3485], 's_4_13': [873], 's_5_9': [3349], 's_12_13': [3589], 's_13_6': [3364]}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0001111111111111111</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.001753303759784389</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{0: [3495], 7: [167, 3330], 8: [62], 12: [137], 3: [152], 6: [3390], 10: [3435], 11: [3420], 14: [197], 2: [3465, 198], 4: [3345], 5: [122], 13: [227], 9: [182], 1: [3421]}</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{0: [3495], 7: [167, 3330], 8: [62], 12: [137], 3: [152], 6: [3390], 10: [3435], 11: [3420], 14: [197], 2: [3465, 198], 4: [3345], 5: [122], 13: [227], 9: [182], 1: [3421]}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{0: [2048, 4495], 7: [4601, 4766, 2154], 's_0_7': [2063], 8: [2123], 's_0_8': [4586], 12: [2049, 4796], 's_0_12': [2094, 2093], 3: [4721], 's_7_3': [2124], 6: [2170], 's_7_6': [4631, 2169], 10: [4825, 2079], 's_7_10': [2078], 11: [2109, 4691], 's_7_11': [2184], 's_7_12': [2155], 14: [4751, 4750], 's_7_14': [2035], 2: [4735, 2005], 's_12_2': [4810], 4: [1959, 4720], 's_12_4': [2020], 5: [4705, 1899], 's_12_5': [4690], 's_12_10': [2125], 's_3_11': [2139], 's_3_6': [4736], 's_6_14': [2185], 13: [4841], 's_6_13': [4856], 's_10_11': [4675], 9: [1960], 's_10_9': [1975], 1: [4630], 's_11_1': [4645], 's_14_2': [1990, 4870], 's_14_4': [1944], 's_2_5': [4780], 's_4_5': [1914]}</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>7.692307692307693e-05</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.001402308606551314</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{0: [2048, 4495], 7: [4601, 4766, 2154], 's_0_7': [2063], 8: [2123], 's_0_8': [4586], 12: [2049, 4796], 's_0_12': [2094, 2093], 3: [4721], 's_7_3': [2124], 6: [2170], 's_7_6': [4631, 2169], 10: [4825, 2079], 's_7_10': [2078], 11: [2109, 4691], 's_7_11': [2184], 's_7_12': [2155], 14: [4751, 4750], 's_7_14': [2035], 2: [4735, 2005], 's_12_2': [4810], 4: [1959, 4720], 's_12_4': [2020], 5: [4705, 1899], 's_12_5': [4690], 's_12_10': [2125], 's_3_11': [2139], 's_3_6': [4736], 's_6_14': [2185], 13: [4841], 's_6_13': [4856], 's_10_11': [4675], 9: [1960], 's_10_9': [1975], 1: [4630], 's_11_1': [4645], 's_14_2': [1990, 4870], 's_14_4': [1944], 's_2_5': [4780], 's_4_5': [1914]}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>7.692307692307693e-05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.001402308606551314</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{0: [5596], 1: [5580, 5581], 9: [359], 10: [374], 4: [344], 5: [254], 8: [239], 12: [5611, 314], 15: [224], 11: [5520, 5521], 2: [329, 5491], 13: [5476], 7: [494, 5506, 5507], 14: [5566], 6: [5565], 3: [268]}</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001008064516129032</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.007873235560389772</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{0: [5596], 1: [5580, 5581], 9: [359], 10: [374], 4: [344], 5: [254], 8: [239], 12: [5611, 314], 15: [224], 11: [5520, 5521], 2: [329, 5491], 13: [5476], 7: [494, 5506, 5507], 14: [5566], 6: [5565], 3: [268]}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.001008064516129032</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.007873235560389772</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.798</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{0: [982], 1: [4400, 1118, 4401], 's_0_1': [1012, 4444], 9: [967, 4294], 's_0_9': [4369], 10: [1027, 4339, 4340], 's_0_10': [4324], 4: [4430, 953], 's_1_4': [4431], 5: [4475], 's_1_5': [1133], 8: [4445], 's_1_8': [4460], 's_1_10': [4370], 12: [4385], 's_1_12': [4386], 15: [1117, 4325], 's_1_15': [1042], 's_9_4': [4354], 11: [4264, 966], 's_9_11': [952], 2: [4505, 1087, 1088], 's_10_2': [4250], 's_10_11': [877], 13: [1162, 1161], 's_10_13': [4355], 7: [996, 998, 997], 's_4_7': [4474], 's_4_12': [938], 14: [954, 4565], 's_4_14': [1043], 6: [1073, 1072], 's_5_6': [1058], 's_8_2': [4506, 1223], 's_8_13': [1147], 's_12_2': [1103], 's_12_6': [1057], 's_15_7': [4175], 's_15_13': [4280], 3: [4206, 4205], 's_11_3': [937], 's_11_7': [4279], 's_2_3': [4220], 's_2_6': [4295], 's_2_7': [4235], 's_13_3': [1146], 's_7_3': [1011], 's_7_14': [1013], 's_14_6': [4580]}</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0001836734693877551</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.001927356274126187</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{0: [982], 1: [4400, 1118, 4401], 's_0_1': [1012, 4444], 9: [967, 4294], 's_0_9': [4369], 10: [1027, 4339, 4340], 's_0_10': [4324], 4: [4430, 953], 's_1_4': [4431], 5: [4475], 's_1_5': [1133], 8: [4445], 's_1_8': [4460], 's_1_10': [4370], 12: [4385], 's_1_12': [4386], 15: [1117, 4325], 's_1_15': [1042], 's_9_4': [4354], 11: [4264, 966], 's_9_11': [952], 2: [4505, 1087, 1088], 's_10_2': [4250], 's_10_11': [877], 13: [1162, 1161], 's_10_13': [4355], 7: [996, 998, 997], 's_4_7': [4474], 's_4_12': [938], 14: [954, 4565], 's_4_14': [1043], 6: [1073, 1072], 's_5_6': [1058], 's_8_2': [4506, 1223], 's_8_13': [1147], 's_12_2': [1103], 's_12_6': [1057], 's_15_7': [4175], 's_15_13': [4280], 3: [4206, 4205], 's_11_3': [937], 's_11_7': [4279], 's_2_3': [4220], 's_2_6': [4295], 's_2_7': [4235], 's_13_3': [1146], 's_7_3': [1011], 's_7_14': [1013], 's_14_6': [4580]}</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0001836734693877551</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.001927356274126187</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{0: [1732], 1: [4359], 2: [4374], 4: [4419], 6: [4329, 1777], 7: [1717], 12: [4463], 15: [1792], 9: [1747], 16: [1778], 5: [1822], 8: [4344], 10: [4299], 11: [4239], 3: [1762], 14: [4298], 13: [4313]}</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0002334267040149393</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.00369817449060571</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{0: [1732], 1: [4359], 2: [4374], 4: [4419], 6: [4329, 1777], 7: [1717], 12: [4463], 15: [1792], 9: [1747], 16: [1778], 5: [1822], 8: [4344], 10: [4299], 11: [4239], 3: [1762], 14: [4298], 13: [4313]}</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0002334267040149393</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.00369817449060571</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.661</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{0: [2719, 3734], 1: [3764, 3763], 's_0_1': [2824], 2: [3779], 's_0_2': [2749], 4: [2718], 's_0_4': [2808, 3599], 6: [2583, 3704], 's_0_6': [3674], 7: [3809, 2779], 's_0_7': [2778], 12: [3659], 's_0_12': [3644], 's_1_7': [2734], 15: [3778], 's_1_15': [2509], 's_2_7': [2704], 9: [3839, 2674], 's_2_9': [2689], 16: [3524], 's_4_16': [3539], 5: [3733], 's_6_5': [2628], 8: [2554], 's_6_8': [3643], 's_6_9': [3719], 10: [2614, 2613], 's_6_10': [3598], 's_15_8': [2569], 11: [2644, 3824], 's_15_11': [2629], 3: [2720], 's_9_3': [2705], 's_5_11': [2659], 's_5_10': [3748], 14: [3899, 2645], 's_10_14': [3913], 's_11_3': [3854], 13: [3974], 's_3_13': [3989], 's_3_14': [3884], 's_13_14': [2660]}</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0001428571428571428</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.001838736626315031</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{0: [2719, 3734], 1: [3764, 3763], 's_0_1': [2824], 2: [3779], 's_0_2': [2749], 4: [2718], 's_0_4': [2808, 3599], 6: [2583, 3704], 's_0_6': [3674], 7: [3809, 2779], 's_0_7': [2778], 12: [3659], 's_0_12': [3644], 's_1_7': [2734], 15: [3778], 's_1_15': [2509], 's_2_7': [2704], 9: [3839, 2674], 's_2_9': [2689], 16: [3524], 's_4_16': [3539], 5: [3733], 's_6_5': [2628], 8: [2554], 's_6_8': [3643], 's_6_9': [3719], 10: [2614, 2613], 's_6_10': [3598], 's_15_8': [2569], 11: [2644, 3824], 's_15_11': [2629], 3: [2720], 's_9_3': [2705], 's_5_11': [2659], 's_5_10': [3748], 14: [3899, 2645], 's_10_14': [3913], 's_11_3': [3854], 13: [3974], 's_3_13': [3989], 's_3_14': [3884], 's_13_14': [2660]}</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0001428571428571428</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.001838736626315031</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>{0: [3371, 3372], 1: [3327, 2192], 2: [2342], 4: [2251], 6: [2266], 14: [2431], 15: [3386, 2297], 17: [2401, 3282], 3: [3312], 5: [2296, 3297], 7: [3401, 3402], 8: [2221], 10: [3342], 16: [2357], 11: [2327, 3357], 9: [3387], 13: [3343, 2372], 12: [2387]}</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0004629629629629629</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.005050329682701719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{0: [3371, 3372], 1: [3327, 2192], 2: [2342], 4: [2251], 6: [2266], 14: [2431], 15: [3386, 2297], 17: [2401, 3282], 3: [3312], 5: [2296, 3297], 7: [3401, 3402], 8: [2221], 10: [3342], 16: [2357], 11: [2327, 3357], 9: [3387], 13: [3343, 2372], 12: [2387]}</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0004629629629629629</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005050329682701719</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.542</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{0: [1473, 3473, 3472], 1: [3488, 3487, 1592, 1459, 1458], 's_0_1': [1412], 2: [1638, 1639], 's_0_2': [1623], 4: [3503, 1608, 1607], 's_0_4': [1562], 6: [3578, 1669, 3458, 1668], 's_0_6': [3457], 14: [3622], 's_0_14': [1443], 15: [1577, 1578], 's_0_15': [3592], 17: [3682, 1547, 1548, 3683], 's_0_17': [1532], 3: [1594, 3518, 1593], 's_1_3': [1517], 's_1_4': [3383], 5: [3757, 3758], 's_1_5': [1444], 's_1_6': [3489], 7: [1429, 3562, 1428], 's_1_7': [1488], 8: [3398], 's_1_8': [3413], 10: [1654, 3802, 3803], 's_1_10': [3787], 16: [3712, 1609, 3713], 's_1_16': [3697], 's_2_10': [3743], 11: [3637, 1697, 3638, 1698], 's_2_11': [1624], 's_2_16': [3788], 's_2_17': [3653], 's_4_3': [3668], 's_4_6': [3593], 's_4_11': [3504], 's_4_15': [3533], 's_4_17': [3428], 's_6_3': [3519], 's_6_5': [3773], 's_6_10': [3669], 's_6_15': [3623], 's_6_17': [3608], 9: [1368], 's_14_9': [3607], 13: [3577, 1518], 's_14_13': [1413], 's_15_7': [3547], 's_15_11': [3443], 's_17_9': [3667], 12: [1579, 3727], 's_17_12': [1474], 's_17_13': [1563], 's_3_16': [3863], 's_5_12': [1489], 's_5_16': [1564], 's_7_11': [3563], 's_7_12': [3772], 's_7_13': [3652], 's_7_16': [1414], 's_8_11': [1682], 's_10_11': [3699], 's_16_9': [1323, 3741], 's_13_12': [3698]}</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0002615384615384615</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.001988785124690284</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{0: [1473, 3473, 3472], 1: [3488, 3487, 1592, 1459, 1458], 's_0_1': [1412], 2: [1638, 1639], 's_0_2': [1623], 4: [3503, 1608, 1607], 's_0_4': [1562], 6: [3578, 1669, 3458, 1668], 's_0_6': [3457], 14: [3622], 's_0_14': [1443], 15: [1577, 1578], 's_0_15': [3592], 17: [3682, 1547, 1548, 3683], 's_0_17': [1532], 3: [1594, 3518, 1593], 's_1_3': [1517], 's_1_4': [3383], 5: [3757, 3758], 's_1_5': [1444], 's_1_6': [3489], 7: [1429, 3562, 1428], 's_1_7': [1488], 8: [3398], 's_1_8': [3413], 10: [1654, 3802, 3803], 's_1_10': [3787], 16: [3712, 1609, 3713], 's_1_16': [3697], 's_2_10': [3743], 11: [3637, 1697, 3638, 1698], 's_2_11': [1624], 's_2_16': [3788], 's_2_17': [3653], 's_4_3': [3668], 's_4_6': [3593], 's_4_11': [3504], 's_4_15': [3533], 's_4_17': [3428], 's_6_3': [3519], 's_6_5': [3773], 's_6_10': [3669], 's_6_15': [3623], 's_6_17': [3608], 9: [1368], 's_14_9': [3607], 13: [3577, 1518], 's_14_13': [1413], 's_15_7': [3547], 's_15_11': [3443], 's_17_9': [3667], 12: [1579, 3727], 's_17_12': [1474], 's_17_13': [1563], 's_3_16': [3863], 's_5_12': [1489], 's_5_16': [1564], 's_7_11': [3563], 's_7_12': [3772], 's_7_13': [3652], 's_7_16': [1414], 's_8_11': [1682], 's_10_11': [3699], 's_16_9': [1323, 3741], 's_13_12': [3698]}</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0002615384615384615</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.001988785124690284</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>{0: [1214], 6: [5570, 1139], 11: [5511], 16: [5525, 1153], 3: [5435, 1063], 4: [1184, 1183], 10: [5451, 5450], 13: [5571, 1259], 15: [5496], 7: [1198], 17: [1124], 9: [1168], 12: [1244, 5526], 18: [5390], 14: [5465, 5466], 1: [5481, 1274], 2: [5585, 5586], 8: [1289], 5: [5540]}</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0005280760429501848</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.00524543722082427</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{0: [1214], 6: [5570, 1139], 11: [5511], 16: [5525, 1153], 3: [5435, 1063], 4: [1184, 1183], 10: [5451, 5450], 13: [5571, 1259], 15: [5496], 7: [1198], 17: [1124], 9: [1168], 12: [1244, 5526], 18: [5390], 14: [5465, 5466], 1: [5481, 1274], 2: [5585, 5586], 8: [1289], 5: [5540]}</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0005280760429501848</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.00524543722082427</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>{0: [490, 4651, 489], 6: [354, 355, 4816], 's_0_6': [4801], 11: [4727, 323, 324, 4726], 's_0_11': [4712], 16: [4650, 4830, 250, 249], 's_0_16': [4922, 4921], 3: [338, 4591, 339], 's_6_3': [340], 4: [294, 4696, 4695], 's_6_4': [4681], 10: [4741, 4742, 415], 's_6_10': [429], 's_6_11': [400], 13: [370, 371], 's_6_13': [4861], 15: [235, 234, 384, 4606], 's_6_15': [4636], 7: [4470, 174, 173], 's_11_7': [4485], 's_11_13': [369, 4546], 's_11_15': [309], 's_11_16': [325], 17: [218, 4561, 219, 4620], 's_11_17': [308], 's_16_4': [114, 115, 4905], 's_16_7': [248], 9: [53, 54, 160, 4785, 55], 's_16_9': [4860], 's_16_10': [4831], 12: [4756, 385], 's_16_12': [4846, 4845], 's_16_15': [4771], 18: [278, 4800, 280, 279], 's_16_18': [4966], 's_3_10': [4592, 534], 14: [4590, 189], 's_3_14': [4575, 4576], 's_3_17': [4411], 's_3_18': [4501, 428], 1: [4740, 204, 205], 's_4_1': [159], 2: [4951, 265, 264, 4680], 's_4_2': [99], 's_4_7': [293], 's_4_14': [144], 's_4_18': [295], 's_10_1': [416, 5056, 206, 5055], 's_13_2': [4936], 's_13_12': [386], 's_15_17': [233], 's_15_12': [220], 8: [4530], 's_15_8': [4531], 's_7_1': [4605], 5: [4410], 's_7_5': [158], 's_7_18': [175], 's_17_1': [4350, 203], 's_17_2': [129, 128, 4560], 's_17_14': [4545], 's_9_1': [190], 's_9_5': [4425], 's_9_18': [4815, 310], 's_12_2': [4876, 4875], 's_1_2': [4710], 's_1_14': [4665], 's_14_8': [113]}</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0003235294117647059</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.002157107829212812</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{0: [490, 4651, 489], 6: [354, 355, 4816], 's_0_6': [4801], 11: [4727, 323, 324, 4726], 's_0_11': [4712], 16: [4650, 4830, 250, 249], 's_0_16': [4922, 4921], 3: [338, 4591, 339], 's_6_3': [340], 4: [294, 4696, 4695], 's_6_4': [4681], 10: [4741, 4742, 415], 's_6_10': [429], 's_6_11': [400], 13: [370, 371], 's_6_13': [4861], 15: [235, 234, 384, 4606], 's_6_15': [4636], 7: [4470, 174, 173], 's_11_7': [4485], 's_11_13': [369, 4546], 's_11_15': [309], 's_11_16': [325], 17: [218, 4561, 219, 4620], 's_11_17': [308], 's_16_4': [114, 115, 4905], 's_16_7': [248], 9: [53, 54, 160, 4785, 55], 's_16_9': [4860], 's_16_10': [4831], 12: [4756, 385], 's_16_12': [4846, 4845], 's_16_15': [4771], 18: [278, 4800, 280, 279], 's_16_18': [4966], 's_3_10': [4592, 534], 14: [4590, 189], 's_3_14': [4575, 4576], 's_3_17': [4411], 's_3_18': [4501, 428], 1: [4740, 204, 205], 's_4_1': [159], 2: [4951, 265, 264, 4680], 's_4_2': [99], 's_4_7': [293], 's_4_14': [144], 's_4_18': [295], 's_10_1': [416, 5056, 206, 5055], 's_13_2': [4936], 's_13_12': [386], 's_15_17': [233], 's_15_12': [220], 8: [4530], 's_15_8': [4531], 's_7_1': [4605], 5: [4410], 's_7_5': [158], 's_7_18': [175], 's_17_1': [4350, 203], 's_17_2': [129, 128, 4560], 's_17_14': [4545], 's_9_1': [190], 's_9_5': [4425], 's_9_18': [4815, 310], 's_12_2': [4876, 4875], 's_1_2': [4710], 's_1_14': [4665], 's_14_8': [113]}</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0003235294117647059</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.002157107829212812</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>{0: [3529, 812], 2: [3468, 3469], 6: [3423, 3424, 977], 7: [888, 3514], 11: [3453, 768, 767], 12: [3543, 797], 14: [3559, 873], 17: [842, 3408], 1: [3558, 782], 3: [887, 3484], 5: [827], 15: [948, 947], 18: [872, 3454], 4: [3334, 857], 9: [3409], 10: [3438, 692], 13: [3393, 3394], 19: [962, 3544], 16: [3439], 8: [932]}</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.002838427947598253</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.01156999240130285</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{0: [3529, 812], 2: [3468, 3469], 6: [3423, 3424, 977], 7: [888, 3514], 11: [3453, 768, 767], 12: [3543, 797], 14: [3559, 873], 17: [842, 3408], 1: [3558, 782], 3: [887, 3484], 5: [827], 15: [948, 947], 18: [872, 3454], 4: [3334, 857], 9: [3409], 10: [3438, 692], 13: [3393, 3394], 19: [962, 3544], 16: [3439], 8: [932]}</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0.002838427947598253</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01156999240130285</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.551</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{0: [5426, 5424, 5425], 2: [5590, 5320, 1964, 1963], 's_0_2': [1948], 6: [5485, 1932, 5364, 1933], 's_0_6': [1813], 7: [2067, 2068], 's_0_7': [5410], 11: [5501, 2053, 5230, 2052], 's_0_11': [2083], 12: [5441, 1903, 5440], 's_0_12': [2233], 14: [5290, 1858], 's_0_14': [5409], 17: [1979, 1978, 5351, 5350], 's_0_17': [2203], 1: [5455, 5394, 1918], 's_2_1': [5500], 3: [5515, 1888, 1887, 5214, 5215], 's_2_3': [1994], 5: [5574, 2039, 5575], 's_2_5': [1949], 's_2_12': [5470], 15: [5321, 2023], 's_2_15': [2024], 18: [2082, 1962, 5275, 5276], 's_2_18': [1917], 's_6_1': [1783], 4: [5365, 5185, 2112, 2113], 's_6_4': [5184], 9: [2232, 5201, 5200, 5199], 's_6_9': [1902], 10: [5381, 5379, 5380], 's_6_10': [1798], 13: [5486, 5156, 2157, 2158], 's_6_13': [5155], 's_6_14': [5335], 's_7_1': [5395], 's_7_3': [5516], 19: [5141, 5140, 1947, 5260], 's_7_19': [5245], 's_11_3': [2007], 's_11_4': [1992], 's_11_12': [2098], 's_11_13': [5231], 's_11_18': [5291], 's_12_1': [5456], 's_12_3': [5439], 's_12_5': [1904], 's_12_13': [2174], 's_12_17': [2128], 's_14_1': [1843], 's_14_18': [5305], 's_14_19': [1857], 's_17_3': [1977], 's_17_4': [2218, 5261], 's_17_5': [5560], 's_17_9': [2247], 's_17_10': [2293], 's_17_13': [5366], 16: [2008, 2009, 5546, 5545], 's_17_16': [5530], 's_1_5': [1919], 's_1_10': [1873], 's_3_9': [1797], 's_3_16': [5544], 's_5_13': [5576, 2159], 's_5_16': [2129], 8: [2144, 2142, 2143], 's_15_8': [5306], 's_15_13': [5336], 's_15_18': [2188], 's_15_19': [2022], 's_18_4': [5170], 's_18_9': [2097], 's_18_13': [5246], 's_18_16': [1993], 's_18_19': [2038], 's_4_16': [2114], 's_4_13': [2066], 's_9_8': [5216], 's_9_19': [2172], 's_10_16': [2263], 's_13_19': [2081], 's_16_8': [5531]}</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0001904761904761905</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.001493751156319821</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{0: [5426, 5424, 5425], 2: [5590, 5320, 1964, 1963], 's_0_2': [1948], 6: [5485, 1932, 5364, 1933], 's_0_6': [1813], 7: [2067, 2068], 's_0_7': [5410], 11: [5501, 2053, 5230, 2052], 's_0_11': [2083], 12: [5441, 1903, 5440], 's_0_12': [2233], 14: [5290, 1858], 's_0_14': [5409], 17: [1979, 1978, 5351, 5350], 's_0_17': [2203], 1: [5455, 5394, 1918], 's_2_1': [5500], 3: [5515, 1888, 1887, 5214, 5215], 's_2_3': [1994], 5: [5574, 2039, 5575], 's_2_5': [1949], 's_2_12': [5470], 15: [5321, 2023], 's_2_15': [2024], 18: [2082, 1962, 5275, 5276], 's_2_18': [1917], 's_6_1': [1783], 4: [5365, 5185, 2112, 2113], 's_6_4': [5184], 9: [2232, 5201, 5200, 5199], 's_6_9': [1902], 10: [5381, 5379, 5380], 's_6_10': [1798], 13: [5486, 5156, 2157, 2158], 's_6_13': [5155], 's_6_14': [5335], 's_7_1': [5395], 's_7_3': [5516], 19: [5141, 5140, 1947, 5260], 's_7_19': [5245], 's_11_3': [2007], 's_11_4': [1992], 's_11_12': [2098], 's_11_13': [5231], 's_11_18': [5291], 's_12_1': [5456], 's_12_3': [5439], 's_12_5': [1904], 's_12_13': [2174], 's_12_17': [2128], 's_14_1': [1843], 's_14_18': [5305], 's_14_19': [1857], 's_17_3': [1977], 's_17_4': [2218, 5261], 's_17_5': [5560], 's_17_9': [2247], 's_17_10': [2293], 's_17_13': [5366], 16: [2008, 2009, 5546, 5545], 's_17_16': [5530], 's_1_5': [1919], 's_1_10': [1873], 's_3_9': [1797], 's_3_16': [5544], 's_5_13': [5576, 2159], 's_5_16': [2129], 8: [2144, 2142, 2143], 's_15_8': [5306], 's_15_13': [5336], 's_15_18': [2188], 's_15_19': [2022], 's_18_4': [5170], 's_18_9': [2097], 's_18_13': [5246], 's_18_16': [1993], 's_18_19': [2038], 's_4_16': [2114], 's_4_13': [2066], 's_9_8': [5216], 's_9_19': [2172], 's_10_16': [2263], 's_13_19': [2081], 's_16_8': [5531]}</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0001904761904761905</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001493751156319821</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{0: [3346, 347], 2: [271], 5: [317, 3331], 6: [3451], 9: [348, 3526], 13: [3481, 257], 15: [302], 19: [213, 212], 20: [227, 3301], 16: [3540, 272], 3: [3390], 11: [3496], 14: [286, 287], 4: [378, 3511], 7: [228], 8: [256], 17: [3405], 12: [3375], 18: [3421], 1: [3420]}</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0007075471698113208</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.005905652842240054</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{0: [3346, 347], 2: [271], 5: [317, 3331], 6: [3451], 9: [348, 3526], 13: [3481, 257], 15: [302], 19: [213, 212], 20: [227, 3301], 16: [3540, 272], 3: [3390], 11: [3496], 14: [286, 287], 4: [378, 3511], 7: [228], 8: [256], 17: [3405], 12: [3375], 18: [3421], 1: [3420]}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0007075471698113208</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.005905652842240054</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{0: [4502, 4788, 624, 623], 2: [4743], 's_0_2': [730], 5: [743, 4608, 744], 's_0_5': [4563], 6: [4517, 578, 579], 's_0_6': [473], 9: [534, 533], 's_0_9': [4487], 13: [4683, 564, 4682], 's_0_13': [563], 15: [653, 550, 549, 4637], 's_0_15': [4787], 19: [4547, 775, 774, 4548], 's_0_19': [4789], 20: [699, 4622, 4623], 's_0_20': [700], 16: [608, 4802, 609], 's_2_16': [595], 's_2_20': [849, 4744], 3: [4503], 's_5_3': [728], 's_5_6': [4383], 11: [4698, 4697], 's_5_11': [594], 14: [4757, 580, 669, 4758], 's_5_14': [745], 's_5_19': [4609], 's_5_20': [638], 4: [518, 4532], 's_6_4': [4442], 's_6_15': [548], 's_6_16': [4578], 's_9_4': [4457], 7: [519, 4652], 's_9_7': [4667], 's_9_14': [4742], 's_13_4': [4562], 8: [4653, 714], 's_13_8': [804], 's_13_11': [489], 's_13_15': [4577], 17: [4727, 565], 's_13_17': [504], 's_15_3': [4518], 12: [4533, 759], 's_15_12': [4638], 's_15_17': [4712], 18: [4848, 4847], 's_15_18': [4832], 1: [760], 's_19_1': [4759], 's_19_4': [488], 's_19_12': [683], 's_19_16': [4803], 's_20_7': [684], 's_20_8': [4593], 's_20_12': [803], 's_20_14': [4713], 's_16_4': [4472], 's_16_7': [654], 's_16_11': [4801, 459], 's_16_14': [670], 's_16_17': [4817], 's_14_18': [520, 4877], 's_14_17': [4862], 's_8_12': [729], 's_18_1': [4833]}</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0001911764705882353</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.001665794177626556</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{0: [4502, 4788, 624, 623], 2: [4743], 's_0_2': [730], 5: [743, 4608, 744], 's_0_5': [4563], 6: [4517, 578, 579], 's_0_6': [473], 9: [534, 533], 's_0_9': [4487], 13: [4683, 564, 4682], 's_0_13': [563], 15: [653, 550, 549, 4637], 's_0_15': [4787], 19: [4547, 775, 774, 4548], 's_0_19': [4789], 20: [699, 4622, 4623], 's_0_20': [700], 16: [608, 4802, 609], 's_2_16': [595], 's_2_20': [849, 4744], 3: [4503], 's_5_3': [728], 's_5_6': [4383], 11: [4698, 4697], 's_5_11': [594], 14: [4757, 580, 669, 4758], 's_5_14': [745], 's_5_19': [4609], 's_5_20': [638], 4: [518, 4532], 's_6_4': [4442], 's_6_15': [548], 's_6_16': [4578], 's_9_4': [4457], 7: [519, 4652], 's_9_7': [4667], 's_9_14': [4742], 's_13_4': [4562], 8: [4653, 714], 's_13_8': [804], 's_13_11': [489], 's_13_15': [4577], 17: [4727, 565], 's_13_17': [504], 's_15_3': [4518], 12: [4533, 759], 's_15_12': [4638], 's_15_17': [4712], 18: [4848, 4847], 's_15_18': [4832], 1: [760], 's_19_1': [4759], 's_19_4': [488], 's_19_12': [683], 's_19_16': [4803], 's_20_7': [684], 's_20_8': [4593], 's_20_12': [803], 's_20_14': [4713], 's_16_4': [4472], 's_16_7': [654], 's_16_11': [4801, 459], 's_16_14': [670], 's_16_17': [4817], 's_14_18': [520, 4877], 's_14_17': [4862], 's_8_12': [729], 's_18_1': [4833]}</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0001911764705882353</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.001665794177626556</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{0: [1514, 5557], 3: [1589], 8: [5632], 10: [1574], 17: [5588, 1544], 2: [5618], 4: [5542], 9: [5603], 11: [5527, 5528], 16: [5513], 18: [5633], 6: [1559], 13: [5648], 14: [1649], 12: [1754, 5619], 1: [5468, 1558], 20: [5543, 1619], 5: [1634], 19: [5498, 1604], 21: [1694, 1693], 7: [5514, 1708], 15: [1709, 5573]}</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.00067842605156038</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.005511559297582062</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{0: [1514, 5557], 3: [1589], 8: [5632], 10: [1574], 17: [5588, 1544], 2: [5618], 4: [5542], 9: [5603], 11: [5527, 5528], 16: [5513], 18: [5633], 6: [1559], 13: [5648], 14: [1649], 12: [1754, 5619], 1: [5468, 1558], 20: [5543, 1619], 5: [1634], 19: [5498, 1604], 21: [1694, 1693], 7: [5514, 1708], 15: [1709, 5573]}</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.00067842605156038</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.005511559297582062</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.239</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{0: [3295, 1921], 3: [3084, 3188, 3189, 1875], 's_0_3': [3160], 8: [3175], 's_0_8': [1966], 10: [1936, 1786, 3219], 's_0_10': [3280], 17: [3265, 1891], 's_0_17': [3325], 2: [3444, 1817, 3249, 1816], 's_3_2': [1831], 4: [1785, 3009], 's_3_4': [1845], 9: [3263, 3264, 1725, 1726], 's_3_9': [1846], 11: [1622, 3038, 1620, 1621], 's_3_11': [1636], 16: [1561, 3293, 1651, 1652], 's_3_16': [3187], 18: [1801, 3100, 1860, 3099], 's_3_18': [3130], 's_8_18': [1981], 's_10_2': [1787], 's_10_4': [1935], 's_10_9': [3294], 6: [1876, 3234], 's_17_6': [3340], 13: [3382, 3384, 3383], 's_17_13': [1906], 14: [2056, 1740, 3069, 3070, 2055], 's_17_14': [3250], 's_2_6': [1861], 12: [3398, 1727], 's_2_12': [3429], 's_2_18': [1802], 1: [1770, 3204, 1771], 's_4_1': [3024], 20: [3114, 1546, 3115, 1545, 3113], 's_4_20': [3010, 1965], 5: [3203, 1756], 's_9_5': [1741], 's_9_6': [3233], 19: [1710, 3310, 3309, 1711], 's_9_19': [1696], 's_9_20': [3248], 21: [3054, 3053], 's_9_21': [3052, 1576, 1575], 's_11_14': [1815, 3039], 's_11_12': [3413], 7: [1650, 1605, 3068], 's_11_7': [3143], 's_11_19': [3368], 's_11_21': [1665], 's_16_5': [3202], 's_16_7': [1606], 's_16_19': [1681], 's_18_6': [3235, 2011], 15: [1755, 1590, 3023], 's_18_15': [3098], 's_18_19': [1997, 1996], 's_18_20': [2026], 's_18_21': [1800], 's_6_1': [3279], 's_6_13': [3369], 's_13_20': [3367], 's_14_1': [1890], 's_14_15': [2979], 's_14_19': [3311, 2116], 's_1_5': [3324], 's_5_19': [3218], 's_20_7': [3128], 's_20_15': [3022, 1560], 's_20_19': [3308], 's_15_7': [2978], 's_21_7': [1635]}</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0002666666666666667</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.001959591794226543</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{0: [3295, 1921], 3: [3084, 3188, 3189, 1875], 's_0_3': [3160], 8: [3175], 's_0_8': [1966], 10: [1936, 1786, 3219], 's_0_10': [3280], 17: [3265, 1891], 's_0_17': [3325], 2: [3444, 1817, 3249, 1816], 's_3_2': [1831], 4: [1785, 3009], 's_3_4': [1845], 9: [3263, 3264, 1725, 1726], 's_3_9': [1846], 11: [1622, 3038, 1620, 1621], 's_3_11': [1636], 16: [1561, 3293, 1651, 1652], 's_3_16': [3187], 18: [1801, 3100, 1860, 3099], 's_3_18': [3130], 's_8_18': [1981], 's_10_2': [1787], 's_10_4': [1935], 's_10_9': [3294], 6: [1876, 3234], 's_17_6': [3340], 13: [3382, 3384, 3383], 's_17_13': [1906], 14: [2056, 1740, 3069, 3070, 2055], 's_17_14': [3250], 's_2_6': [1861], 12: [3398, 1727], 's_2_12': [3429], 's_2_18': [1802], 1: [1770, 3204, 1771], 's_4_1': [3024], 20: [3114, 1546, 3115, 1545, 3113], 's_4_20': [3010, 1965], 5: [3203, 1756], 's_9_5': [1741], 's_9_6': [3233], 19: [1710, 3310, 3309, 1711], 's_9_19': [1696], 's_9_20': [3248], 21: [3054, 3053], 's_9_21': [3052, 1576, 1575], 's_11_14': [1815, 3039], 's_11_12': [3413], 7: [1650, 1605, 3068], 's_11_7': [3143], 's_11_19': [3368], 's_11_21': [1665], 's_16_5': [3202], 's_16_7': [1606], 's_16_19': [1681], 's_18_6': [3235, 2011], 15: [1755, 1590, 3023], 's_18_15': [3098], 's_18_19': [1997, 1996], 's_18_20': [2026], 's_18_21': [1800], 's_6_1': [3279], 's_6_13': [3369], 's_13_20': [3367], 's_14_1': [1890], 's_14_15': [2979], 's_14_19': [3311, 2116], 's_1_5': [3324], 's_5_19': [3218], 's_20_7': [3128], 's_20_15': [3022, 1560], 's_20_19': [3308], 's_15_7': [2978], 's_21_7': [1635]}</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0002666666666666667</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.001959591794226543</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{0: [4916, 2080], 3: [4931, 2036], 6: [5021, 2216], 7: [2021, 5005], 10: [4977, 4976], 21: [2201, 5065, 5066], 1: [5020, 2066], 2: [2186, 2187], 12: [5036, 2171], 16: [4961], 5: [2246, 5006, 2245], 9: [2096, 4901, 2095], 13: [2156, 5126], 8: [2111], 11: [5081, 2126], 19: [5051, 5050], 17: [2081], 18: [4990, 1961], 20: [5111, 2141], 15: [2051], 22: [5156, 2172], 4: [5171, 2231], 14: [5096]}</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.002447837743326727</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01051531228473613</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{0: [4916, 2080], 3: [4931, 2036], 6: [5021, 2216], 7: [2021, 5005], 10: [4977, 4976], 21: [2201, 5065, 5066], 1: [5020, 2066], 2: [2186, 2187], 12: [5036, 2171], 16: [4961], 5: [2246, 5006, 2245], 9: [2096, 4901, 2095], 13: [2156, 5126], 8: [2111], 11: [5081, 2126], 19: [5051, 5050], 17: [2081], 18: [4990, 1961], 20: [5111, 2141], 15: [2051], 22: [5156, 2172], 4: [5171, 2231], 14: [5096]}</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0.002447837743326727</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01051531228473613</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.489</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>{0: [5380, 1888, 5379, 5305, 1843], 3: [5453, 1859, 5454], 's_0_3': [1858], 6: [2068, 5395], 's_0_6': [2053], 7: [5319, 5244, 1737, 1738, 5439], 's_0_7': [1887], 10: [5500, 2007, 2009, 2008], 's_0_10': [1844], 21: [1782, 5273, 5275, 5274], 's_0_21': [2038], 1: [5543, 1634, 1633, 1632, 5153], 's_3_1': [5544], 2: [5530, 1902, 5528, 5529, 1903], 's_3_2': [1873], 's_3_7': [1814], 12: [1784, 1603, 5363, 1783, 5365, 5364], 's_3_12': [1753], 16: [5394, 1829, 1828], 's_3_16': [1798], 5: [1963, 5321, 5320], 's_6_5': [2113], 9: [5410, 1947, 1949, 1948], 's_6_9': [5455], 's_6_10': [2083, 5501], 13: [5588, 5589, 5590, 1993, 1994], 's_6_13': [2069], 's_7_1': [5348], 's_7_5': [5424, 5425], 8: [5514, 1724, 1723], 's_7_8': [1768, 1769], 11: [2022, 5213, 5214, 2067, 5215], 's_7_11': [1872], 's_7_16': [5304], 19: [5393, 1707, 1708], 's_7_19': [5289], 's_7_21': [1678], 's_10_2': [5470], 's_10_11': [1992], 's_10_12': [5499], 's_10_13': [5545], 's_10_21': [5260], 's_21_2': [1917], 's_21_9': [1932], 's_21_11': [1962], 17: [1572, 1574, 1573], 's_21_17': [1587], 18: [5169, 1827, 1662, 5154], 's_21_18': [1797], 's_21_19': [5258], 20: [1978, 5335, 1557, 5333, 5334], 's_21_20': [1542], 's_1_8': [1664], 's_1_11': [1602], 's_1_13': [1619], 15: [1498, 5318, 1648], 's_1_15': [5408], 's_1_17': [5138], 's_1_18': [5183], 's_1_20': [1556], 22: [5575, 5574, 5573, 1528, 1649, 5468], 's_1_22': [5603], 's_2_11': [2097, 2098], 's_2_13': [1904], 's_2_20': [1979], 's_2_22': [5527], 's_2_12': [1604], 's_2_16': [1918], 's_12_13': [1799], 's_12_20': [1663], 's_12_22': [5469], 4: [5438], 's_12_4': [1618], 's_12_5': [2052], 's_12_9': [5409], 's_16_8': [5604], 's_16_20': [1813], 's_16_9': [1933], 's_5_11': [2082], 's_5_13': [5440], 14: [5336, 2023, 2024], 's_5_14': [2188], 's_9_13': [5515], 's_9_18': [5199], 's_9_14': [5605], 's_13_8': [1739], 's_13_17': [1589], 's_13_20': [5485], 's_13_22': [1484, 5587], 's_8_19': [5484], 's_11_14': [5291], 's_11_19': [5198], 's_19_15': [5423], 's_19_4': [1693], 's_17_20': [5243], 's_17_22': [5498], 's_20_15': [1483], 's_20_14': [5350], 's_15_22': [1499], 's_22_4': [5437], 's_22_14': [5560, 5559, 5558]}</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0003366336633663367</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001848173031551287</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{0: [5380, 1888, 5379, 5305, 1843], 3: [5453, 1859, 5454], 's_0_3': [1858], 6: [2068, 5395], 's_0_6': [2053], 7: [5319, 5244, 1737, 1738, 5439], 's_0_7': [1887], 10: [5500, 2007, 2009, 2008], 's_0_10': [1844], 21: [1782, 5273, 5275, 5274], 's_0_21': [2038], 1: [5543, 1634, 1633, 1632, 5153], 's_3_1': [5544], 2: [5530, 1902, 5528, 5529, 1903], 's_3_2': [1873], 's_3_7': [1814], 12: [1784, 1603, 5363, 1783, 5365, 5364], 's_3_12': [1753], 16: [5394, 1829, 1828], 's_3_16': [1798], 5: [1963, 5321, 5320], 's_6_5': [2113], 9: [5410, 1947, 1949, 1948], 's_6_9': [5455], 's_6_10': [2083, 5501], 13: [5588, 5589, 5590, 1993, 1994], 's_6_13': [2069], 's_7_1': [5348], 's_7_5': [5424, 5425], 8: [5514, 1724, 1723], 's_7_8': [1768, 1769], 11: [2022, 5213, 5214, 2067, 5215], 's_7_11': [1872], 's_7_16': [5304], 19: [5393, 1707, 1708], 's_7_19': [5289], 's_7_21': [1678], 's_10_2': [5470], 's_10_11': [1992], 's_10_12': [5499], 's_10_13': [5545], 's_10_21': [5260], 's_21_2': [1917], 's_21_9': [1932], 's_21_11': [1962], 17: [1572, 1574, 1573], 's_21_17': [1587], 18: [5169, 1827, 1662, 5154], 's_21_18': [1797], 's_21_19': [5258], 20: [1978, 5335, 1557, 5333, 5334], 's_21_20': [1542], 's_1_8': [1664], 's_1_11': [1602], 's_1_13': [1619], 15: [1498, 5318, 1648], 's_1_15': [5408], 's_1_17': [5138], 's_1_18': [5183], 's_1_20': [1556], 22: [5575, 5574, 5573, 1528, 1649, 5468], 's_1_22': [5603], 's_2_11': [2097, 2098], 's_2_13': [1904], 's_2_20': [1979], 's_2_22': [5527], 's_2_12': [1604], 's_2_16': [1918], 's_12_13': [1799], 's_12_20': [1663], 's_12_22': [5469], 4: [5438], 's_12_4': [1618], 's_12_5': [2052], 's_12_9': [5409], 's_16_8': [5604], 's_16_20': [1813], 's_16_9': [1933], 's_5_11': [2082], 's_5_13': [5440], 14: [5336, 2023, 2024], 's_5_14': [2188], 's_9_13': [5515], 's_9_18': [5199], 's_9_14': [5605], 's_13_8': [1739], 's_13_17': [1589], 's_13_20': [5485], 's_13_22': [1484, 5587], 's_8_19': [5484], 's_11_14': [5291], 's_11_19': [5198], 's_19_15': [5423], 's_19_4': [1693], 's_17_20': [5243], 's_17_22': [5498], 's_20_15': [1483], 's_20_14': [5350], 's_15_22': [1499], 's_22_4': [5437], 's_22_14': [5560, 5559, 5558]}</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0003366336633663367</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.001848173031551287</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{0: [921, 4069], 4: [4129], 9: [4145, 4144], 17: [4159], 18: [4070, 1026], 20: [4114, 876], 23: [4099, 891], 14: [936], 8: [1041], 22: [981], 2: [4175, 4174, 816], 3: [951], 7: [4264, 966], 5: [4205, 937], 11: [4189, 4190], 15: [952, 4220], 13: [1011], 16: [4279, 877], 19: [996], 21: [4084], 6: [892, 4235, 4234], 10: [1087], 1: [4265, 1102], 12: [4250]}</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.002353266888150609</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01020051684769687</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{0: [921, 4069], 4: [4129], 9: [4145, 4144], 17: [4159], 18: [4070, 1026], 20: [4114, 876], 23: [4099, 891], 14: [936], 8: [1041], 22: [981], 2: [4175, 4174, 816], 3: [951], 7: [4264, 966], 5: [4205, 937], 11: [4189, 4190], 15: [952, 4220], 13: [1011], 16: [4279, 877], 19: [996], 21: [4084], 6: [892, 4235, 4234], 10: [1087], 1: [4265, 1102], 12: [4250]}</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.002353266888150609</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01020051684769687</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{0: [3793, 3792], 4: [2464, 2463], 's_0_4': [2479], 9: [3747, 2315, 3807, 2314], 's_0_9': [2254], 17: [2388, 2389, 2390, 3972, 2420], 's_0_17': [2374], 18: [2344, 2614, 2613, 3733, 3732], 's_0_18': [2509], 20: [3614, 2451, 2450, 2449, 3613, 2448], 's_0_20': [2434], 23: [3809, 3869, 3808, 2583, 2584], 's_0_23': [2524], 14: [2493, 2539, 3658], 's_4_14': [3718], 's_4_18': [3673, 3672], 8: [3914, 3912, 3913], 's_9_8': [2330], 's_9_17': [4002], 's_9_18': [3702], 's_9_20': [3762], 22: [3943, 3942], 's_9_22': [3957], 's_9_23': [3748], 2: [3898, 3899, 2690], 's_17_2': [2375, 3987], 3: [3597, 3598, 3599], 's_17_3': [3582], 7: [2630, 4063, 2691, 4064], 's_17_7': [4078], 's_17_22': [2360], 's_18_3': [2673, 3644], 5: [2600, 3778, 2599], 's_18_5': [2629], 's_18_8': [2345], 11: [2720, 3794, 2704, 2705], 's_18_11': [3659], 's_18_14': [2569, 3674], 15: [2495, 3928, 2661, 2660, 2659, 2658], 's_18_15': [3719], 's_18_23': [3839, 3838], 's_20_2': [3883], 's_20_3': [2568], 's_20_7': [2435], 's_20_8': [3927], 13: [4168, 4213, 2466], 's_20_13': [4122], 's_20_14': [2538], 16: [4003], 's_20_16': [4018], 19: [4048, 2526], 's_20_19': [4153], 21: [2748, 2749], 's_20_21': [2733], 's_20_23': [3628], 's_23_2': [2689], 6: [4094, 2571, 2570, 2511, 4093], 's_23_6': [3884], 's_23_11': [3823, 3824], 's_23_14': [3643], 's_23_21': [2734], 's_14_3': [2508], 's_14_5': [2598], 's_8_15': [2540], 's_8_2': [2419], 's_22_6': [2555], 's_22_7': [2615], 's_22_5': [2585], 's_2_6': [2510], 's_2_7': [4019], 's_2_11': [3959], 10: [4049, 2706, 2646, 4079], 's_2_10': [2645], 's_3_15': [2643], 's_3_21': [3584], 1: [2781, 3974, 2780], 's_7_1': [4169], 's_7_5': [3958], 12: [4183, 4184], 's_7_12': [2631], 's_7_13': [2481], 's_7_15': [4199], 's_5_6': [4034], 's_5_15': [3854], 's_11_1': [3944], 's_11_10': [2721], 's_15_1': [3973], 's_15_6': [4123], 's_15_10': [4154], 's_15_16': [4004], 's_15_19': [2525], 's_13_6': [4092], 's_13_12': [2542], 's_13_19': [2527], 's_16_6': [2556], 's_16_19': [2541], 's_19_6': [4138], 's_6_1': [2765], 's_6_10': [4108], 's_6_12': [2496], 's_1_12': [2766], 's_12_10': [2707]}</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0001470588235294118</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.001191690762857178</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{0: [3793, 3792], 4: [2464, 2463], 's_0_4': [2479], 9: [3747, 2315, 3807, 2314], 's_0_9': [2254], 17: [2388, 2389, 2390, 3972, 2420], 's_0_17': [2374], 18: [2344, 2614, 2613, 3733, 3732], 's_0_18': [2509], 20: [3614, 2451, 2450, 2449, 3613, 2448], 's_0_20': [2434], 23: [3809, 3869, 3808, 2583, 2584], 's_0_23': [2524], 14: [2493, 2539, 3658], 's_4_14': [3718], 's_4_18': [3673, 3672], 8: [3914, 3912, 3913], 's_9_8': [2330], 's_9_17': [4002], 's_9_18': [3702], 's_9_20': [3762], 22: [3943, 3942], 's_9_22': [3957], 's_9_23': [3748], 2: [3898, 3899, 2690], 's_17_2': [2375, 3987], 3: [3597, 3598, 3599], 's_17_3': [3582], 7: [2630, 4063, 2691, 4064], 's_17_7': [4078], 's_17_22': [2360], 's_18_3': [2673, 3644], 5: [2600, 3778, 2599], 's_18_5': [2629], 's_18_8': [2345], 11: [2720, 3794, 2704, 2705], 's_18_11': [3659], 's_18_14': [2569, 3674], 15: [2495, 3928, 2661, 2660, 2659, 2658], 's_18_15': [3719], 's_18_23': [3839, 3838], 's_20_2': [3883], 's_20_3': [2568], 's_20_7': [2435], 's_20_8': [3927], 13: [4168, 4213, 2466], 's_20_13': [4122], 's_20_14': [2538], 16: [4003], 's_20_16': [4018], 19: [4048, 2526], 's_20_19': [4153], 21: [2748, 2749], 's_20_21': [2733], 's_20_23': [3628], 's_23_2': [2689], 6: [4094, 2571, 2570, 2511, 4093], 's_23_6': [3884], 's_23_11': [3823, 3824], 's_23_14': [3643], 's_23_21': [2734], 's_14_3': [2508], 's_14_5': [2598], 's_8_15': [2540], 's_8_2': [2419], 's_22_6': [2555], 's_22_7': [2615], 's_22_5': [2585], 's_2_6': [2510], 's_2_7': [4019], 's_2_11': [3959], 10: [4049, 2706, 2646, 4079], 's_2_10': [2645], 's_3_15': [2643], 's_3_21': [3584], 1: [2781, 3974, 2780], 's_7_1': [4169], 's_7_5': [3958], 12: [4183, 4184], 's_7_12': [2631], 's_7_13': [2481], 's_7_15': [4199], 's_5_6': [4034], 's_5_15': [3854], 's_11_1': [3944], 's_11_10': [2721], 's_15_1': [3973], 's_15_6': [4123], 's_15_10': [4154], 's_15_16': [4004], 's_15_19': [2525], 's_13_6': [4092], 's_13_12': [2542], 's_13_19': [2527], 's_16_6': [2556], 's_16_19': [2541], 's_19_6': [4138], 's_6_1': [2765], 's_6_10': [4108], 's_6_12': [2496], 's_1_12': [2766], 's_12_10': [2707]}</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0001470588235294118</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.001191690762857178</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{0: [463, 5536], 8: [5462], 9: [628, 5537], 15: [613, 5447], 18: [419], 22: [5431, 5432], 23: [448, 5507], 24: [5521, 5522], 4: [5402, 508], 7: [374, 5461], 12: [554], 16: [538], 21: [478, 5477], 3: [5417], 6: [674], 13: [5508], 17: [5493], 19: [568, 569], 20: [539], 1: [404, 5446], 10: [524, 523], 2: [5492, 493, 494], 11: [5552, 5551], 14: [509], 5: [5327]}</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002730923694779117</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01008855805179604</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{0: [463, 5536], 8: [5462], 9: [628, 5537], 15: [613, 5447], 18: [419], 22: [5431, 5432], 23: [448, 5507], 24: [5521, 5522], 4: [5402, 508], 7: [374, 5461], 12: [554], 16: [538], 21: [478, 5477], 3: [5417], 6: [674], 13: [5508], 17: [5493], 19: [568, 569], 20: [539], 1: [404, 5446], 10: [524, 523], 2: [5492, 493, 494], 11: [5552, 5551], 14: [509], 5: [5327]}</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0.002730923694779117</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.01008855805179604</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{0: [4163, 3832, 3833, 1625, 1626], 8: [3998, 3997, 1399, 1400], 's_0_8': [1384], 9: [4267, 4239, 1536, 4238], 's_0_9': [1627], 15: [1551, 3951, 1549, 3952, 1550], 's_0_15': [3863], 18: [4101, 4103, 4102], 's_0_18': [4088], 22: [1566, 4147, 4148], 's_0_22': [1701], 23: [3983, 3982, 4073, 4072, 1370], 's_0_23': [1640], 24: [4177, 1431, 1429, 1430], 's_0_24': [3817], 4: [3787, 1520, 1519], 's_8_4': [3967], 7: [3996], 's_8_7': [3921, 1250], 12: [1656, 1385, 4012, 4133, 4013], 's_8_12': [3892], 16: [1445, 3848, 3847], 's_8_16': [3862], 21: [4058, 1684, 1685, 4059], 's_8_21': [1671], 's_8_23': [3936], 3: [1716, 3907, 3908, 1715, 1714], 's_9_3': [1731], 6: [4297, 1462], 's_9_6': [4237], 13: [1596, 1597], 's_9_13': [1612], 's_9_15': [4193], 17: [4358, 1582], 's_9_17': [1537], 19: [4207, 4209, 1611, 4208], 's_9_19': [1672], 20: [1492, 4192], 's_9_20': [1477], 's_9_22': [4178], 1: [1355, 1461, 4057], 's_15_1': [4087], 's_15_3': [3953], 10: [1444, 1505, 3802, 1504], 's_15_10': [4043], 's_15_12': [1415], 's_15_16': [1295], 's_15_21': [3818], 's_15_24': [3922], 's_18_1': [4086], 2: [1474, 4117, 1476, 1475, 3937], 's_18_2': [1535], 11: [1296, 1447, 1446, 4042], 's_18_11': [1325], 's_18_21': [1730], 's_18_22': [1401], 's_22_1': [4162], 's_22_2': [1521], 's_22_12': [1386], 's_22_19': [4223], 's_22_21': [1491], 's_22_23': [1641], 's_23_1': [1340], 's_23_2': [1490], 's_23_10': [1369], 's_23_12': [4074], 's_23_13': [1595], 's_23_19': [1371], 's_23_21': [3968], 's_24_6': [1432], 's_24_10': [3727], 's_24_12': [3877], 14: [3772], 's_24_14': [3757], 's_24_20': [1416], 's_4_2': [1489], 's_4_3': [3879, 3878], 's_4_10': [1414], 's_4_14': [1459], 's_4_21': [3788], 's_7_11': [4011], 's_12_11': [4027], 's_12_21': [4029], 's_12_19': [1746], 's_16_3': [1534], 5: [3698, 1579], 's_16_5': [1564], 's_21_2': [3938], 's_21_3': [4044], 's_21_10': [3803], 's_21_19': [1791], 's_3_2': [1565], 's_3_19': [4224], 's_6_11': [4282], 's_6_17': [1552], 's_13_17': [4328], 's_19_11': [1297], 's_20_11': [4342], 's_1_2': [1460], 's_1_11': [1311], 's_10_2': [3637], 's_2_5': [3713], 's_2_11': [4116]}</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0001941747572815534</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.001359223300970874</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{0: [4163, 3832, 3833, 1625, 1626], 8: [3998, 3997, 1399, 1400], 's_0_8': [1384], 9: [4267, 4239, 1536, 4238], 's_0_9': [1627], 15: [1551, 3951, 1549, 3952, 1550], 's_0_15': [3863], 18: [4101, 4103, 4102], 's_0_18': [4088], 22: [1566, 4147, 4148], 's_0_22': [1701], 23: [3983, 3982, 4073, 4072, 1370], 's_0_23': [1640], 24: [4177, 1431, 1429, 1430], 's_0_24': [3817], 4: [3787, 1520, 1519], 's_8_4': [3967], 7: [3996], 's_8_7': [3921, 1250], 12: [1656, 1385, 4012, 4133, 4013], 's_8_12': [3892], 16: [1445, 3848, 3847], 's_8_16': [3862], 21: [4058, 1684, 1685, 4059], 's_8_21': [1671], 's_8_23': [3936], 3: [1716, 3907, 3908, 1715, 1714], 's_9_3': [1731], 6: [4297, 1462], 's_9_6': [4237], 13: [1596, 1597], 's_9_13': [1612], 's_9_15': [4193], 17: [4358, 1582], 's_9_17': [1537], 19: [4207, 4209, 1611, 4208], 's_9_19': [1672], 20: [1492, 4192], 's_9_20': [1477], 's_9_22': [4178], 1: [1355, 1461, 4057], 's_15_1': [4087], 's_15_3': [3953], 10: [1444, 1505, 3802, 1504], 's_15_10': [4043], 's_15_12': [1415], 's_15_16': [1295], 's_15_21': [3818], 's_15_24': [3922], 's_18_1': [4086], 2: [1474, 4117, 1476, 1475, 3937], 's_18_2': [1535], 11: [1296, 1447, 1446, 4042], 's_18_11': [1325], 's_18_21': [1730], 's_18_22': [1401], 's_22_1': [4162], 's_22_2': [1521], 's_22_12': [1386], 's_22_19': [4223], 's_22_21': [1491], 's_22_23': [1641], 's_23_1': [1340], 's_23_2': [1490], 's_23_10': [1369], 's_23_12': [4074], 's_23_13': [1595], 's_23_19': [1371], 's_23_21': [3968], 's_24_6': [1432], 's_24_10': [3727], 's_24_12': [3877], 14: [3772], 's_24_14': [3757], 's_24_20': [1416], 's_4_2': [1489], 's_4_3': [3879, 3878], 's_4_10': [1414], 's_4_14': [1459], 's_4_21': [3788], 's_7_11': [4011], 's_12_11': [4027], 's_12_21': [4029], 's_12_19': [1746], 's_16_3': [1534], 5: [3698, 1579], 's_16_5': [1564], 's_21_2': [3938], 's_21_3': [4044], 's_21_10': [3803], 's_21_19': [1791], 's_3_2': [1565], 's_3_19': [4224], 's_6_11': [4282], 's_6_17': [1552], 's_13_17': [4328], 's_19_11': [1297], 's_20_11': [4342], 's_1_2': [1460], 's_1_11': [1311], 's_10_2': [3637], 's_2_5': [3713], 's_2_11': [4116]}</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0001941747572815534</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.001359223300970874</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{0: [3233, 3158, 1621], 4: [1456, 3232], 7: [1530], 9: [1576], 10: [3113, 1605], 11: [3128], 14: [1636, 3143], 5: [3097, 1395], 8: [3037, 1455], 15: [1515, 3187], 21: [3127], 22: [1561, 3173], 23: [1485, 1486], 25: [1471, 1470], 2: [3068, 3067], 17: [3052], 3: [3202, 1545], 18: [3217], 12: [1560], 16: [1380, 2978, 2977], 1: [1500], 6: [3022, 1410], 20: [1426, 1425], 13: [3112, 1441], 24: [3142], 19: [1440, 3082]}</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0007057163020465773</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.005161869738294917</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{0: [3233, 3158, 1621], 4: [1456, 3232], 7: [1530], 9: [1576], 10: [3113, 1605], 11: [3128], 14: [1636, 3143], 5: [3097, 1395], 8: [3037, 1455], 15: [1515, 3187], 21: [3127], 22: [1561, 3173], 23: [1485, 1486], 25: [1471, 1470], 2: [3068, 3067], 17: [3052], 3: [3202, 1545], 18: [3217], 12: [1560], 16: [1380, 2978, 2977], 1: [1500], 6: [3022, 1410], 20: [1426, 1425], 13: [3112, 1441], 24: [3142], 19: [1440, 3082]}</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0007057163020465773</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.005161869738294917</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{0: [1644, 4688, 1869, 4689], 4: [4733, 1614, 1613, 4463, 4464], 's_0_4': [4613], 7: [1538, 4553, 4555, 4554], 's_0_7': [1539], 9: [4764, 1793, 1794], 's_0_9': [1779], 10: [1943, 4765, 4629, 1944], 's_0_10': [4690], 11: [1479, 4538, 4537], 's_0_11': [4687], 14: [4449, 4359, 1839, 1838], 's_0_14': [4659], 5: [4493, 1568, 4492], 's_4_5': [4568], 8: [1972, 1717, 4374, 4375], 's_4_8': [1853], 's_4_9': [1778], 15: [1823, 4389, 4388, 1509, 1508, 1507], 's_4_15': [4418], 21: [4853, 1660, 1658, 4523, 1659], 's_4_21': [1645], 22: [1810, 4494, 1808, 1809], 's_4_22': [1928], 23: [4734, 4719, 1854, 1855], 's_4_23': [4718], 25: [4643, 4657, 1599, 4658], 's_4_25': [1584], 2: [1974, 4583, 4584, 1973, 4585], 's_7_2': [1898], 's_7_10': [4705, 2019], 's_7_11': [4642], 17: [4433, 1762, 1763, 4434], 's_7_17': [1537], 3: [4419, 1748, 4524, 1884, 1883], 's_9_3': [4809, 1795], 18: [4794, 1719], 's_9_18': [4749], 's_9_22': [1825], 's_10_2': [4735], 's_10_3': [4525], 12: [1868, 4344, 4299, 1867], 's_10_12': [4420], 's_10_14': [4644], 16: [1675, 1674, 4569, 1958, 1957, 4570], 's_10_16': [4540], 's_11_15': [4702], 's_11_21': [1583], 1: [4447, 4448, 1687], 's_14_1': [4358, 4373], 's_14_3': [1732], 's_14_12': [1837], 's_14_15': [4390], 's_14_22': [4839, 1840], 's_5_2': [1598], 6: [1718, 4600, 4599], 's_5_6': [1523, 4598], 20: [1792, 1673, 4254, 1672], 's_5_20': [4508], 's_5_21': [1553], 's_8_15': [4313, 4312], 's_8_2': [4450, 2047], 's_8_6': [1912, 1913], 's_8_16': [4360], 's_8_17': [4404], 's_8_20': [1777], 's_15_1': [4342, 4343], 's_15_3': [4479], 13: [1824, 1629, 4673, 4674], 's_15_13': [4672], 's_15_17': [4462, 1552], 's_15_20': [1822], 's_15_25': [4763], 's_21_16': [4808], 's_21_13': [1630], 's_21_20': [1657], 24: [4883], 's_21_24': [1690], 's_22_3': [4824], 's_22_23': [4869], 's_22_12': [1807], 's_22_18': [4779], 's_23_3': [4795], 19: [4478, 4615, 1688, 4614], 's_23_19': [1764], 's_23_2': [4750], 's_25_19': [4628], 's_25_13': [1749], 's_25_18': [1734], 's_2_3': [1733], 's_2_19': [1703], 's_2_16': [4495], 's_17_3': [1747], 's_17_12': [4329], 's_17_20': [4283], 's_3_1': [1702], 's_3_13': [4539], 's_18_13': [4704], 's_12_16': [4300], 's_12_6': [4509], 's_16_19': [1959], 's_16_6': [1989], 's_16_13': [4703], 's_16_20': [4255], 's_16_24': [4868], 's_1_19': [1643], 's_19_6': [2004], 's_19_13': [1628]}</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0003055555555555556</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001705086998814247</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{0: [1644, 4688, 1869, 4689], 4: [4733, 1614, 1613, 4463, 4464], 's_0_4': [4613], 7: [1538, 4553, 4555, 4554], 's_0_7': [1539], 9: [4764, 1793, 1794], 's_0_9': [1779], 10: [1943, 4765, 4629, 1944], 's_0_10': [4690], 11: [1479, 4538, 4537], 's_0_11': [4687], 14: [4449, 4359, 1839, 1838], 's_0_14': [4659], 5: [4493, 1568, 4492], 's_4_5': [4568], 8: [1972, 1717, 4374, 4375], 's_4_8': [1853], 's_4_9': [1778], 15: [1823, 4389, 4388, 1509, 1508, 1507], 's_4_15': [4418], 21: [4853, 1660, 1658, 4523, 1659], 's_4_21': [1645], 22: [1810, 4494, 1808, 1809], 's_4_22': [1928], 23: [4734, 4719, 1854, 1855], 's_4_23': [4718], 25: [4643, 4657, 1599, 4658], 's_4_25': [1584], 2: [1974, 4583, 4584, 1973, 4585], 's_7_2': [1898], 's_7_10': [4705, 2019], 's_7_11': [4642], 17: [4433, 1762, 1763, 4434], 's_7_17': [1537], 3: [4419, 1748, 4524, 1884, 1883], 's_9_3': [4809, 1795], 18: [4794, 1719], 's_9_18': [4749], 's_9_22': [1825], 's_10_2': [4735], 's_10_3': [4525], 12: [1868, 4344, 4299, 1867], 's_10_12': [4420], 's_10_14': [4644], 16: [1675, 1674, 4569, 1958, 1957, 4570], 's_10_16': [4540], 's_11_15': [4702], 's_11_21': [1583], 1: [4447, 4448, 1687], 's_14_1': [4358, 4373], 's_14_3': [1732], 's_14_12': [1837], 's_14_15': [4390], 's_14_22': [4839, 1840], 's_5_2': [1598], 6: [1718, 4600, 4599], 's_5_6': [1523, 4598], 20: [1792, 1673, 4254, 1672], 's_5_20': [4508], 's_5_21': [1553], 's_8_15': [4313, 4312], 's_8_2': [4450, 2047], 's_8_6': [1912, 1913], 's_8_16': [4360], 's_8_17': [4404], 's_8_20': [1777], 's_15_1': [4342, 4343], 's_15_3': [4479], 13: [1824, 1629, 4673, 4674], 's_15_13': [4672], 's_15_17': [4462, 1552], 's_15_20': [1822], 's_15_25': [4763], 's_21_16': [4808], 's_21_13': [1630], 's_21_20': [1657], 24: [4883], 's_21_24': [1690], 's_22_3': [4824], 's_22_23': [4869], 's_22_12': [1807], 's_22_18': [4779], 's_23_3': [4795], 19: [4478, 4615, 1688, 4614], 's_23_19': [1764], 's_23_2': [4750], 's_25_19': [4628], 's_25_13': [1749], 's_25_18': [1734], 's_2_3': [1733], 's_2_19': [1703], 's_2_16': [4495], 's_17_3': [1747], 's_17_12': [4329], 's_17_20': [4283], 's_3_1': [1702], 's_3_13': [4539], 's_18_13': [4704], 's_12_16': [4300], 's_12_6': [4509], 's_16_19': [1959], 's_16_6': [1989], 's_16_13': [4703], 's_16_20': [4255], 's_16_24': [4868], 's_1_19': [1643], 's_19_6': [2004], 's_19_13': [1628]}</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0003055555555555556</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.001705086998814247</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{0: [919, 889, 3769], 9: [1009], 10: [890, 3904], 12: [844, 3859], 14: [3844, 3845], 17: [949, 3710], 19: [3814, 859], 23: [3949, 920], 24: [3754, 3753], 2: [994], 7: [3815], 13: [3724, 1008], 16: [3860], 5: [3964, 950], 6: [905, 3874], 20: [3919, 935], 21: [1039, 1040], 25: [964, 3875], 1: [3829, 874], 8: [3784, 814], 4: [1100, 3890], 11: [979], 15: [829], 22: [1025, 1024], 18: [3798, 3799], 26: [3694, 934, 3695], 3: [3889, 799]}</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.001576044129235618</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.007475833711981982</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{0: [919, 889, 3769], 9: [1009], 10: [890, 3904], 12: [844, 3859], 14: [3844, 3845], 17: [949, 3710], 19: [3814, 859], 23: [3949, 920], 24: [3754, 3753], 2: [994], 7: [3815], 13: [3724, 1008], 16: [3860], 5: [3964, 950], 6: [905, 3874], 20: [3919, 935], 21: [1039, 1040], 25: [964, 3875], 1: [3829, 874], 8: [3784, 814], 4: [1100, 3890], 11: [979], 15: [829], 22: [1025, 1024], 18: [3798, 3799], 26: [3694, 934, 3695], 3: [3889, 799]}</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.001576044129235618</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.007475833711981982</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{0: [2437, 4408, 2213, 4407], 9: [2618, 4317, 2602, 2617, 4318], 's_0_9': [4409], 10: [4437, 2272, 4331, 4333, 4332], 's_0_10': [4451], 12: [2379, 2378, 4452, 2498, 4453], 's_0_12': [4438], 14: [2468, 2242, 4422, 2421, 2422, 4423], 's_0_14': [4361], 17: [2303, 4392, 4257, 2302], 's_0_17': [4496], 19: [2154, 4558, 2438, 4646, 4647], 's_0_19': [2228, 4526], 23: [4077, 4078, 2467, 2466], 's_0_23': [2211, 2212], 24: [2527, 2528], 's_0_24': [4393], 2: [2513, 4273, 2512], 's_9_2': [2647], 7: [4138, 2601], 's_9_7': [2616], 's_9_10': [2572], 13: [2544, 2633, 4633], 's_9_13': [4529], 's_9_14': [4424], 16: [4182, 4302, 2377], 's_9_16': [4303], 's_9_24': [4483], 's_10_2': [4348], 5: [4272, 2153, 2152, 4271], 's_10_5': [2182], 6: [4572, 2333], 's_10_6': [2273], 20: [2317, 2574, 2573, 4363, 4362], 's_10_20': [2587], 21: [4288, 2347, 2436, 4287], 's_10_21': [4347], 25: [4467, 2392, 2394, 2393], 's_10_25': [2318], 1: [2423, 4619, 4617, 4618], 's_12_1': [2499], 8: [4557, 4542, 2258], 's_12_8': [4527], 's_12_14': [4482], 's_12_16': [2452], 's_12_19': [4528], 's_12_24': [4468], 's_14_1': [2469], 's_14_2': [4543], 4: [2331, 4168, 4167], 's_14_4': [2420, 4092], 's_14_5': [4316], 11: [4692, 2409, 2406, 2407, 2408], 's_14_11': [4122], 15: [2123, 2243, 4541], 's_14_15': [4421], 's_14_16': [4301], 22: [4378, 4377], 's_14_22': [4376], 's_14_23': [4137], 's_17_5': [2226], 's_17_8': [2257], 18: [2363, 4706, 2364, 4707], 's_17_18': [2304], 's_17_21': [2362], 's_17_22': [2287], 26: [4589, 4587, 4588], 's_17_26': [2288], 's_19_5': [2139, 2138], 's_19_11': [2319], 's_19_18': [4691], 's_19_20': [4648], 's_19_25': [4573], 's_19_26': [2588], 3: [2199, 2198, 2197, 4213, 4212], 's_23_3': [2196], 's_23_5': [2451, 4198], 's_23_20': [2316], 's_23_21': [2435], 's_24_3': [2542], 's_24_22': [2543], 's_2_20': [2497], 's_2_7': [2631], 's_7_4': [2526], 's_7_21': [4153], 's_13_1': [2664], 's_13_26': [2529], 's_16_11': [4228], 's_16_25': [4258], 's_16_4': [2301], 's_16_5': [2256], 's_5_25': [4466], 's_6_25': [4497], 's_6_8': [4512], 's_20_1': [4604], 's_20_11': [4693], 's_20_21': [2482], 's_20_26': [4574], 's_21_25': [4197], 's_21_4': [4227], 's_25_1': [4603], 's_25_22': [2348], 's_1_11': [2289], 's_1_15': [4602], 's_8_11': [2259], 's_8_15': [4556], 's_4_11': [4152], 's_4_3': [2511], 's_15_3': [4631], 's_18_3': [2214], 's_18_26': [2349]}</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0003153153153153153</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.001703989217961958</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{0: [2437, 4408, 2213, 4407], 9: [2618, 4317, 2602, 2617, 4318], 's_0_9': [4409], 10: [4437, 2272, 4331, 4333, 4332], 's_0_10': [4451], 12: [2379, 2378, 4452, 2498, 4453], 's_0_12': [4438], 14: [2468, 2242, 4422, 2421, 2422, 4423], 's_0_14': [4361], 17: [2303, 4392, 4257, 2302], 's_0_17': [4496], 19: [2154, 4558, 2438, 4646, 4647], 's_0_19': [2228, 4526], 23: [4077, 4078, 2467, 2466], 's_0_23': [2211, 2212], 24: [2527, 2528], 's_0_24': [4393], 2: [2513, 4273, 2512], 's_9_2': [2647], 7: [4138, 2601], 's_9_7': [2616], 's_9_10': [2572], 13: [2544, 2633, 4633], 's_9_13': [4529], 's_9_14': [4424], 16: [4182, 4302, 2377], 's_9_16': [4303], 's_9_24': [4483], 's_10_2': [4348], 5: [4272, 2153, 2152, 4271], 's_10_5': [2182], 6: [4572, 2333], 's_10_6': [2273], 20: [2317, 2574, 2573, 4363, 4362], 's_10_20': [2587], 21: [4288, 2347, 2436, 4287], 's_10_21': [4347], 25: [4467, 2392, 2394, 2393], 's_10_25': [2318], 1: [2423, 4619, 4617, 4618], 's_12_1': [2499], 8: [4557, 4542, 2258], 's_12_8': [4527], 's_12_14': [4482], 's_12_16': [2452], 's_12_19': [4528], 's_12_24': [4468], 's_14_1': [2469], 's_14_2': [4543], 4: [2331, 4168, 4167], 's_14_4': [2420, 4092], 's_14_5': [4316], 11: [4692, 2409, 2406, 2407, 2408], 's_14_11': [4122], 15: [2123, 2243, 4541], 's_14_15': [4421], 's_14_16': [4301], 22: [4378, 4377], 's_14_22': [4376], 's_14_23': [4137], 's_17_5': [2226], 's_17_8': [2257], 18: [2363, 4706, 2364, 4707], 's_17_18': [2304], 's_17_21': [2362], 's_17_22': [2287], 26: [4589, 4587, 4588], 's_17_26': [2288], 's_19_5': [2139, 2138], 's_19_11': [2319], 's_19_18': [4691], 's_19_20': [4648], 's_19_25': [4573], 's_19_26': [2588], 3: [2199, 2198, 2197, 4213, 4212], 's_23_3': [2196], 's_23_5': [2451, 4198], 's_23_20': [2316], 's_23_21': [2435], 's_24_3': [2542], 's_24_22': [2543], 's_2_20': [2497], 's_2_7': [2631], 's_7_4': [2526], 's_7_21': [4153], 's_13_1': [2664], 's_13_26': [2529], 's_16_11': [4228], 's_16_25': [4258], 's_16_4': [2301], 's_16_5': [2256], 's_5_25': [4466], 's_6_25': [4497], 's_6_8': [4512], 's_20_1': [4604], 's_20_11': [4693], 's_20_21': [2482], 's_20_26': [4574], 's_21_25': [4197], 's_21_4': [4227], 's_25_1': [4603], 's_25_22': [2348], 's_1_11': [2289], 's_1_15': [4602], 's_8_11': [2259], 's_8_15': [4556], 's_4_11': [4152], 's_4_3': [2511], 's_15_3': [4631], 's_18_3': [2214], 's_18_26': [2349]}</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0003153153153153153</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.001703989217961958</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{0: [415, 414], 3: [4696], 6: [428, 4546], 12: [4772, 400], 13: [278, 4592, 4591], 16: [4831], 21: [354, 4711], 26: [4741, 4742], 1: [339, 340], 11: [4665, 293, 294], 14: [384, 385], 19: [4771, 279], 25: [4531, 399], 2: [534, 4607], 4: [429, 4726], 8: [443, 444], 9: [4545, 248], 17: [4650, 369, 4651], 23: [323, 324], 5: [249, 4816, 4815], 15: [370], 7: [489, 4636], 10: [4606], 18: [4682, 4681], 27: [309, 4756], 24: [4666, 504], 20: [4801], 22: [459, 4757]}</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.002634660421545667</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.009773309616326673</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{0: [415, 414], 3: [4696], 6: [428, 4546], 12: [4772, 400], 13: [278, 4592, 4591], 16: [4831], 21: [354, 4711], 26: [4741, 4742], 1: [339, 340], 11: [4665, 293, 294], 14: [384, 385], 19: [4771, 279], 25: [4531, 399], 2: [534, 4607], 4: [429, 4726], 8: [443, 444], 9: [4545, 248], 17: [4650, 369, 4651], 23: [323, 324], 5: [249, 4816, 4815], 15: [370], 7: [489, 4636], 10: [4606], 18: [4682, 4681], 27: [309, 4756], 24: [4666, 504], 20: [4801], 22: [459, 4757]}</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.002634660421545667</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.009773309616326673</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.119</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>{0: [2675, 3809, 2673, 2674], 3: [2583, 2613, 3747, 2644, 3748], 's_0_3': [3749], 6: [2494, 2224, 2495, 3882, 3884, 3883], 's_0_6': [2690], 12: [3613, 2719, 2598, 3704], 's_0_12': [3734], 13: [4049, 4047, 4048], 's_0_13': [4034], 16: [2643, 3569, 3568], 's_0_16': [2688], 21: [2705, 2703, 3672, 3673, 3674, 2704], 's_0_21': [3614], 26: [3972, 2390, 3869, 2689, 3868], 's_0_26': [2614], 1: [3763, 2508, 2509, 2510, 3958], 's_3_1': [2554], 11: [2330, 3852, 2329], 's_3_11': [3732], 14: [2568, 3596, 3597, 3598], 's_3_14': [2448], 19: [2255, 2254, 3658, 3657, 2253], 's_3_19': [3746], 's_3_21': [2389], 25: [2628, 3926, 3927, 3928, 2629], 's_3_25': [3824], 2: [2525], 's_6_2': [3853], 4: [2493, 3522, 3523], 's_6_4': [2222, 2223], 8: [2434, 2358, 2359, 3777], 's_6_8': [3778], 9: [2283, 2285, 2284], 's_6_9': [3776], 's_6_11': [2195], 17: [3493, 2538, 3702, 3703, 2539], 's_6_17': [3733], 23: [2164, 2269, 2194, 3761], 's_6_23': [3806], 's_6_25': [2345], 5: [3566, 2417, 2478, 3567], 's_12_5': [3643], 's_12_19': [3659], 's_12_25': [3719], 's_12_26': [3764], 's_13_1': [2630], 's_13_9': [2300], 's_13_19': [4032], 's_16_1': [3553], 's_16_14': [2658], 15: [3477, 3479, 2582, 3478], 's_16_15': [2612], 's_21_1': [3959], 7: [2435, 3854, 2555, 3988], 's_21_7': [3989], 's_21_8': [2433], 10: [2268, 3731], 's_21_10': [3687], 's_21_15': [3539], 18: [3911, 3913, 2418, 2419, 3912], 's_21_18': [3914], 's_21_23': [2209], 's_21_26': [3839], 27: [3642, 3898, 2375, 2373, 2374], 's_21_27': [2328], 's_26_2': [3973], 's_26_11': [3942], 's_26_19': [3987], 24: [3899, 2599], 's_26_24': [2720], 's_1_4': [3538], 's_1_7': [4018], 's_1_17': [2507], 's_1_18': [3762, 2404], 20: [3718, 2463, 2464], 's_1_20': [3823], 's_1_27': [3957], 's_11_17': [2314], 's_11_18': [2165, 3851], 's_11_25': [2360], 's_11_19': [4002], 's_11_23': [3897], 's_14_17': [2523], 's_14_18': [3627, 3628], 's_14_25': [3583], 's_14_5': [2178], 's_14_10': [2238], 's_14_15': [3494], 's_14_19': [2569], 's_19_4': [2313], 's_25_18': [2315], 's_25_2': [2540], 's_25_23': [2134, 2135], 's_25_24': [2570], 's_2_7': [3943], 's_4_8': [2208, 3492], 's_4_17': [2447], 's_4_27': [2388], 's_8_7': [3838], 's_9_5': [2298], 's_9_10': [3581], 's_17_5': [2432], 's_17_10': [2299], 22: [3808, 3807], 's_17_22': [2524], 's_17_23': [3701], 's_17_27': [3508], 's_23_18': [2180, 2179], 's_23_10': [3717], 's_5_20': [3582], 's_5_15': [2477], 's_15_27': [3462], 's_7_18': [2465], 's_7_24': [2600], 's_10_27': [3612], 's_18_24': [2660], 's_18_27': [2480], 's_27_22': [2449], 's_24_22': [2584], 's_20_22': [3793]}</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0002666666666666667</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.001466666666666667</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{0: [2675, 3809, 2673, 2674], 3: [2583, 2613, 3747, 2644, 3748], 's_0_3': [3749], 6: [2494, 2224, 2495, 3882, 3884, 3883], 's_0_6': [2690], 12: [3613, 2719, 2598, 3704], 's_0_12': [3734], 13: [4049, 4047, 4048], 's_0_13': [4034], 16: [2643, 3569, 3568], 's_0_16': [2688], 21: [2705, 2703, 3672, 3673, 3674, 2704], 's_0_21': [3614], 26: [3972, 2390, 3869, 2689, 3868], 's_0_26': [2614], 1: [3763, 2508, 2509, 2510, 3958], 's_3_1': [2554], 11: [2330, 3852, 2329], 's_3_11': [3732], 14: [2568, 3596, 3597, 3598], 's_3_14': [2448], 19: [2255, 2254, 3658, 3657, 2253], 's_3_19': [3746], 's_3_21': [2389], 25: [2628, 3926, 3927, 3928, 2629], 's_3_25': [3824], 2: [2525], 's_6_2': [3853], 4: [2493, 3522, 3523], 's_6_4': [2222, 2223], 8: [2434, 2358, 2359, 3777], 's_6_8': [3778], 9: [2283, 2285, 2284], 's_6_9': [3776], 's_6_11': [2195], 17: [3493, 2538, 3702, 3703, 2539], 's_6_17': [3733], 23: [2164, 2269, 2194, 3761], 's_6_23': [3806], 's_6_25': [2345], 5: [3566, 2417, 2478, 3567], 's_12_5': [3643], 's_12_19': [3659], 's_12_25': [3719], 's_12_26': [3764], 's_13_1': [2630], 's_13_9': [2300], 's_13_19': [4032], 's_16_1': [3553], 's_16_14': [2658], 15: [3477, 3479, 2582, 3478], 's_16_15': [2612], 's_21_1': [3959], 7: [2435, 3854, 2555, 3988], 's_21_7': [3989], 's_21_8': [2433], 10: [2268, 3731], 's_21_10': [3687], 's_21_15': [3539], 18: [3911, 3913, 2418, 2419, 3912], 's_21_18': [3914], 's_21_23': [2209], 's_21_26': [3839], 27: [3642, 3898, 2375, 2373, 2374], 's_21_27': [2328], 's_26_2': [3973], 's_26_11': [3942], 's_26_19': [3987], 24: [3899, 2599], 's_26_24': [2720], 's_1_4': [3538], 's_1_7': [4018], 's_1_17': [2507], 's_1_18': [3762, 2404], 20: [3718, 2463, 2464], 's_1_20': [3823], 's_1_27': [3957], 's_11_17': [2314], 's_11_18': [2165, 3851], 's_11_25': [2360], 's_11_19': [4002], 's_11_23': [3897], 's_14_17': [2523], 's_14_18': [3627, 3628], 's_14_25': [3583], 's_14_5': [2178], 's_14_10': [2238], 's_14_15': [3494], 's_14_19': [2569], 's_19_4': [2313], 's_25_18': [2315], 's_25_2': [2540], 's_25_23': [2134, 2135], 's_25_24': [2570], 's_2_7': [3943], 's_4_8': [2208, 3492], 's_4_17': [2447], 's_4_27': [2388], 's_8_7': [3838], 's_9_5': [2298], 's_9_10': [3581], 's_17_5': [2432], 's_17_10': [2299], 22: [3808, 3807], 's_17_22': [2524], 's_17_23': [3701], 's_17_27': [3508], 's_23_18': [2180, 2179], 's_23_10': [3717], 's_5_20': [3582], 's_5_15': [2477], 's_15_27': [3462], 's_7_18': [2465], 's_7_24': [2600], 's_10_27': [3612], 's_18_24': [2660], 's_18_27': [2480], 's_27_22': [2449], 's_24_22': [2584], 's_20_22': [3793]}</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0002666666666666667</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.001466666666666667</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{0: [4732, 4733], 2: [4642, 1465, 1464], 3: [1404, 4612], 9: [4778, 1539], 11: [4627, 1419], 14: [1508, 1509], 25: [4702, 1599, 4703], 27: [1479, 1480], 8: [4717, 1495], 10: [4598, 4597], 15: [4673, 4672], 21: [1554, 1553], 26: [1659, 4537, 4538], 4: [1434], 7: [4687, 4688], 6: [1538], 12: [4793], 16: [1584, 4657], 18: [4822], 19: [1523, 1524], 5: [1449], 13: [1494, 4583], 17: [4763, 4762], 20: [4628, 1614], 22: [1583, 4477], 28: [4568, 1629], 24: [4748], 1: [4613], 23: [4553]}</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.003574432296047099</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01117946596977161</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{0: [4732, 4733], 2: [4642, 1465, 1464], 3: [1404, 4612], 9: [4778, 1539], 11: [4627, 1419], 14: [1508, 1509], 25: [4702, 1599, 4703], 27: [1479, 1480], 8: [4717, 1495], 10: [4598, 4597], 15: [4673, 4672], 21: [1554, 1553], 26: [1659, 4537, 4538], 4: [1434], 7: [4687, 4688], 6: [1538], 12: [4793], 16: [1584, 4657], 18: [4822], 19: [1523, 1524], 5: [1449], 13: [1494, 4583], 17: [4763, 4762], 20: [4628, 1614], 22: [1583, 4477], 28: [4568, 1629], 24: [4748], 1: [4613], 23: [4553]}</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0.003574432296047099</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01117946596977161</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.517</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{0: [2658, 3567, 3568], 2: [2509, 3537, 3538, 2507, 2508], 's_0_2': [2417], 3: [2597, 3598, 2569, 3463, 2568], 's_0_3': [2432], 9: [2492, 2479, 2478, 2477, 3433], 's_0_9': [2463], 11: [2344, 2341, 2343, 2342], 's_0_11': [3552], 14: [3539, 3327, 3328, 2612, 2611, 3329], 's_0_14': [3553], 25: [2567, 2643, 2642, 3342, 3343, 3344], 's_0_25': [3614], 27: [3373, 2537, 2539, 2538], 's_0_27': [2657], 's_2_3': [3763], 8: [2596, 2267, 2266, 3268, 3267], 's_2_8': [2506], 10: [2207, 3446, 2238, 2237], 's_2_10': [2208], 's_2_11': [3522], 15: [3313, 3282, 2374, 2373, 2372], 's_2_15': [3508], 21: [3718, 3719, 2717, 2718, 2719], 's_2_21': [2494], 26: [3732, 3809, 3733, 2644], 's_2_26': [3808], 's_2_27': [3793], 4: [2268, 3674, 3673, 2283, 3672], 's_3_4': [2493], 7: [2388, 3627, 3628, 2583], 's_3_7': [2598], 's_3_8': [3462], 's_3_25': [3464], 6: [3839, 3838], 's_9_6': [2464], 12: [3403, 3449, 2627], 's_9_12': [3434], 16: [3659, 3658, 2446, 2447, 2448, 3597], 's_9_16': [3417], 18: [3389, 3388], 's_9_18': [3387], 19: [3494, 3493, 3492, 3386, 2282], 's_9_19': [3432], 's_9_25': [2462], 5: [3747, 2253, 3746], 's_11_5': [3717], 13: [3477, 3478, 2553, 2554, 2555], 's_11_13': [2358], 's_11_16': [3402], 17: [3222, 2371], 's_11_17': [3163, 3162], 20: [3253, 3297, 3296, 2401, 3252], 's_11_20': [2356], 's_11_25': [2357], 's_14_8': [2656, 3269], 's_14_10': [3312], 's_14_15': [2461], 's_14_16': [2688], 's_14_18': [2702], 22: [2689, 2703, 2704, 2749, 3779], 's_14_22': [3524], 's_14_25': [2236], 28: [3281, 3236, 2221], 's_14_28': [2281], 's_25_19': [2312], 's_25_20': [2416], 24: [3299, 3298], 's_25_24': [2641], 's_25_26': [3583, 2628], 's_25_27': [3418], 's_25_28': [3357], 's_27_8': [2536], 's_27_12': [2522], 's_27_13': [3748], 's_27_15': [3358], 's_27_18': [3374], 's_27_24': [2626], 's_27_26': [2524], 's_8_19': [3507], 's_8_4': [3566], 's_8_17': [2476], 's_8_18': [2581], 1: [3371], 's_10_1': [2147], 's_10_4': [3581], 's_10_5': [2223], 's_10_20': [2192], 's_10_28': [3251, 2206], 's_15_13': [3688, 3689], 's_15_20': [2387, 3447], 's_15_21': [3314], 's_15_28': [2296], 's_21_12': [3479], 's_21_22': [3599], 23: [2674], 's_21_23': [3749], 's_21_24': [3284], 's_21_26': [2433], 's_26_5': [2314], 's_26_7': [2418], 's_26_13': [3854], 's_26_22': [2734], 's_26_23': [3704], 's_4_7': [2298], 's_4_16': [3596], 's_7_19': [2523], 's_7_5': [3612], 's_7_16': [2328], 's_6_13': [2570], 's_6_22': [2779], 's_6_23': [3824], 's_12_19': [2687], 's_16_5': [3657], 's_16_13': [3613], 's_16_17': [3237], 's_16_22': [3644], 's_16_24': [2431], 's_19_1': [2251], 's_19_13': [2327], 's_19_22': [3509], 's_19_28': [2177], 's_17_20': [2311], 's_20_24': [2491], 's_20_28': [2116], 's_22_23': [3869]}</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0002698412698412698</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.001438326481986294</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{0: [2658, 3567, 3568], 2: [2509, 3537, 3538, 2507, 2508], 's_0_2': [2417], 3: [2597, 3598, 2569, 3463, 2568], 's_0_3': [2432], 9: [2492, 2479, 2478, 2477, 3433], 's_0_9': [2463], 11: [2344, 2341, 2343, 2342], 's_0_11': [3552], 14: [3539, 3327, 3328, 2612, 2611, 3329], 's_0_14': [3553], 25: [2567, 2643, 2642, 3342, 3343, 3344], 's_0_25': [3614], 27: [3373, 2537, 2539, 2538], 's_0_27': [2657], 's_2_3': [3763], 8: [2596, 2267, 2266, 3268, 3267], 's_2_8': [2506], 10: [2207, 3446, 2238, 2237], 's_2_10': [2208], 's_2_11': [3522], 15: [3313, 3282, 2374, 2373, 2372], 's_2_15': [3508], 21: [3718, 3719, 2717, 2718, 2719], 's_2_21': [2494], 26: [3732, 3809, 3733, 2644], 's_2_26': [3808], 's_2_27': [3793], 4: [2268, 3674, 3673, 2283, 3672], 's_3_4': [2493], 7: [2388, 3627, 3628, 2583], 's_3_7': [2598], 's_3_8': [3462], 's_3_25': [3464], 6: [3839, 3838], 's_9_6': [2464], 12: [3403, 3449, 2627], 's_9_12': [3434], 16: [3659, 3658, 2446, 2447, 2448, 3597], 's_9_16': [3417], 18: [3389, 3388], 's_9_18': [3387], 19: [3494, 3493, 3492, 3386, 2282], 's_9_19': [3432], 's_9_25': [2462], 5: [3747, 2253, 3746], 's_11_5': [3717], 13: [3477, 3478, 2553, 2554, 2555], 's_11_13': [2358], 's_11_16': [3402], 17: [3222, 2371], 's_11_17': [3163, 3162], 20: [3253, 3297, 3296, 2401, 3252], 's_11_20': [2356], 's_11_25': [2357], 's_14_8': [2656, 3269], 's_14_10': [3312], 's_14_15': [2461], 's_14_16': [2688], 's_14_18': [2702], 22: [2689, 2703, 2704, 2749, 3779], 's_14_22': [3524], 's_14_25': [2236], 28: [3281, 3236, 2221], 's_14_28': [2281], 's_25_19': [2312], 's_25_20': [2416], 24: [3299, 3298], 's_25_24': [2641], 's_25_26': [3583, 2628], 's_25_27': [3418], 's_25_28': [3357], 's_27_8': [2536], 's_27_12': [2522], 's_27_13': [3748], 's_27_15': [3358], 's_27_18': [3374], 's_27_24': [2626], 's_27_26': [2524], 's_8_19': [3507], 's_8_4': [3566], 's_8_17': [2476], 's_8_18': [2581], 1: [3371], 's_10_1': [2147], 's_10_4': [3581], 's_10_5': [2223], 's_10_20': [2192], 's_10_28': [3251, 2206], 's_15_13': [3688, 3689], 's_15_20': [2387, 3447], 's_15_21': [3314], 's_15_28': [2296], 's_21_12': [3479], 's_21_22': [3599], 23: [2674], 's_21_23': [3749], 's_21_24': [3284], 's_21_26': [2433], 's_26_5': [2314], 's_26_7': [2418], 's_26_13': [3854], 's_26_22': [2734], 's_26_23': [3704], 's_4_7': [2298], 's_4_16': [3596], 's_7_19': [2523], 's_7_5': [3612], 's_7_16': [2328], 's_6_13': [2570], 's_6_22': [2779], 's_6_23': [3824], 's_12_19': [2687], 's_16_5': [3657], 's_16_13': [3613], 's_16_17': [3237], 's_16_22': [3644], 's_16_24': [2431], 's_19_1': [2251], 's_19_13': [2327], 's_19_22': [3509], 's_19_28': [2177], 's_17_20': [2311], 's_20_24': [2491], 's_20_28': [2116], 's_22_23': [3869]}</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0002698412698412698</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.001438326481986294</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{0: [5642, 5641], 1: [509], 5: [5551, 434], 6: [464, 463, 5507], 7: [254, 253], 9: [5521, 539, 5522], 11: [448, 449], 20: [5596, 314], 28: [344, 5506], 8: [5627, 359, 5626], 12: [569, 5597], 17: [5657, 5656], 23: [5492, 5491], 26: [374, 5566], 21: [404], 3: [554, 5536, 5537], 4: [5476, 5477], 16: [538, 5432], 24: [524], 25: [5612, 493, 494], 13: [5582, 5580, 5581], 15: [5535], 22: [269, 224, 5550], 29: [284, 5565], 18: [5520, 239, 5430], 2: [5611, 329], 27: [313, 5431], 10: [419], 19: [5462, 5461], 14: [5595]}</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.001413255360623782</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.007183936741260482</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{0: [5642, 5641], 1: [509], 5: [5551, 434], 6: [464, 463, 5507], 7: [254, 253], 9: [5521, 539, 5522], 11: [448, 449], 20: [5596, 314], 28: [344, 5506], 8: [5627, 359, 5626], 12: [569, 5597], 17: [5657, 5656], 23: [5492, 5491], 26: [374, 5566], 21: [404], 3: [554, 5536, 5537], 4: [5476, 5477], 16: [538, 5432], 24: [524], 25: [5612, 493, 494], 13: [5582, 5580, 5581], 15: [5535], 22: [269, 224, 5550], 29: [284, 5565], 18: [5520, 239, 5430], 2: [5611, 329], 27: [313, 5431], 10: [419], 19: [5462, 5461], 14: [5595]}</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.001413255360623782</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.007183936741260482</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{0: [1071, 4101, 4100], 1: [4132, 4129, 4130, 4131], 's_0_1': [1296], 5: [981, 4160, 4159], 's_0_5': [1101], 6: [4296, 4041, 1237, 1236, 1235], 's_0_6': [1160], 7: [3844, 3845, 1190, 1189, 3846], 's_0_7': [4085], 9: [4222, 4219, 1161, 4220, 4221], 's_0_9': [1386], 11: [4325, 1116, 1117], 's_0_11': [1072], 20: [4145, 1041, 3918, 3919, 1040], 's_0_20': [4070], 28: [4175, 4176, 1207, 1205, 1206], 's_0_28': [1251], 's_1_5': [876], 8: [1025, 4191, 4190, 1026], 's_1_8': [1176], 's_1_9': [1416], 12: [3906, 1400, 4177, 1401], 's_1_12': [1521], 17: [3935, 4040, 1056, 1055], 's_1_17': [951], 23: [4339, 4340, 1132, 4071, 1221, 4207, 4206], 's_1_23': [1431], 26: [3964, 4056, 4055, 966, 965], 's_1_26': [4099, 936], 's_5_17': [980], 's_5_20': [4144], 21: [814, 815, 4128, 817, 816], 's_5_21': [861], 's_5_26': [1086], 3: [4295, 4294, 755, 756, 757, 4293], 's_6_3': [4308, 4309, 4310, 4311], 4: [3874, 3875, 1250, 3876], 's_6_4': [3951], 's_6_11': [4236], 16: [1325, 3921, 1324], 's_6_16': [4042], 's_6_17': [3936], 24: [1281, 4116, 1146, 4115], 's_6_24': [1266], 25: [891, 890, 4011, 4010, 921, 4009], 's_6_25': [3996], 's_6_28': [4356], 's_7_4': [1159], 13: [4263, 1371, 4266, 1009, 1010, 1011, 4264, 4265], 's_7_13': [3860], 15: [3828, 799], 's_7_15': [3859], 22: [1069, 3769, 3770, 1220, 1219], 's_7_22': [3801], 's_7_23': [1175], 29: [3981, 1115, 3980], 's_7_29': [1130], 's_9_8': [1282], 's_9_11': [4251], 's_9_12': [1462], 's_9_17': [4205], 18: [3754, 3753, 786, 785, 784], 's_9_18': [4204], 's_9_25': [922], 's_11_3': [1162], 's_11_8': [1087], 's_11_13': [1057], 's_11_20': [1042], 's_11_23': [1102], 2: [3995, 997, 994, 995, 996], 's_20_2': [3949], 's_20_8': [3890], 's_20_15': [3903], 's_20_26': [4025], 27: [964, 3813, 3816, 3815, 3814], 's_20_27': [725], 's_20_28': [4146], 's_20_29': [3920], 's_28_2': [4385, 4386], 's_28_3': [1222], 's_28_8': [1326], 's_28_17': [3950], 's_28_22': [3966], 's_28_23': [4280], 's_28_26': [4174], 's_8_2': [3904], 's_8_23': [1297], 's_8_24': [1191], 's_8_29': [3965], 's_12_4': [1265], 's_12_13': [4147], 's_12_16': [1295], 's_12_23': [1447], 's_12_24': [1356], 's_17_2': [3934], 's_17_22': [1054], 's_17_24': [1145], 's_23_2': [4415, 982], 's_23_3': [862], 's_23_21': [4324], 's_23_24': [1147], 's_23_26': [967], 10: [845, 4039], 's_26_10': [3994], 19: [4054, 771, 4083], 's_26_19': [830], 's_26_25': [920], 's_26_27': [950], 's_21_19': [4098], 's_21_10': [3933], 's_21_27': [3829], 's_3_13': [697], 's_3_15': [3889], 's_3_19': [772], 's_4_25': [1070], 's_4_10': [860], 's_4_16': [1280], 's_16_27': [1310], 's_24_13': [1341], 's_24_25': [1311], 's_25_2': [4084], 's_25_13': [892], 's_25_19': [4008], 's_13_2': [4279], 14: [4278], 's_13_14': [727], 's_15_18': [3783], 's_22_2': [3830], 's_22_18': [949], 's_22_29': [3861], 's_18_2': [3785, 1039], 's_18_14': [801], 's_18_19': [4143], 's_18_27': [889], 's_10_19': [906]}</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0004222222222222222</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.001749011086448929</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{0: [1071, 4101, 4100], 1: [4132, 4129, 4130, 4131], 's_0_1': [1296], 5: [981, 4160, 4159], 's_0_5': [1101], 6: [4296, 4041, 1237, 1236, 1235], 's_0_6': [1160], 7: [3844, 3845, 1190, 1189, 3846], 's_0_7': [4085], 9: [4222, 4219, 1161, 4220, 4221], 's_0_9': [1386], 11: [4325, 1116, 1117], 's_0_11': [1072], 20: [4145, 1041, 3918, 3919, 1040], 's_0_20': [4070], 28: [4175, 4176, 1207, 1205, 1206], 's_0_28': [1251], 's_1_5': [876], 8: [1025, 4191, 4190, 1026], 's_1_8': [1176], 's_1_9': [1416], 12: [3906, 1400, 4177, 1401], 's_1_12': [1521], 17: [3935, 4040, 1056, 1055], 's_1_17': [951], 23: [4339, 4340, 1132, 4071, 1221, 4207, 4206], 's_1_23': [1431], 26: [3964, 4056, 4055, 966, 965], 's_1_26': [4099, 936], 's_5_17': [980], 's_5_20': [4144], 21: [814, 815, 4128, 817, 816], 's_5_21': [861], 's_5_26': [1086], 3: [4295, 4294, 755, 756, 757, 4293], 's_6_3': [4308, 4309, 4310, 4311], 4: [3874, 3875, 1250, 3876], 's_6_4': [3951], 's_6_11': [4236], 16: [1325, 3921, 1324], 's_6_16': [4042], 's_6_17': [3936], 24: [1281, 4116, 1146, 4115], 's_6_24': [1266], 25: [891, 890, 4011, 4010, 921, 4009], 's_6_25': [3996], 's_6_28': [4356], 's_7_4': [1159], 13: [4263, 1371, 4266, 1009, 1010, 1011, 4264, 4265], 's_7_13': [3860], 15: [3828, 799], 's_7_15': [3859], 22: [1069, 3769, 3770, 1220, 1219], 's_7_22': [3801], 's_7_23': [1175], 29: [3981, 1115, 3980], 's_7_29': [1130], 's_9_8': [1282], 's_9_11': [4251], 's_9_12': [1462], 's_9_17': [4205], 18: [3754, 3753, 786, 785, 784], 's_9_18': [4204], 's_9_25': [922], 's_11_3': [1162], 's_11_8': [1087], 's_11_13': [1057], 's_11_20': [1042], 's_11_23': [1102], 2: [3995, 997, 994, 995, 996], 's_20_2': [3949], 's_20_8': [3890], 's_20_15': [3903], 's_20_26': [4025], 27: [964, 3813, 3816, 3815, 3814], 's_20_27': [725], 's_20_28': [4146], 's_20_29': [3920], 's_28_2': [4385, 4386], 's_28_3': [1222], 's_28_8': [1326], 's_28_17': [3950], 's_28_22': [3966], 's_28_23': [4280], 's_28_26': [4174], 's_8_2': [3904], 's_8_23': [1297], 's_8_24': [1191], 's_8_29': [3965], 's_12_4': [1265], 's_12_13': [4147], 's_12_16': [1295], 's_12_23': [1447], 's_12_24': [1356], 's_17_2': [3934], 's_17_22': [1054], 's_17_24': [1145], 's_23_2': [4415, 982], 's_23_3': [862], 's_23_21': [4324], 's_23_24': [1147], 's_23_26': [967], 10: [845, 4039], 's_26_10': [3994], 19: [4054, 771, 4083], 's_26_19': [830], 's_26_25': [920], 's_26_27': [950], 's_21_19': [4098], 's_21_10': [3933], 's_21_27': [3829], 's_3_13': [697], 's_3_15': [3889], 's_3_19': [772], 's_4_25': [1070], 's_4_10': [860], 's_4_16': [1280], 's_16_27': [1310], 's_24_13': [1341], 's_24_25': [1311], 's_25_2': [4084], 's_25_13': [892], 's_25_19': [4008], 's_13_2': [4279], 14: [4278], 's_13_14': [727], 's_15_18': [3783], 's_22_2': [3830], 's_22_18': [949], 's_22_29': [3861], 's_18_2': [3785, 1039], 's_18_14': [801], 's_18_19': [4143], 's_18_27': [889], 's_10_19': [906]}</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0004222222222222222</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.001749011086448929</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{0: [306], 3: [4125], 4: [4051, 4050], 9: [4066], 14: [4095, 320, 321], 20: [140, 4141, 141, 4140], 5: [3945, 276, 275], 6: [187, 186], 8: [231, 4021], 16: [4080, 4065, 156], 19: [246, 4155], 13: [4200, 171], 18: [4185, 351, 4186], 22: [125, 127, 126], 25: [4006, 381], 28: [4020, 201, 200], 29: [110, 111], 1: [3960, 260], 17: [290], 27: [4005, 216], 10: [322, 4230, 4231], 11: [350, 3990, 3991], 15: [3976, 3975], 23: [245], 24: [4170, 4171], 30: [366, 4110, 4111], 21: [142], 26: [155], 2: [94, 185, 3870], 7: [96, 95], 12: [4035, 4036]}</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.00389321468298109</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0105085893368694</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{0: [306], 3: [4125], 4: [4051, 4050], 9: [4066], 14: [4095, 320, 321], 20: [140, 4141, 141, 4140], 5: [3945, 276, 275], 6: [187, 186], 8: [231, 4021], 16: [4080, 4065, 156], 19: [246, 4155], 13: [4200, 171], 18: [4185, 351, 4186], 22: [125, 127, 126], 25: [4006, 381], 28: [4020, 201, 200], 29: [110, 111], 1: [3960, 260], 17: [290], 27: [4005, 216], 10: [322, 4230, 4231], 11: [350, 3990, 3991], 15: [3976, 3975], 23: [245], 24: [4170, 4171], 30: [366, 4110, 4111], 21: [142], 26: [155], 2: [94, 185, 3870], 7: [96, 95], 12: [4035, 4036]}</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.00389321468298109</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.0105085893368694</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{0: [3208], 3: [2595, 2597, 2596, 3522, 3523, 3524], 's_0_3': [3193], 4: [2565, 2296, 2295, 3102, 2567, 2566, 3103], 's_0_4': [2551], 9: [3312, 2506, 3313], 's_0_9': [2491], 14: [3235, 2056, 3341, 3118, 2536, 2537, 3343, 3342], 's_0_14': [2580], 20: [3132, 3131, 2625, 3134, 3133], 's_0_20': [2610], 5: [3027, 3494, 3026, 3493, 2462, 2461, 2460], 's_3_5': [2718], 6: [2208, 3267, 3266, 2131, 2207, 3281], 's_3_6': [3537], 8: [3568, 2626, 2627], 's_3_8': [2658], 16: [2522, 2553, 3298, 3418, 2552], 's_3_16': [3509], 19: [2582, 2777, 3404, 2222, 3403, 3402, 3401], 's_3_19': [2432], 's_4_5': [3011], 's_4_6': [2371], 's_4_9': [3268], 13: [3117, 2386, 3447, 3431, 3432, 2387], 's_4_13': [3433], 's_4_16': [3344], 18: [2012, 3326, 3328, 2310, 2311, 3327], 's_4_18': [3297], 's_4_20': [3179], 22: [3086, 2205, 2357, 3282, 2326, 3162, 2206], 's_4_22': [3101], 25: [2983, 2490], 's_4_25': [3028], 28: [3372, 2400, 2401], 's_4_28': [2415], 29: [2924, 3104, 2717, 2715, 2716], 's_4_29': [2969], 1: [3389, 3222, 2431, 3388, 3387], 's_9_1': [3223], 's_9_16': [3314], 17: [2221, 2220], 's_9_17': [2236], 's_9_18': [2476], 27: [3251, 3252, 2520, 3254, 2581, 2521, 3253], 's_9_27': [3238], 10: [2175, 3311, 2996, 2100, 2101], 's_14_10': [2041], 11: [3463, 3539, 3057, 3538, 2446, 2447, 2445], 's_14_11': [2538], 's_14_13': [2372], 15: [3236, 2923, 2922, 2161, 2160, 2921], 's_14_15': [2266], 's_14_18': [3370], 23: [2507], 's_14_23': [2492], 24: [2116, 3446, 2117], 's_14_24': [2162], 's_14_25': [2505], 's_14_27': [3250], 's_14_28': [2327], 30: [2147, 3476, 2071, 2072], 's_14_30': [3220], 's_20_13': [2191, 2192], 's_20_15': [3146], 21: [2145], 's_20_21': [2130], 's_20_25': [3148], 's_20_27': [3043], 's_5_23': [3478], 26: [2535, 3073], 's_5_26': [2475], 's_5_8': [2612], 's_5_10': [3025, 2025], 's_5_16': [3359, 2687], 's_5_18': [3012], 's_5_25': [3088], 2: [2967, 3072, 2341, 2340], 's_6_2': [2356], 's_6_28': [3371], 's_6_10': [3296], 's_6_24': [3461], 's_6_30': [2193], 's_8_27': [3269], 's_8_11': [2493], 's_8_16': [3299], 's_16_23': [2508, 3613], 's_16_27': [3329], 's_16_19': [3417], 's_19_22': [2342], 's_19_27': [2776], 's_19_29': [3434], 's_19_13': [2417], 's_19_24': [2177], 's_19_30': [3416], 's_13_22': [3116], 7: [2325, 2981, 3087, 2982, 2280], 's_13_7': [2385], 's_13_18': [3430], 's_13_24': [2087], 's_13_30': [2237], 's_18_22': [2251], 's_18_7': [3147], 's_18_11': [3207], 's_18_24': [3415], 's_22_1': [3221], 12: [2281, 3386, 3177, 2282], 's_22_12': [3357], 's_22_10': [2997], 's_22_15': [2936], 's_22_21': [3041], 's_22_28': [3163], 's_25_27': [3013], 's_28_1': [3358], 's_28_2': [3042], 's_28_11': [3192], 's_29_1': [3374], 's_29_27': [2701], 's_29_15': [2938, 2939], 's_1_2': [3237], 's_1_12': [2312, 3507], 's_1_23': [3373], 's_1_27': [2611], 's_17_12': [3206], 's_17_15': [3191], 's_27_26': [3058], 's_27_30': [2086], 's_10_7': [2115], 's_10_21': [2146], 's_11_23': [3508], 's_11_7': [2355], 's_11_26': [2430], 's_15_2': [3071], 's_15_26': [2550], 's_30_12': [3477], 's_2_7': [2370], 's_2_26': [2968], 's_12_7': [2250]}</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0003043478260869565</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.001489231810082967</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{0: [3208], 3: [2595, 2597, 2596, 3522, 3523, 3524], 's_0_3': [3193], 4: [2565, 2296, 2295, 3102, 2567, 2566, 3103], 's_0_4': [2551], 9: [3312, 2506, 3313], 's_0_9': [2491], 14: [3235, 2056, 3341, 3118, 2536, 2537, 3343, 3342], 's_0_14': [2580], 20: [3132, 3131, 2625, 3134, 3133], 's_0_20': [2610], 5: [3027, 3494, 3026, 3493, 2462, 2461, 2460], 's_3_5': [2718], 6: [2208, 3267, 3266, 2131, 2207, 3281], 's_3_6': [3537], 8: [3568, 2626, 2627], 's_3_8': [2658], 16: [2522, 2553, 3298, 3418, 2552], 's_3_16': [3509], 19: [2582, 2777, 3404, 2222, 3403, 3402, 3401], 's_3_19': [2432], 's_4_5': [3011], 's_4_6': [2371], 's_4_9': [3268], 13: [3117, 2386, 3447, 3431, 3432, 2387], 's_4_13': [3433], 's_4_16': [3344], 18: [2012, 3326, 3328, 2310, 2311, 3327], 's_4_18': [3297], 's_4_20': [3179], 22: [3086, 2205, 2357, 3282, 2326, 3162, 2206], 's_4_22': [3101], 25: [2983, 2490], 's_4_25': [3028], 28: [3372, 2400, 2401], 's_4_28': [2415], 29: [2924, 3104, 2717, 2715, 2716], 's_4_29': [2969], 1: [3389, 3222, 2431, 3388, 3387], 's_9_1': [3223], 's_9_16': [3314], 17: [2221, 2220], 's_9_17': [2236], 's_9_18': [2476], 27: [3251, 3252, 2520, 3254, 2581, 2521, 3253], 's_9_27': [3238], 10: [2175, 3311, 2996, 2100, 2101], 's_14_10': [2041], 11: [3463, 3539, 3057, 3538, 2446, 2447, 2445], 's_14_11': [2538], 's_14_13': [2372], 15: [3236, 2923, 2922, 2161, 2160, 2921], 's_14_15': [2266], 's_14_18': [3370], 23: [2507], 's_14_23': [2492], 24: [2116, 3446, 2117], 's_14_24': [2162], 's_14_25': [2505], 's_14_27': [3250], 's_14_28': [2327], 30: [2147, 3476, 2071, 2072], 's_14_30': [3220], 's_20_13': [2191, 2192], 's_20_15': [3146], 21: [2145], 's_20_21': [2130], 's_20_25': [3148], 's_20_27': [3043], 's_5_23': [3478], 26: [2535, 3073], 's_5_26': [2475], 's_5_8': [2612], 's_5_10': [3025, 2025], 's_5_16': [3359, 2687], 's_5_18': [3012], 's_5_25': [3088], 2: [2967, 3072, 2341, 2340], 's_6_2': [2356], 's_6_28': [3371], 's_6_10': [3296], 's_6_24': [3461], 's_6_30': [2193], 's_8_27': [3269], 's_8_11': [2493], 's_8_16': [3299], 's_16_23': [2508, 3613], 's_16_27': [3329], 's_16_19': [3417], 's_19_22': [2342], 's_19_27': [2776], 's_19_29': [3434], 's_19_13': [2417], 's_19_24': [2177], 's_19_30': [3416], 's_13_22': [3116], 7: [2325, 2981, 3087, 2982, 2280], 's_13_7': [2385], 's_13_18': [3430], 's_13_24': [2087], 's_13_30': [2237], 's_18_22': [2251], 's_18_7': [3147], 's_18_11': [3207], 's_18_24': [3415], 's_22_1': [3221], 12: [2281, 3386, 3177, 2282], 's_22_12': [3357], 's_22_10': [2997], 's_22_15': [2936], 's_22_21': [3041], 's_22_28': [3163], 's_25_27': [3013], 's_28_1': [3358], 's_28_2': [3042], 's_28_11': [3192], 's_29_1': [3374], 's_29_27': [2701], 's_29_15': [2938, 2939], 's_1_2': [3237], 's_1_12': [2312, 3507], 's_1_23': [3373], 's_1_27': [2611], 's_17_12': [3206], 's_17_15': [3191], 's_27_26': [3058], 's_27_30': [2086], 's_10_7': [2115], 's_10_21': [2146], 's_11_23': [3508], 's_11_7': [2355], 's_11_26': [2430], 's_15_2': [3071], 's_15_26': [2550], 's_30_12': [3477], 's_2_7': [2370], 's_2_26': [2968], 's_12_7': [2250]}</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0003043478260869565</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.001489231810082967</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{0: [446, 5102], 1: [551, 5116, 5117, 552], 2: [4997, 491, 4996], 4: [4832, 521, 520], 9: [371, 5011], 19: [505, 506], 21: [536, 5027], 31: [5087, 5086], 5: [550, 4861, 4862], 6: [341, 4906, 340], 7: [415, 311, 416, 5041], 8: [460, 4982, 4981], 12: [4968, 4967], 13: [535, 4936, 4937], 15: [5071, 5072, 610, 611], 25: [356, 4966], 3: [4921, 385, 386], 10: [641, 4847, 640], 11: [490, 4846], 17: [4892, 445, 4891], 22: [4922, 5057, 566], 30: [402, 400, 401], 23: [430, 4830, 4831], 27: [294, 4772, 4771], 28: [4953, 4952, 265, 4951], 18: [625, 5012, 626], 14: [4907, 475], 20: [4877], 24: [582, 4938, 581], 29: [296, 295], 16: [280], 26: [310]}</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.002952317290552584</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.009513503582980923</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{0: [446, 5102], 1: [551, 5116, 5117, 552], 2: [4997, 491, 4996], 4: [4832, 521, 520], 9: [371, 5011], 19: [505, 506], 21: [536, 5027], 31: [5087, 5086], 5: [550, 4861, 4862], 6: [341, 4906, 340], 7: [415, 311, 416, 5041], 8: [460, 4982, 4981], 12: [4968, 4967], 13: [535, 4936, 4937], 15: [5071, 5072, 610, 611], 25: [356, 4966], 3: [4921, 385, 386], 10: [641, 4847, 640], 11: [490, 4846], 17: [4892, 445, 4891], 22: [4922, 5057, 566], 30: [402, 400, 401], 23: [430, 4830, 4831], 27: [294, 4772, 4771], 28: [4953, 4952, 265, 4951], 18: [625, 5012, 626], 14: [4907, 475], 20: [4877], 24: [582, 4938, 581], 29: [296, 295], 16: [280], 26: [310]}</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.002952317290552584</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.009513503582980923</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{0: [5082, 2261, 2441, 5158, 5157], 1: [5007, 5006, 2142, 2141, 5080, 5081], 's_0_1': [5021], 2: [2352, 2548, 2547, 5233, 5231, 5232], 's_0_2': [5142], 4: [2456, 2457, 5308, 5307, 5306, 2067], 's_0_4': [5098], 9: [5170, 5173, 5171, 5172], 's_0_9': [2487], 19: [2294, 2293, 2231, 2232, 5320, 5321, 5322], 's_0_19': [5036], 21: [2696, 5068, 5069], 's_0_21': [5067], 31: [2366, 2369, 2367, 2368], 's_0_31': [5052], 's_1_4': [2455], 5: [5531, 2159, 5426, 2157, 2158], 's_1_5': [2156], 6: [5200, 1992], 's_1_6': [5095], 7: [2173, 4961, 2171, 5214, 5215, 2172, 5216], 's_1_7': [2126], 8: [2429, 2428, 2427, 2292, 5248, 5246, 5247], 's_1_8': [2187], 12: [2230, 2336, 4962, 4963, 2516, 5293, 2517], 's_1_12': [2425], 13: [2051, 2053, 2052, 5336, 2519, 2518, 5338, 5337], 's_1_13': [5111], 15: [2308, 5366, 2471, 2472, 2473, 5367], 's_1_15': [2486], 's_1_19': [5096], 25: [2218, 5261, 2080, 2081, 2082], 's_1_25': [4976], 3: [5383, 5381, 5382], 's_2_3': [5398], 's_2_4': [2097], 's_2_7': [2112], 's_2_9': [2532], 10: [5533, 5294, 2608, 5263, 2697, 2607], 's_2_10': [5353], 11: [2443, 5458, 5427, 5428, 2488], 's_2_11': [2549], 's_2_12': [2546], 's_2_15': [5413], 17: [5127, 2202, 5577, 5576, 2204, 2203], 's_2_17': [2217], 's_2_19': [5112], 22: [5440, 5441, 5442, 2413, 2412, 5277], 's_2_22': [2307], 30: [2637, 2638, 2384, 2636, 2533, 2534, 5547, 5548], 's_2_30': [5368], 's_2_31': [2351], 's_4_10': [5309], 's_4_15': [5323], 's_4_21': [5083, 2591], 's_4_22': [2068], 23: [1993, 1949, 5260, 1948, 1947], 's_4_23': [5245], 27: [2263, 5546, 2127, 2128, 5471, 2174], 's_4_27': [5291], 28: [5188, 1977, 5185, 2397, 5186, 5187], 's_4_28': [2337], 's_9_6': [2007], 's_9_7': [2022], 's_9_8': [2426], 18: [5038, 5217, 5218, 2624, 2623, 2621, 2622], 's_9_18': [2562], 's_9_19': [2246], 's_9_30': [2667, 5279], 14: [5668, 5665, 5666, 2309, 5667], 's_19_14': [5652], 's_19_15': [2353], 20: [2489, 5639, 5637, 5638], 's_19_20': [5622], 's_19_22': [1933], 's_19_23': [5335], 's_19_27': [5276], 's_19_28': [1978], 's_19_31': [5607], 's_21_10': [2606], 's_21_12': [4964], 's_21_15': [5053], 's_21_18': [5099], 's_31_15': [4992], 's_31_18': [5037], 24: [5504, 5502, 5503], 's_31_24': [5517], 29: [5487, 5411, 2248], 's_31_29': [5472], 's_31_30': [5532], 's_5_8': [5201], 's_5_11': [2278], 's_5_14': [5651], 's_5_15': [2143], 16: [2189, 2188], 's_5_16': [5501], 26: [5156, 5155], 's_5_26': [5141], 's_5_29': [2113], 's_6_13': [5230], 's_6_23': [5140], 's_7_12': [4901], 's_7_15': [2247], 's_7_17': [5126], 's_7_23': [5199], 's_7_25': [4931], 's_7_26': [1857], 's_8_3': [5397], 's_8_10': [5249], 's_8_13': [5473], 's_8_15': [5412], 's_8_20': [2414], 's_8_30': [5592], 's_12_17': [2291], 's_12_18': [2501], 's_12_22': [2322, 2321], 's_12_28': [5097], 's_12_30': [5203], 's_13_3': [5380], 's_13_11': [2503], 's_13_16': [5516], 's_13_20': [5608], 's_13_22': [2338], 's_13_24': [2504], 's_13_27': [5545], 's_13_28': [5275], 's_15_10': [2442], 's_15_14': [2474], 's_15_22': [5352], 's_15_25': [5365], 's_25_16': [5351], 's_25_28': [2096], 's_25_29': [2083], 's_3_11': [2593], 's_3_16': [5396], 's_10_11': [2578], 's_10_18': [5324], 's_10_24': [2579], 's_11_20': [2444], 's_11_30': [2564], 's_17_16': [5561], 's_17_24': [2339], 's_17_30': [5578], 's_22_18': [5202], 's_22_23': [1994], 's_22_24': [2219], 's_22_30': [5278], 's_30_27': [5457], 's_30_28': [2383, 2398], 's_23_14': [1934], 's_23_26': [1962], 's_23_28': [5290], 's_27_29': [2233], 's_28_18': [2577], 's_18_20': [2639], 's_18_24': [5519], 's_14_20': [2279], 's_14_24': [2324], 's_29_16': [5456]}</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0004905660377358491</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.001800061090076994</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>{0: [5082, 2261, 2441, 5158, 5157], 1: [5007, 5006, 2142, 2141, 5080, 5081], 's_0_1': [5021], 2: [2352, 2548, 2547, 5233, 5231, 5232], 's_0_2': [5142], 4: [2456, 2457, 5308, 5307, 5306, 2067], 's_0_4': [5098], 9: [5170, 5173, 5171, 5172], 's_0_9': [2487], 19: [2294, 2293, 2231, 2232, 5320, 5321, 5322], 's_0_19': [5036], 21: [2696, 5068, 5069], 's_0_21': [5067], 31: [2366, 2369, 2367, 2368], 's_0_31': [5052], 's_1_4': [2455], 5: [5531, 2159, 5426, 2157, 2158], 's_1_5': [2156], 6: [5200, 1992], 's_1_6': [5095], 7: [2173, 4961, 2171, 5214, 5215, 2172, 5216], 's_1_7': [2126], 8: [2429, 2428, 2427, 2292, 5248, 5246, 5247], 's_1_8': [2187], 12: [2230, 2336, 4962, 4963, 2516, 5293, 2517], 's_1_12': [2425], 13: [2051, 2053, 2052, 5336, 2519, 2518, 5338, 5337], 's_1_13': [5111], 15: [2308, 5366, 2471, 2472, 2473, 5367], 's_1_15': [2486], 's_1_19': [5096], 25: [2218, 5261, 2080, 2081, 2082], 's_1_25': [4976], 3: [5383, 5381, 5382], 's_2_3': [5398], 's_2_4': [2097], 's_2_7': [2112], 's_2_9': [2532], 10: [5533, 5294, 2608, 5263, 2697, 2607], 's_2_10': [5353], 11: [2443, 5458, 5427, 5428, 2488], 's_2_11': [2549], 's_2_12': [2546], 's_2_15': [5413], 17: [5127, 2202, 5577, 5576, 2204, 2203], 's_2_17': [2217], 's_2_19': [5112], 22: [5440, 5441, 5442, 2413, 2412, 5277], 's_2_22': [2307], 30: [2637, 2638, 2384, 2636, 2533, 2534, 5547, 5548], 's_2_30': [5368], 's_2_31': [2351], 's_4_10': [5309], 's_4_15': [5323], 's_4_21': [5083, 2591], 's_4_22': [2068], 23: [1993, 1949, 5260, 1948, 1947], 's_4_23': [5245], 27: [2263, 5546, 2127, 2128, 5471, 2174], 's_4_27': [5291], 28: [5188, 1977, 5185, 2397, 5186, 5187], 's_4_28': [2337], 's_9_6': [2007], 's_9_7': [2022], 's_9_8': [2426], 18: [5038, 5217, 5218, 2624, 2623, 2621, 2622], 's_9_18': [2562], 's_9_19': [2246], 's_9_30': [2667, 5279], 14: [5668, 5665, 5666, 2309, 5667], 's_19_14': [5652], 's_19_15': [2353], 20: [2489, 5639, 5637, 5638], 's_19_20': [5622], 's_19_22': [1933], 's_19_23': [5335], 's_19_27': [5276], 's_19_28': [1978], 's_19_31': [5607], 's_21_10': [2606], 's_21_12': [4964], 's_21_15': [5053], 's_21_18': [5099], 's_31_15': [4992], 's_31_18': [5037], 24: [5504, 5502, 5503], 's_31_24': [5517], 29: [5487, 5411, 2248], 's_31_29': [5472], 's_31_30': [5532], 's_5_8': [5201], 's_5_11': [2278], 's_5_14': [5651], 's_5_15': [2143], 16: [2189, 2188], 's_5_16': [5501], 26: [5156, 5155], 's_5_26': [5141], 's_5_29': [2113], 's_6_13': [5230], 's_6_23': [5140], 's_7_12': [4901], 's_7_15': [2247], 's_7_17': [5126], 's_7_23': [5199], 's_7_25': [4931], 's_7_26': [1857], 's_8_3': [5397], 's_8_10': [5249], 's_8_13': [5473], 's_8_15': [5412], 's_8_20': [2414], 's_8_30': [5592], 's_12_17': [2291], 's_12_18': [2501], 's_12_22': [2322, 2321], 's_12_28': [5097], 's_12_30': [5203], 's_13_3': [5380], 's_13_11': [2503], 's_13_16': [5516], 's_13_20': [5608], 's_13_22': [2338], 's_13_24': [2504], 's_13_27': [5545], 's_13_28': [5275], 's_15_10': [2442], 's_15_14': [2474], 's_15_22': [5352], 's_15_25': [5365], 's_25_16': [5351], 's_25_28': [2096], 's_25_29': [2083], 's_3_11': [2593], 's_3_16': [5396], 's_10_11': [2578], 's_10_18': [5324], 's_10_24': [2579], 's_11_20': [2444], 's_11_30': [2564], 's_17_16': [5561], 's_17_24': [2339], 's_17_30': [5578], 's_22_18': [5202], 's_22_23': [1994], 's_22_24': [2219], 's_22_30': [5278], 's_30_27': [5457], 's_30_28': [2383, 2398], 's_23_14': [1934], 's_23_26': [1962], 's_23_28': [5290], 's_27_29': [2233], 's_28_18': [2577], 's_18_20': [2639], 's_18_24': [5519], 's_14_20': [2279], 's_14_24': [2324], 's_29_16': [5456]}</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0004905660377358491</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.001800061090076994</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{0: [2299, 2300], 1: [2346, 4032, 4033], 7: [3942, 3987, 2359, 2360], 21: [3912, 3911], 22: [2509, 3792, 3793], 24: [2283, 2285, 2284], 25: [3702, 3703], 26: [3777, 2345, 3776, 2344], 31: [4017, 2329, 2330], 4: [2480, 2478, 2479], 18: [4003, 2435, 2434, 2433], 27: [3897, 2314, 2315], 28: [2405, 3883, 2404], 3: [2239, 3853, 3852], 6: [2420, 4002], 9: [2465, 3956, 3957], 11: [2448, 3672, 3673], 13: [3882], 14: [2389, 2390, 3972], 16: [3643, 3642], 17: [3717, 3718], 30: [2270, 2269], 32: [2375], 5: [2255, 2253, 2254], 15: [2449, 3898], 2: [3761, 2374, 3762], 19: [2418, 3747], 20: [3657, 2539, 3658], 23: [2194, 2195], 8: [2463, 3732, 2464], 10: [3926, 3927], 29: [2419, 3807], 12: [3868]}</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.002468777229160616</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.008636210593182153</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>{0: [2299, 2300], 1: [2346, 4032, 4033], 7: [3942, 3987, 2359, 2360], 21: [3912, 3911], 22: [2509, 3792, 3793], 24: [2283, 2285, 2284], 25: [3702, 3703], 26: [3777, 2345, 3776, 2344], 31: [4017, 2329, 2330], 4: [2480, 2478, 2479], 18: [4003, 2435, 2434, 2433], 27: [3897, 2314, 2315], 28: [2405, 3883, 2404], 3: [2239, 3853, 3852], 6: [2420, 4002], 9: [2465, 3956, 3957], 11: [2448, 3672, 3673], 13: [3882], 14: [2389, 2390, 3972], 16: [3643, 3642], 17: [3717, 3718], 30: [2270, 2269], 32: [2375], 5: [2255, 2253, 2254], 15: [2449, 3898], 2: [3761, 2374, 3762], 19: [2418, 3747], 20: [3657, 2539, 3658], 23: [2194, 2195], 8: [2463, 3732, 2464], 10: [3926, 3927], 29: [2419, 3807], 12: [3868]}</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0.002468777229160616</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.008636210593182153</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{0: [4370, 1207, 4373, 4372, 4371], 1: [1507, 1505, 1506], 's_0_1': [1522], 7: [4340, 4341, 1312, 4058, 4056, 4057, 1311], 's_0_7': [1072], 21: [1658, 1657, 1551, 1655, 1656, 4148], 's_0_21': [1673], 22: [1160, 1162, 1161], 's_0_22': [1147], 24: [3995, 1101, 1327, 4296, 4295, 1102], 's_0_24': [1103], 25: [1222, 4356, 4309, 4310, 1192], 's_0_25': [1042], 26: [1400, 1145, 4041, 4042, 1357, 1356, 4357, 1355], 's_0_26': [1372], 31: [1476, 1477, 4328, 1432, 4327, 4326], 's_0_31': [1567], 4: [1445, 1446, 1448, 4280, 4281, 4282, 1447], 's_1_4': [4462], 18: [3965, 3966, 3968, 3967], 's_1_18': [1520], 's_1_26': [4147], 27: [4250, 4447, 1552, 4446, 4445, 1088, 1087], 's_1_27': [4403], 28: [1146, 4132, 4130, 1296, 4131], 's_1_28': [1521], 3: [3818, 3817, 1175, 1174, 3816], 's_7_3': [4071], 's_7_4': [4072], 6: [1339, 1342, 1341, 1340], 's_7_6': [4222], 9: [1385, 937, 1626, 4028, 4027, 4026, 4025, 936], 's_7_9': [4339], 11: [1118, 1115, 1117, 1116], 's_7_11': [4325], 13: [1221, 1056, 4085], 's_7_13': [4055], 14: [4100, 1251, 4102, 4101], 's_7_14': [1370], 16: [4010, 4012, 4011], 's_7_16': [1491], 17: [4236, 4521, 1253, 1252], 's_7_17': [1313], 's_7_26': [4116], 's_7_28': [1236], 30: [3893, 1550, 1549], 's_7_30': [4073], 32: [1762, 4059, 4164, 1760, 4103, 1761], 's_7_32': [1611], 's_21_3': [3833], 's_21_4': [4267], 5: [1177, 1176, 4191, 4192, 4193, 1596, 1595], 's_21_5': [3908], 15: [3935, 3938, 3936, 1566, 1565, 3937], 's_21_15': [4208], 's_21_18': [3983], 's_21_27': [4448], 's_21_28': [4149, 4133, 1716], 's_21_30': [3894], 's_21_32': [1671], 2: [1747, 4313, 4251, 1237, 4311, 4312], 's_22_2': [4401], 's_22_18': [3980], 's_22_24': [4265], 's_22_25': [4355], 's_22_27': [4190], 's_24_6': [4387], 's_24_13': [4115], 's_24_14': [1086], 's_24_16': [995], 's_24_17': [1132], 's_24_25': [4294], 's_24_26': [4402], 's_24_27': [4205], 's_24_31': [4297], 's_25_4': [877, 4279], 's_25_5': [4460], 19: [3951, 1280, 1283, 1282, 1281], 's_25_19': [4386], 20: [4415, 4417, 4416], 's_25_20': [967], 23: [4084, 1027, 4160, 1026], 's_25_23': [997, 996], 's_26_5': [4177], 8: [982, 981, 3950, 3949, 1205, 980], 's_26_8': [4040], 's_26_9': [3877], 10: [1686, 4162, 4163], 's_26_10': [1371], 's_26_11': [3846, 1144], 's_26_13': [4086], 's_26_15': [1415], 's_26_20': [4432, 1463], 's_26_27': [4358], 's_26_28': [1401, 4207], 29: [3922, 3921], 's_26_29': [1354], 's_26_31': [4342], 's_31_2': [1297], 's_31_5': [1267], 's_31_9': [1627], 's_31_14': [1431], 's_31_17': [4237], 's_31_27': [4343], 's_4_2': [4283], 's_4_3': [1461, 1460], 's_4_15': [3907], 's_4_16': [3997], 's_4_19': [3952], 's_4_20': [4507, 1433], 's_4_28': [4117], 's_18_6': [3981], 's_18_8': [1130], 's_18_9': [1625], 12: [1490], 's_18_12': [3982], 's_18_15': [1640], 's_18_19': [1310], 's_27_2': [1537], 's_27_6': [4461], 's_27_8': [4444], 's_27_9': [952], 's_27_17': [4490, 1208], 's_27_19': [1268], 's_27_23': [4220], 's_28_2': [1191], 's_28_9': [1386], 's_28_13': [1206], 's_28_14': [1416], 's_3_5': [1594], 's_3_8': [1220, 1219], 's_3_12': [3832], 's_3_13': [1190], 's_3_30': [1534], 's_6_14': [4146], 's_6_29': [1324], 's_9_5': [4088], 's_9_32': [4029], 's_9_8': [4099], 's_9_30': [1535, 3998], 's_9_23': [4175, 4174], 's_11_17': [1193, 4475], 's_11_8': [3876], 's_11_15': [3815, 1100], 's_11_20': [1133], 's_11_14': [4206], 's_11_23': [4145], 's_13_23': [1071], 's_14_5': [4221], 's_14_19': [1266], 's_14_30': [4087], 's_14_15': [1325], 's_16_19': [3996], 's_16_8': [4009], 's_17_2': [1238], 's_17_5': [1178], 's_17_19': [4491], 's_17_20': [1223], 's_30_5': [4043], 's_30_29': [3863, 1504], 's_32_2': [1746], 's_32_10': [4209], 's_32_15': [1715], 's_5_2': [1597], 's_5_10': [1701], 's_5_20': [4431], 's_15_12': [3878], 's_15_10': [4178], 's_2_19': [4266], 's_19_8': [3891], 's_19_29': [3906, 1295], 's_20_8': [4430], 's_29_12': [1475]}</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0004566473988439305</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.001559183598319133</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{0: [4370, 1207, 4373, 4372, 4371], 1: [1507, 1505, 1506], 's_0_1': [1522], 7: [4340, 4341, 1312, 4058, 4056, 4057, 1311], 's_0_7': [1072], 21: [1658, 1657, 1551, 1655, 1656, 4148], 's_0_21': [1673], 22: [1160, 1162, 1161], 's_0_22': [1147], 24: [3995, 1101, 1327, 4296, 4295, 1102], 's_0_24': [1103], 25: [1222, 4356, 4309, 4310, 1192], 's_0_25': [1042], 26: [1400, 1145, 4041, 4042, 1357, 1356, 4357, 1355], 's_0_26': [1372], 31: [1476, 1477, 4328, 1432, 4327, 4326], 's_0_31': [1567], 4: [1445, 1446, 1448, 4280, 4281, 4282, 1447], 's_1_4': [4462], 18: [3965, 3966, 3968, 3967], 's_1_18': [1520], 's_1_26': [4147], 27: [4250, 4447, 1552, 4446, 4445, 1088, 1087], 's_1_27': [4403], 28: [1146, 4132, 4130, 1296, 4131], 's_1_28': [1521], 3: [3818, 3817, 1175, 1174, 3816], 's_7_3': [4071], 's_7_4': [4072], 6: [1339, 1342, 1341, 1340], 's_7_6': [4222], 9: [1385, 937, 1626, 4028, 4027, 4026, 4025, 936], 's_7_9': [4339], 11: [1118, 1115, 1117, 1116], 's_7_11': [4325], 13: [1221, 1056, 4085], 's_7_13': [4055], 14: [4100, 1251, 4102, 4101], 's_7_14': [1370], 16: [4010, 4012, 4011], 's_7_16': [1491], 17: [4236, 4521, 1253, 1252], 's_7_17': [1313], 's_7_26': [4116], 's_7_28': [1236], 30: [3893, 1550, 1549], 's_7_30': [4073], 32: [1762, 4059, 4164, 1760, 4103, 1761], 's_7_32': [1611], 's_21_3': [3833], 's_21_4': [4267], 5: [1177, 1176, 4191, 4192, 4193, 1596, 1595], 's_21_5': [3908], 15: [3935, 3938, 3936, 1566, 1565, 3937], 's_21_15': [4208], 's_21_18': [3983], 's_21_27': [4448], 's_21_28': [4149, 4133, 1716], 's_21_30': [3894], 's_21_32': [1671], 2: [1747, 4313, 4251, 1237, 4311, 4312], 's_22_2': [4401], 's_22_18': [3980], 's_22_24': [4265], 's_22_25': [4355], 's_22_27': [4190], 's_24_6': [4387], 's_24_13': [4115], 's_24_14': [1086], 's_24_16': [995], 's_24_17': [1132], 's_24_25': [4294], 's_24_26': [4402], 's_24_27': [4205], 's_24_31': [4297], 's_25_4': [877, 4279], 's_25_5': [4460], 19: [3951, 1280, 1283, 1282, 1281], 's_25_19': [4386], 20: [4415, 4417, 4416], 's_25_20': [967], 23: [4084, 1027, 4160, 1026], 's_25_23': [997, 996], 's_26_5': [4177], 8: [982, 981, 3950, 3949, 1205, 980], 's_26_8': [4040], 's_26_9': [3877], 10: [1686, 4162, 4163], 's_26_10': [1371], 's_26_11': [3846, 1144], 's_26_13': [4086], 's_26_15': [1415], 's_26_20': [4432, 1463], 's_26_27': [4358], 's_26_28': [1401, 4207], 29: [3922, 3921], 's_26_29': [1354], 's_26_31': [4342], 's_31_2': [1297], 's_31_5': [1267], 's_31_9': [1627], 's_31_14': [1431], 's_31_17': [4237], 's_31_27': [4343], 's_4_2': [4283], 's_4_3': [1461, 1460], 's_4_15': [3907], 's_4_16': [3997], 's_4_19': [3952], 's_4_20': [4507, 1433], 's_4_28': [4117], 's_18_6': [3981], 's_18_8': [1130], 's_18_9': [1625], 12: [1490], 's_18_12': [3982], 's_18_15': [1640], 's_18_19': [1310], 's_27_2': [1537], 's_27_6': [4461], 's_27_8': [4444], 's_27_9': [952], 's_27_17': [4490, 1208], 's_27_19': [1268], 's_27_23': [4220], 's_28_2': [1191], 's_28_9': [1386], 's_28_13': [1206], 's_28_14': [1416], 's_3_5': [1594], 's_3_8': [1220, 1219], 's_3_12': [3832], 's_3_13': [1190], 's_3_30': [1534], 's_6_14': [4146], 's_6_29': [1324], 's_9_5': [4088], 's_9_32': [4029], 's_9_8': [4099], 's_9_30': [1535, 3998], 's_9_23': [4175, 4174], 's_11_17': [1193, 4475], 's_11_8': [3876], 's_11_15': [3815, 1100], 's_11_20': [1133], 's_11_14': [4206], 's_11_23': [4145], 's_13_23': [1071], 's_14_5': [4221], 's_14_19': [1266], 's_14_30': [4087], 's_14_15': [1325], 's_16_19': [3996], 's_16_8': [4009], 's_17_2': [1238], 's_17_5': [1178], 's_17_19': [4491], 's_17_20': [1223], 's_30_5': [4043], 's_30_29': [3863, 1504], 's_32_2': [1746], 's_32_10': [4209], 's_32_15': [1715], 's_5_2': [1597], 's_5_10': [1701], 's_5_20': [4431], 's_15_12': [3878], 's_15_10': [4178], 's_2_19': [4266], 's_19_8': [3891], 's_19_29': [3906, 1295], 's_20_8': [4430], 's_29_12': [1475]}</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0004566473988439305</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.001559183598319133</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>{0: [3665, 3663, 3664], 8: [859, 3634, 858], 10: [768, 769], 12: [829, 3587, 3588, 828], 14: [3724, 934], 21: [618, 694, 3708], 26: [575, 574], 28: [3619, 3618, 648], 33: [724, 3783], 5: [529, 798, 3722, 3723], 6: [3604, 3603, 634, 633], 9: [3633, 664, 663], 13: [3753], 15: [949], 17: [739, 3649, 3648], 19: [3843, 799, 3844], 27: [3784, 888, 889], 1: [3573, 708], 2: [3739, 3709, 874], 11: [918, 3513, 3514], 20: [814, 813, 3678, 3679], 22: [3767, 3768], 23: [753, 755, 754], 25: [3798, 3799, 3797], 3: [3528, 679, 678], 4: [3858, 3859], 29: [3813, 3814], 31: [709, 3828, 3829], 32: [784, 783], 16: [844, 3693, 3694], 30: [3752, 3902, 604], 18: [740, 3917, 3918], 24: [3845, 978, 979, 3769], 7: [920, 919]}</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.005075210957563897</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01189527600785285</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{0: [3665, 3663, 3664], 8: [859, 3634, 858], 10: [768, 769], 12: [829, 3587, 3588, 828], 14: [3724, 934], 21: [618, 694, 3708], 26: [575, 574], 28: [3619, 3618, 648], 33: [724, 3783], 5: [529, 798, 3722, 3723], 6: [3604, 3603, 634, 633], 9: [3633, 664, 663], 13: [3753], 15: [949], 17: [739, 3649, 3648], 19: [3843, 799, 3844], 27: [3784, 888, 889], 1: [3573, 708], 2: [3739, 3709, 874], 11: [918, 3513, 3514], 20: [814, 813, 3678, 3679], 22: [3767, 3768], 23: [753, 755, 754], 25: [3798, 3799, 3797], 3: [3528, 679, 678], 4: [3858, 3859], 29: [3813, 3814], 31: [709, 3828, 3829], 32: [784, 783], 16: [844, 3693, 3694], 30: [3752, 3902, 604], 18: [740, 3917, 3918], 24: [3845, 978, 979, 3769], 7: [920, 919]}</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0.005075210957563897</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.01189527600785285</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{0: [817, 983, 982, 4340, 861, 862, 4339], 8: [4129, 4130, 4341, 1223, 1222, 1221], 's_0_8': [4128], 10: [1148, 1236, 1147, 1237, 4401], 's_0_10': [4565, 4566], 12: [4145, 4143, 4144, 4324, 937, 936], 's_0_12': [4159], 14: [1327, 4446, 4444, 4445], 's_0_14': [4443], 21: [4174, 4175, 1059, 1056, 1058, 1057], 's_0_21': [816], 26: [4189, 758, 757, 4188], 's_0_26': [4414], 28: [4086, 697, 696, 4085, 4084, 4083], 's_0_28': [4338], 33: [4190, 1104, 1103, 1102], 's_0_33': [4610], 5: [4177, 4459, 4460, 1208, 1207, 1206, 4176], 's_8_5': [4251], 6: [1193, 4293, 4536, 4294, 1192, 742, 4295], 's_8_6': [4475], 9: [4625, 1163, 4115, 1160, 1161, 1162], 's_8_9': [1224], 13: [3966, 996, 995, 3965], 's_8_13': [1220], 's_8_14': [1342], 15: [1297, 1298], 's_8_15': [4506], 17: [3876, 3877, 4220, 1385, 4221, 4222, 1386], 's_8_17': [4131], 19: [922, 4264, 4267, 1356, 4266, 4265], 's_8_19': [1267], 27: [1028, 1027, 4069, 4071, 4070, 1026], 's_8_27': [906], 's_8_28': [4100], 1: [909, 4370, 4369, 908], 's_10_1': [4371], 2: [4416, 4550, 1119, 1118], 's_10_2': [1133], 's_10_5': [4356], 's_10_9': [4611], 11: [1370, 4057, 4055, 4056], 's_10_11': [1235, 3951], 20: [4399, 4400, 4700, 1010, 1011, 1014, 1013, 1012], 's_10_20': [1149], 22: [4282, 4281, 3994, 3995, 1116, 1117, 4280], 's_10_22': [1146], 23: [4476, 3996, 1281, 1283, 1282], 's_10_23': [1268], 25: [952, 1372, 953, 4432, 4430, 4431], 's_10_25': [4311], 3: [4385, 1044, 4099, 1041, 1042, 1043], 's_12_3': [921], 4: [877, 4308, 4309], 's_12_4': [892], 's_12_6': [741], 's_12_9': [1101], 's_12_13': [4025], 's_12_21': [4250], 's_12_22': [4040, 1025], 29: [4206, 772, 4204, 1070, 1071, 4205], 's_12_29': [771], 31: [4474, 998, 997, 4325, 4326, 1311, 1312], 's_12_31': [4146], 32: [847, 712, 4278], 's_12_32': [711], 's_14_2': [1253], 's_14_5': [4461], 's_14_15': [1313], 's_14_25': [1357], 's_21_3': [4760], 's_21_5': [4490], 's_21_6': [4535], 's_21_13': [1055], 's_21_22': [4160], 's_21_26': [891], 's_21_29': [801, 4173], 's_21_31': [4520], 's_21_33': [4655], 16: [981, 4235, 1177, 1175, 4236, 1176], 's_26_16': [4234], 's_26_19': [4219], 's_26_20': [773], 's_26_25': [4429], 30: [4114, 967, 965, 966], 's_26_30': [876], 's_28_3': [4098], 's_28_5': [1401], 's_28_6': [4218], 's_28_16': [1190], 's_28_23': [1296], 's_28_32': [4383], 's_33_3': [4580], 's_33_9': [4640], 's_33_16': [1132], 's_33_17': [1087], 's_33_19': [4191, 1341], 's_33_20': [4685], 's_33_27': [4505], 's_5_1': [923], 's_5_3': [1088], 's_5_2': [4551], 's_5_6': [787, 4458], 's_5_9': [1209], 's_5_17': [1416], 's_5_19': [4147, 1506], 's_5_22': [4310], 's_5_23': [4521], 's_5_31': [938], 's_6_3': [4745, 4746, 1194], 's_6_16': [1178], 's_6_25': [1238], 's_6_4': [727], 18: [1284, 4595, 4596, 1447, 1448, 1449, 4597], 's_6_18': [4537], 's_6_19': [4263], 's_6_22': [1072], 's_6_29': [4203], 's_6_30': [832, 4354], 's_9_1': [4624], 's_9_11': [1086], 's_9_17': [1159], 's_9_19': [1191], 's_9_25': [4626, 1373], 's_9_29': [3935], 's_9_30': [3950, 3949], 's_9_31': [4116], 's_13_20': [3934], 's_13_30': [3964], 's_13_17': [3906, 1280], 's_13_31': [1310], 's_15_17': [4207], 24: [1433, 4387, 1431, 1432], 's_15_24': [4402], 's_17_20': [3875, 1009], 's_17_16': [1174], 7: [4102, 1251, 4101], 's_17_7': [1250], 's_17_18': [1462], 's_17_22': [1371], 's_17_23': [3997], 's_17_24': [4162], 's_19_16': [4237], 's_19_18': [4252], 's_19_22': [1536], 's_19_24': [4192], 's_27_20': [1029], 's_27_2': [4355], 's_27_7': [1266], 's_27_11': [4054], 's_27_29': [846], 's_27_31': [4072], 's_1_3': [4654], 's_1_20': [4489], 's_1_32': [4368], 's_2_20': [1089], 's_2_16': [4386], 's_2_25': [4417], 's_11_3': [980], 's_11_7': [1340], 's_20_4': [802], 's_20_18': [1074], 's_20_29': [3980], 's_20_31': [999], 's_20_32': [4398], 's_22_16': [4041], 's_22_30': [4009], 's_22_23': [1326, 1325], 's_22_24': [1417], 's_23_25': [1403], 's_23_18': [1358, 4612], 's_23_29': [4010, 4011], 's_23_31': [4296], 's_25_3': [4639, 954], 's_25_24': [4372], 's_25_30': [4415], 's_3_4': [4384], 's_4_32': [4249], 's_4_30': [4279], 's_29_32': [786], 's_31_7': [1252], 's_24_7': [4087]}</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0006208791208791208</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.001824233747259915</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>{0: [817, 983, 982, 4340, 861, 862, 4339], 8: [4129, 4130, 4341, 1223, 1222, 1221], 's_0_8': [4128], 10: [1148, 1236, 1147, 1237, 4401], 's_0_10': [4565, 4566], 12: [4145, 4143, 4144, 4324, 937, 936], 's_0_12': [4159], 14: [1327, 4446, 4444, 4445], 's_0_14': [4443], 21: [4174, 4175, 1059, 1056, 1058, 1057], 's_0_21': [816], 26: [4189, 758, 757, 4188], 's_0_26': [4414], 28: [4086, 697, 696, 4085, 4084, 4083], 's_0_28': [4338], 33: [4190, 1104, 1103, 1102], 's_0_33': [4610], 5: [4177, 4459, 4460, 1208, 1207, 1206, 4176], 's_8_5': [4251], 6: [1193, 4293, 4536, 4294, 1192, 742, 4295], 's_8_6': [4475], 9: [4625, 1163, 4115, 1160, 1161, 1162], 's_8_9': [1224], 13: [3966, 996, 995, 3965], 's_8_13': [1220], 's_8_14': [1342], 15: [1297, 1298], 's_8_15': [4506], 17: [3876, 3877, 4220, 1385, 4221, 4222, 1386], 's_8_17': [4131], 19: [922, 4264, 4267, 1356, 4266, 4265], 's_8_19': [1267], 27: [1028, 1027, 4069, 4071, 4070, 1026], 's_8_27': [906], 's_8_28': [4100], 1: [909, 4370, 4369, 908], 's_10_1': [4371], 2: [4416, 4550, 1119, 1118], 's_10_2': [1133], 's_10_5': [4356], 's_10_9': [4611], 11: [1370, 4057, 4055, 4056], 's_10_11': [1235, 3951], 20: [4399, 4400, 4700, 1010, 1011, 1014, 1013, 1012], 's_10_20': [1149], 22: [4282, 4281, 3994, 3995, 1116, 1117, 4280], 's_10_22': [1146], 23: [4476, 3996, 1281, 1283, 1282], 's_10_23': [1268], 25: [952, 1372, 953, 4432, 4430, 4431], 's_10_25': [4311], 3: [4385, 1044, 4099, 1041, 1042, 1043], 's_12_3': [921], 4: [877, 4308, 4309], 's_12_4': [892], 's_12_6': [741], 's_12_9': [1101], 's_12_13': [4025], 's_12_21': [4250], 's_12_22': [4040, 1025], 29: [4206, 772, 4204, 1070, 1071, 4205], 's_12_29': [771], 31: [4474, 998, 997, 4325, 4326, 1311, 1312], 's_12_31': [4146], 32: [847, 712, 4278], 's_12_32': [711], 's_14_2': [1253], 's_14_5': [4461], 's_14_15': [1313], 's_14_25': [1357], 's_21_3': [4760], 's_21_5': [4490], 's_21_6': [4535], 's_21_13': [1055], 's_21_22': [4160], 's_21_26': [891], 's_21_29': [801, 4173], 's_21_31': [4520], 's_21_33': [4655], 16: [981, 4235, 1177, 1175, 4236, 1176], 's_26_16': [4234], 's_26_19': [4219], 's_26_20': [773], 's_26_25': [4429], 30: [4114, 967, 965, 966], 's_26_30': [876], 's_28_3': [4098], 's_28_5': [1401], 's_28_6': [4218], 's_28_16': [1190], 's_28_23': [1296], 's_28_32': [4383], 's_33_3': [4580], 's_33_9': [4640], 's_33_16': [1132], 's_33_17': [1087], 's_33_19': [4191, 1341], 's_33_20': [4685], 's_33_27': [4505], 's_5_1': [923], 's_5_3': [1088], 's_5_2': [4551], 's_5_6': [787, 4458], 's_5_9': [1209], 's_5_17': [1416], 's_5_19': [4147, 1506], 's_5_22': [4310], 's_5_23': [4521], 's_5_31': [938], 's_6_3': [4745, 4746, 1194], 's_6_16': [1178], 's_6_25': [1238], 's_6_4': [727], 18: [1284, 4595, 4596, 1447, 1448, 1449, 4597], 's_6_18': [4537], 's_6_19': [4263], 's_6_22': [1072], 's_6_29': [4203], 's_6_30': [832, 4354], 's_9_1': [4624], 's_9_11': [1086], 's_9_17': [1159], 's_9_19': [1191], 's_9_25': [4626, 1373], 's_9_29': [3935], 's_9_30': [3950, 3949], 's_9_31': [4116], 's_13_20': [3934], 's_13_30': [3964], 's_13_17': [3906, 1280], 's_13_31': [1310], 's_15_17': [4207], 24: [1433, 4387, 1431, 1432], 's_15_24': [4402], 's_17_20': [3875, 1009], 's_17_16': [1174], 7: [4102, 1251, 4101], 's_17_7': [1250], 's_17_18': [1462], 's_17_22': [1371], 's_17_23': [3997], 's_17_24': [4162], 's_19_16': [4237], 's_19_18': [4252], 's_19_22': [1536], 's_19_24': [4192], 's_27_20': [1029], 's_27_2': [4355], 's_27_7': [1266], 's_27_11': [4054], 's_27_29': [846], 's_27_31': [4072], 's_1_3': [4654], 's_1_20': [4489], 's_1_32': [4368], 's_2_20': [1089], 's_2_16': [4386], 's_2_25': [4417], 's_11_3': [980], 's_11_7': [1340], 's_20_4': [802], 's_20_18': [1074], 's_20_29': [3980], 's_20_31': [999], 's_20_32': [4398], 's_22_16': [4041], 's_22_30': [4009], 's_22_23': [1326, 1325], 's_22_24': [1417], 's_23_25': [1403], 's_23_18': [1358, 4612], 's_23_29': [4010, 4011], 's_23_31': [4296], 's_25_3': [4639, 954], 's_25_24': [4372], 's_25_30': [4415], 's_3_4': [4384], 's_4_32': [4249], 's_4_30': [4279], 's_29_32': [786], 's_31_7': [1252], 's_24_7': [4087]}</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0006208791208791208</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.001824233747259915</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{0: [4288, 4287], 4: [4527, 4528, 2542, 2543], 5: [2647], 12: [4244, 2586, 2587], 21: [2483, 2482], 24: [2451, 2453, 2452], 27: [4317, 2348, 2347], 7: [4362, 4363], 11: [2512, 4334, 4333], 26: [4408, 4409], 29: [2378], 30: [4453], 33: [2438], 34: [4272, 2393, 2392], 2: [2663, 2662], 13: [2648, 4498, 2558], 6: [2572, 2573, 4424], 19: [2528, 2527, 4273], 22: [2677, 4258, 4259], 17: [4467, 4468], 23: [2618, 4543, 4544], 25: [2497, 4573, 2498], 28: [2407, 4438], 32: [4497, 4452, 2363], 1: [4512, 2513, 4513], 14: [4377], 15: [4347, 4348, 2437], 10: [2467, 4379, 4378], 8: [2692], 9: [2617, 4349], 20: [4394, 4393], 18: [4423], 16: [2631, 2632], 3: [2678, 4439], 31: [2422]}</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.002646333258578156</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.008734732157154057</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>{0: [4288, 4287], 4: [4527, 4528, 2542, 2543], 5: [2647], 12: [4244, 2586, 2587], 21: [2483, 2482], 24: [2451, 2453, 2452], 27: [4317, 2348, 2347], 7: [4362, 4363], 11: [2512, 4334, 4333], 26: [4408, 4409], 29: [2378], 30: [4453], 33: [2438], 34: [4272, 2393, 2392], 2: [2663, 2662], 13: [2648, 4498, 2558], 6: [2572, 2573, 4424], 19: [2528, 2527, 4273], 22: [2677, 4258, 4259], 17: [4467, 4468], 23: [2618, 4543, 4544], 25: [2497, 4573, 2498], 28: [2407, 4438], 32: [4497, 4452, 2363], 1: [4512, 2513, 4513], 14: [4377], 15: [4347, 4348, 2437], 10: [2467, 4379, 4378], 8: [2692], 9: [2617, 4349], 20: [4394, 4393], 18: [4423], 16: [2631, 2632], 3: [2678, 4439], 31: [2422]}</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0.002646333258578156</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.008734732157154057</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.213</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{0: [4390, 1853, 1855, 1854], 4: [1748, 4825, 1991, 1990, 1989, 4540, 4539], 's_0_4': [4780], 5: [1914, 4734, 4735], 's_0_5': [4719], 12: [1779, 4778, 4779, 4839, 4869, 1780], 's_0_12': [4854], 21: [4420, 1897, 2063, 2062, 4421], 's_0_21': [4405], 24: [4224, 2004, 4225, 4315, 2003, 2002], 's_0_24': [1852], 27: [1912, 2198, 4464, 4361, 4360], 's_0_27': [1867], 7: [1945, 2017, 2018, 2019, 2020, 4886, 4885], 's_4_7': [4915], 11: [1507, 1508, 4945, 4944, 4943, 1509, 1510], 's_4_11': [2006], 's_4_21': [1973], 's_4_24': [2005], 26: [1838, 4824, 4688, 4689, 1839, 1840], 's_4_26': [4554], 29: [2080, 2079, 4480, 2078], 's_4_29': [4855, 2035], 30: [1673, 1598, 4478], 's_4_30': [4538], 33: [4419, 1717, 4299, 4298], 's_4_33': [1747], 34: [4466, 4465, 1958, 4599, 4600, 1959, 4765], 's_4_34': [1733], 2: [1719, 1720], 's_5_2': [1734], 's_5_12': [1915], 13: [1764, 4585, 4584, 1763], 's_5_13': [1913], 's_5_26': [4750], 6: [4628, 4373, 1646, 1645, 1643, 1644], 's_12_6': [4793], 's_12_7': [4870], 's_12_11': [1795], 19: [4615, 4614, 1675, 1674], 's_12_19': [4764], 22: [4329, 4328, 1552, 4598, 1420, 4807, 1554, 1553], 's_12_22': [1480], 17: [4898, 4899, 4900, 4901, 2140, 2139, 4511, 2138], 's_21_17': [2168], 23: [4525, 1943, 4284, 1942], 's_21_23': [1928], 25: [1884, 1792, 4510, 1883, 1793, 4509], 's_21_25': [1898], 's_21_27': [2183], 28: [2215, 2214, 4526, 4375, 4376, 2213], 's_21_28': [4422], 32: [4541, 4434, 4435, 1988, 2153, 4436], 's_21_32': [2092], 's_21_34': [2077], 1: [4283, 1731, 1732, 4462, 4463], 's_24_1': [4344, 4345, 1987], 's_24_7': [2032], 's_24_23': [1881], 's_24_27': [1911], 's_24_28': [1957], 's_24_32': [4450], 's_24_34': [2047], 's_27_1': [4359], 14: [2110, 2109, 2107, 2108], 's_27_14': [2122], 15: [1810, 1808, 1809], 's_27_15': [4449], 's_27_17': [2137], 's_27_32': [2152], 's_27_34': [4451], 's_7_11': [1900], 10: [4747, 4748, 4749, 4630, 4629, 1794], 's_7_10': [2034], 's_7_28': [2212, 4301, 4300], 's_7_14': [4270], 's_7_32': [2033], 's_11_1': [1524, 1523, 1522], 's_11_6': [4388], 's_11_2': [5002, 5003, 1661], 8: [4852, 1466, 1465], 's_11_8': [4717], 9: [4959, 1540, 4958, 1539, 4494, 4493, 4492, 1538], 's_11_9': [4672], 's_26_13': [1749], 's_26_9': [4703], 's_26_10': [1584], 's_26_15': [1825], 20: [4912, 4931, 4913, 4853, 1869, 1870, 4930, 4929, 1690], 's_26_20': [1614, 1615, 4928], 's_26_25': [4524], 's_26_34': [1899], 's_29_17': [4781], 's_29_28': [4706, 2199, 4587], 's_29_14': [4751], 18: [4691, 4659, 1944, 4690], 's_29_18': [2094], 's_29_20': [4946], 's_29_32': [4481], 's_29_34': [4675], 's_30_1': [1613], 's_30_6': [1628], 's_30_13': [4583], 16: [1688], 's_30_16': [4553], 's_30_19': [1703], 's_30_32': [1658], 's_33_1': [1627], 's_33_15': [4389], 's_33_23': [1927], 's_33_25': [4313, 4314], 's_33_32': [1702], 's_34_10': [1974], 's_34_17': [4496, 2288], 's_34_22': [1824, 1822, 1823], 's_34_14': [4766], 's_34_18': [4720], 's_34_19': [1659], 's_34_20': [1960], 's_2_9': [4973, 4974], 's_2_10': [4704], 's_2_17': [1735], 's_13_1': [1762], 's_13_19': [4673], 's_13_23': [4570], 's_6_1': [1537], 3: [4253, 4374, 4254, 1777], 's_6_3': [1567], 's_6_16': [1687], 's_6_17': [1631], 's_6_20': [1630], 's_6_22': [1597], 's_19_10': [1660, 4838], 's_19_16': [4569], 's_19_20': [1676], 's_19_18': [4658], 's_22_9': [4627], 's_22_3': [1657], 's_22_8': [4927], 's_22_20': [4868, 4867], 's_22_25': [4508], 's_17_9': [1826], 's_17_28': [4631], 31: [1856], 's_17_31': [4914], 's_17_32': [2154], 's_23_9': [4479], 's_23_3': [4240, 4239], 's_23_25': [4269], 's_25_20': [1868], 's_25_18': [4660, 2049, 2048], 's_28_3': [1972, 4255], 's_28_14': [4645, 4646], 's_28_32': [2123], 's_32_14': [4495], 's_15_9': [1811], 's_15_10': [4644], 's_15_18': [4674], 's_20_9': [1555], 's_20_8': [1451], 's_20_31': [4960], 's_8_10': [1450]}</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0005740740740740741</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.00187588316852137</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>{0: [4390, 1853, 1855, 1854], 4: [1748, 4825, 1991, 1990, 1989, 4540, 4539], 's_0_4': [4780], 5: [1914, 4734, 4735], 's_0_5': [4719], 12: [1779, 4778, 4779, 4839, 4869, 1780], 's_0_12': [4854], 21: [4420, 1897, 2063, 2062, 4421], 's_0_21': [4405], 24: [4224, 2004, 4225, 4315, 2003, 2002], 's_0_24': [1852], 27: [1912, 2198, 4464, 4361, 4360], 's_0_27': [1867], 7: [1945, 2017, 2018, 2019, 2020, 4886, 4885], 's_4_7': [4915], 11: [1507, 1508, 4945, 4944, 4943, 1509, 1510], 's_4_11': [2006], 's_4_21': [1973], 's_4_24': [2005], 26: [1838, 4824, 4688, 4689, 1839, 1840], 's_4_26': [4554], 29: [2080, 2079, 4480, 2078], 's_4_29': [4855, 2035], 30: [1673, 1598, 4478], 's_4_30': [4538], 33: [4419, 1717, 4299, 4298], 's_4_33': [1747], 34: [4466, 4465, 1958, 4599, 4600, 1959, 4765], 's_4_34': [1733], 2: [1719, 1720], 's_5_2': [1734], 's_5_12': [1915], 13: [1764, 4585, 4584, 1763], 's_5_13': [1913], 's_5_26': [4750], 6: [4628, 4373, 1646, 1645, 1643, 1644], 's_12_6': [4793], 's_12_7': [4870], 's_12_11': [1795], 19: [4615, 4614, 1675, 1674], 's_12_19': [4764], 22: [4329, 4328, 1552, 4598, 1420, 4807, 1554, 1553], 's_12_22': [1480], 17: [4898, 4899, 4900, 4901, 2140, 2139, 4511, 2138], 's_21_17': [2168], 23: [4525, 1943, 4284, 1942], 's_21_23': [1928], 25: [1884, 1792, 4510, 1883, 1793, 4509], 's_21_25': [1898], 's_21_27': [2183], 28: [2215, 2214, 4526, 4375, 4376, 2213], 's_21_28': [4422], 32: [4541, 4434, 4435, 1988, 2153, 4436], 's_21_32': [2092], 's_21_34': [2077], 1: [4283, 1731, 1732, 4462, 4463], 's_24_1': [4344, 4345, 1987], 's_24_7': [2032], 's_24_23': [1881], 's_24_27': [1911], 's_24_28': [1957], 's_24_32': [4450], 's_24_34': [2047], 's_27_1': [4359], 14: [2110, 2109, 2107, 2108], 's_27_14': [2122], 15: [1810, 1808, 1809], 's_27_15': [4449], 's_27_17': [2137], 's_27_32': [2152], 's_27_34': [4451], 's_7_11': [1900], 10: [4747, 4748, 4749, 4630, 4629, 1794], 's_7_10': [2034], 's_7_28': [2212, 4301, 4300], 's_7_14': [4270], 's_7_32': [2033], 's_11_1': [1524, 1523, 1522], 's_11_6': [4388], 's_11_2': [5002, 5003, 1661], 8: [4852, 1466, 1465], 's_11_8': [4717], 9: [4959, 1540, 4958, 1539, 4494, 4493, 4492, 1538], 's_11_9': [4672], 's_26_13': [1749], 's_26_9': [4703], 's_26_10': [1584], 's_26_15': [1825], 20: [4912, 4931, 4913, 4853, 1869, 1870, 4930, 4929, 1690], 's_26_20': [1614, 1615, 4928], 's_26_25': [4524], 's_26_34': [1899], 's_29_17': [4781], 's_29_28': [4706, 2199, 4587], 's_29_14': [4751], 18: [4691, 4659, 1944, 4690], 's_29_18': [2094], 's_29_20': [4946], 's_29_32': [4481], 's_29_34': [4675], 's_30_1': [1613], 's_30_6': [1628], 's_30_13': [4583], 16: [1688], 's_30_16': [4553], 's_30_19': [1703], 's_30_32': [1658], 's_33_1': [1627], 's_33_15': [4389], 's_33_23': [1927], 's_33_25': [4313, 4314], 's_33_32': [1702], 's_34_10': [1974], 's_34_17': [4496, 2288], 's_34_22': [1824, 1822, 1823], 's_34_14': [4766], 's_34_18': [4720], 's_34_19': [1659], 's_34_20': [1960], 's_2_9': [4973, 4974], 's_2_10': [4704], 's_2_17': [1735], 's_13_1': [1762], 's_13_19': [4673], 's_13_23': [4570], 's_6_1': [1537], 3: [4253, 4374, 4254, 1777], 's_6_3': [1567], 's_6_16': [1687], 's_6_17': [1631], 's_6_20': [1630], 's_6_22': [1597], 's_19_10': [1660, 4838], 's_19_16': [4569], 's_19_20': [1676], 's_19_18': [4658], 's_22_9': [4627], 's_22_3': [1657], 's_22_8': [4927], 's_22_20': [4868, 4867], 's_22_25': [4508], 's_17_9': [1826], 's_17_28': [4631], 31: [1856], 's_17_31': [4914], 's_17_32': [2154], 's_23_9': [4479], 's_23_3': [4240, 4239], 's_23_25': [4269], 's_25_20': [1868], 's_25_18': [4660, 2049, 2048], 's_28_3': [1972, 4255], 's_28_14': [4645, 4646], 's_28_32': [2123], 's_32_14': [4495], 's_15_9': [1811], 's_15_10': [4644], 's_15_18': [4674], 's_20_9': [1555], 's_20_8': [1451], 's_20_31': [4960], 's_8_10': [1450]}</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0005740740740740741</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.00187588316852137</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{0: [4633, 2618], 2: [2528, 4482, 4483], 9: [2498, 2499], 21: [4618, 2543, 2544], 23: [4529, 4527, 4528], 26: [2602, 4647, 4648, 2603], 34: [4574, 4573], 35: [4497, 2663, 4498], 1: [2439, 4558, 2438], 10: [4708, 2529], 14: [2393, 4514, 4513, 4512], 32: [2482, 2484, 2483], 6: [4454, 4453], 12: [4467, 4753, 2468, 2469], 15: [2708, 4694, 2709, 4693], 20: [2422, 2423, 4603], 24: [2514, 4679, 4678], 30: [4542, 2513, 4543], 33: [2604, 4738], 3: [2452, 4409, 4408], 4: [4424, 4423], 13: [2664, 4619], 17: [2408], 22: [4452, 2379, 2378], 25: [4378, 2574, 4394, 2573], 31: [2738, 4468, 4469], 5: [2633, 4588, 4589], 7: [2454, 2453], 11: [2724, 2723], 28: [4604, 2648, 2649], 18: [2559], 16: [2739, 4559], 8: [2679, 2678, 2558, 2632, 4439], 27: [2589, 2587, 2588], 29: [4663, 4662, 2394], 19: [2617]}</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.004221448827017272</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01058176280044547</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{0: [4633, 2618], 2: [2528, 4482, 4483], 9: [2498, 2499], 21: [4618, 2543, 2544], 23: [4529, 4527, 4528], 26: [2602, 4647, 4648, 2603], 34: [4574, 4573], 35: [4497, 2663, 4498], 1: [2439, 4558, 2438], 10: [4708, 2529], 14: [2393, 4514, 4513, 4512], 32: [2482, 2484, 2483], 6: [4454, 4453], 12: [4467, 4753, 2468, 2469], 15: [2708, 4694, 2709, 4693], 20: [2422, 2423, 4603], 24: [2514, 4679, 4678], 30: [4542, 2513, 4543], 33: [2604, 4738], 3: [2452, 4409, 4408], 4: [4424, 4423], 13: [2664, 4619], 17: [2408], 22: [4452, 2379, 2378], 25: [4378, 2574, 4394, 2573], 31: [2738, 4468, 4469], 5: [2633, 4588, 4589], 7: [2454, 2453], 11: [2724, 2723], 28: [4604, 2648, 2649], 18: [2559], 16: [2739, 4559], 8: [2679, 2678, 2558, 2632, 4439], 27: [2589, 2587, 2588], 29: [4663, 4662, 2394], 19: [2617]}</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0.004221448827017272</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.01058176280044547</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>{0: [897, 5148, 5149], 2: [926, 5494, 927, 928, 929], 's_0_2': [912], 9: [821, 5089, 4909, 956, 957, 5568, 5569, 959, 958], 's_0_9': [896], 21: [807, 806, 5119, 1077, 1076, 1078, 5122, 5121, 5120], 's_0_21': [791], 23: [613, 5508, 5509, 5510, 1049, 5287, 5286, 5285, 611, 1047, 612, 1048], 's_0_23': [626], 26: [583, 5357, 718, 5226, 5225, 5224, 837, 5358], 's_0_26': [582], 34: [851, 5207, 852, 5208], 's_0_34': [732], 35: [4910, 5267, 5268, 5269, 1060, 1061, 1062, 5271, 5270], 's_0_35': [717], 1: [1063, 869, 868, 5315, 655, 688, 656, 657, 5314, 5313], 's_2_1': [5479], 10: [4968, 5359, 913, 701, 702, 5298, 5299], 's_2_10': [5329], 14: [5077, 5076, 5075, 5598, 5599, 944, 943, 5074, 942], 's_2_14': [779], 32: [793, 5402, 659, 658, 5403], 's_2_32': [5493], 's_2_35': [4895, 4894], 6: [5480, 5465, 5570, 1094], 's_9_6': [5555, 5554], 's_9_10': [5389], 12: [5211, 5043, 5210, 5209, 988, 5044, 671, 986, 987], 's_9_12': [989], 's_9_14': [704], 15: [5345, 5344, 898, 5464, 5463, 5462, 493, 492, 491, 581, 5042], 's_9_15': [899], 20: [5254, 4954, 5059, 881, 5283, 5284, 883, 882], 's_9_20': [835], 's_9_23': [1034], 24: [5420, 5419, 1136, 1137, 1138], 's_9_24': [974, 973], 's_9_26': [719], 30: [777, 5104, 1256, 5016, 5106, 5105], 's_9_30': [4908, 776], 33: [4777, 911, 4939, 955, 610, 4776, 4775, 4774, 4773, 4938, 700], 's_9_33': [865], 's_9_35': [4925], 's_21_1': [805, 4878], 3: [734, 5452, 5451, 1228, 5449, 5448, 5450], 's_21_3': [5360], 4: [5152, 5150, 5151], 's_21_4': [1467], 's_21_10': [5223], 13: [1211, 5045, 5046, 1316], 's_21_13': [1016], 17: [1272, 1242, 5166], 's_21_17': [1346], 's_21_20': [5179, 971], 22: [5133, 762, 5135, 5134], 's_21_22': [5088], 's_21_23': [5330], 25: [822, 823, 1124, 5511, 5433, 5435, 5434], 's_21_25': [808], 's_21_30': [1241], 31: [1092, 1407, 5182, 5181, 5180], 's_21_31': [1376], 's_21_34': [5163], 's_23_1': [5328], 5: [1123, 1122, 5001, 538, 537, 536, 4997, 4998, 4999, 5000, 1121], 's_23_5': [5237], 7: [1003, 1002, 1420, 5255, 5256, 5257, 1423, 1421, 1422], 's_23_7': [5302], 11: [1182, 5316, 5391, 1286, 1289, 1288, 1287], 's_23_11': [1318], 's_23_12': [5012], 's_23_14': [5522, 674], 's_23_17': [1197, 5241], 's_23_22': [597, 5072], 28: [5061, 4940, 5060, 1108, 1107, 1106], 's_23_28': [1109], 's_23_31': [1437], 's_26_3': [703], 's_26_5': [523], 's_26_12': [1347], 's_26_14': [5478, 749], 's_26_17': [1317], 's_26_24': [5418], 's_26_25': [764, 763], 's_26_28': [5240], 's_26_31': [5227], 's_26_32': [5417], 's_26_35': [1332], 's_34_1': [627], 's_34_5': [5192], 18: [5031, 5026, 1001, 5030, 5029, 5027, 5028], 's_34_18': [5013], 's_34_20': [867, 866], 's_34_22': [747], 's_34_25': [5239], 's_34_35': [522], 's_35_4': [1227], 's_35_5': [5312, 553], 's_35_12': [1257], 's_35_14': [5300], 's_35_17': [1273], 's_35_20': [5253, 5252], 's_35_25': [5388, 748], 's_35_28': [1075], 's_35_30': [778], 's_1_7': [5495, 1064], 's_1_10': [598], 's_1_12': [5118], 's_1_14': [5584], 's_1_15': [494, 5612, 689, 5613], 16: [1183, 5390], 's_1_16': [1093], 's_1_32': [792], 's_1_33': [4847], 's_10_7': [1017], 's_10_15': [5297], 's_10_18': [746], 's_10_20': [687], 's_10_24': [5404], 's_10_33': [4953], 's_14_4': [1166], 8: [5015, 1151, 5525, 1153, 1152], 's_14_8': [5524], 's_14_11': [5539, 5540, 5541], 's_14_15': [914], 's_14_20': [884], 's_14_22': [5073], 's_14_25': [824], 27: [1363, 1362, 1360, 5062, 1361], 's_14_27': [1511], 29: [5194, 4972, 4971, 1032, 1031, 4970], 's_14_29': [1046, 4955], 's_14_31': [1452], 's_14_32': [5583], 's_32_3': [5523], 's_32_5': [5372], 's_6_15': [1033], 's_6_8': [5585, 1154], 19: [5481], 's_6_19': [1139], 's_12_7': [5212], 's_12_4': [1212], 's_12_22': [641], 's_12_24': [5195], 's_12_29': [985], 's_12_30': [836], 's_12_31': [1392], 's_12_33': [4982], 's_15_7': [1167], 's_15_3': [5447], 's_15_11': [5346], 's_15_18': [5011], 's_15_33': [4907], 's_20_7': [5374], 's_20_3': [733], 's_20_5': [790], 's_20_28': [941], 's_20_29': [4984], 's_24_16': [5421], 's_24_25': [853], 's_24_28': [4941], 's_24_13': [4985], 's_24_18': [5090], 's_30_27': [5107], 's_30_29': [1406], 's_30_18': [1391], 's_30_17': [5091], 's_30_31': [1196], 's_33_7': [4792, 4791], 's_3_7': [1438, 5362], 's_3_8': [5331], 's_3_25': [1018], 's_3_27': [1378, 1377], 's_4_22': [5136], 's_4_28': [1331], 's_13_8': [1181], 's_13_28': [1301], 's_13_29': [4957], 's_13_11': [4986], 's_13_18': [1091], 's_22_29': [5193], 's_25_8': [5466], 's_25_11': [5496], 's_25_19': [1274], 's_31_27': [5272], 's_31_11': [5196], 's_5_7': [5002], 's_5_16': [5405, 5406], 's_5_27': [1375], 's_5_28': [1000], 's_7_29': [1436], 's_28_16': [5375], 's_18_8': [5014], 's_18_29': [1271], 's_29_27': [1466], 's_8_19': [1198]}</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0006275510204081633</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.001810117511677294</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>{0: [897, 5148, 5149], 2: [926, 5494, 927, 928, 929], 's_0_2': [912], 9: [821, 5089, 4909, 956, 957, 5568, 5569, 959, 958], 's_0_9': [896], 21: [807, 806, 5119, 1077, 1076, 1078, 5122, 5121, 5120], 's_0_21': [791], 23: [613, 5508, 5509, 5510, 1049, 5287, 5286, 5285, 611, 1047, 612, 1048], 's_0_23': [626], 26: [583, 5357, 718, 5226, 5225, 5224, 837, 5358], 's_0_26': [582], 34: [851, 5207, 852, 5208], 's_0_34': [732], 35: [4910, 5267, 5268, 5269, 1060, 1061, 1062, 5271, 5270], 's_0_35': [717], 1: [1063, 869, 868, 5315, 655, 688, 656, 657, 5314, 5313], 's_2_1': [5479], 10: [4968, 5359, 913, 701, 702, 5298, 5299], 's_2_10': [5329], 14: [5077, 5076, 5075, 5598, 5599, 944, 943, 5074, 942], 's_2_14': [779], 32: [793, 5402, 659, 658, 5403], 's_2_32': [5493], 's_2_35': [4895, 4894], 6: [5480, 5465, 5570, 1094], 's_9_6': [5555, 5554], 's_9_10': [5389], 12: [5211, 5043, 5210, 5209, 988, 5044, 671, 986, 987], 's_9_12': [989], 's_9_14': [704], 15: [5345, 5344, 898, 5464, 5463, 5462, 493, 492, 491, 581, 5042], 's_9_15': [899], 20: [5254, 4954, 5059, 881, 5283, 5284, 883, 882], 's_9_20': [835], 's_9_23': [1034], 24: [5420, 5419, 1136, 1137, 1138], 's_9_24': [974, 973], 's_9_26': [719], 30: [777, 5104, 1256, 5016, 5106, 5105], 's_9_30': [4908, 776], 33: [4777, 911, 4939, 955, 610, 4776, 4775, 4774, 4773, 4938, 700], 's_9_33': [865], 's_9_35': [4925], 's_21_1': [805, 4878], 3: [734, 5452, 5451, 1228, 5449, 5448, 5450], 's_21_3': [5360], 4: [5152, 5150, 5151], 's_21_4': [1467], 's_21_10': [5223], 13: [1211, 5045, 5046, 1316], 's_21_13': [1016], 17: [1272, 1242, 5166], 's_21_17': [1346], 's_21_20': [5179, 971], 22: [5133, 762, 5135, 5134], 's_21_22': [5088], 's_21_23': [5330], 25: [822, 823, 1124, 5511, 5433, 5435, 5434], 's_21_25': [808], 's_21_30': [1241], 31: [1092, 1407, 5182, 5181, 5180], 's_21_31': [1376], 's_21_34': [5163], 's_23_1': [5328], 5: [1123, 1122, 5001, 538, 537, 536, 4997, 4998, 4999, 5000, 1121], 's_23_5': [5237], 7: [1003, 1002, 1420, 5255, 5256, 5257, 1423, 1421, 1422], 's_23_7': [5302], 11: [1182, 5316, 5391, 1286, 1289, 1288, 1287], 's_23_11': [1318], 's_23_12': [5012], 's_23_14': [5522, 674], 's_23_17': [1197, 5241], 's_23_22': [597, 5072], 28: [5061, 4940, 5060, 1108, 1107, 1106], 's_23_28': [1109], 's_23_31': [1437], 's_26_3': [703], 's_26_5': [523], 's_26_12': [1347], 's_26_14': [5478, 749], 's_26_17': [1317], 's_26_24': [5418], 's_26_25': [764, 763], 's_26_28': [5240], 's_26_31': [5227], 's_26_32': [5417], 's_26_35': [1332], 's_34_1': [627], 's_34_5': [5192], 18: [5031, 5026, 1001, 5030, 5029, 5027, 5028], 's_34_18': [5013], 's_34_20': [867, 866], 's_34_22': [747], 's_34_25': [5239], 's_34_35': [522], 's_35_4': [1227], 's_35_5': [5312, 553], 's_35_12': [1257], 's_35_14': [5300], 's_35_17': [1273], 's_35_20': [5253, 5252], 's_35_25': [5388, 748], 's_35_28': [1075], 's_35_30': [778], 's_1_7': [5495, 1064], 's_1_10': [598], 's_1_12': [5118], 's_1_14': [5584], 's_1_15': [494, 5612, 689, 5613], 16: [1183, 5390], 's_1_16': [1093], 's_1_32': [792], 's_1_33': [4847], 's_10_7': [1017], 's_10_15': [5297], 's_10_18': [746], 's_10_20': [687], 's_10_24': [5404], 's_10_33': [4953], 's_14_4': [1166], 8: [5015, 1151, 5525, 1153, 1152], 's_14_8': [5524], 's_14_11': [5539, 5540, 5541], 's_14_15': [914], 's_14_20': [884], 's_14_22': [5073], 's_14_25': [824], 27: [1363, 1362, 1360, 5062, 1361], 's_14_27': [1511], 29: [5194, 4972, 4971, 1032, 1031, 4970], 's_14_29': [1046, 4955], 's_14_31': [1452], 's_14_32': [5583], 's_32_3': [5523], 's_32_5': [5372], 's_6_15': [1033], 's_6_8': [5585, 1154], 19: [5481], 's_6_19': [1139], 's_12_7': [5212], 's_12_4': [1212], 's_12_22': [641], 's_12_24': [5195], 's_12_29': [985], 's_12_30': [836], 's_12_31': [1392], 's_12_33': [4982], 's_15_7': [1167], 's_15_3': [5447], 's_15_11': [5346], 's_15_18': [5011], 's_15_33': [4907], 's_20_7': [5374], 's_20_3': [733], 's_20_5': [790], 's_20_28': [941], 's_20_29': [4984], 's_24_16': [5421], 's_24_25': [853], 's_24_28': [4941], 's_24_13': [4985], 's_24_18': [5090], 's_30_27': [5107], 's_30_29': [1406], 's_30_18': [1391], 's_30_17': [5091], 's_30_31': [1196], 's_33_7': [4792, 4791], 's_3_7': [1438, 5362], 's_3_8': [5331], 's_3_25': [1018], 's_3_27': [1378, 1377], 's_4_22': [5136], 's_4_28': [1331], 's_13_8': [1181], 's_13_28': [1301], 's_13_29': [4957], 's_13_11': [4986], 's_13_18': [1091], 's_22_29': [5193], 's_25_8': [5466], 's_25_11': [5496], 's_25_19': [1274], 's_31_27': [5272], 's_31_11': [5196], 's_5_7': [5002], 's_5_16': [5405, 5406], 's_5_27': [1375], 's_5_28': [1000], 's_7_29': [1436], 's_28_16': [5375], 's_18_8': [5014], 's_18_29': [1271], 's_29_27': [1466], 's_8_19': [1198]}</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0006275510204081633</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.001810117511677294</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{0: [447, 5492, 448], 3: [5493], 5: [5523, 5522, 5520, 5521], 9: [463, 5611, 5612, 464], 13: [5462, 5463], 15: [5535, 5536], 16: [493, 494], 20: [388, 643, 5387, 5386], 24: [5327, 539, 538], 25: [5282, 5357, 553], 30: [5448, 5445, 5446, 5447], 35: [5370, 5371, 5372, 658], 36: [5356, 5355, 163, 164], 7: [704, 449, 5643, 5642], 27: [5552, 674, 673], 31: [5478, 734], 2: [238, 239, 5550, 5551], 8: [5506, 404, 5508, 5507], 11: [5417, 628], 14: [5537, 523, 524], 17: [509, 5340, 5341, 508], 23: [5310, 178, 179], 28: [659, 554, 5583, 5582], 32: [5476, 569, 5477], 33: [5313, 718, 5433, 749], 34: [5641, 5401, 329, 328], 18: [268, 359, 5491], 1: [5567, 689, 688], 12: [5625, 613, 614, 5627, 5626], 29: [5566, 418, 419], 4: [733, 5402, 5403], 21: [314, 313, 5416], 26: [5581, 374, 373], 6: [5311, 5312], 19: [5267, 5266, 403], 22: [5596, 5598, 479, 5597], 10: [5430, 5432, 5431]}</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.005185673478356406</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01129225440659555</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>{0: [447, 5492, 448], 3: [5493], 5: [5523, 5522, 5520, 5521], 9: [463, 5611, 5612, 464], 13: [5462, 5463], 15: [5535, 5536], 16: [493, 494], 20: [388, 643, 5387, 5386], 24: [5327, 539, 538], 25: [5282, 5357, 553], 30: [5448, 5445, 5446, 5447], 35: [5370, 5371, 5372, 658], 36: [5356, 5355, 163, 164], 7: [704, 449, 5643, 5642], 27: [5552, 674, 673], 31: [5478, 734], 2: [238, 239, 5550, 5551], 8: [5506, 404, 5508, 5507], 11: [5417, 628], 14: [5537, 523, 524], 17: [509, 5340, 5341, 508], 23: [5310, 178, 179], 28: [659, 554, 5583, 5582], 32: [5476, 569, 5477], 33: [5313, 718, 5433, 749], 34: [5641, 5401, 329, 328], 18: [268, 359, 5491], 1: [5567, 689, 688], 12: [5625, 613, 614, 5627, 5626], 29: [5566, 418, 419], 4: [733, 5402, 5403], 21: [314, 313, 5416], 26: [5581, 374, 373], 6: [5311, 5312], 19: [5267, 5266, 403], 22: [5596, 5598, 479, 5597], 10: [5430, 5432, 5431]}</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0.005185673478356406</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.01129225440659555</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>{0: [3753, 214, 3750, 544, 3752, 3751], 3: [274, 364, 3782, 3781], 's_0_3': [3765, 154], 5: [3349, 3346, 500, 631, 3348, 499, 498, 497, 3347], 's_0_5': [3797], 9: [3903, 3901, 649, 3902], 's_0_9': [709, 3798], 13: [3436, 3437, 620, 619, 618, 617], 's_0_13': [604], 15: [3723, 3722], 's_0_15': [664], 16: [813, 3709, 3707, 603, 3708], 's_0_16': [394], 20: [439, 438, 3256, 436, 391, 437], 's_0_20': [3662], 24: [376, 3422, 377, 3421, 425, 424, 423, 422], 's_0_24': [3677], 25: [3661, 347, 346, 3196, 496, 348, 3287], 's_0_25': [3676], 30: [859, 3541, 3542, 3543, 843, 3664, 3784, 919], 's_0_30': [3754], 35: [451, 452, 3769, 3768, 3767, 393, 3512, 529, 528], 's_0_35': [784], 36: [3633, 3632, 410, 409, 3631], 's_0_36': [739], 7: [3452, 590, 3572, 589, 588], 's_3_7': [574], 's_3_20': [3796], 27: [798, 290, 273, 3618, 3617, 289, 288, 3616], 's_3_27': [3915], 31: [363, 229, 228, 3408, 3407, 3406, 332, 3481], 's_3_31': [3780], 's_3_35': [514], 2: [3648, 3573, 766, 770, 769, 768, 767], 's_5_2': [3363, 811], 's_5_7': [3571], 8: [3679, 3271, 3272, 3273, 737, 3393, 858, 857], 's_5_8': [3288], 's_5_9': [560, 3977], 11: [542, 3377], 's_5_11': [677], 14: [602, 3303, 601], 's_5_14': [722], 17: [3420, 257, 258, 259, 3841, 3814, 3813, 3812, 3811, 365], 's_5_17': [256], 23: [3334, 886, 887, 890, 889, 888], 's_5_23': [872], 's_5_24': [3586], 28: [3124, 751, 752, 3467, 3468, 543, 753], 's_5_28': [3243], 's_5_31': [3331], 32: [571, 918, 3529, 572, 3528, 573], 's_5_32': [3242, 466], 33: [316, 319, 318, 3451, 317], 's_5_33': [302], 34: [3856, 3860, 3857, 678, 3859, 679, 3858], 's_5_34': [3842], 's_5_36': [3931], 's_9_7': [3873], 's_9_13': [3888], 18: [829, 827, 828], 's_9_18': [3918], 's_9_20': [3916], 's_9_24': [530, 4037], 's_9_34': [469], 1: [3555, 3556, 484, 482, 483], 's_13_1': [287], 's_13_11': [557], 12: [3964, 3961, 3962, 3963], 's_13_12': [605], 's_13_17': [3435], 's_13_20': [3361, 392], 's_13_31': [407], 's_15_2': [3738], 's_15_16': [754], 's_15_34': [844], 's_16_8': [783], 's_16_24': [3692], 29: [454, 453, 3602, 3604, 691, 692, 3603, 693], 's_16_29': [694], 's_16_30': [3694], 's_16_36': [559], 4: [378, 3766, 3706, 380, 379], 's_20_4': [3601], 's_20_8': [421], 21: [1025, 3152, 3153, 3154, 3155, 1021, 1022, 1024, 1023], 's_20_21': [406], 's_20_25': [435], 26: [450, 3183, 541, 3181, 3182], 's_20_26': [3122], 's_20_27': [3646], 's_20_33': [3241], 's_20_35': [3211], 's_24_1': [3497], 6: [3166, 3169, 3168, 3167], 's_24_6': [3121, 270], 's_24_11': [512], 19: [227, 331, 166, 3300, 3301], 's_24_19': [362], 22: [3946, 3826, 3827, 3949, 3947, 3948, 3872, 545], 's_24_22': [440], 's_24_27': [4006], 's_24_32': [3091, 3092], 's_24_35': [3226], 's_25_1': [481], 's_25_6': [420], 's_25_11': [3376], 's_25_14': [3302], 's_25_19': [3195], 's_25_35': [3466], 's_25_36': [333], 's_30_1': [3540], 's_30_8': [3634, 873], 's_30_17': [920], 's_30_23': [3739], 's_30_28': [3558], 's_30_29': [3588], 's_30_32': [3544], 's_35_1': [3482], 's_35_4': [3511], 's_35_18': [814], 's_35_21': [1039], 's_35_23': [874], 's_35_26': [3257, 526], 's_35_27': [799], 's_35_28': [527], 's_35_29': [513], 's_35_33': [408], 's_35_34': [979], 's_36_2': [633], 's_36_12': [395], 's_36_17': [3630], 's_36_29': [3721], 's_7_22': [3932], 's_7_28': [3453], 's_7_2': [3647], 's_7_14': [3557], 's_7_27': [558], 's_7_29': [3663], 's_7_34': [3693], 's_27_22': [3945], 's_27_33': [3735], 's_27_2': [738], 's_27_8': [797], 's_27_12': [275], 's_27_32': [708], 's_31_1': [3391], 's_31_4': [3526], 's_31_28': [467], 's_31_8': [782], 's_31_11': [662], 's_2_22': [3933], 's_2_6': [841, 3228], 's_2_21': [3574], 's_2_23': [3649], 's_2_26': [3198], 's_2_34': [3783], 's_8_33': [3286], 's_8_18': [3469], 's_8_19': [3270], 's_8_29': [3378], 10: [3394, 646, 3424, 902, 3318, 856, 3319], 's_11_10': [3317], 's_11_14': [616], 's_14_10': [676], 's_14_32': [3362], 's_17_4': [3871], 's_17_23': [3829], 's_17_34': [964], 's_17_12': [740], 's_17_19': [3390], 's_23_6': [871], 's_23_10': [3244], 's_23_12': [3979], 's_28_1': [3527], 's_28_10': [855], 's_28_26': [780], 's_32_26': [3227], 's_32_34': [3587], 's_32_10': [917], 's_32_18': [3454], 's_32_29': [723], 's_33_1': [303], 's_33_22': [304], 's_33_6': [3151], 's_34_4': [349], 's_34_22': [935], 's_34_21': [3845], 's_34_18': [3844], 's_34_29': [3513], 's_18_29': [3619], 's_18_10': [3439], 's_1_4': [3736], 's_1_22': [485], 's_12_4': [3976], 's_12_22': [800], 's_29_22': [3887, 515], 's_29_6': [511, 3212, 3213], 's_29_21': [3605], 's_21_22': [3934], 's_21_6': [795], 's_21_10': [3320], 's_26_6': [825], 's_26_19': [3180], 's_6_19': [226]}</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0005024390243902438</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.001576077858427024</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{0: [3753, 214, 3750, 544, 3752, 3751], 3: [274, 364, 3782, 3781], 's_0_3': [3765, 154], 5: [3349, 3346, 500, 631, 3348, 499, 498, 497, 3347], 's_0_5': [3797], 9: [3903, 3901, 649, 3902], 's_0_9': [709, 3798], 13: [3436, 3437, 620, 619, 618, 617], 's_0_13': [604], 15: [3723, 3722], 's_0_15': [664], 16: [813, 3709, 3707, 603, 3708], 's_0_16': [394], 20: [439, 438, 3256, 436, 391, 437], 's_0_20': [3662], 24: [376, 3422, 377, 3421, 425, 424, 423, 422], 's_0_24': [3677], 25: [3661, 347, 346, 3196, 496, 348, 3287], 's_0_25': [3676], 30: [859, 3541, 3542, 3543, 843, 3664, 3784, 919], 's_0_30': [3754], 35: [451, 452, 3769, 3768, 3767, 393, 3512, 529, 528], 's_0_35': [784], 36: [3633, 3632, 410, 409, 3631], 's_0_36': [739], 7: [3452, 590, 3572, 589, 588], 's_3_7': [574], 's_3_20': [3796], 27: [798, 290, 273, 3618, 3617, 289, 288, 3616], 's_3_27': [3915], 31: [363, 229, 228, 3408, 3407, 3406, 332, 3481], 's_3_31': [3780], 's_3_35': [514], 2: [3648, 3573, 766, 770, 769, 768, 767], 's_5_2': [3363, 811], 's_5_7': [3571], 8: [3679, 3271, 3272, 3273, 737, 3393, 858, 857], 's_5_8': [3288], 's_5_9': [560, 3977], 11: [542, 3377], 's_5_11': [677], 14: [602, 3303, 601], 's_5_14': [722], 17: [3420, 257, 258, 259, 3841, 3814, 3813, 3812, 3811, 365], 's_5_17': [256], 23: [3334, 886, 887, 890, 889, 888], 's_5_23': [872], 's_5_24': [3586], 28: [3124, 751, 752, 3467, 3468, 543, 753], 's_5_28': [3243], 's_5_31': [3331], 32: [571, 918, 3529, 572, 3528, 573], 's_5_32': [3242, 466], 33: [316, 319, 318, 3451, 317], 's_5_33': [302], 34: [3856, 3860, 3857, 678, 3859, 679, 3858], 's_5_34': [3842], 's_5_36': [3931], 's_9_7': [3873], 's_9_13': [3888], 18: [829, 827, 828], 's_9_18': [3918], 's_9_20': [3916], 's_9_24': [530, 4037], 's_9_34': [469], 1: [3555, 3556, 484, 482, 483], 's_13_1': [287], 's_13_11': [557], 12: [3964, 3961, 3962, 3963], 's_13_12': [605], 's_13_17': [3435], 's_13_20': [3361, 392], 's_13_31': [407], 's_15_2': [3738], 's_15_16': [754], 's_15_34': [844], 's_16_8': [783], 's_16_24': [3692], 29: [454, 453, 3602, 3604, 691, 692, 3603, 693], 's_16_29': [694], 's_16_30': [3694], 's_16_36': [559], 4: [378, 3766, 3706, 380, 379], 's_20_4': [3601], 's_20_8': [421], 21: [1025, 3152, 3153, 3154, 3155, 1021, 1022, 1024, 1023], 's_20_21': [406], 's_20_25': [435], 26: [450, 3183, 541, 3181, 3182], 's_20_26': [3122], 's_20_27': [3646], 's_20_33': [3241], 's_20_35': [3211], 's_24_1': [3497], 6: [3166, 3169, 3168, 3167], 's_24_6': [3121, 270], 's_24_11': [512], 19: [227, 331, 166, 3300, 3301], 's_24_19': [362], 22: [3946, 3826, 3827, 3949, 3947, 3948, 3872, 545], 's_24_22': [440], 's_24_27': [4006], 's_24_32': [3091, 3092], 's_24_35': [3226], 's_25_1': [481], 's_25_6': [420], 's_25_11': [3376], 's_25_14': [3302], 's_25_19': [3195], 's_25_35': [3466], 's_25_36': [333], 's_30_1': [3540], 's_30_8': [3634, 873], 's_30_17': [920], 's_30_23': [3739], 's_30_28': [3558], 's_30_29': [3588], 's_30_32': [3544], 's_35_1': [3482], 's_35_4': [3511], 's_35_18': [814], 's_35_21': [1039], 's_35_23': [874], 's_35_26': [3257, 526], 's_35_27': [799], 's_35_28': [527], 's_35_29': [513], 's_35_33': [408], 's_35_34': [979], 's_36_2': [633], 's_36_12': [395], 's_36_17': [3630], 's_36_29': [3721], 's_7_22': [3932], 's_7_28': [3453], 's_7_2': [3647], 's_7_14': [3557], 's_7_27': [558], 's_7_29': [3663], 's_7_34': [3693], 's_27_22': [3945], 's_27_33': [3735], 's_27_2': [738], 's_27_8': [797], 's_27_12': [275], 's_27_32': [708], 's_31_1': [3391], 's_31_4': [3526], 's_31_28': [467], 's_31_8': [782], 's_31_11': [662], 's_2_22': [3933], 's_2_6': [841, 3228], 's_2_21': [3574], 's_2_23': [3649], 's_2_26': [3198], 's_2_34': [3783], 's_8_33': [3286], 's_8_18': [3469], 's_8_19': [3270], 's_8_29': [3378], 10: [3394, 646, 3424, 902, 3318, 856, 3319], 's_11_10': [3317], 's_11_14': [616], 's_14_10': [676], 's_14_32': [3362], 's_17_4': [3871], 's_17_23': [3829], 's_17_34': [964], 's_17_12': [740], 's_17_19': [3390], 's_23_6': [871], 's_23_10': [3244], 's_23_12': [3979], 's_28_1': [3527], 's_28_10': [855], 's_28_26': [780], 's_32_26': [3227], 's_32_34': [3587], 's_32_10': [917], 's_32_18': [3454], 's_32_29': [723], 's_33_1': [303], 's_33_22': [304], 's_33_6': [3151], 's_34_4': [349], 's_34_22': [935], 's_34_21': [3845], 's_34_18': [3844], 's_34_29': [3513], 's_18_29': [3619], 's_18_10': [3439], 's_1_4': [3736], 's_1_22': [485], 's_12_4': [3976], 's_12_22': [800], 's_29_22': [3887, 515], 's_29_6': [511, 3212, 3213], 's_29_21': [3605], 's_21_22': [3934], 's_21_6': [795], 's_21_10': [3320], 's_26_6': [825], 's_26_19': [3180], 's_6_19': [226]}</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0005024390243902438</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.001576077858427024</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>{0: [3873, 604], 2: [873, 874, 3843, 3844], 3: [633, 634], 16: [739, 3918, 740], 24: [3767, 1039, 3768, 3769], 31: [3858, 3860, 3859], 36: [784, 3797, 3798], 1: [3784, 829], 4: [919, 783, 3664], 6: [3587, 3588, 694, 693], 11: [709, 3663, 708], 13: [769, 3903, 770], 14: [3783, 3722, 678, 679], 20: [3828, 3829], 22: [798, 799], 32: [3754, 964], 33: [920, 3813, 3814], 9: [3618, 3619, 979, 978], 12: [575, 574, 3753, 3752], 21: [724, 889, 3693, 3694], 27: [3678, 828, 3679], 37: [935, 934, 3633, 3634], 5: [3919, 950, 949, 3724], 7: [3542, 3543, 858, 860, 859], 8: [618, 3708], 26: [813, 3875, 3874, 814], 35: [3723], 17: [3904, 3739, 993, 994], 19: [1085, 3815], 29: [3632, 589], 30: [3710, 3709, 3648, 754], 34: [664, 663], 10: [844, 3738], 15: [3799], 25: [647, 648, 649], 28: [3889, 3890], 18: [3604, 3603], 23: [3650, 843, 3649]}</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.004048582995951417</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.009936936282856782</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{0: [3873, 604], 2: [873, 874, 3843, 3844], 3: [633, 634], 16: [739, 3918, 740], 24: [3767, 1039, 3768, 3769], 31: [3858, 3860, 3859], 36: [784, 3797, 3798], 1: [3784, 829], 4: [919, 783, 3664], 6: [3587, 3588, 694, 693], 11: [709, 3663, 708], 13: [769, 3903, 770], 14: [3783, 3722, 678, 679], 20: [3828, 3829], 22: [798, 799], 32: [3754, 964], 33: [920, 3813, 3814], 9: [3618, 3619, 979, 978], 12: [575, 574, 3753, 3752], 21: [724, 889, 3693, 3694], 27: [3678, 828, 3679], 37: [935, 934, 3633, 3634], 5: [3919, 950, 949, 3724], 7: [3542, 3543, 858, 860, 859], 8: [618, 3708], 26: [813, 3875, 3874, 814], 35: [3723], 17: [3904, 3739, 993, 994], 19: [1085, 3815], 29: [3632, 589], 30: [3710, 3709, 3648, 754], 34: [664, 663], 10: [844, 3738], 15: [3799], 25: [647, 648, 649], 28: [3889, 3890], 18: [3604, 3603], 23: [3650, 843, 3649]}</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0.004048582995951417</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.009936936282856782</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{0: [2461, 2524, 3568, 3298, 2522, 2523], 2: [2297, 3343, 3342, 1876, 3340, 3341], 's_0_2': [2446], 3: [3523, 2538, 2088, 3671, 3672, 3673, 2539], 's_0_3': [3658], 16: [3509, 1744, 3508, 3507, 3506, 3819, 3820, 3821, 2119, 2118, 2117], 's_0_16': [2553], 24: [3625, 3626, 3460, 3463, 2326, 2327, 2193, 3462, 3461], 's_0_24': [2582], 31: [3700, 3701, 3702, 3221, 2236, 2448, 3688, 3687, 2238, 2237], 's_0_31': [3703], 36: [2281, 1668, 1667, 3309, 3163, 3162, 3161, 3160, 1921, 3310], 's_0_36': [2521], 1: [2131, 3804, 3281, 2207, 2208, 2209, 3805, 3806], 's_2_1': [3476, 2102], 4: [1951, 2220, 1578, 1577, 1576, 3263, 1831, 3264, 3177, 3176, 3175], 's_2_4': [1875], 6: [2027, 1847, 3279, 3280], 's_2_6': [3369], 11: [3414, 2387, 3417, 3416, 2087, 3413, 3415], 's_2_11': [2177], 13: [1864, 1863, 1862, 1861, 3192, 3191, 2146, 3326, 3325], 's_2_13': [1997], 14: [2415, 2417, 2416], 's_2_14': [3358], 20: [2086, 3312, 3311], 's_2_20': [2071], 22: [3533, 3534, 3535, 2041, 2042, 3536], 's_2_22': [2056], 's_2_24': [3357], 's_2_31': [2162, 3431], 32: [3759, 3760, 3761, 3762, 2342, 2343, 2344], 's_2_32': [3372, 2401], 33: [1996, 1909, 1908, 1907, 3266, 3265, 1906], 's_2_33': [3234], 9: [3596, 3595, 1804, 1803, 1771, 1772, 1773, 3594], 's_3_9': [2133], 's_3_11': [2388], 12: [1967, 3670, 3520, 1969, 1968], 's_3_12': [3580], 's_3_14': [3538], 21: [3849, 3850, 3851, 2296, 3297, 2372, 2373, 2374, 3852, 2284, 3807], 's_3_21': [2283], 27: [2194, 3746, 1607, 1608, 3745, 3744, 3743, 1609], 's_3_27': [2058], 's_3_31': [3718, 2509], 37: [3116, 2490, 3117, 2537, 2492, 3388, 2552, 2551, 3118], 's_3_37': [3643, 2493], 's_16_1': [1714], 5: [2359, 3747, 3748, 2644, 2643, 2341, 3222, 3223, 2641, 2642], 's_16_5': [2657], 7: [1816, 1710, 3505, 3504, 1655, 1654, 1653, 1652, 1651, 3129], 's_16_7': [3864], 8: [3791, 3402, 3401, 2074, 2073, 2072, 3400], 's_16_8': [3775], 's_16_13': [3834], 's_16_21': [3836, 2195], 's_16_22': [2178], 26: [3429, 3430, 3865, 1939, 1938, 3355, 1937], 's_16_26': [1835], 's_16_27': [3773], 's_16_33': [3835], 35: [1593, 3732, 3731, 3730, 3683, 3684, 1819, 1774, 3729], 's_16_35': [1743], 's_16_37': [3493], 's_24_4': [3459, 3458], 's_24_5': [3464], 's_24_9': [2148], 17: [3610, 3611, 3612, 2310, 2311, 2312, 2313], 's_24_17': [2314, 3717, 2223], 19: [3655, 2043], 's_24_19': [1923], 's_24_21': [3627], 29: [3387, 2430, 2432, 2431], 's_24_29': [3478], 30: [2163, 3491, 3432, 2250, 2251, 2147, 2282, 3386], 's_24_30': [2267], 's_24_31': [2447], 's_24_32': [3537], 34: [3399, 3490, 1922], 's_24_34': [1952], 's_24_36': [3252, 3253], 's_31_1': [2164], 's_31_9': [3597], 10: [3237, 3236, 1713, 1712, 2221, 3296, 3295, 3294, 1711], 's_31_10': [3251], 's_31_12': [1984], 's_31_17': [3522], 's_31_19': [3716], 's_31_26': [3685, 1878], 's_31_33': [2161], 's_31_36': [2506, 2507, 2508, 3628], 's_36_4': [1681], 's_36_13': [3324], 15: [1805, 3879, 3578, 1699, 1698], 's_36_15': [3608], 's_36_21': [2371], 's_36_22': [3519], 25: [3550, 3548, 3549], 's_36_25': [3563], 28: [2100, 3131, 2014, 2013, 2011, 2012], 's_36_28': [3250], 's_36_29': [2536, 3103], 's_1_4': [2206], 's_1_9': [3581], 's_1_12': [1834], 's_1_13': [3789], 's_1_20': [3327], 's_1_26': [1924], 's_1_28': [2029], 's_4_5': [2356], 's_4_6': [1966], 's_4_7': [3128, 1636], 's_4_17': [3132], 18: [1697, 1547, 1592, 3444, 3443], 's_4_18': [3488], 's_4_21': [3206], 23: [2295, 3102, 3101, 3100, 1891, 3204, 1890], 's_4_23': [3189], 's_4_33': [2026], 's_4_35': [3668], 's_4_37': [2070], 's_6_8': [1982], 's_6_10': [1741], 's_6_11': [1832], 's_6_22': [2028], 's_6_23': [1846], 's_6_34': [1802], 's_11_12': [1877], 's_11_20': [3313], 's_11_7': [3398], 's_11_14': [2402], 's_11_21': [3328], 's_11_25': [3565], 's_11_27': [3368, 1637], 's_11_29': [2462], 's_11_30': [2192], 's_11_34': [1817], 's_13_10': [2176], 's_13_14': [2400], 's_13_17': [3207], 's_13_26': [3579], 's_13_28': [3190], 's_13_35': [3774], 's_14_21': [3267], 's_14_29': [3057], 's_14_30': [3477], 's_14_37': [3148], 's_20_21': [2266], 's_20_22': [3235], 's_20_32': [2357], 's_20_33': [2101], 's_22_28': [3370], 's_22_18': [3518], 's_22_30': [3385], 's_22_33': [3220], 's_22_35': [1563], 's_32_9': [1849, 3639], 's_32_26': [1879], 's_32_5': [2329], 's_32_17': [3642], 's_32_21': [2224], 's_32_33': [1894], 's_33_26': [3715], 's_33_7': [3130], 's_33_10': [2116], 's_33_19': [1893], 's_33_25': [3564], 's_9_7': [3489], 's_9_15': [3593], 's_9_18': [1787], 's_9_23': [3219], 's_9_34': [3384], 's_12_7': [3669], 's_12_8': [3521], 's_12_25': [1998], 's_12_34': [1833], 's_21_5': [2389], 's_21_7': [1670], 's_21_15': [1684], 's_21_30': [3447], 's_27_26': [3790, 1954], 's_27_7': [3503], 's_27_8': [2104], 's_27_10': [1728], 's_27_18': [3353], 's_27_25': [3473, 1638], 's_27_35': [3714, 1669], 's_37_28': [3115], 's_37_5': [3373], 's_37_17': [2325], 's_37_23': [2130, 3011], 's_37_29': [3133], 's_37_30': [3433], 's_5_17': [3582, 2433], 's_5_23': [3147], 's_5_35': [3794, 3793, 2299, 3792], 's_7_26': [1727], 's_7_10': [3354], 's_7_18': [1682], 's_7_23': [1801], 's_7_25': [1818], 's_7_34': [1848], 's_7_35': [3728], 's_8_25': [2057], 's_8_29': [2477], 's_8_30': [3446], 's_26_18': [3428], 's_26_19': [3640], 's_26_23': [1936], 's_26_28': [3445], 's_35_10': [3699], 's_17_10': [3609], 's_17_19': [1953], 's_17_23': [1950, 3025, 3026, 3027], 's_17_30': [3492], 's_19_28': [3686], 's_30_23': [3056], 's_30_10': [3371], 's_10_23': [1786]}</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0005818181818181818</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.001636464643347243</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{0: [2461, 2524, 3568, 3298, 2522, 2523], 2: [2297, 3343, 3342, 1876, 3340, 3341], 's_0_2': [2446], 3: [3523, 2538, 2088, 3671, 3672, 3673, 2539], 's_0_3': [3658], 16: [3509, 1744, 3508, 3507, 3506, 3819, 3820, 3821, 2119, 2118, 2117], 's_0_16': [2553], 24: [3625, 3626, 3460, 3463, 2326, 2327, 2193, 3462, 3461], 's_0_24': [2582], 31: [3700, 3701, 3702, 3221, 2236, 2448, 3688, 3687, 2238, 2237], 's_0_31': [3703], 36: [2281, 1668, 1667, 3309, 3163, 3162, 3161, 3160, 1921, 3310], 's_0_36': [2521], 1: [2131, 3804, 3281, 2207, 2208, 2209, 3805, 3806], 's_2_1': [3476, 2102], 4: [1951, 2220, 1578, 1577, 1576, 3263, 1831, 3264, 3177, 3176, 3175], 's_2_4': [1875], 6: [2027, 1847, 3279, 3280], 's_2_6': [3369], 11: [3414, 2387, 3417, 3416, 2087, 3413, 3415], 's_2_11': [2177], 13: [1864, 1863, 1862, 1861, 3192, 3191, 2146, 3326, 3325], 's_2_13': [1997], 14: [2415, 2417, 2416], 's_2_14': [3358], 20: [2086, 3312, 3311], 's_2_20': [2071], 22: [3533, 3534, 3535, 2041, 2042, 3536], 's_2_22': [2056], 's_2_24': [3357], 's_2_31': [2162, 3431], 32: [3759, 3760, 3761, 3762, 2342, 2343, 2344], 's_2_32': [3372, 2401], 33: [1996, 1909, 1908, 1907, 3266, 3265, 1906], 's_2_33': [3234], 9: [3596, 3595, 1804, 1803, 1771, 1772, 1773, 3594], 's_3_9': [2133], 's_3_11': [2388], 12: [1967, 3670, 3520, 1969, 1968], 's_3_12': [3580], 's_3_14': [3538], 21: [3849, 3850, 3851, 2296, 3297, 2372, 2373, 2374, 3852, 2284, 3807], 's_3_21': [2283], 27: [2194, 3746, 1607, 1608, 3745, 3744, 3743, 1609], 's_3_27': [2058], 's_3_31': [3718, 2509], 37: [3116, 2490, 3117, 2537, 2492, 3388, 2552, 2551, 3118], 's_3_37': [3643, 2493], 's_16_1': [1714], 5: [2359, 3747, 3748, 2644, 2643, 2341, 3222, 3223, 2641, 2642], 's_16_5': [2657], 7: [1816, 1710, 3505, 3504, 1655, 1654, 1653, 1652, 1651, 3129], 's_16_7': [3864], 8: [3791, 3402, 3401, 2074, 2073, 2072, 3400], 's_16_8': [3775], 's_16_13': [3834], 's_16_21': [3836, 2195], 's_16_22': [2178], 26: [3429, 3430, 3865, 1939, 1938, 3355, 1937], 's_16_26': [1835], 's_16_27': [3773], 's_16_33': [3835], 35: [1593, 3732, 3731, 3730, 3683, 3684, 1819, 1774, 3729], 's_16_35': [1743], 's_16_37': [3493], 's_24_4': [3459, 3458], 's_24_5': [3464], 's_24_9': [2148], 17: [3610, 3611, 3612, 2310, 2311, 2312, 2313], 's_24_17': [2314, 3717, 2223], 19: [3655, 2043], 's_24_19': [1923], 's_24_21': [3627], 29: [3387, 2430, 2432, 2431], 's_24_29': [3478], 30: [2163, 3491, 3432, 2250, 2251, 2147, 2282, 3386], 's_24_30': [2267], 's_24_31': [2447], 's_24_32': [3537], 34: [3399, 3490, 1922], 's_24_34': [1952], 's_24_36': [3252, 3253], 's_31_1': [2164], 's_31_9': [3597], 10: [3237, 3236, 1713, 1712, 2221, 3296, 3295, 3294, 1711], 's_31_10': [3251], 's_31_12': [1984], 's_31_17': [3522], 's_31_19': [3716], 's_31_26': [3685, 1878], 's_31_33': [2161], 's_31_36': [2506, 2507, 2508, 3628], 's_36_4': [1681], 's_36_13': [3324], 15: [1805, 3879, 3578, 1699, 1698], 's_36_15': [3608], 's_36_21': [2371], 's_36_22': [3519], 25: [3550, 3548, 3549], 's_36_25': [3563], 28: [2100, 3131, 2014, 2013, 2011, 2012], 's_36_28': [3250], 's_36_29': [2536, 3103], 's_1_4': [2206], 's_1_9': [3581], 's_1_12': [1834], 's_1_13': [3789], 's_1_20': [3327], 's_1_26': [1924], 's_1_28': [2029], 's_4_5': [2356], 's_4_6': [1966], 's_4_7': [3128, 1636], 's_4_17': [3132], 18: [1697, 1547, 1592, 3444, 3443], 's_4_18': [3488], 's_4_21': [3206], 23: [2295, 3102, 3101, 3100, 1891, 3204, 1890], 's_4_23': [3189], 's_4_33': [2026], 's_4_35': [3668], 's_4_37': [2070], 's_6_8': [1982], 's_6_10': [1741], 's_6_11': [1832], 's_6_22': [2028], 's_6_23': [1846], 's_6_34': [1802], 's_11_12': [1877], 's_11_20': [3313], 's_11_7': [3398], 's_11_14': [2402], 's_11_21': [3328], 's_11_25': [3565], 's_11_27': [3368, 1637], 's_11_29': [2462], 's_11_30': [2192], 's_11_34': [1817], 's_13_10': [2176], 's_13_14': [2400], 's_13_17': [3207], 's_13_26': [3579], 's_13_28': [3190], 's_13_35': [3774], 's_14_21': [3267], 's_14_29': [3057], 's_14_30': [3477], 's_14_37': [3148], 's_20_21': [2266], 's_20_22': [3235], 's_20_32': [2357], 's_20_33': [2101], 's_22_28': [3370], 's_22_18': [3518], 's_22_30': [3385], 's_22_33': [3220], 's_22_35': [1563], 's_32_9': [1849, 3639], 's_32_26': [1879], 's_32_5': [2329], 's_32_17': [3642], 's_32_21': [2224], 's_32_33': [1894], 's_33_26': [3715], 's_33_7': [3130], 's_33_10': [2116], 's_33_19': [1893], 's_33_25': [3564], 's_9_7': [3489], 's_9_15': [3593], 's_9_18': [1787], 's_9_23': [3219], 's_9_34': [3384], 's_12_7': [3669], 's_12_8': [3521], 's_12_25': [1998], 's_12_34': [1833], 's_21_5': [2389], 's_21_7': [1670], 's_21_15': [1684], 's_21_30': [3447], 's_27_26': [3790, 1954], 's_27_7': [3503], 's_27_8': [2104], 's_27_10': [1728], 's_27_18': [3353], 's_27_25': [3473, 1638], 's_27_35': [3714, 1669], 's_37_28': [3115], 's_37_5': [3373], 's_37_17': [2325], 's_37_23': [2130, 3011], 's_37_29': [3133], 's_37_30': [3433], 's_5_17': [3582, 2433], 's_5_23': [3147], 's_5_35': [3794, 3793, 2299, 3792], 's_7_26': [1727], 's_7_10': [3354], 's_7_18': [1682], 's_7_23': [1801], 's_7_25': [1818], 's_7_34': [1848], 's_7_35': [3728], 's_8_25': [2057], 's_8_29': [2477], 's_8_30': [3446], 's_26_18': [3428], 's_26_19': [3640], 's_26_23': [1936], 's_26_28': [3445], 's_35_10': [3699], 's_17_10': [3609], 's_17_19': [1953], 's_17_23': [1950, 3025, 3026, 3027], 's_17_30': [3492], 's_19_28': [3686], 's_30_23': [3056], 's_30_10': [3371], 's_10_23': [1786]}</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0005818181818181818</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.001636464643347243</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{0: [4967], 5: [536, 654, 655, 4997], 15: [581, 506, 5057], 18: [4922, 445, 446, 5056], 23: [4787, 521, 519, 520], 27: [4951, 4952], 28: [475, 4877], 35: [340, 4966, 4996, 341], 38: [459, 4907, 460], 8: [265, 4667, 4666, 264, 4665], 16: [564, 566, 565], 19: [5026, 671, 5027], 21: [4802, 4817, 535], 29: [309, 609, 4788, 4711, 4712], 30: [416, 4938, 4937], 31: [4953, 625, 624], 36: [610, 4832], 12: [4982, 356, 4981], 20: [5012, 431, 5011], 32: [4682, 504, 505], 1: [4743, 444, 4742], 9: [4862, 280, 4861], 25: [385, 4906, 386], 11: [294, 580, 4726, 4727], 34: [4697, 4696], 33: [401, 399, 400], 26: [551, 550, 4757, 4756], 37: [354, 4831, 355], 2: [430, 4816, 429], 3: [4636, 339], 6: [4801, 4800, 279], 10: [491], 14: [670, 4773, 4771, 4772], 7: [595, 5041, 5042, 596], 4: [371, 4741, 370], 24: [4846, 489, 4892, 490], 17: [325, 324, 4681], 13: [4891, 310], 22: [415]}</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.004032004032004031</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.01008296277550279</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{0: [4967], 5: [536, 654, 655, 4997], 15: [581, 506, 5057], 18: [4922, 445, 446, 5056], 23: [4787, 521, 519, 520], 27: [4951, 4952], 28: [475, 4877], 35: [340, 4966, 4996, 341], 38: [459, 4907, 460], 8: [265, 4667, 4666, 264, 4665], 16: [564, 566, 565], 19: [5026, 671, 5027], 21: [4802, 4817, 535], 29: [309, 609, 4788, 4711, 4712], 30: [416, 4938, 4937], 31: [4953, 625, 624], 36: [610, 4832], 12: [4982, 356, 4981], 20: [5012, 431, 5011], 32: [4682, 504, 505], 1: [4743, 444, 4742], 9: [4862, 280, 4861], 25: [385, 4906, 386], 11: [294, 580, 4726, 4727], 34: [4697, 4696], 33: [401, 399, 400], 26: [551, 550, 4757, 4756], 37: [354, 4831, 355], 2: [430, 4816, 429], 3: [4636, 339], 6: [4801, 4800, 279], 10: [491], 14: [670, 4773, 4771, 4772], 7: [595, 5041, 5042, 596], 4: [371, 4741, 370], 24: [4846, 489, 4892, 490], 17: [325, 324, 4681], 13: [4891, 310], 22: [415]}</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0.004032004032004031</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.01008296277550279</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{0: [1021, 3290, 3289, 739, 738, 737, 3288], 5: [829, 3755, 766, 767, 769, 768, 3753, 3754], 's_0_5': [3768], 15: [3545, 1084, 1082, 1083], 's_0_15': [3320], 18: [1173, 1172, 841, 1171, 3228, 3229, 3230], 's_0_18': [3291], 23: [664, 618, 3693], 's_0_23': [3663], 27: [3243, 782, 780, 781], 's_0_27': [646], 28: [3347, 3170, 3348, 3349, 1066, 3350, 1067, 1068, 1069], 's_0_28': [3260], 35: [3108, 916, 917, 3107, 3109, 3576, 3575, 3574, 918], 's_0_35': [736], 38: [3486, 1113, 3380, 1112], 's_0_38': [1141], 8: [512, 3364, 3363, 3362], 's_5_8': [752], 16: [886, 3274, 3273, 574, 573, 572, 3272], 's_5_16': [3752], 19: [3602, 843, 3603, 3604, 1158, 3605], 's_5_19': [1159], 21: [3830, 3828, 3829], 's_5_21': [770], 's_5_27': [3423], 29: [905, 979, 3919, 3920, 1217, 1218, 1219, 1220], 's_5_29': [3918], 30: [1053, 1115, 3650, 1114], 's_5_30': [3770], 31: [648, 647, 708, 707, 3470, 3469, 3468], 's_5_31': [3453], 's_5_35': [3139], 36: [3317, 1097, 1096, 3185, 3184, 3183, 3182, 526], 's_5_36': [3197, 3198], 12: [3213, 3305, 3216, 976, 3214, 3215], 's_15_12': [3335], 's_15_18': [1081], 20: [1189, 1186, 3725, 1188, 1187], 's_15_20': [3410], 's_15_30': [3635], 's_15_31': [3455], 32: [3677, 1279, 3681, 3678, 3679, 3680], 's_15_32': [1099], 's_15_38': [3365], 1: [1006, 1007, 3559, 722, 725, 724, 723, 3558], 's_18_1': [721], 9: [961, 3424, 962], 's_18_9': [842], 25: [3456, 3246, 3153, 1232, 1231, 3154, 1233, 3155, 3156], 's_18_25': [3231], 's_18_27': [661, 3227], 's_18_28': [1051], 's_18_32': [3666], 's_18_35': [3319], 's_18_38': [3306], 's_23_1': [3813], 11: [3695, 3124, 795, 3844, 799, 3694, 798, 797, 796], 's_23_11': [3798], 's_23_19': [3617], 's_23_21': [694], 's_23_32': [603], 34: [3722, 3708, 3966, 678, 679, 680, 3965, 3964, 3963], 's_23_34': [665], 's_27_12': [3244], 's_27_16': [601, 3242], 's_27_25': [691], 's_27_28': [3169, 856], 's_27_31': [3438], 33: [3709, 3514, 888, 889], 's_27_33': [3529], 's_28_9': [3500], 's_28_11': [3845], 's_28_12': [975], 's_28_16': [466], 's_28_21': [1054], 26: [3876, 3875, 3874, 3873, 619, 3797, 542, 543, 544], 's_28_26': [1070], 's_28_30': [3785], 's_28_31': [692], 's_28_36': [407], 37: [3125, 3126, 1265, 1264, 1263, 1262, 3200, 3201, 1261], 's_28_37': [3171], 's_28_38': [3351], 2: [1205, 812, 3484, 3485, 1098, 857, 1204, 1203, 3560], 's_35_2': [3454], 3: [933, 935, 3739, 934], 's_35_3': [919], 6: [1040, 1038, 3515, 1039], 's_35_6': [3544], 's_35_8': [3379], 10: [1396, 1397, 1398, 3517], 's_35_10': [1293, 3532], 14: [590, 589, 586, 587, 3543, 3542, 588], 's_35_14': [3092], 's_35_19': [1323, 3606], 's_35_25': [825], 's_38_2': [1052], 7: [3590, 3589, 481, 482, 3591, 3452, 558, 3588, 3587], 's_38_7': [1128], 's_38_29': [3336], 's_38_31': [1157], 's_38_37': [1111], 's_8_1': [991], 4: [875, 874, 3199, 871, 872, 873], 's_8_4': [887], 's_8_11': [3378], 's_8_14': [3407], 's_8_16': [3467], 24: [3710, 3425, 3426, 1337, 3712, 1235, 1022, 1338, 1234, 3711], 's_8_24': [1037], 's_8_26': [3332], 's_16_1': [3528], 's_16_14': [3632], 's_16_9': [932], 's_16_12': [947], 's_16_26': [3782], 's_16_34': [3767], 's_19_14': [528], 's_19_31': [3618], 's_19_4': [3619], 's_19_20': [3740], 's_19_33': [858], 's_19_7': [483], 's_19_30': [1143], 's_21_6': [3815], 's_21_11': [784], 's_21_29': [1144], 17: [3723, 3724, 3531, 3530, 993, 992], 's_29_17': [994], 's_29_26': [1009], 's_29_4': [3799], 's_29_34': [980], 13: [1249, 3651, 1248], 's_29_13': [3636], 22: [755, 545, 3947, 3951, 3948, 3950, 3949], 's_30_22': [3935], 's_30_24': [3846], 's_30_7': [1008], 's_30_13': [3696], 's_31_1': [3557], 's_31_11': [3633], 's_31_14': [3513, 617], 's_31_24': [3471], 's_31_32': [662, 663], 's_31_34': [3648], 's_36_14': [3257], 's_36_24': [1202, 1201, 3441], 's_36_26': [541], 's_36_37': [1170], 's_36_7': [3287], 's_12_4': [931], 's_12_20': [1216, 3276], 's_12_10': [1336, 3366], 's_12_37': [1126], 's_20_2': [3816], 's_20_26': [1174], 's_20_25': [3261], 's_32_2': [3801], 's_32_6': [3665], 's_32_14': [693], 's_32_26': [3662], 's_32_34': [559], 's_32_37': [3756], 's_1_2': [3408], 's_1_6': [1023], 's_1_11': [3843], 's_1_14': [3303], 's_1_17': [948], 's_1_22': [3933], 's_1_24': [3394], 's_1_26': [3888], 's_9_2': [3439], 's_9_6': [977], 's_9_17': [3409], 's_25_14': [571], 's_25_17': [1278], 's_25_4': [960], 's_25_7': [3152], 's_25_13': [1247], 's_11_2': [3393], 's_11_4': [3859], 's_11_7': [828], 's_11_17': [859], 's_11_22': [920], 's_11_37': [946, 901, 3259], 's_34_2': [3996, 1190], 's_34_6': [3980], 's_34_17': [710, 709], 's_34_33': [890], 's_34_3': [3979], 's_34_37': [3981], 's_33_2': [827], 's_33_6': [3769], 's_33_17': [754], 's_33_24': [978, 3649], 's_33_3': [3634], 's_33_7': [783], 's_26_22': [1085], 's_26_24': [3890, 3891], 's_26_3': [950], 's_26_4': [3889], 's_26_7': [3527], 's_37_4': [1035, 1036], 's_2_4': [3334], 's_2_14': [753], 's_2_22': [4041, 1160], 's_2_24': [3861], 's_3_17': [949], 's_3_24': [1024], 's_3_4': [3904], 's_6_17': [3620], 's_6_22': [1025], 's_10_24': [3682], 's_10_7': [1383], 's_14_22': [3932], 's_17_13': [3516], 's_22_24': [3936], 's_24_13': [1309]}</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0006940639269406392</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.001785475712854785</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{0: [1021, 3290, 3289, 739, 738, 737, 3288], 5: [829, 3755, 766, 767, 769, 768, 3753, 3754], 's_0_5': [3768], 15: [3545, 1084, 1082, 1083], 's_0_15': [3320], 18: [1173, 1172, 841, 1171, 3228, 3229, 3230], 's_0_18': [3291], 23: [664, 618, 3693], 's_0_23': [3663], 27: [3243, 782, 780, 781], 's_0_27': [646], 28: [3347, 3170, 3348, 3349, 1066, 3350, 1067, 1068, 1069], 's_0_28': [3260], 35: [3108, 916, 917, 3107, 3109, 3576, 3575, 3574, 918], 's_0_35': [736], 38: [3486, 1113, 3380, 1112], 's_0_38': [1141], 8: [512, 3364, 3363, 3362], 's_5_8': [752], 16: [886, 3274, 3273, 574, 573, 572, 3272], 's_5_16': [3752], 19: [3602, 843, 3603, 3604, 1158, 3605], 's_5_19': [1159], 21: [3830, 3828, 3829], 's_5_21': [770], 's_5_27': [3423], 29: [905, 979, 3919, 3920, 1217, 1218, 1219, 1220], 's_5_29': [3918], 30: [1053, 1115, 3650, 1114], 's_5_30': [3770], 31: [648, 647, 708, 707, 3470, 3469, 3468], 's_5_31': [3453], 's_5_35': [3139], 36: [3317, 1097, 1096, 3185, 3184, 3183, 3182, 526], 's_5_36': [3197, 3198], 12: [3213, 3305, 3216, 976, 3214, 3215], 's_15_12': [3335], 's_15_18': [1081], 20: [1189, 1186, 3725, 1188, 1187], 's_15_20': [3410], 's_15_30': [3635], 's_15_31': [3455], 32: [3677, 1279, 3681, 3678, 3679, 3680], 's_15_32': [1099], 's_15_38': [3365], 1: [1006, 1007, 3559, 722, 725, 724, 723, 3558], 's_18_1': [721], 9: [961, 3424, 962], 's_18_9': [842], 25: [3456, 3246, 3153, 1232, 1231, 3154, 1233, 3155, 3156], 's_18_25': [3231], 's_18_27': [661, 3227], 's_18_28': [1051], 's_18_32': [3666], 's_18_35': [3319], 's_18_38': [3306], 's_23_1': [3813], 11: [3695, 3124, 795, 3844, 799, 3694, 798, 797, 796], 's_23_11': [3798], 's_23_19': [3617], 's_23_21': [694], 's_23_32': [603], 34: [3722, 3708, 3966, 678, 679, 680, 3965, 3964, 3963], 's_23_34': [665], 's_27_12': [3244], 's_27_16': [601, 3242], 's_27_25': [691], 's_27_28': [3169, 856], 's_27_31': [3438], 33: [3709, 3514, 888, 889], 's_27_33': [3529], 's_28_9': [3500], 's_28_11': [3845], 's_28_12': [975], 's_28_16': [466], 's_28_21': [1054], 26: [3876, 3875, 3874, 3873, 619, 3797, 542, 543, 544], 's_28_26': [1070], 's_28_30': [3785], 's_28_31': [692], 's_28_36': [407], 37: [3125, 3126, 1265, 1264, 1263, 1262, 3200, 3201, 1261], 's_28_37': [3171], 's_28_38': [3351], 2: [1205, 812, 3484, 3485, 1098, 857, 1204, 1203, 3560], 's_35_2': [3454], 3: [933, 935, 3739, 934], 's_35_3': [919], 6: [1040, 1038, 3515, 1039], 's_35_6': [3544], 's_35_8': [3379], 10: [1396, 1397, 1398, 3517], 's_35_10': [1293, 3532], 14: [590, 589, 586, 587, 3543, 3542, 588], 's_35_14': [3092], 's_35_19': [1323, 3606], 's_35_25': [825], 's_38_2': [1052], 7: [3590, 3589, 481, 482, 3591, 3452, 558, 3588, 3587], 's_38_7': [1128], 's_38_29': [3336], 's_38_31': [1157], 's_38_37': [1111], 's_8_1': [991], 4: [875, 874, 3199, 871, 872, 873], 's_8_4': [887], 's_8_11': [3378], 's_8_14': [3407], 's_8_16': [3467], 24: [3710, 3425, 3426, 1337, 3712, 1235, 1022, 1338, 1234, 3711], 's_8_24': [1037], 's_8_26': [3332], 's_16_1': [3528], 's_16_14': [3632], 's_16_9': [932], 's_16_12': [947], 's_16_26': [3782], 's_16_34': [3767], 's_19_14': [528], 's_19_31': [3618], 's_19_4': [3619], 's_19_20': [3740], 's_19_33': [858], 's_19_7': [483], 's_19_30': [1143], 's_21_6': [3815], 's_21_11': [784], 's_21_29': [1144], 17: [3723, 3724, 3531, 3530, 993, 992], 's_29_17': [994], 's_29_26': [1009], 's_29_4': [3799], 's_29_34': [980], 13: [1249, 3651, 1248], 's_29_13': [3636], 22: [755, 545, 3947, 3951, 3948, 3950, 3949], 's_30_22': [3935], 's_30_24': [3846], 's_30_7': [1008], 's_30_13': [3696], 's_31_1': [3557], 's_31_11': [3633], 's_31_14': [3513, 617], 's_31_24': [3471], 's_31_32': [662, 663], 's_31_34': [3648], 's_36_14': [3257], 's_36_24': [1202, 1201, 3441], 's_36_26': [541], 's_36_37': [1170], 's_36_7': [3287], 's_12_4': [931], 's_12_20': [1216, 3276], 's_12_10': [1336, 3366], 's_12_37': [1126], 's_20_2': [3816], 's_20_26': [1174], 's_20_25': [3261], 's_32_2': [3801], 's_32_6': [3665], 's_32_14': [693], 's_32_26': [3662], 's_32_34': [559], 's_32_37': [3756], 's_1_2': [3408], 's_1_6': [1023], 's_1_11': [3843], 's_1_14': [3303], 's_1_17': [948], 's_1_22': [3933], 's_1_24': [3394], 's_1_26': [3888], 's_9_2': [3439], 's_9_6': [977], 's_9_17': [3409], 's_25_14': [571], 's_25_17': [1278], 's_25_4': [960], 's_25_7': [3152], 's_25_13': [1247], 's_11_2': [3393], 's_11_4': [3859], 's_11_7': [828], 's_11_17': [859], 's_11_22': [920], 's_11_37': [946, 901, 3259], 's_34_2': [3996, 1190], 's_34_6': [3980], 's_34_17': [710, 709], 's_34_33': [890], 's_34_3': [3979], 's_34_37': [3981], 's_33_2': [827], 's_33_6': [3769], 's_33_17': [754], 's_33_24': [978, 3649], 's_33_3': [3634], 's_33_7': [783], 's_26_22': [1085], 's_26_24': [3890, 3891], 's_26_3': [950], 's_26_4': [3889], 's_26_7': [3527], 's_37_4': [1035, 1036], 's_2_4': [3334], 's_2_14': [753], 's_2_22': [4041, 1160], 's_2_24': [3861], 's_3_17': [949], 's_3_24': [1024], 's_3_4': [3904], 's_6_17': [3620], 's_6_22': [1025], 's_10_24': [3682], 's_10_7': [1383], 's_14_22': [3932], 's_17_13': [3516], 's_22_24': [3936], 's_24_13': [1309]}</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0006940639269406392</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.001785475712854785</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{0: [5168, 1632], 6: [1301, 5241, 5123, 5122, 1302], 16: [5154, 1317, 5153, 5152], 18: [1601, 5287, 5288, 1602], 21: [1557, 1555, 5092, 5093, 1556], 24: [5228, 1332, 5226, 5227], 27: [5213, 5211, 5212], 30: [4927, 1631, 4928], 3: [4958, 4957], 9: [5242, 5243], 11: [5106, 4911, 1286, 1287], 13: [5061, 1272, 5001, 1271], 15: [5167, 1452], 19: [5031, 5032], 20: [1422, 1421], 26: [4898, 4897, 1316, 4896], 28: [1511, 1572, 5138], 29: [5198, 5196, 5197], 34: [5183, 5182, 1466, 1467], 36: [1542, 1541], 37: [4987, 4986, 1241], 1: [4973, 1587, 1586], 2: [1375, 5077, 1377, 1376], 4: [1331, 1330], 10: [1706, 1707, 5273], 25: [4943, 1496, 1497], 32: [5046, 5047, 1436, 1437], 39: [1406, 5272, 1407], 5: [1346, 5303, 1347, 5302], 8: [1390, 5181, 1391, 1392], 14: [5063, 5062], 17: [5078, 1662], 33: [1242, 5256, 1453, 5257], 35: [1661, 1451, 5002, 5003], 38: [5016, 5018, 5017], 7: [1483, 1481, 1482], 31: [1648, 1647, 1646], 12: [5258, 1616, 1617], 22: [1571, 5108, 5107], 23: [1345, 4972]}</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.01375</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0168049067627389</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{0: [5168, 1632], 6: [1301, 5241, 5123, 5122, 1302], 16: [5154, 1317, 5153, 5152], 18: [1601, 5287, 5288, 1602], 21: [1557, 1555, 5092, 5093, 1556], 24: [5228, 1332, 5226, 5227], 27: [5213, 5211, 5212], 30: [4927, 1631, 4928], 3: [4958, 4957], 9: [5242, 5243], 11: [5106, 4911, 1286, 1287], 13: [5061, 1272, 5001, 1271], 15: [5167, 1452], 19: [5031, 5032], 20: [1422, 1421], 26: [4898, 4897, 1316, 4896], 28: [1511, 1572, 5138], 29: [5198, 5196, 5197], 34: [5183, 5182, 1466, 1467], 36: [1542, 1541], 37: [4987, 4986, 1241], 1: [4973, 1587, 1586], 2: [1375, 5077, 1377, 1376], 4: [1331, 1330], 10: [1706, 1707, 5273], 25: [4943, 1496, 1497], 32: [5046, 5047, 1436, 1437], 39: [1406, 5272, 1407], 5: [1346, 5303, 1347, 5302], 8: [1390, 5181, 1391, 1392], 14: [5063, 5062], 17: [5078, 1662], 33: [1242, 5256, 1453, 5257], 35: [1661, 1451, 5002, 5003], 38: [5016, 5018, 5017], 7: [1483, 1481, 1482], 31: [1648, 1647, 1646], 12: [5258, 1616, 1617], 22: [1571, 5108, 5107], 23: [1345, 4972]}</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0.01375</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0168049067627389</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{0: [4901, 2109, 2110], 6: [1959, 4674, 4301, 2257, 2258, 2259, 4676, 4675], 's_0_6': [4660], 16: [4855, 1991, 4423, 4422, 4421, 4420, 1988, 1989, 1990], 's_0_16': [4900], 18: [4945, 4946, 4678, 4947, 2499, 2500, 4948], 's_0_18': [2230], 21: [4932, 2216, 4856, 2215], 's_0_21': [4931], 24: [5126, 2141, 4436, 2138, 2140, 2139], 's_0_24': [4736], 27: [4602, 2048, 2154, 4600, 4601], 's_0_27': [4691], 30: [2516, 4886, 4887, 2515, 4888], 's_0_30': [2125], 3: [4693, 4255, 4256, 4257, 4544, 2317, 2559, 2318, 4542, 4543], 's_6_3': [2182], 9: [4781, 4782, 2423, 2424, 4783], 's_6_9': [2049], 11: [4392, 4511, 2198], 's_6_11': [2197], 13: [4827, 4826, 2229, 4495, 4496, 2228], 's_6_13': [2227], 15: [1931, 1869, 1870, 2156, 4961, 4960], 's_6_15': [4750], 19: [4498, 2558, 4378, 4377, 2291, 2290, 2289, 2288, 2287], 's_6_19': [4692], 20: [2437, 4345, 4347, 4348, 4346], 's_6_20': [2167], 's_6_24': [4811], 26: [4481, 4482, 2483, 4513, 5143, 2438, 2441, 2440, 2439], 's_6_26': [4512], 28: [2079, 2081, 2005, 4841, 4840, 2080], 's_6_28': [4765], 29: [4494, 2186, 1942, 1943, 1944, 5051, 5050, 1945, 1946], 's_6_29': [4659], 34: [4722, 4723, 5095, 5096, 5097, 5098, 2591, 2590, 2589], 's_6_34': [2274], 36: [4706, 4918, 4917, 2094, 4916, 2095], 's_6_36': [4707], 37: [4559, 4375, 2183, 2648, 2647, 4273, 4272, 4271, 2152, 4376], 's_6_37': [2256], 1: [4709, 4708, 2471, 2468, 2469, 2470], 's_16_1': [4438], 2: [2406, 2407, 5081, 5082, 2411, 2410, 2408, 2409], 's_16_2': [2422], 4: [2587, 4468, 4466, 2393, 4467], 's_16_4': [2272], 10: [4857, 2485, 2486, 5005, 5007, 5006], 's_16_10': [2006], 's_16_20': [1987], 25: [5038, 1852, 1853, 5037, 5036, 5035, 5034, 1856, 1855, 1854], 's_16_25': [1838], 's_16_26': [2378], 's_16_27': [4510], 32: [2122, 2123, 1973, 4585, 4586, 4588, 2303, 4587], 's_16_32': [2063, 2062], 's_16_36': [4825], 39: [4647, 2347, 2366, 2365, 2348, 2350, 2349], 's_16_39': [4437], 's_18_3': [4648], 5: [4540, 4541, 2214, 2513, 2514, 4619, 4618, 4617], 's_18_5': [4738], 8: [4631, 4360, 4361, 2242, 2243, 2530, 2529, 4573, 4572], 's_18_8': [2498], 14: [2337, 5171, 5142, 2380, 4872, 2261, 2260], 's_18_14': [2425], 17: [4976, 4977, 2381, 4979, 4978], 's_18_17': [2501], 33: [1916, 1912, 1913, 1915, 1914], 's_18_33': [4930], 35: [2618, 2620, 2619], 's_18_35': [4858], 38: [4797, 2454, 4798, 2542, 5008, 2546, 2545, 2543, 2544], 's_18_38': [4813], 7: [2709, 2322, 4991, 4694, 2634, 2321, 4992, 4993, 2635], 's_21_7': [2275], 's_21_9': [2305], 's_21_19': [5021], 's_21_28': [2200], 's_21_30': [4871], 31: [5083, 2532, 2169, 2170, 2171, 2172, 5156, 5157, 5158], 's_21_31': [2217], 's_21_38': [4933], 's_21_39': [4752], 's_24_4': [2153], 's_24_8': [2047], 's_24_9': [4796], 's_24_11': [4526], 12: [4915, 2021, 5065, 5141, 2066], 's_24_12': [5111], 's_24_13': [2018], 's_24_15': [5125], 's_24_28': [4751], 's_24_29': [2051], 's_24_32': [4435], 's_27_5': [2034], 's_27_8': [4630], 's_27_25': [1839], 's_27_29': [4555], 's_27_31': [4571], 's_27_32': [4525], 's_27_36': [2124], 's_30_2': [2455, 2456, 5172], 's_30_8': [4843], 's_30_14': [2320], 's_30_25': [5023], 's_30_26': [2517], 's_30_34': [4903], 's_3_1': [2739], 's_3_2': [4362], 's_3_7': [2724], 's_3_20': [2002], 's_3_25': [1837], 's_3_26': [4558], 's_3_32': [2379], 's_3_34': [2319, 4737], 's_3_35': [4574], 's_3_39': [4317], 's_9_1': [4662], 's_9_2': [4812], 's_9_28': [2020], 's_9_31': [2185], 's_9_32': [4527], 's_11_19': [4407], 's_11_26': [2168], 's_11_32': [2302], 's_11_4': [4393], 's_11_13': [2108], 22: [1961, 1960, 2093, 1975, 1974, 4646, 4645], 's_11_22': [2078], 's_13_38': [4828], 's_13_8': [2003], 's_13_19': [4661], 's_13_26': [4497], 's_13_37': [2033], 's_13_29': [4480, 4479], 's_13_14': [2395], 's_15_34': [2111], 's_15_2': [2126], 's_15_7': [4962], 's_15_22': [4975], 's_15_28': [1930, 4809, 1899, 4735], 's_15_29': [4854], 's_15_33': [5004], 's_15_36': [2155], 's_19_34': [2588], 's_19_38': [4363], 's_19_2': [4258, 2497], 's_19_7': [5127], 's_19_4': [4424], 's_19_22': [2304], 's_19_35': [4483], 's_19_36': [4902], 's_19_37': [2662, 4409], 's_20_38': [2527], 's_20_37': [2107, 4270], 's_20_29': [1927], 's_20_32': [1958, 1957], 's_20_39': [4332], 's_26_31': [2547], 's_26_38': [2528], 's_26_2': [4963], 's_26_7': [2442, 5217], 's_26_32': [2453], 's_26_37': [2482], 's_28_10': [2065], 's_28_31': [4766], 's_28_2': [2096], 's_28_22': [4720], 's_28_25': [4780], 's_28_29': [4885], 's_28_36': [4990], 's_29_5': [1928], 's_29_31': [5066], 's_29_7': [2201], 's_29_32': [1883, 4644], 's_29_17': [5052], 's_34_1': [4873], 23: [4769, 4452, 4453, 2663, 4739, 2664], 's_34_23': [4784, 2725], 's_34_12': [1901], 's_34_17': [2605], 's_34_25': [2246], 's_34_36': [4721], 's_36_5': [2199], 's_36_38': [2576], 's_36_22': [4705], 's_36_14': [2335], 's_36_17': [2561], 's_37_2': [2421], 's_37_7': [2649], 's_37_33': [1972, 4390], 's_37_39': [4287], 's_1_5': [2484], 's_1_10': [5053], 's_1_23': [2769], 's_1_31': [2472], 's_1_38': [4603], 's_2_5': [4753], 's_2_7': [5187], 's_2_8': [4768], 's_4_5': [2213], 's_4_23': [4439], 's_4_38': [4303], 's_4_8': [4451], 's_4_32': [4465], 's_10_14': [2336], 's_10_31': [2487], 's_10_38': [5068], 's_10_39': [2351], 's_25_31': [2397, 2396], 's_25_7': [2636], 's_25_32': [4570], 's_32_8': [2333], 's_32_22': [2004], 's_32_39': [2394], 's_39_7': [5022], 's_39_8': [2364], 's_39_14': [2367], 's_39_22': [4556, 4557], 's_5_7': [2679], 's_5_22': [2019], 's_5_23': [4604], 's_5_33': [1898], 's_5_38': [4528], 's_8_38': [2531], 's_8_22': [2273], 's_8_33': [1897], 's_14_7': [5292], 's_14_12': [2142], 's_17_35': [4964], 's_33_12': [5140], 's_35_23': [4754], 's_35_38': [4663], 's_38_7': [2651], 's_31_22': [2184], 's_12_22': [5080]}</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0008865546218487394</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.001936783380688246</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{0: [4901, 2109, 2110], 6: [1959, 4674, 4301, 2257, 2258, 2259, 4676, 4675], 's_0_6': [4660], 16: [4855, 1991, 4423, 4422, 4421, 4420, 1988, 1989, 1990], 's_0_16': [4900], 18: [4945, 4946, 4678, 4947, 2499, 2500, 4948], 's_0_18': [2230], 21: [4932, 2216, 4856, 2215], 's_0_21': [4931], 24: [5126, 2141, 4436, 2138, 2140, 2139], 's_0_24': [4736], 27: [4602, 2048, 2154, 4600, 4601], 's_0_27': [4691], 30: [2516, 4886, 4887, 2515, 4888], 's_0_30': [2125], 3: [4693, 4255, 4256, 4257, 4544, 2317, 2559, 2318, 4542, 4543], 's_6_3': [2182], 9: [4781, 4782, 2423, 2424, 4783], 's_6_9': [2049], 11: [4392, 4511, 2198], 's_6_11': [2197], 13: [4827, 4826, 2229, 4495, 4496, 2228], 's_6_13': [2227], 15: [1931, 1869, 1870, 2156, 4961, 4960], 's_6_15': [4750], 19: [4498, 2558, 4378, 4377, 2291, 2290, 2289, 2288, 2287], 's_6_19': [4692], 20: [2437, 4345, 4347, 4348, 4346], 's_6_20': [2167], 's_6_24': [4811], 26: [4481, 4482, 2483, 4513, 5143, 2438, 2441, 2440, 2439], 's_6_26': [4512], 28: [2079, 2081, 2005, 4841, 4840, 2080], 's_6_28': [4765], 29: [4494, 2186, 1942, 1943, 1944, 5051, 5050, 1945, 1946], 's_6_29': [4659], 34: [4722, 4723, 5095, 5096, 5097, 5098, 2591, 2590, 2589], 's_6_34': [2274], 36: [4706, 4918, 4917, 2094, 4916, 2095], 's_6_36': [4707], 37: [4559, 4375, 2183, 2648, 2647, 4273, 4272, 4271, 2152, 4376], 's_6_37': [2256], 1: [4709, 4708, 2471, 2468, 2469, 2470], 's_16_1': [4438], 2: [2406, 2407, 5081, 5082, 2411, 2410, 2408, 2409], 's_16_2': [2422], 4: [2587, 4468, 4466, 2393, 4467], 's_16_4': [2272], 10: [4857, 2485, 2486, 5005, 5007, 5006], 's_16_10': [2006], 's_16_20': [1987], 25: [5038, 1852, 1853, 5037, 5036, 5035, 5034, 1856, 1855, 1854], 's_16_25': [1838], 's_16_26': [2378], 's_16_27': [4510], 32: [2122, 2123, 1973, 4585, 4586, 4588, 2303, 4587], 's_16_32': [2063, 2062], 's_16_36': [4825], 39: [4647, 2347, 2366, 2365, 2348, 2350, 2349], 's_16_39': [4437], 's_18_3': [4648], 5: [4540, 4541, 2214, 2513, 2514, 4619, 4618, 4617], 's_18_5': [4738], 8: [4631, 4360, 4361, 2242, 2243, 2530, 2529, 4573, 4572], 's_18_8': [2498], 14: [2337, 5171, 5142, 2380, 4872, 2261, 2260], 's_18_14': [2425], 17: [4976, 4977, 2381, 4979, 4978], 's_18_17': [2501], 33: [1916, 1912, 1913, 1915, 1914], 's_18_33': [4930], 35: [2618, 2620, 2619], 's_18_35': [4858], 38: [4797, 2454, 4798, 2542, 5008, 2546, 2545, 2543, 2544], 's_18_38': [4813], 7: [2709, 2322, 4991, 4694, 2634, 2321, 4992, 4993, 2635], 's_21_7': [2275], 's_21_9': [2305], 's_21_19': [5021], 's_21_28': [2200], 's_21_30': [4871], 31: [5083, 2532, 2169, 2170, 2171, 2172, 5156, 5157, 5158], 's_21_31': [2217], 's_21_38': [4933], 's_21_39': [4752], 's_24_4': [2153], 's_24_8': [2047], 's_24_9': [4796], 's_24_11': [4526], 12: [4915, 2021, 5065, 5141, 2066], 's_24_12': [5111], 's_24_13': [2018], 's_24_15': [5125], 's_24_28': [4751], 's_24_29': [2051], 's_24_32': [4435], 's_27_5': [2034], 's_27_8': [4630], 's_27_25': [1839], 's_27_29': [4555], 's_27_31': [4571], 's_27_32': [4525], 's_27_36': [2124], 's_30_2': [2455, 2456, 5172], 's_30_8': [4843], 's_30_14': [2320], 's_30_25': [5023], 's_30_26': [2517], 's_30_34': [4903], 's_3_1': [2739], 's_3_2': [4362], 's_3_7': [2724], 's_3_20': [2002], 's_3_25': [1837], 's_3_26': [4558], 's_3_32': [2379], 's_3_34': [2319, 4737], 's_3_35': [4574], 's_3_39': [4317], 's_9_1': [4662], 's_9_2': [4812], 's_9_28': [2020], 's_9_31': [2185], 's_9_32': [4527], 's_11_19': [4407], 's_11_26': [2168], 's_11_32': [2302], 's_11_4': [4393], 's_11_13': [2108], 22: [1961, 1960, 2093, 1975, 1974, 4646, 4645], 's_11_22': [2078], 's_13_38': [4828], 's_13_8': [2003], 's_13_19': [4661], 's_13_26': [4497], 's_13_37': [2033], 's_13_29': [4480, 4479], 's_13_14': [2395], 's_15_34': [2111], 's_15_2': [2126], 's_15_7': [4962], 's_15_22': [4975], 's_15_28': [1930, 4809, 1899, 4735], 's_15_29': [4854], 's_15_33': [5004], 's_15_36': [2155], 's_19_34': [2588], 's_19_38': [4363], 's_19_2': [4258, 2497], 's_19_7': [5127], 's_19_4': [4424], 's_19_22': [2304], 's_19_35': [4483], 's_19_36': [4902], 's_19_37': [2662, 4409], 's_20_38': [2527], 's_20_37': [2107, 4270], 's_20_29': [1927], 's_20_32': [1958, 1957], 's_20_39': [4332], 's_26_31': [2547], 's_26_38': [2528], 's_26_2': [4963], 's_26_7': [2442, 5217], 's_26_32': [2453], 's_26_37': [2482], 's_28_10': [2065], 's_28_31': [4766], 's_28_2': [2096], 's_28_22': [4720], 's_28_25': [4780], 's_28_29': [4885], 's_28_36': [4990], 's_29_5': [1928], 's_29_31': [5066], 's_29_7': [2201], 's_29_32': [1883, 4644], 's_29_17': [5052], 's_34_1': [4873], 23: [4769, 4452, 4453, 2663, 4739, 2664], 's_34_23': [4784, 2725], 's_34_12': [1901], 's_34_17': [2605], 's_34_25': [2246], 's_34_36': [4721], 's_36_5': [2199], 's_36_38': [2576], 's_36_22': [4705], 's_36_14': [2335], 's_36_17': [2561], 's_37_2': [2421], 's_37_7': [2649], 's_37_33': [1972, 4390], 's_37_39': [4287], 's_1_5': [2484], 's_1_10': [5053], 's_1_23': [2769], 's_1_31': [2472], 's_1_38': [4603], 's_2_5': [4753], 's_2_7': [5187], 's_2_8': [4768], 's_4_5': [2213], 's_4_23': [4439], 's_4_38': [4303], 's_4_8': [4451], 's_4_32': [4465], 's_10_14': [2336], 's_10_31': [2487], 's_10_38': [5068], 's_10_39': [2351], 's_25_31': [2397, 2396], 's_25_7': [2636], 's_25_32': [4570], 's_32_8': [2333], 's_32_22': [2004], 's_32_39': [2394], 's_39_7': [5022], 's_39_8': [2364], 's_39_14': [2367], 's_39_22': [4556, 4557], 's_5_7': [2679], 's_5_22': [2019], 's_5_23': [4604], 's_5_33': [1898], 's_5_38': [4528], 's_8_38': [2531], 's_8_22': [2273], 's_8_33': [1897], 's_14_7': [5292], 's_14_12': [2142], 's_17_35': [4964], 's_33_12': [5140], 's_35_23': [4754], 's_35_38': [4663], 's_38_7': [2651], 's_31_22': [2184], 's_12_22': [5080]}</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0008865546218487394</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.001936783380688246</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{0: [725, 3888, 3886, 3887], 4: [349, 350], 5: [501, 499, 500], 6: [4053, 741, 740, 3918], 7: [3781, 3782, 649, 3783], 10: [574, 3916, 3917, 575], 11: [561, 3901, 560, 3902], 15: [4037, 485], 17: [410, 409], 21: [514, 515, 4006, 4007], 22: [3768, 724, 3708], 25: [335], 27: [3843, 3842], 32: [305, 4036, 381], 35: [530, 3873, 3872], 8: [529, 453, 3692, 3691, 319], 12: [3812, 3811, 290, 289], 20: [3871, 275, 3841, 274], 24: [439, 3961, 440], 28: [484, 3766, 3767], 31: [364, 365, 3991, 366], 38: [3826, 3828, 3827], 1: [664, 665, 3992, 3993], 2: [3976, 3977], 18: [336, 4051, 4052], 29: [3856, 3857], 33: [3946, 379, 380], 37: [679, 3931, 3932, 680], 9: [589, 591, 3858, 590], 14: [4081, 4082, 604, 605], 26: [619, 620], 16: [334, 3797, 3796], 23: [634, 3751, 3752], 34: [546, 544, 545], 36: [3707, 394, 395], 40: [454], 30: [4096, 455, 3962], 39: [603, 3662, 3722, 559], 3: [4021, 4023, 396, 4022], 19: [4067, 469, 470], 13: [423, 425, 424]}</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.005720853020048526</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01179815369501599</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{0: [725, 3888, 3886, 3887], 4: [349, 350], 5: [501, 499, 500], 6: [4053, 741, 740, 3918], 7: [3781, 3782, 649, 3783], 10: [574, 3916, 3917, 575], 11: [561, 3901, 560, 3902], 15: [4037, 485], 17: [410, 409], 21: [514, 515, 4006, 4007], 22: [3768, 724, 3708], 25: [335], 27: [3843, 3842], 32: [305, 4036, 381], 35: [530, 3873, 3872], 8: [529, 453, 3692, 3691, 319], 12: [3812, 3811, 290, 289], 20: [3871, 275, 3841, 274], 24: [439, 3961, 440], 28: [484, 3766, 3767], 31: [364, 365, 3991, 366], 38: [3826, 3828, 3827], 1: [664, 665, 3992, 3993], 2: [3976, 3977], 18: [336, 4051, 4052], 29: [3856, 3857], 33: [3946, 379, 380], 37: [679, 3931, 3932, 680], 9: [589, 591, 3858, 590], 14: [4081, 4082, 604, 605], 26: [619, 620], 16: [334, 3797, 3796], 23: [634, 3751, 3752], 34: [546, 544, 545], 36: [3707, 394, 395], 40: [454], 30: [4096, 455, 3962], 39: [603, 3662, 3722, 559], 3: [4021, 4023, 396, 4022], 19: [4067, 469, 470], 13: [423, 425, 424]}</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.005720853020048526</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01179815369501599</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{0: [4052, 3857, 561, 560, 559, 3589, 3588, 3587, 558], 4: [725, 3889, 3585, 288, 289, 3888, 3887, 3886], 's_0_4': [439], 5: [3257, 615, 709, 708, 616, 3348, 707], 's_0_5': [3573], 6: [846, 4069, 4068, 4067, 4066, 258, 259, 260], 's_0_6': [4053], 7: [435, 3420, 3421, 436, 3482, 437], 's_0_7': [3512], 10: [721, 3600, 3601, 3602, 722, 723, 3603], 's_0_10': [738], 11: [3347, 3346, 542, 620, 619, 3782, 544, 543], 's_0_11': [4007], 15: [590, 587, 589, 588], 's_0_15': [3572], 17: [4021, 3859, 889, 890, 4024, 4023, 4022], 's_0_17': [470], 21: [649, 646, 739, 645, 3708, 648, 647], 's_0_21': [3722], 22: [888, 887, 917, 886, 932, 3274], 's_0_22': [933], 25: [3765, 484, 3766], 's_0_25': [3842], 27: [3286, 305, 3225, 301, 302, 303, 3856, 304], 's_0_27': [4051, 306], 32: [3917, 604], 's_0_32': [545], 35: [3618, 318, 3616, 571, 572, 573, 3617], 's_0_35': [633], 8: [3495, 680, 679, 678, 346, 3496, 677, 3377, 3376, 347], 's_4_8': [3873], 12: [3738, 784, 783], 's_4_12': [3918], 20: [3093, 3092, 3091, 183, 182, 181, 3090], 's_4_20': [3570], 's_4_21': [634], 24: [184, 185, 3870, 3780, 244, 3977, 3976, 350, 3871], 's_4_24': [3885], 28: [829, 828, 827, 377, 3406, 3407, 3409, 3408], 's_4_28': [3874], 31: [496, 500, 499, 3390, 3391, 497, 498], 's_4_31': [3586], 38: [845, 844, 842, 841, 3030, 3031, 843, 3032, 3033, 840], 's_4_38': [3903], 1: [856, 481, 3196, 3197, 3195, 3198], 's_5_1': [780, 781, 3349], 2: [3948, 3632, 751, 3933, 752, 3633, 755, 753, 754], 's_5_2': [3378], 's_5_8': [3843], 's_5_12': [3723], 's_5_15': [3678], 18: [514, 198, 199, 3798, 3797, 3796, 3795], 's_5_18': [3783], 's_5_28': [3543], 29: [602, 797, 782, 3453, 3451, 3452], 's_5_29': [617], 33: [3720, 3721, 451, 452, 453], 's_5_33': [3242], 37: [425, 424, 3528, 3527, 423, 422], 's_5_37': [693], 9: [4036, 4037, 3648, 3647, 530, 526, 527, 528, 529], 's_6_9': [411], 's_6_10': [3615], 14: [661, 662, 663, 3930, 3931, 664, 3932, 665], 's_6_14': [666], 's_6_18': [3630], 26: [3555, 3317, 3316, 257, 255, 3301, 256], 's_6_26': [243, 242], 's_6_27': [3706], 's_6_38': [4039, 771], 's_7_1': [391, 3137], 's_7_9': [3167], 's_7_11': [421], 16: [3240, 3526, 214, 211, 212, 213], 's_7_16': [227], 23: [270, 271, 272, 275, 274, 273], 's_7_23': [3061], 's_7_28': [392], 's_7_33': [3361], 34: [710, 3993, 3992, 3991, 3990, 137, 138, 139, 140], 's_7_34': [3435], 36: [333, 3781, 409, 3692, 334, 3693, 408, 3694, 918, 919], 's_7_36': [3497], 40: [557, 467, 3438, 3437], 's_7_40': [482], 's_10_1': [3183], 's_10_2': [768], 's_10_9': [724], 's_10_15': [3303], 30: [136, 3270, 3273, 3272, 3271], 's_10_30': [3288], 's_10_33': [438], 's_10_34': [123], 's_10_36': [3604], 39: [376, 3154, 3150, 3153, 3151, 3152], 's_10_39': [3168], 3: [483, 3812, 3811, 395, 3677, 394], 's_11_3': [3662], 's_11_9': [574], 's_11_14': [3858], 's_11_17': [4038], 's_11_18': [469], 's_11_25': [454], 's_11_27': [317], 's_11_29': [3467], 's_11_30': [3345, 106], 's_11_31': [407], 's_11_33': [3332], 's_11_34': [605], 's_11_35': [3557], 's_11_40': [512], 's_15_2': [3947], 's_15_21': [3513], 's_15_24': [575], 's_15_30': [3287], 's_15_32': [3752], 's_15_35': [586], 's_17_2': [3949], 's_17_12': [3739], 's_17_23': [290], 's_17_24': [335], 's_17_28': [3844], 's_17_36': [3769], 's_17_37': [440], 's_21_1': [3213, 3212], 's_21_2': [3768], 's_21_12': [3709], 's_21_14': [3663], 19: [124, 3556, 348, 3825, 3829, 3828, 349, 3826, 3827], 's_21_19': [740], 's_21_28': [3753], 's_21_30': [631, 3362], 's_21_32': [3902], 's_21_39': [630], 's_22_1': [3244], 's_22_28': [3394], 's_22_36': [3454], 's_22_39': [916], 's_25_16': [3750], 's_25_18': [364], 's_25_31': [3736], 's_25_37': [3707], 's_27_1': [226], 's_27_8': [3241], 's_27_9': [320, 3945], 's_27_14': [380], 's_27_20': [3360], 's_27_24': [3915], 's_27_28': [3436], 's_27_29': [3466], 's_27_36': [3676], 's_32_3': [3916], 's_32_14': [515], 's_32_18': [3767], 's_35_1': [3228, 3227], 's_35_3': [319], 's_35_8': [3542], 's_35_9': [3182], 's_35_14': [3333], 's_35_20': [3540], 's_35_23': [3661], 's_35_26': [3318], 's_35_37': [513], 's_8_39': [406, 3256], 's_8_20': [345], 's_8_34': [3978], 13: [150, 151, 154, 153, 152], 's_8_13': [3375], 's_8_16': [228], 's_8_23': [3166], 's_8_29': [3468], 's_8_33': [3211], 's_8_40': [3423], 's_12_19': [694], 's_12_18': [799], 's_12_29': [798], 's_20_2': [766], 's_20_18': [3465], 's_24_19': [109], 's_24_36': [3841], 's_24_13': [155], 's_24_16': [215], 's_24_23': [3900], 's_24_33': [3735], 's_28_39': [736, 737], 's_28_9': [3649], 's_28_19': [378], 's_28_37': [632], 's_28_40': [3439], 's_31_1': [3181], 's_31_30': [362], 's_31_2': [3962, 3963], 's_31_13': [167], 's_31_14': [485], 's_31_18': [197], 's_31_23': [3405], 's_31_29': [287], 's_31_37': [3901], 's_38_1': [825, 3094], 's_38_26': [3045], 's_38_13': [165], 's_38_19': [859], 's_38_23': [285], 's_1_26': [240], 's_1_30': [691], 's_1_39': [810], 's_2_9': [769], 's_2_19': [770], 's_2_34': [800], 's_2_36': [3484], 's_18_19': [3705], 's_29_36': [3529], 's_29_33': [3422], 's_29_40': [692], 's_33_30': [466], 's_33_19': [169], 's_33_16': [229], 's_37_9': [3646], 's_37_19': [3571], 's_37_34': [4005, 4006], 's_37_3': [3751], 's_37_14': [3946], 's_9_26': [511], 's_9_3': [396], 's_14_30': [676], 's_14_19': [3813], 's_14_34': [4008], 's_14_3': [365], 's_26_16': [3180], 's_26_23': [286], 's_26_30': [316], 's_16_39': [361, 3136], 's_16_19': [363], 's_16_36': [3691], 's_23_19': [3511], 's_34_30': [91, 3330], 's_34_19': [125], 's_36_3': [410], 's_40_30': [767], 's_40_19': [3541], 's_39_13': [166], 's_3_19': [3810], 's_19_13': [3840]}</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0007530864197530867</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.001714183193456449</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{0: [4052, 3857, 561, 560, 559, 3589, 3588, 3587, 558], 4: [725, 3889, 3585, 288, 289, 3888, 3887, 3886], 's_0_4': [439], 5: [3257, 615, 709, 708, 616, 3348, 707], 's_0_5': [3573], 6: [846, 4069, 4068, 4067, 4066, 258, 259, 260], 's_0_6': [4053], 7: [435, 3420, 3421, 436, 3482, 437], 's_0_7': [3512], 10: [721, 3600, 3601, 3602, 722, 723, 3603], 's_0_10': [738], 11: [3347, 3346, 542, 620, 619, 3782, 544, 543], 's_0_11': [4007], 15: [590, 587, 589, 588], 's_0_15': [3572], 17: [4021, 3859, 889, 890, 4024, 4023, 4022], 's_0_17': [470], 21: [649, 646, 739, 645, 3708, 648, 647], 's_0_21': [3722], 22: [888, 887, 917, 886, 932, 3274], 's_0_22': [933], 25: [3765, 484, 3766], 's_0_25': [3842], 27: [3286, 305, 3225, 301, 302, 303, 3856, 304], 's_0_27': [4051, 306], 32: [3917, 604], 's_0_32': [545], 35: [3618, 318, 3616, 571, 572, 573, 3617], 's_0_35': [633], 8: [3495, 680, 679, 678, 346, 3496, 677, 3377, 3376, 347], 's_4_8': [3873], 12: [3738, 784, 783], 's_4_12': [3918], 20: [3093, 3092, 3091, 183, 182, 181, 3090], 's_4_20': [3570], 's_4_21': [634], 24: [184, 185, 3870, 3780, 244, 3977, 3976, 350, 3871], 's_4_24': [3885], 28: [829, 828, 827, 377, 3406, 3407, 3409, 3408], 's_4_28': [3874], 31: [496, 500, 499, 3390, 3391, 497, 498], 's_4_31': [3586], 38: [845, 844, 842, 841, 3030, 3031, 843, 3032, 3033, 840], 's_4_38': [3903], 1: [856, 481, 3196, 3197, 3195, 3198], 's_5_1': [780, 781, 3349], 2: [3948, 3632, 751, 3933, 752, 3633, 755, 753, 754], 's_5_2': [3378], 's_5_8': [3843], 's_5_12': [3723], 's_5_15': [3678], 18: [514, 198, 199, 3798, 3797, 3796, 3795], 's_5_18': [3783], 's_5_28': [3543], 29: [602, 797, 782, 3453, 3451, 3452], 's_5_29': [617], 33: [3720, 3721, 451, 452, 453], 's_5_33': [3242], 37: [425, 424, 3528, 3527, 423, 422], 's_5_37': [693], 9: [4036, 4037, 3648, 3647, 530, 526, 527, 528, 529], 's_6_9': [411], 's_6_10': [3615], 14: [661, 662, 663, 3930, 3931, 664, 3932, 665], 's_6_14': [666], 's_6_18': [3630], 26: [3555, 3317, 3316, 257, 255, 3301, 256], 's_6_26': [243, 242], 's_6_27': [3706], 's_6_38': [4039, 771], 's_7_1': [391, 3137], 's_7_9': [3167], 's_7_11': [421], 16: [3240, 3526, 214, 211, 212, 213], 's_7_16': [227], 23: [270, 271, 272, 275, 274, 273], 's_7_23': [3061], 's_7_28': [392], 's_7_33': [3361], 34: [710, 3993, 3992, 3991, 3990, 137, 138, 139, 140], 's_7_34': [3435], 36: [333, 3781, 409, 3692, 334, 3693, 408, 3694, 918, 919], 's_7_36': [3497], 40: [557, 467, 3438, 3437], 's_7_40': [482], 's_10_1': [3183], 's_10_2': [768], 's_10_9': [724], 's_10_15': [3303], 30: [136, 3270, 3273, 3272, 3271], 's_10_30': [3288], 's_10_33': [438], 's_10_34': [123], 's_10_36': [3604], 39: [376, 3154, 3150, 3153, 3151, 3152], 's_10_39': [3168], 3: [483, 3812, 3811, 395, 3677, 394], 's_11_3': [3662], 's_11_9': [574], 's_11_14': [3858], 's_11_17': [4038], 's_11_18': [469], 's_11_25': [454], 's_11_27': [317], 's_11_29': [3467], 's_11_30': [3345, 106], 's_11_31': [407], 's_11_33': [3332], 's_11_34': [605], 's_11_35': [3557], 's_11_40': [512], 's_15_2': [3947], 's_15_21': [3513], 's_15_24': [575], 's_15_30': [3287], 's_15_32': [3752], 's_15_35': [586], 's_17_2': [3949], 's_17_12': [3739], 's_17_23': [290], 's_17_24': [335], 's_17_28': [3844], 's_17_36': [3769], 's_17_37': [440], 's_21_1': [3213, 3212], 's_21_2': [3768], 's_21_12': [3709], 's_21_14': [3663], 19: [124, 3556, 348, 3825, 3829, 3828, 349, 3826, 3827], 's_21_19': [740], 's_21_28': [3753], 's_21_30': [631, 3362], 's_21_32': [3902], 's_21_39': [630], 's_22_1': [3244], 's_22_28': [3394], 's_22_36': [3454], 's_22_39': [916], 's_25_16': [3750], 's_25_18': [364], 's_25_31': [3736], 's_25_37': [3707], 's_27_1': [226], 's_27_8': [3241], 's_27_9': [320, 3945], 's_27_14': [380], 's_27_20': [3360], 's_27_24': [3915], 's_27_28': [3436], 's_27_29': [3466], 's_27_36': [3676], 's_32_3': [3916], 's_32_14': [515], 's_32_18': [3767], 's_35_1': [3228, 3227], 's_35_3': [319], 's_35_8': [3542], 's_35_9': [3182], 's_35_14': [3333], 's_35_20': [3540], 's_35_23': [3661], 's_35_26': [3318], 's_35_37': [513], 's_8_39': [406, 3256], 's_8_20': [345], 's_8_34': [3978], 13: [150, 151, 154, 153, 152], 's_8_13': [3375], 's_8_16': [228], 's_8_23': [3166], 's_8_29': [3468], 's_8_33': [3211], 's_8_40': [3423], 's_12_19': [694], 's_12_18': [799], 's_12_29': [798], 's_20_2': [766], 's_20_18': [3465], 's_24_19': [109], 's_24_36': [3841], 's_24_13': [155], 's_24_16': [215], 's_24_23': [3900], 's_24_33': [3735], 's_28_39': [736, 737], 's_28_9': [3649], 's_28_19': [378], 's_28_37': [632], 's_28_40': [3439], 's_31_1': [3181], 's_31_30': [362], 's_31_2': [3962, 3963], 's_31_13': [167], 's_31_14': [485], 's_31_18': [197], 's_31_23': [3405], 's_31_29': [287], 's_31_37': [3901], 's_38_1': [825, 3094], 's_38_26': [3045], 's_38_13': [165], 's_38_19': [859], 's_38_23': [285], 's_1_26': [240], 's_1_30': [691], 's_1_39': [810], 's_2_9': [769], 's_2_19': [770], 's_2_34': [800], 's_2_36': [3484], 's_18_19': [3705], 's_29_36': [3529], 's_29_33': [3422], 's_29_40': [692], 's_33_30': [466], 's_33_19': [169], 's_33_16': [229], 's_37_9': [3646], 's_37_19': [3571], 's_37_34': [4005, 4006], 's_37_3': [3751], 's_37_14': [3946], 's_9_26': [511], 's_9_3': [396], 's_14_30': [676], 's_14_19': [3813], 's_14_34': [4008], 's_14_3': [365], 's_26_16': [3180], 's_26_23': [286], 's_26_30': [316], 's_16_39': [361, 3136], 's_16_19': [363], 's_16_36': [3691], 's_23_19': [3511], 's_34_30': [91, 3330], 's_34_19': [125], 's_36_3': [410], 's_40_30': [767], 's_40_19': [3541], 's_39_13': [166], 's_3_19': [3810], 's_19_13': [3840]}</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0007530864197530867</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.001714183193456449</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>{0: [3464, 2641, 2642], 3: [3239, 3284, 3314, 2671], 4: [2655, 2657, 2656], 5: [2687, 3508, 3509], 6: [2716, 3539, 2718, 2717], 19: [2580, 3344, 2581], 24: [2475, 2476, 3463, 2477], 30: [2310, 3479, 2311, 2312, 3478, 3477], 31: [3179, 2492, 2491, 3178], 33: [2626, 3358, 3359], 13: [2566, 2567, 3432, 3433], 18: [2520, 3253, 3254, 2521], 25: [3074, 2612, 2611, 2610], 40: [3313, 3312], 41: [2341, 3238, 3237], 9: [2523, 2582, 2522, 3418], 12: [2296, 3134, 3133, 3252, 2386], 15: [2640, 3224, 2701, 3104], 17: [2402, 3494, 3493], 35: [3164, 2400, 3163], 7: [2417, 2415, 2416], 20: [3088, 2597, 2595, 2596], 26: [2445, 2447, 2446], 32: [2460, 3417, 2462, 2461], 36: [3389, 3387, 3388], 37: [3299, 2505, 3298, 2507, 2506], 8: [2432, 3538], 10: [3329, 2551, 2552], 27: [3119, 2536, 3118], 1: [2250, 2490, 3072, 3073], 21: [3222, 3223], 23: [3267, 3268], 34: [3192, 2625, 3193], 38: [2537, 3373], 22: [3147, 2431, 2430, 3148], 28: [3043, 3042], 29: [2355, 2356, 2357, 2342, 3372], 39: [2387, 3343, 2401], 16: [3297, 3177, 2325, 2327, 2326], 14: [3403, 3402], 2: [2371, 3328, 2372], 11: [3103, 3102]}</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.007535384791702481</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01300078038230059</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>{0: [3464, 2641, 2642], 3: [3239, 3284, 3314, 2671], 4: [2655, 2657, 2656], 5: [2687, 3508, 3509], 6: [2716, 3539, 2718, 2717], 19: [2580, 3344, 2581], 24: [2475, 2476, 3463, 2477], 30: [2310, 3479, 2311, 2312, 3478, 3477], 31: [3179, 2492, 2491, 3178], 33: [2626, 3358, 3359], 13: [2566, 2567, 3432, 3433], 18: [2520, 3253, 3254, 2521], 25: [3074, 2612, 2611, 2610], 40: [3313, 3312], 41: [2341, 3238, 3237], 9: [2523, 2582, 2522, 3418], 12: [2296, 3134, 3133, 3252, 2386], 15: [2640, 3224, 2701, 3104], 17: [2402, 3494, 3493], 35: [3164, 2400, 3163], 7: [2417, 2415, 2416], 20: [3088, 2597, 2595, 2596], 26: [2445, 2447, 2446], 32: [2460, 3417, 2462, 2461], 36: [3389, 3387, 3388], 37: [3299, 2505, 3298, 2507, 2506], 8: [2432, 3538], 10: [3329, 2551, 2552], 27: [3119, 2536, 3118], 1: [2250, 2490, 3072, 3073], 21: [3222, 3223], 23: [3267, 3268], 34: [3192, 2625, 3193], 38: [2537, 3373], 22: [3147, 2431, 2430, 3148], 28: [3043, 3042], 29: [2355, 2356, 2357, 2342, 3372], 39: [2387, 3343, 2401], 16: [3297, 3177, 2325, 2327, 2326], 14: [3403, 3402], 2: [2371, 3328, 2372], 11: [3103, 3102]}</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0.007535384791702481</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01300078038230059</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>{0: [2477, 1954, 3402, 3595, 3401, 3400, 1952, 1953], 3: [4212, 2316, 3762, 2297, 2298, 3672, 2313, 2315, 2314], 's_0_3': [2312], 4: [4091, 3670, 3671, 2168, 2167, 2166, 2164, 2165], 's_0_4': [3685], 5: [2662, 2661, 3624, 3625, 3626, 2238, 3731, 3732, 3733, 2659, 2660], 's_0_5': [2237], 6: [3896, 3897, 2285, 2284, 3580, 2570, 2569, 3581, 2283, 3658, 3657], 's_0_6': [2282], 19: [3700, 4090, 3805, 1998, 1999, 2000, 4480, 2003, 2002, 2001], 's_0_19': [3505], 24: [4273, 3808, 4079, 4078, 2448, 4272, 2447, 3898, 2451, 2450, 2449], 's_0_24': [3433], 30: [4315, 3656, 3655, 2014, 2018, 2017, 3654, 2016, 2015], 's_0_30': [3760], 31: [2058, 2613, 2615, 2614, 3913, 3912, 3911, 3910, 2059], 's_0_31': [2057], 33: [3986, 2118, 2119, 4211, 2121, 2120], 's_0_33': [3775], 13: [2330, 2629, 2645, 2135, 3926, 3927, 3928], 's_3_13': [2329], 18: [2270, 4465, 4466, 4121, 2271, 2272], 's_3_18': [3972], 25: [1851, 3596, 2178, 3491, 3490, 1848, 1849, 1850], 's_3_25': [2133, 3536, 3537], 's_3_31': [2404], 's_3_33': [3881, 3882], 40: [2420, 3942, 3835, 3836, 3941, 3834, 2210], 's_3_40': [3987], 41: [2223, 2539, 3718, 2209, 3717], 's_3_41': [2344], 's_4_5': [2073], 9: [2585, 2630, 3687, 2028, 2029, 3958, 3957, 3956, 3686, 2179, 2180], 's_4_9': [3701], 12: [4435, 1928, 1927, 3924, 1926, 2211, 1924, 4001, 4000, 1925], 's_4_12': [4136], 15: [2253, 2256, 3807, 2254, 2255], 's_4_15': [3761], 17: [1747, 2407, 4377, 4374, 4375, 4376], 's_4_17': [2183], 's_4_19': [4481], 35: [4525, 4527, 4526], 's_4_35': [4511], 7: [3519, 2318, 4587, 4586, 4585, 1733, 1727, 1728, 1729, 1730, 4584, 1731, 1732], 's_5_7': [1803], 20: [1778, 1773, 4014, 3746, 3745, 3744, 1774, 1777, 1776, 1775], 's_5_20': [1908], 's_5_25': [2163], 26: [1943, 1942, 4258, 4255, 4259, 4256, 4257], 's_5_26': [2647], 's_5_31': [3839], 32: [2134, 4301, 4300, 3793, 3792, 3791, 3790, 1909, 1910, 1911, 1912, 4299], 's_5_32': [3794], 's_5_33': [3730], 36: [2509, 2525, 3823], 's_5_36': [3748], 37: [2032, 3943, 4241, 2600, 2601, 2602, 2153, 2512, 4363, 4362, 4361, 2152], 's_5_37': [4364], 8: [3778, 2494, 2493, 3520, 3521, 3522, 3523], 's_6_8': [2508], 's_6_9': [2043], 10: [2075, 4033, 2301, 4030, 1880, 4031, 4032, 2300], 's_6_10': [2299], 's_6_15': [2374], 's_6_20': [3579], 's_6_25': [2193], 27: [1973, 1972, 1971, 4135, 3853, 3852, 3851, 2030, 2031], 's_6_27': [3854], 's_6_30': [2148], 's_6_31': [3899], 's_6_36': [2555], 's_6_37': [2599, 3763, 2554], 1: [2228, 4119, 4120, 2091, 2227, 4151, 2226, 4196], 's_19_1': [1986], 's_19_9': [3460], 's_19_10': [4075], 's_19_18': [2108], 's_19_20': [1939], 21: [3729, 2194, 2419, 2418, 3642, 1819, 3639, 3640, 3641], 's_19_21': [3804], 23: [4453, 2076, 2077, 4452, 4451, 4449, 4450], 's_19_23': [2123], 34: [2105, 4046, 2045, 4540, 4180, 2048, 2047, 2046], 's_19_34': [2004], 's_19_35': [4510], 38: [4061, 2402, 3538, 3806, 2090, 2089, 2088, 3477, 3476, 2087], 's_19_38': [3550], 's_24_8': [2432], 's_24_9': [2495], 's_24_21': [3747], 22: [2241, 1820, 1805, 4168, 4167, 4166, 4165, 4164, 1806], 's_24_22': [2571], 's_24_26': [2347], 's_24_27': [2540], 28: [4347, 4497, 4197, 2392, 2393], 's_24_28': [4213], 29: [4228, 2468, 4287, 2462, 2463, 2467, 2466, 2465, 2464], 's_24_29': [3417], 's_24_37': [4064], 39: [4019, 2378, 2498, 4108, 4109, 4408, 2497, 2765, 2496], 's_24_39': [2691], 's_24_40': [2405], 's_30_1': [4195], 16: [4436, 4437, 4438, 2483, 2482, 2481, 2480, 2479, 2478, 3614, 3613], 's_30_16': [2033], 's_30_17': [2062], 's_30_20': [1878], 's_30_21': [1893], 's_30_22': [4150], 's_30_25': [1834], 's_30_26': [1987], 's_30_31': [3820], 's_30_34': [4226], 's_30_37': [4360], 's_30_41': [3716], 14: [3597, 2435, 2434, 2433], 's_31_14': [3598], 's_31_16': [3629], 's_31_34': [2060], 's_31_37': [3914, 2675, 4049], 's_31_38': [2239], 's_31_39': [3974], 's_31_40': [2224], 2: [2197, 4138, 2436, 2437, 4137, 2375, 4181, 4182, 2377, 2376], 's_33_2': [2136], 's_33_10': [2225], 's_33_13': [3971], 's_33_32': [2149, 3821], 's_33_34': [3985], 's_33_37': [2122, 4331], 's_33_38': [4105], 's_13_12': [4002], 's_13_2': [2331], 's_13_8': [2628, 3583], 's_13_29': [2646, 4229], 's_13_34': [4047], 's_13_36': [3824], 's_13_39': [4004], 's_18_1': [4316], 's_18_12': [4106], 's_18_9': [2181], 's_18_10': [4227], 's_18_15': [4271], 's_18_22': [2151], 's_18_23': [2092], 's_18_32': [2269], 's_18_37': [4332, 2317], 's_25_1': [4134], 's_25_12': [3880], 's_25_10': [1836], 's_25_14': [3611, 3612, 2358], 's_25_15': [2268], 's_25_21': [3774], 's_25_38': [2208], 's_25_41': [3461, 2222], 's_40_7': [1714], 's_40_12': [1879], 's_40_16': [4048], 's_40_9': [2240], 's_40_29': [4092], 's_40_38': [3940], 11: [4152, 2359, 2363, 2362, 2360, 2361], 's_41_11': [3702], 's_41_16': [2538], 's_41_29': [3688], 's_41_32': [2524], 's_41_21': [3673], 's_9_2': [2586], 's_9_8': [2013], 's_9_14': [3973], 's_9_38': [3506], 's_9_39': [4093], 's_12_1': [2196], 's_12_10': [3969, 1835], 's_12_16': [4421, 4420], 's_12_21': [3759], 's_12_26': [4570], 's_12_32': [3909], 's_12_34': [4555], 's_15_11': [4062], 's_15_28': [2257], 's_15_21': [3776], 's_17_7': [4329], 's_17_37': [2198], 's_17_26': [1957], 's_17_32': [1897], 's_17_39': [4423], 's_17_20': [4239], 's_35_11': [2348], 's_35_28': [2408], 's_35_26': [1837, 1838, 4524], 's_35_39': [4528], 's_35_27': [1958], 's_35_34': [1898], 's_7_1': [2243], 's_7_8': [3459, 1877], 's_7_21': [1788], 's_7_22': [3849], 's_7_28': [4482], 's_20_10': [4089], 's_20_22': [1791], 's_20_23': [1793], 's_20_38': [2104], 's_26_37': [2287], 's_26_2': [2616], 's_26_27': [1881, 4210], 's_26_32': [4254, 1822, 4179], 's_26_34': [2061], 's_32_37': [2182], 's_32_2': [2212], 's_32_14': [2389, 2388], 's_32_23': [4464], 's_32_34': [4045], 's_32_36': [2584], 's_36_16': [3883], 's_36_37': [2511, 2510], 's_37_1': [4541], 's_37_16': [4003], 's_37_28': [4348], 's_37_2': [2631, 4214], 's_37_23': [2617, 4439], 's_37_34': [4571], 's_10_2': [2541], 's_10_14': [4017, 4018], 's_10_23': [2302, 2303], 's_10_38': [4060], 's_27_11': [2345], 's_27_22': [2106], 's_27_21': [3868], 's_27_38': [3925], 's_1_11': [4392], 's_1_16': [4422], 's_1_28': [4346], 's_21_22': [1804], 's_23_2': [2452], 's_23_22': [2242], 's_23_29': [2587, 4378], 's_23_39': [2513, 4483], 's_38_29': [3552], 's_22_11': [2421], 's_22_16': [4153], 's_22_2': [2346], 's_22_39': [2526], 's_28_16': [2333], 's_28_29': [4393], 's_29_11': [4302], 's_29_2': [4122], 's_29_39': [4333], 's_39_2': [2438, 4573], 's_16_11': [3777], 's_16_14': [3582], 's_14_2': [4063], 's_2_11': [2406]}</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.001415019762845849</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.002371001255988032</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{0: [2477, 1954, 3402, 3595, 3401, 3400, 1952, 1953], 3: [4212, 2316, 3762, 2297, 2298, 3672, 2313, 2315, 2314], 's_0_3': [2312], 4: [4091, 3670, 3671, 2168, 2167, 2166, 2164, 2165], 's_0_4': [3685], 5: [2662, 2661, 3624, 3625, 3626, 2238, 3731, 3732, 3733, 2659, 2660], 's_0_5': [2237], 6: [3896, 3897, 2285, 2284, 3580, 2570, 2569, 3581, 2283, 3658, 3657], 's_0_6': [2282], 19: [3700, 4090, 3805, 1998, 1999, 2000, 4480, 2003, 2002, 2001], 's_0_19': [3505], 24: [4273, 3808, 4079, 4078, 2448, 4272, 2447, 3898, 2451, 2450, 2449], 's_0_24': [3433], 30: [4315, 3656, 3655, 2014, 2018, 2017, 3654, 2016, 2015], 's_0_30': [3760], 31: [2058, 2613, 2615, 2614, 3913, 3912, 3911, 3910, 2059], 's_0_31': [2057], 33: [3986, 2118, 2119, 4211, 2121, 2120], 's_0_33': [3775], 13: [2330, 2629, 2645, 2135, 3926, 3927, 3928], 's_3_13': [2329], 18: [2270, 4465, 4466, 4121, 2271, 2272], 's_3_18': [3972], 25: [1851, 3596, 2178, 3491, 3490, 1848, 1849, 1850], 's_3_25': [2133, 3536, 3537], 's_3_31': [2404], 's_3_33': [3881, 3882], 40: [2420, 3942, 3835, 3836, 3941, 3834, 2210], 's_3_40': [3987], 41: [2223, 2539, 3718, 2209, 3717], 's_3_41': [2344], 's_4_5': [2073], 9: [2585, 2630, 3687, 2028, 2029, 3958, 3957, 3956, 3686, 2179, 2180], 's_4_9': [3701], 12: [4435, 1928, 1927, 3924, 1926, 2211, 1924, 4001, 4000, 1925], 's_4_12': [4136], 15: [2253, 2256, 3807, 2254, 2255], 's_4_15': [3761], 17: [1747, 2407, 4377, 4374, 4375, 4376], 's_4_17': [2183], 's_4_19': [4481], 35: [4525, 4527, 4526], 's_4_35': [4511], 7: [3519, 2318, 4587, 4586, 4585, 1733, 1727, 1728, 1729, 1730, 4584, 1731, 1732], 's_5_7': [1803], 20: [1778, 1773, 4014, 3746, 3745, 3744, 1774, 1777, 1776, 1775], 's_5_20': [1908], 's_5_25': [2163], 26: [1943, 1942, 4258, 4255, 4259, 4256, 4257], 's_5_26': [2647], 's_5_31': [3839], 32: [2134, 4301, 4300, 3793, 3792, 3791, 3790, 1909, 1910, 1911, 1912, 4299], 's_5_32': [3794], 's_5_33': [3730], 36: [2509, 2525, 3823], 's_5_36': [3748], 37: [2032, 3943, 4241, 2600, 2601, 2602, 2153, 2512, 4363, 4362, 4361, 2152], 's_5_37': [4364], 8: [3778, 2494, 2493, 3520, 3521, 3522, 3523], 's_6_8': [2508], 's_6_9': [2043], 10: [2075, 4033, 2301, 4030, 1880, 4031, 4032, 2300], 's_6_10': [2299], 's_6_15': [2374], 's_6_20': [3579], 's_6_25': [2193], 27: [1973, 1972, 1971, 4135, 3853, 3852, 3851, 2030, 2031], 's_6_27': [3854], 's_6_30': [2148], 's_6_31': [3899], 's_6_36': [2555], 's_6_37': [2599, 3763, 2554], 1: [2228, 4119, 4120, 2091, 2227, 4151, 2226, 4196], 's_19_1': [1986], 's_19_9': [3460], 's_19_10': [4075], 's_19_18': [2108], 's_19_20': [1939], 21: [3729, 2194, 2419, 2418, 3642, 1819, 3639, 3640, 3641], 's_19_21': [3804], 23: [4453, 2076, 2077, 4452, 4451, 4449, 4450], 's_19_23': [2123], 34: [2105, 4046, 2045, 4540, 4180, 2048, 2047, 2046], 's_19_34': [2004], 's_19_35': [4510], 38: [4061, 2402, 3538, 3806, 2090, 2089, 2088, 3477, 3476, 2087], 's_19_38': [3550], 's_24_8': [2432], 's_24_9': [2495], 's_24_21': [3747], 22: [2241, 1820, 1805, 4168, 4167, 4166, 4165, 4164, 1806], 's_24_22': [2571], 's_24_26': [2347], 's_24_27': [2540], 28: [4347, 4497, 4197, 2392, 2393], 's_24_28': [4213], 29: [4228, 2468, 4287, 2462, 2463, 2467, 2466, 2465, 2464], 's_24_29': [3417], 's_24_37': [4064], 39: [4019, 2378, 2498, 4108, 4109, 4408, 2497, 2765, 2496], 's_24_39': [2691], 's_24_40': [2405], 's_30_1': [4195], 16: [4436, 4437, 4438, 2483, 2482, 2481, 2480, 2479, 2478, 3614, 3613], 's_30_16': [2033], 's_30_17': [2062], 's_30_20': [1878], 's_30_21': [1893], 's_30_22': [4150], 's_30_25': [1834], 's_30_26': [1987], 's_30_31': [3820], 's_30_34': [4226], 's_30_37': [4360], 's_30_41': [3716], 14: [3597, 2435, 2434, 2433], 's_31_14': [3598], 's_31_16': [3629], 's_31_34': [2060], 's_31_37': [3914, 2675, 4049], 's_31_38': [2239], 's_31_39': [3974], 's_31_40': [2224], 2: [2197, 4138, 2436, 2437, 4137, 2375, 4181, 4182, 2377, 2376], 's_33_2': [2136], 's_33_10': [2225], 's_33_13': [3971], 's_33_32': [2149, 3821], 's_33_34': [3985], 's_33_37': [2122, 4331], 's_33_38': [4105], 's_13_12': [4002], 's_13_2': [2331], 's_13_8': [2628, 3583], 's_13_29': [2646, 4229], 's_13_34': [4047], 's_13_36': [3824], 's_13_39': [4004], 's_18_1': [4316], 's_18_12': [4106], 's_18_9': [2181], 's_18_10': [4227], 's_18_15': [4271], 's_18_22': [2151], 's_18_23': [2092], 's_18_32': [2269], 's_18_37': [4332, 2317], 's_25_1': [4134], 's_25_12': [3880], 's_25_10': [1836], 's_25_14': [3611, 3612, 2358], 's_25_15': [2268], 's_25_21': [3774], 's_25_38': [2208], 's_25_41': [3461, 2222], 's_40_7': [1714], 's_40_12': [1879], 's_40_16': [4048], 's_40_9': [2240], 's_40_29': [4092], 's_40_38': [3940], 11: [4152, 2359, 2363, 2362, 2360, 2361], 's_41_11': [3702], 's_41_16': [2538], 's_41_29': [3688], 's_41_32': [2524], 's_41_21': [3673], 's_9_2': [2586], 's_9_8': [2013], 's_9_14': [3973], 's_9_38': [3506], 's_9_39': [4093], 's_12_1': [2196], 's_12_10': [3969, 1835], 's_12_16': [4421, 4420], 's_12_21': [3759], 's_12_26': [4570], 's_12_32': [3909], 's_12_34': [4555], 's_15_11': [4062], 's_15_28': [2257], 's_15_21': [3776], 's_17_7': [4329], 's_17_37': [2198], 's_17_26': [1957], 's_17_32': [1897], 's_17_39': [4423], 's_17_20': [4239], 's_35_11': [2348], 's_35_28': [2408], 's_35_26': [1837, 1838, 4524], 's_35_39': [4528], 's_35_27': [1958], 's_35_34': [1898], 's_7_1': [2243], 's_7_8': [3459, 1877], 's_7_21': [1788], 's_7_22': [3849], 's_7_28': [4482], 's_20_10': [4089], 's_20_22': [1791], 's_20_23': [1793], 's_20_38': [2104], 's_26_37': [2287], 's_26_2': [2616], 's_26_27': [1881, 4210], 's_26_32': [4254, 1822, 4179], 's_26_34': [2061], 's_32_37': [2182], 's_32_2': [2212], 's_32_14': [2389, 2388], 's_32_23': [4464], 's_32_34': [4045], 's_32_36': [2584], 's_36_16': [3883], 's_36_37': [2511, 2510], 's_37_1': [4541], 's_37_16': [4003], 's_37_28': [4348], 's_37_2': [2631, 4214], 's_37_23': [2617, 4439], 's_37_34': [4571], 's_10_2': [2541], 's_10_14': [4017, 4018], 's_10_23': [2302, 2303], 's_10_38': [4060], 's_27_11': [2345], 's_27_22': [2106], 's_27_21': [3868], 's_27_38': [3925], 's_1_11': [4392], 's_1_16': [4422], 's_1_28': [4346], 's_21_22': [1804], 's_23_2': [2452], 's_23_22': [2242], 's_23_29': [2587, 4378], 's_23_39': [2513, 4483], 's_38_29': [3552], 's_22_11': [2421], 's_22_16': [4153], 's_22_2': [2346], 's_22_39': [2526], 's_28_16': [2333], 's_28_29': [4393], 's_29_11': [4302], 's_29_2': [4122], 's_29_39': [4333], 's_39_2': [2438, 4573], 's_16_11': [3777], 's_16_14': [3582], 's_14_2': [4063], 's_2_11': [2406]}</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0.001415019762845849</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.002371001255988032</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>{0: [4890, 160, 159], 1: [4680, 4682, 4681, 414], 2: [4905, 4907, 4906], 9: [310, 309, 4621, 4620], 15: [325, 324, 263, 4635], 16: [174, 4605, 4607, 4606], 23: [4545, 4650, 220, 219], 31: [4892, 445, 4891], 33: [4845, 4846, 610, 4847], 8: [608, 4696, 4697, 609], 10: [415, 4815, 4817, 4816], 12: [4741, 535, 534, 4742], 17: [4472, 518, 520, 519], 18: [594, 384, 4667, 4666], 20: [204, 205, 4862, 4860, 4861], 25: [338, 339, 4652, 4651], 26: [280, 4665, 279], 30: [293, 294], 36: [428, 4530, 4531], 3: [4726, 625, 624, 4727], 4: [248, 249, 250], 5: [295, 490, 4832, 4830, 4831], 7: [503, 505, 504], 21: [430, 429], 38: [581, 533, 580, 579, 4532], 39: [596, 4876, 4877, 595], 6: [4711, 369, 370], 14: [353, 4636, 355, 354], 19: [4713, 4548, 4622, 654, 653], 22: [458, 4470, 473, 4471], 24: [4576, 444, 4577, 443], 34: [264, 4771], 41: [4561, 235, 234], 13: [4591, 278, 4502, 4501], 29: [459, 4800, 4801, 4802], 32: [4758, 4756, 4757], 40: [4562, 4637, 550, 549], 28: [4547, 400, 399, 4546], 35: [340, 4937, 4936], 37: [670, 4517, 623, 4608, 669], 42: [565, 564], 27: [4592, 489, 4712], 11: [4787, 4788]}</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.005462775089745591</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01191496106252492</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>{0: [4890, 160, 159], 1: [4680, 4682, 4681, 414], 2: [4905, 4907, 4906], 9: [310, 309, 4621, 4620], 15: [325, 324, 263, 4635], 16: [174, 4605, 4607, 4606], 23: [4545, 4650, 220, 219], 31: [4892, 445, 4891], 33: [4845, 4846, 610, 4847], 8: [608, 4696, 4697, 609], 10: [415, 4815, 4817, 4816], 12: [4741, 535, 534, 4742], 17: [4472, 518, 520, 519], 18: [594, 384, 4667, 4666], 20: [204, 205, 4862, 4860, 4861], 25: [338, 339, 4652, 4651], 26: [280, 4665, 279], 30: [293, 294], 36: [428, 4530, 4531], 3: [4726, 625, 624, 4727], 4: [248, 249, 250], 5: [295, 490, 4832, 4830, 4831], 7: [503, 505, 504], 21: [430, 429], 38: [581, 533, 580, 579, 4532], 39: [596, 4876, 4877, 595], 6: [4711, 369, 370], 14: [353, 4636, 355, 354], 19: [4713, 4548, 4622, 654, 653], 22: [458, 4470, 473, 4471], 24: [4576, 444, 4577, 443], 34: [264, 4771], 41: [4561, 235, 234], 13: [4591, 278, 4502, 4501], 29: [459, 4800, 4801, 4802], 32: [4758, 4756, 4757], 40: [4562, 4637, 550, 549], 28: [4547, 400, 399, 4546], 35: [340, 4937, 4936], 37: [670, 4517, 623, 4608, 669], 42: [565, 564], 27: [4592, 489, 4712], 11: [4787, 4788]}</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0.005462775089745591</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01191496106252492</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>{0: [1565, 3545, 3984, 1068, 3983, 3982, 3981, 3980, 1069, 1070], 1: [1922, 1172, 3426, 3427, 3430, 3429, 3428], 's_0_1': [1187], 2: [1174, 3816, 1189, 1188, 1127, 1128, 3591, 3590], 's_0_2': [1053], 9: [1082, 4119, 4118, 4117, 4116, 4115, 1086, 1085, 1084, 1083], 's_0_9': [3965, 1025], 15: [1653, 2088, 3531, 1248, 3580, 3579, 3578, 3577, 1113, 3575, 3576], 's_0_15': [3605], 16: [3712, 3716, 3715, 3714, 1562, 1563, 1564, 3713], 's_0_16': [3711, 3710], 23: [1431, 1430, 3651, 1309, 1310, 3923, 3920, 3922, 3921], 's_0_23': [1055], 31: [3380, 3338, 3337, 1220, 1219, 3336, 1218, 1217], 's_0_31': [3950], 33: [4120, 3969, 3970, 3971, 3250, 2041, 2042, 2043, 2121, 2120, 2119, 3745], 's_0_33': [1865], 8: [1311, 3909, 3908, 3907, 4101, 1351, 1355, 1352, 1353, 3906, 1354], 's_1_8': [3277, 1442], 10: [1997, 1472, 3442, 4000, 3443, 3444, 3445, 2057, 2060, 2059, 2058], 's_1_10': [1907], 12: [3491, 3490, 3489, 1190, 3488, 1967, 3966, 1607, 1608, 1609, 1610, 3968, 3967], 's_1_12': [1937], 's_1_15': [3455, 3456], 's_1_16': [1577], 17: [3879, 1805, 1804, 1546, 3293, 3294, 3624, 1803, 1802], 's_1_17': [3369], 18: [1384, 3832, 3833, 3280, 2012, 2013, 2014, 2015, 3835, 3834], 's_1_18': [3460], 20: [3235, 3234, 3233, 1294, 1293, 3502, 1412, 1411, 3232], 's_1_20': [1921], 25: [3758, 1731, 1730, 1832, 1833, 1729, 1834, 3804], 's_1_25': [3505], 26: [1427, 3457, 3458, 3459, 1757, 1758, 1759, 1760, 4029, 4028, 1550], 's_1_26': [1367], 30: [3564, 1727, 1473, 3562, 3563], 's_1_30': [1923], 36: [3682, 1322, 3561, 3637, 1383], 's_1_36': [3471], 3: [1756, 1786, 1216, 1292, 3309, 3308, 3305, 3306, 3307], 's_2_3': [3321], 4: [3351, 1262, 3396, 1712, 1652, 3398, 3397], 's_2_4': [1112], 5: [2001, 3607, 3606, 1519, 4045, 1520, 2000, 4044, 1518, 4043], 's_2_5': [3817], 7: [2149, 2150, 4031, 4030, 1851, 1265, 1266, 4146, 4147, 4148, 4149], 's_2_7': [3846], 's_2_12': [1280], 21: [1277, 1278, 3726, 1279], 's_2_21': [3666], 38: [3876, 3655, 3877, 3878, 3685, 1549, 1878, 3653, 3654, 1548], 's_2_38': [1295], 39: [1399, 3518, 1204, 1488, 1489, 1264, 3696, 3697, 3698], 's_2_39': [1203], 's_9_3': [1097], 6: [3501, 1157, 1517, 3412, 1052, 3410, 3411], 's_9_6': [3425], 's_9_8': [1356], 14: [4164, 4165, 2032, 2031, 2030, 1821, 3639, 3640, 2027, 2028, 2029], 's_9_14': [1926, 4195], 's_9_15': [3620], 19: [1881, 3938, 3940, 1879, 3939, 1880], 's_9_19': [4104, 1941], 22: [1746, 1745, 1742, 1459, 3727, 3728, 1743, 1744], 's_9_22': [1761], 's_9_23': [1100], 24: [3800, 1685, 1684, 3803, 1593, 3668, 1474, 1592, 3801, 3802], 's_9_24': [1341, 1340, 1339], 's_9_31': [3335], 's_9_33': [4134, 4135, 1971], 34: [4087, 3725, 1114, 1115, 1116, 4102, 1416, 4072, 1145, 4071], 's_9_34': [1371, 1370], 41: [1490, 4193, 3936, 4057, 4059, 4058, 1536, 3937, 1535], 's_9_41': [1596], 's_15_4': [1247], 's_15_6': [3470, 1067], 's_15_10': [3686], 13: [3532, 3533, 1791, 1790, 1789, 3534, 1788], 's_15_13': [1458], 's_15_14': [3701], 's_15_20': [1368, 3741], 's_15_22': [3593], 's_15_23': [1338], 's_15_24': [3623], 's_15_26': [1443], 29: [4089, 1848, 1847, 3399, 3400, 2072, 2073, 2074, 1817, 2075, 4088, 4090], 's_15_29': [3641], 's_15_30': [3504], 32: [3818, 1622, 1626, 1625, 1623, 1624], 's_15_32': [3548], 's_15_34': [1173], 's_15_39': [1143], 's_16_6': [3547], 's_16_7': [2135, 2134], 's_16_13': [1578], 's_16_14': [3760, 1984], 's_16_17': [3367], 's_16_20': [1561], 's_16_25': [3700], 's_16_26': [3473], 40: [1969, 1671, 1938, 1939, 3865, 1670, 3864], 's_16_40': [1669], 's_23_5': [4042], 's_23_20': [3636], 's_23_24': [1324], 's_23_25': [1714], 28: [1861, 1862, 1863, 1864, 3892, 3893, 3894, 3895], 's_23_28': [1504], 's_23_32': [1655], 's_23_36': [1323], 's_23_41': [1460], 's_31_3': [1186], 's_31_17': [1531], 's_31_21': [3621], 's_31_24': [3786], 's_31_38': [3891], 's_31_39': [3740], 's_33_10': [3506], 's_33_14': [3311], 's_33_20': [1951], 35: [4041, 1235, 1234, 3385, 3384, 3383, 3382, 3381, 1232, 1233], 's_33_35': [2056], 37: [4015, 1925, 3743, 3744, 1924], 's_33_37': [1954, 1955], 's_33_38': [1999], 's_33_40': [3866], 42: [3325, 1892, 3218, 3219, 1891], 's_33_42': [1936], 's_8_3': [3322], 's_8_12': [1400], 's_8_13': [1775], 's_8_18': [3862], 's_8_19': [3924], 's_8_21': [3366], 's_8_26': [4027], 27: [1910, 1909, 3772, 3773, 3774], 's_8_27': [1534], 's_8_38': [1445], 's_10_3': [3441], 's_10_5': [1986], 's_10_6': [1547], 's_10_7': [2105, 3910], 's_10_12': [1787], 's_10_17': [1606, 3323], 's_10_19': [1970], 's_10_26': [1772], 's_10_30': [1682], 's_10_32': [3353], 's_10_35': [1667], 's_10_42': [3355, 1952], 's_12_4': [1697], 's_12_5': [3608], 's_12_6': [3503], 11: [1640, 3847, 3849, 3848], 's_12_11': [1475], 's_12_14': [3415], 's_12_19': [1595], 's_12_26': [1668], 's_12_34': [4085], 's_12_35': [1250], 's_12_41': [1611], 's_12_42': [1966], 's_17_3': [1741], 's_17_18': [3279], 's_17_20': [1801], 's_17_22': [3684], 's_17_24': [1591], 's_17_27': [3669, 1654], 's_17_32': [3278], 's_17_35': [1696], 's_17_37': [1713], 's_17_40': [3549], 's_18_14': [3925], 's_18_21': [3756], 's_18_24': [1579], 's_18_28': [3896], 's_18_37': [3805], 's_18_39': [3787], 's_18_41': [1385], 's_18_42': [1906, 3265, 2011], 's_20_4': [1651], 's_20_5': [1413, 3592], 's_20_26': [3487], 's_20_35': [2086], 's_20_36': [3517], 's_20_39': [3771], 's_20_42': [3217], 's_25_7': [1716], 's_25_13': [3535], 's_25_19': [3999], 's_25_27': [1774], 's_25_29': [3414], 's_25_32': [3789, 3788], 's_25_37': [1819], 's_25_38': [3670], 's_25_42': [1831], 's_26_3': [3352], 's_26_5': [1715], 's_26_6': [1502], 's_26_13': [1818], 's_26_34': [1491], 's_26_35': [1397], 's_26_39': [1532], 's_26_41': [1551], 's_30_5': [1428], 's_30_28': [1877], 's_30_32': [1638], 's_30_36': [3622], 's_36_4': [1382], 's_36_6': [3560], 's_36_13': [1398], 's_36_21': [3681], 's_36_22': [1444], 's_36_24': [3667], 's_3_6': [1051], 's_3_29': [3324], 's_3_42': [1726], 's_4_13': [3519], 's_4_22': [3368], 's_4_24': [3413], 's_4_29': [3354], 's_4_32': [1637], 's_4_35': [1711], 's_5_11': [1641], 's_5_27': [4075], 's_5_29': [4105], 's_5_40': [3863], 's_5_41': [3952], 's_7_13': [1776], 's_7_14': [4150], 's_7_27': [3776, 3775], 's_7_32': [4163], 's_7_35': [1175, 1176], 's_7_37': [3821, 3820], 's_7_39': [3861], 's_21_6': [3516], 's_21_39': [1263], 's_38_13': [3594], 's_38_22': [3652], 's_38_24': [1159], 's_38_28': [1415], 's_38_37': [1728], 's_38_39': [1205], 's_38_40': [1893, 1894], 's_39_6': [1487], 's_39_11': [1594], 's_39_27': [3757], 's_14_13': [1773], 's_14_22': [3729, 1849], 's_14_35': [3370], 's_19_29': [2090], 's_19_32': [3819, 1850], 's_19_27': [2045, 3985], 's_19_40': [1835], 's_19_37': [3954], 's_19_28': [1820], 's_22_29': [3474], 's_22_13': [4224], 's_22_27': [1429], 's_22_37': [1639], 's_24_13': [4074], 's_24_11': [1369], 's_24_32': [3638], 's_24_40': [3998], 's_24_41': [1686], 's_34_29': [4103], 's_34_35': [4026], 's_34_41': [4132], 's_41_32': [4073], 's_41_40': [1656], 's_13_37': [4014], 's_29_27': [3609, 3610, 1908], 's_29_28': [3520], 's_29_42': [1846], 's_32_28': [1699], 's_40_11': [3953], 's_40_27': [3790], 's_40_28': [3850], 's_28_42': [3310], 's_28_27': [3880], 's_28_37': [3759]}</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0008932384341637011</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.001736126020657883</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>{0: [1565, 3545, 3984, 1068, 3983, 3982, 3981, 3980, 1069, 1070], 1: [1922, 1172, 3426, 3427, 3430, 3429, 3428], 's_0_1': [1187], 2: [1174, 3816, 1189, 1188, 1127, 1128, 3591, 3590], 's_0_2': [1053], 9: [1082, 4119, 4118, 4117, 4116, 4115, 1086, 1085, 1084, 1083], 's_0_9': [3965, 1025], 15: [1653, 2088, 3531, 1248, 3580, 3579, 3578, 3577, 1113, 3575, 3576], 's_0_15': [3605], 16: [3712, 3716, 3715, 3714, 1562, 1563, 1564, 3713], 's_0_16': [3711, 3710], 23: [1431, 1430, 3651, 1309, 1310, 3923, 3920, 3922, 3921], 's_0_23': [1055], 31: [3380, 3338, 3337, 1220, 1219, 3336, 1218, 1217], 's_0_31': [3950], 33: [4120, 3969, 3970, 3971, 3250, 2041, 2042, 2043, 2121, 2120, 2119, 3745], 's_0_33': [1865], 8: [1311, 3909, 3908, 3907, 4101, 1351, 1355, 1352, 1353, 3906, 1354], 's_1_8': [3277, 1442], 10: [1997, 1472, 3442, 4000, 3443, 3444, 3445, 2057, 2060, 2059, 2058], 's_1_10': [1907], 12: [3491, 3490, 3489, 1190, 3488, 1967, 3966, 1607, 1608, 1609, 1610, 3968, 3967], 's_1_12': [1937], 's_1_15': [3455, 3456], 's_1_16': [1577], 17: [3879, 1805, 1804, 1546, 3293, 3294, 3624, 1803, 1802], 's_1_17': [3369], 18: [1384, 3832, 3833, 3280, 2012, 2013, 2014, 2015, 3835, 3834], 's_1_18': [3460], 20: [3235, 3234, 3233, 1294, 1293, 3502, 1412, 1411, 3232], 's_1_20': [1921], 25: [3758, 1731, 1730, 1832, 1833, 1729, 1834, 3804], 's_1_25': [3505], 26: [1427, 3457, 3458, 3459, 1757, 1758, 1759, 1760, 4029, 4028, 1550], 's_1_26': [1367], 30: [3564, 1727, 1473, 3562, 3563], 's_1_30': [1923], 36: [3682, 1322, 3561, 3637, 1383], 's_1_36': [3471], 3: [1756, 1786, 1216, 1292, 3309, 3308, 3305, 3306, 3307], 's_2_3': [3321], 4: [3351, 1262, 3396, 1712, 1652, 3398, 3397], 's_2_4': [1112], 5: [2001, 3607, 3606, 1519, 4045, 1520, 2000, 4044, 1518, 4043], 's_2_5': [3817], 7: [2149, 2150, 4031, 4030, 1851, 1265, 1266, 4146, 4147, 4148, 4149], 's_2_7': [3846], 's_2_12': [1280], 21: [1277, 1278, 3726, 1279], 's_2_21': [3666], 38: [3876, 3655, 3877, 3878, 3685, 1549, 1878, 3653, 3654, 1548], 's_2_38': [1295], 39: [1399, 3518, 1204, 1488, 1489, 1264, 3696, 3697, 3698], 's_2_39': [1203], 's_9_3': [1097], 6: [3501, 1157, 1517, 3412, 1052, 3410, 3411], 's_9_6': [3425], 's_9_8': [1356], 14: [4164, 4165, 2032, 2031, 2030, 1821, 3639, 3640, 2027, 2028, 2029], 's_9_14': [1926, 4195], 's_9_15': [3620], 19: [1881, 3938, 3940, 1879, 3939, 1880], 's_9_19': [4104, 1941], 22: [1746, 1745, 1742, 1459, 3727, 3728, 1743, 1744], 's_9_22': [1761], 's_9_23': [1100], 24: [3800, 1685, 1684, 3803, 1593, 3668, 1474, 1592, 3801, 3802], 's_9_24': [1341, 1340, 1339], 's_9_31': [3335], 's_9_33': [4134, 4135, 1971], 34: [4087, 3725, 1114, 1115, 1116, 4102, 1416, 4072, 1145, 4071], 's_9_34': [1371, 1370], 41: [1490, 4193, 3936, 4057, 4059, 4058, 1536, 3937, 1535], 's_9_41': [1596], 's_15_4': [1247], 's_15_6': [3470, 1067], 's_15_10': [3686], 13: [3532, 3533, 1791, 1790, 1789, 3534, 1788], 's_15_13': [1458], 's_15_14': [3701], 's_15_20': [1368, 3741], 's_15_22': [3593], 's_15_23': [1338], 's_15_24': [3623], 's_15_26': [1443], 29: [4089, 1848, 1847, 3399, 3400, 2072, 2073, 2074, 1817, 2075, 4088, 4090], 's_15_29': [3641], 's_15_30': [3504], 32: [3818, 1622, 1626, 1625, 1623, 1624], 's_15_32': [3548], 's_15_34': [1173], 's_15_39': [1143], 's_16_6': [3547], 's_16_7': [2135, 2134], 's_16_13': [1578], 's_16_14': [3760, 1984], 's_16_17': [3367], 's_16_20': [1561], 's_16_25': [3700], 's_16_26': [3473], 40: [1969, 1671, 1938, 1939, 3865, 1670, 3864], 's_16_40': [1669], 's_23_5': [4042], 's_23_20': [3636], 's_23_24': [1324], 's_23_25': [1714], 28: [1861, 1862, 1863, 1864, 3892, 3893, 3894, 3895], 's_23_28': [1504], 's_23_32': [1655], 's_23_36': [1323], 's_23_41': [1460], 's_31_3': [1186], 's_31_17': [1531], 's_31_21': [3621], 's_31_24': [3786], 's_31_38': [3891], 's_31_39': [3740], 's_33_10': [3506], 's_33_14': [3311], 's_33_20': [1951], 35: [4041, 1235, 1234, 3385, 3384, 3383, 3382, 3381, 1232, 1233], 's_33_35': [2056], 37: [4015, 1925, 3743, 3744, 1924], 's_33_37': [1954, 1955], 's_33_38': [1999], 's_33_40': [3866], 42: [3325, 1892, 3218, 3219, 1891], 's_33_42': [1936], 's_8_3': [3322], 's_8_12': [1400], 's_8_13': [1775], 's_8_18': [3862], 's_8_19': [3924], 's_8_21': [3366], 's_8_26': [4027], 27: [1910, 1909, 3772, 3773, 3774], 's_8_27': [1534], 's_8_38': [1445], 's_10_3': [3441], 's_10_5': [1986], 's_10_6': [1547], 's_10_7': [2105, 3910], 's_10_12': [1787], 's_10_17': [1606, 3323], 's_10_19': [1970], 's_10_26': [1772], 's_10_30': [1682], 's_10_32': [3353], 's_10_35': [1667], 's_10_42': [3355, 1952], 's_12_4': [1697], 's_12_5': [3608], 's_12_6': [3503], 11: [1640, 3847, 3849, 3848], 's_12_11': [1475], 's_12_14': [3415], 's_12_19': [1595], 's_12_26': [1668], 's_12_34': [4085], 's_12_35': [1250], 's_12_41': [1611], 's_12_42': [1966], 's_17_3': [1741], 's_17_18': [3279], 's_17_20': [1801], 's_17_22': [3684], 's_17_24': [1591], 's_17_27': [3669, 1654], 's_17_32': [3278], 's_17_35': [1696], 's_17_37': [1713], 's_17_40': [3549], 's_18_14': [3925], 's_18_21': [3756], 's_18_24': [1579], 's_18_28': [3896], 's_18_37': [3805], 's_18_39': [3787], 's_18_41': [1385], 's_18_42': [1906, 3265, 2011], 's_20_4': [1651], 's_20_5': [1413, 3592], 's_20_26': [3487], 's_20_35': [2086], 's_20_36': [3517], 's_20_39': [3771], 's_20_42': [3217], 's_25_7': [1716], 's_25_13': [3535], 's_25_19': [3999], 's_25_27': [1774], 's_25_29': [3414], 's_25_32': [3789, 3788], 's_25_37': [1819], 's_25_38': [3670], 's_25_42': [1831], 's_26_3': [3352], 's_26_5': [1715], 's_26_6': [1502], 's_26_13': [1818], 's_26_34': [1491], 's_26_35': [1397], 's_26_39': [1532], 's_26_41': [1551], 's_30_5': [1428], 's_30_28': [1877], 's_30_32': [1638], 's_30_36': [3622], 's_36_4': [1382], 's_36_6': [3560], 's_36_13': [1398], 's_36_21': [3681], 's_36_22': [1444], 's_36_24': [3667], 's_3_6': [1051], 's_3_29': [3324], 's_3_42': [1726], 's_4_13': [3519], 's_4_22': [3368], 's_4_24': [3413], 's_4_29': [3354], 's_4_32': [1637], 's_4_35': [1711], 's_5_11': [1641], 's_5_27': [4075], 's_5_29': [4105], 's_5_40': [3863], 's_5_41': [3952], 's_7_13': [1776], 's_7_14': [4150], 's_7_27': [3776, 3775], 's_7_32': [4163], 's_7_35': [1175, 1176], 's_7_37': [3821, 3820], 's_7_39': [3861], 's_21_6': [3516], 's_21_39': [1263], 's_38_13': [3594], 's_38_22': [3652], 's_38_24': [1159], 's_38_28': [1415], 's_38_37': [1728], 's_38_39': [1205], 's_38_40': [1893, 1894], 's_39_6': [1487], 's_39_11': [1594], 's_39_27': [3757], 's_14_13': [1773], 's_14_22': [3729, 1849], 's_14_35': [3370], 's_19_29': [2090], 's_19_32': [3819, 1850], 's_19_27': [2045, 3985], 's_19_40': [1835], 's_19_37': [3954], 's_19_28': [1820], 's_22_29': [3474], 's_22_13': [4224], 's_22_27': [1429], 's_22_37': [1639], 's_24_13': [4074], 's_24_11': [1369], 's_24_32': [3638], 's_24_40': [3998], 's_24_41': [1686], 's_34_29': [4103], 's_34_35': [4026], 's_34_41': [4132], 's_41_32': [4073], 's_41_40': [1656], 's_13_37': [4014], 's_29_27': [3609, 3610, 1908], 's_29_28': [3520], 's_29_42': [1846], 's_32_28': [1699], 's_40_11': [3953], 's_40_27': [3790], 's_40_28': [3850], 's_28_42': [3310], 's_28_27': [3880], 's_28_37': [3759]}</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0008932384341637011</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.001736126020657883</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>{0: [2139, 4571, 2138], 2: [2468, 2452, 2333, 4466, 4467], 21: [4572, 2363, 2364], 29: [4451, 2197, 2198, 4375, 4376], 31: [4705, 2034, 2033], 32: [4645, 2437, 4646, 4647, 2438], 36: [4465, 2123, 4630, 2124], 37: [2214, 4526, 4407, 2213], 39: [2272, 2273, 4675, 4676, 2274], 40: [2032, 4241, 4331, 2137], 41: [4436, 4438, 4437], 1: [4421, 2154, 2153], 3: [1958, 4480, 4482, 4481], 9: [4706, 2182, 2183, 2184], 10: [4497, 4495, 4496], 11: [4736, 4737, 4347, 2424, 2422, 2423], 17: [1989, 4557, 4555, 4556], 19: [4586, 4588, 2199, 4587], 22: [4751, 4752, 2319, 2317, 2318], 33: [4541, 4542], 38: [4602, 2303, 2304], 42: [2377, 4316, 4317], 7: [2228, 2226, 4392, 2227], 13: [4361, 4362], 15: [4452, 4422, 2348], 24: [2316, 4197, 2362], 25: [2257, 2258], 26: [2409, 4707], 35: [2379, 2378, 4513, 4511, 4512], 12: [2436, 4272, 4271], 14: [4601, 2047, 2048], 16: [2241, 4631, 2242, 2243], 18: [4346, 4315, 2078, 2077], 43: [2288, 4302, 2287, 4301], 28: [2152, 4256, 2107, 4450, 2108], 34: [2289, 4661, 4660, 2109], 4: [4393, 2407, 2408], 5: [4691, 4692, 2392, 2393, 2394], 30: [2347, 2019, 2018, 2017, 4226, 4227], 6: [2421, 4182, 4181, 2122, 2121], 20: [4300, 2092], 8: [2212, 4377, 4286, 2302], 27: [4722, 2093, 4721, 2094], 23: [2167, 2170, 2169, 2168]}</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.01002673796791444</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0143568244601609</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>{0: [2139, 4571, 2138], 2: [2468, 2452, 2333, 4466, 4467], 21: [4572, 2363, 2364], 29: [4451, 2197, 2198, 4375, 4376], 31: [4705, 2034, 2033], 32: [4645, 2437, 4646, 4647, 2438], 36: [4465, 2123, 4630, 2124], 37: [2214, 4526, 4407, 2213], 39: [2272, 2273, 4675, 4676, 2274], 40: [2032, 4241, 4331, 2137], 41: [4436, 4438, 4437], 1: [4421, 2154, 2153], 3: [1958, 4480, 4482, 4481], 9: [4706, 2182, 2183, 2184], 10: [4497, 4495, 4496], 11: [4736, 4737, 4347, 2424, 2422, 2423], 17: [1989, 4557, 4555, 4556], 19: [4586, 4588, 2199, 4587], 22: [4751, 4752, 2319, 2317, 2318], 33: [4541, 4542], 38: [4602, 2303, 2304], 42: [2377, 4316, 4317], 7: [2228, 2226, 4392, 2227], 13: [4361, 4362], 15: [4452, 4422, 2348], 24: [2316, 4197, 2362], 25: [2257, 2258], 26: [2409, 4707], 35: [2379, 2378, 4513, 4511, 4512], 12: [2436, 4272, 4271], 14: [4601, 2047, 2048], 16: [2241, 4631, 2242, 2243], 18: [4346, 4315, 2078, 2077], 43: [2288, 4302, 2287, 4301], 28: [2152, 4256, 2107, 4450, 2108], 34: [2289, 4661, 4660, 2109], 4: [4393, 2407, 2408], 5: [4691, 4692, 2392, 2393, 2394], 30: [2347, 2019, 2018, 2017, 4226, 4227], 6: [2421, 4182, 4181, 2122, 2121], 20: [4300, 2092], 8: [2212, 4377, 4286, 2302], 27: [4722, 2093, 4721, 2094], 23: [2167, 2170, 2169, 2168]}</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0.01002673796791444</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0143568244601609</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.119</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{0: [2074, 3806, 2311, 2312, 3462, 3807, 2389, 2388], 2: [3733, 3732, 3369, 1922, 1923, 3729, 1924, 3731, 2104, 3730], 's_0_2': [3836], 21: [1788, 3669, 2327, 2328, 3672, 3670, 3671], 's_0_21': [2313], 29: [3866, 3848, 3849, 3850, 2509, 3793, 3792, 3791, 3536, 3851, 2118, 2119], 's_0_29': [3821], 31: [2462, 3778, 3463, 2539, 2538], 's_0_31': [3523], 32: [3177, 3176, 3175, 1831, 1772, 1771, 3249], 's_0_32': [3162], 36: [1846, 3403, 3402, 1851, 1850, 1849, 1848, 3401, 3400, 3399, 1847], 's_0_36': [2387], 37: [3880, 3881, 2300, 3882, 2237, 2238, 2239], 's_0_37': [3492], 39: [3357, 2507, 3358], 's_0_39': [3342], 40: [3040, 2345, 2344, 2343, 3508, 2115, 2116, 2117, 3506, 3507], 's_0_40': [2373], 41: [3474, 3954, 3925, 3924, 1821, 1818, 1819, 1820], 's_0_41': [3910], 1: [2360, 3823, 2465, 3852, 3853, 2463, 2464], 's_2_1': [2314], 3: [2357, 3763, 2358, 2359, 3758, 3759, 3760, 3761, 2329, 3762], 's_2_3': [1789], 9: [1967, 2043, 2210, 2209, 3638, 3639, 1968, 3643, 3642, 3641, 3640], 's_2_9': [3655], 10: [3518, 1861, 3519, 1712, 1711, 3267, 3266, 3265, 3264], 's_2_10': [1876], 11: [3192, 3191, 1803, 1802, 1801, 3190, 3189, 1816, 1815], 's_2_11': [1817], 17: [3899, 2568, 3719, 3988, 2570, 2569], 's_2_17': [2554], 19: [2390, 3865, 1985, 3942, 3940, 3941], 's_2_19': [3820], 22: [1592, 1593, 1594, 3743, 3744, 3745, 3746, 2194, 3702, 3703, 2659, 3704], 's_2_22': [2164], 33: [1890, 4091, 4090, 4089, 1895, 1891, 1892, 1893, 1894], 's_2_33': [2149, 2150, 2151], 's_2_36': [3535], 38: [2477, 2478, 3985, 2030, 3689, 3688, 3687, 3789, 3790, 2029, 3686], 's_2_38': [1939], 's_2_41': [1925], 42: [3491, 3490, 1936, 1937], 's_2_42': [3384], 's_21_3': [1984], 7: [1997, 2220, 2299, 3295, 3296, 2221, 3086, 3386, 2297, 2298], 's_21_7': [3657], 's_21_10': [1758], 13: [3834, 1715, 1714, 1713, 3609, 3610, 2013, 2012, 3326, 3327, 2342], 's_21_13': [2014], 15: [3597, 3297, 3612, 2415, 2416, 2419, 2418, 2417], 's_21_15': [3432], 24: [3578, 3668, 1608], 's_21_24': [3579], 25: [3594, 1864, 1862, 1863], 's_21_25': [1878], 26: [3626, 2088], 's_21_26': [3627], 35: [1955, 1954, 3252, 3700, 1908, 1907, 3414, 1906, 3250, 3251], 's_21_35': [2326], 's_21_38': [1834], 's_21_41': [3654], 's_29_1': [3838], 's_29_3': [2494], 12: [2028, 2025, 2026, 2027], 's_29_12': [3550], 's_29_13': [3864], 14: [1806, 3928, 4029, 4030, 4031, 2510, 4033, 4032], 's_29_14': [2120], 's_29_15': [2374, 3747], 16: [3476, 3373, 3372, 3371, 2178, 3340, 3341, 3311, 2177], 's_29_16': [3611, 2148], 18: [3234, 1745, 3879, 1729, 1728, 1727, 1725, 1726, 3233], 's_29_18': [3878, 1490], 's_29_19': [2015], 's_29_31': [2524], 's_29_37': [2224, 3911], 's_29_41': [1805], 43: [3057, 3056, 1624, 1623, 1622, 1621, 3203, 3055, 3054, 1625, 3053, 1710], 's_29_43': [3863], 's_31_3': [2644], 's_31_9': [3658], 's_31_17': [3583], 28: [1773, 3777, 3776, 1774, 2090, 2089, 3773, 3774, 3775], 's_31_28': [3808, 2479], 34: [2450, 2449, 2448, 2445, 2446, 3537, 3538, 2447], 's_31_34': [3718], 's_31_36': [2537], 's_31_39': [3478], 's_31_40': [2432], 4: [3716, 1980, 1981, 3235, 2056, 3898, 3897, 3896, 2059, 2058, 2057], 's_32_4': [2011], 5: [3206, 2161, 3564, 3563, 3565, 3568, 2162, 3567, 2163, 3566], 's_32_5': [1696, 3248, 1697], 's_32_11': [2070], 's_32_12': [3161], 's_32_18': [1786], 30: [1655, 3608, 1654, 1653, 3355, 3354, 1652], 's_32_30': [3504, 1668], 's_32_35': [2191], 's_32_36': [3130], 's_32_41': [3489], 's_32_42': [1921], 's_36_3': [3417], 6: [3398, 3100, 3099, 1743, 1742, 1741, 3101, 1740], 's_36_6': [3819, 1744], 's_36_11': [3114], 's_36_14': [4104], 's_36_16': [2552], 's_36_18': [4014], 20: [3968, 3972, 3971, 3969, 3970], 's_36_20': [1835], 's_36_37': [2222], 's_36_39': [2492], 's_36_41': [4164], 8: [3431, 3428, 3429, 3430], 's_37_8': [3446], 's_37_16': [3416], 's_37_22': [2195], 's_37_25': [1879], 27: [3580, 2266, 2267, 3581, 2270, 2269, 2268], 's_37_27': [4017], 's_37_33': [2240], 's_37_34': [3522], 's_37_35': [1909], 's_39_7': [2192], 's_39_13': [2236], 's_39_15': [3493], 's_39_16': [2431], 's_39_34': [3433], 's_39_38': [2508], 's_40_6': [1965], 's_40_7': [2282], 's_40_8': [2087], 's_40_9': [2042], 's_40_12': [3131], 's_40_16': [2176, 3116], 's_40_20': [3987], 23: [2599, 2460, 3069, 3070, 2598, 2597, 2596, 2595, 3071, 3072, 3073], 's_40_23': [2100], 's_40_43': [2010], 's_41_11': [1804], 's_41_14': [4044], 's_41_20': [3984], 's_41_38': [1910], 's_1_3': [2404], 's_1_5': [2523, 3613], 's_1_15': [3912], 's_1_19': [2375], 's_1_20': [3973], 's_1_23': [3628], 's_1_27': [3582], 's_3_5': [3552], 's_3_7': [3477], 's_3_9': [1969], 's_3_16': [3312], 's_3_17': [2584], 's_3_18': [1684], 's_3_22': [1759], 's_3_30': [1669], 's_9_5': [2493], 's_9_19': [3956], 's_9_23': [2583], 's_9_27': [3595], 's_9_8': [1952], 's_9_16': [2179], 's_9_18': [1698, 1699], 's_9_26': [3701], 's_9_30': [3653], 's_9_42': [1938], 's_9_43': [3683, 1548], 's_10_27': [2251], 's_10_4': [1996], 's_10_7': [2086], 's_10_16': [2131], 's_10_22': [3368], 's_10_25': [3520], 's_10_28': [3534], 's_10_35': [2341], 's_11_5': [2296], 's_11_15': [2400], 's_11_23': [1800], 's_11_4': [1951], 's_11_6': [2979], 's_11_13': [2101], 's_11_25': [3459], 's_11_30': [3309], 's_11_34': [3207], 's_11_43': [3188], 's_17_5': [2553], 's_17_23': [2600], 's_17_4': [2525], 's_17_14': [2629], 's_17_22': [2689], 's_17_34': [3539], 's_17_38': [3674], 's_19_4': [2330], 's_19_34': [3957], 's_19_35': [3895], 's_19_38': [2045], 's_22_5': [2658], 's_22_15': [2433], 's_22_23': [3869], 's_22_27': [2253], 's_22_7': [3717], 's_22_8': [1607], 's_22_24': [1609], 's_22_34': [2193], 's_22_35': [1999], 's_22_38': [3788], 's_33_5': [3549], 's_33_27': [2255], 's_33_7': [3280], 's_33_16': [3310], 's_33_18': [3909, 3908], 's_33_25': [1865], 's_33_35': [4045], 's_33_38': [2031], 's_33_43': [3039], 's_38_15': [3673], 's_38_27': [2133], 's_38_25': [3685], 's_38_26': [2073], 's_42_4': [3445], 's_42_8': [2147], 's_42_18': [3219], 's_42_35': [3460], 's_7_4': [2071], 's_7_6': [2145], 's_7_30': [1982], 's_7_35': [2146], 's_13_5': [1953], 's_13_15': [3282], 's_13_20': [1730], 's_13_4': [3835], 's_13_6': [3593], 's_13_8': [2207], 's_13_25': [3624], 's_13_28': [3684], 's_15_4': [3883], 's_15_35': [2401], 's_24_5': [1638], 's_24_30': [1563], 's_24_43': [3623], 's_24_6': [3548], 's_25_8': [3444], 's_26_27': [2208], 's_26_4': [3625], 's_35_5': [2281], 's_35_8': [1787], 's_35_28': [3699], 's_12_5': [3521], 's_12_43': [1905, 3115], 's_14_23': [3913], 's_14_27': [4047], 's_14_18': [1760], 's_14_28': [2075], 's_16_23': [3388], 's_16_30': [1832], 's_18_23': [3084], 's_18_6': [3218], 's_43_20': [3983], 's_43_23': [2310], 's_43_4': [1995], 's_43_8': [1637], 's_43_28': [1639], 's_43_34': [3042], 's_28_20': [3986], 's_28_34': [2434], 's_34_5': [2283], 's_34_23': [3253], 's_30_20': [1670], 's_6_23': [1860], 's_6_8': [1667]}</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0006763636363636364</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.001565765991614286</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>{0: [2074, 3806, 2311, 2312, 3462, 3807, 2389, 2388], 2: [3733, 3732, 3369, 1922, 1923, 3729, 1924, 3731, 2104, 3730], 's_0_2': [3836], 21: [1788, 3669, 2327, 2328, 3672, 3670, 3671], 's_0_21': [2313], 29: [3866, 3848, 3849, 3850, 2509, 3793, 3792, 3791, 3536, 3851, 2118, 2119], 's_0_29': [3821], 31: [2462, 3778, 3463, 2539, 2538], 's_0_31': [3523], 32: [3177, 3176, 3175, 1831, 1772, 1771, 3249], 's_0_32': [3162], 36: [1846, 3403, 3402, 1851, 1850, 1849, 1848, 3401, 3400, 3399, 1847], 's_0_36': [2387], 37: [3880, 3881, 2300, 3882, 2237, 2238, 2239], 's_0_37': [3492], 39: [3357, 2507, 3358], 's_0_39': [3342], 40: [3040, 2345, 2344, 2343, 3508, 2115, 2116, 2117, 3506, 3507], 's_0_40': [2373], 41: [3474, 3954, 3925, 3924, 1821, 1818, 1819, 1820], 's_0_41': [3910], 1: [2360, 3823, 2465, 3852, 3853, 2463, 2464], 's_2_1': [2314], 3: [2357, 3763, 2358, 2359, 3758, 3759, 3760, 3761, 2329, 3762], 's_2_3': [1789], 9: [1967, 2043, 2210, 2209, 3638, 3639, 1968, 3643, 3642, 3641, 3640], 's_2_9': [3655], 10: [3518, 1861, 3519, 1712, 1711, 3267, 3266, 3265, 3264], 's_2_10': [1876], 11: [3192, 3191, 1803, 1802, 1801, 3190, 3189, 1816, 1815], 's_2_11': [1817], 17: [3899, 2568, 3719, 3988, 2570, 2569], 's_2_17': [2554], 19: [2390, 3865, 1985, 3942, 3940, 3941], 's_2_19': [3820], 22: [1592, 1593, 1594, 3743, 3744, 3745, 3746, 2194, 3702, 3703, 2659, 3704], 's_2_22': [2164], 33: [1890, 4091, 4090, 4089, 1895, 1891, 1892, 1893, 1894], 's_2_33': [2149, 2150, 2151], 's_2_36': [3535], 38: [2477, 2478, 3985, 2030, 3689, 3688, 3687, 3789, 3790, 2029, 3686], 's_2_38': [1939], 's_2_41': [1925], 42: [3491, 3490, 1936, 1937], 's_2_42': [3384], 's_21_3': [1984], 7: [1997, 2220, 2299, 3295, 3296, 2221, 3086, 3386, 2297, 2298], 's_21_7': [3657], 's_21_10': [1758], 13: [3834, 1715, 1714, 1713, 3609, 3610, 2013, 2012, 3326, 3327, 2342], 's_21_13': [2014], 15: [3597, 3297, 3612, 2415, 2416, 2419, 2418, 2417], 's_21_15': [3432], 24: [3578, 3668, 1608], 's_21_24': [3579], 25: [3594, 1864, 1862, 1863], 's_21_25': [1878], 26: [3626, 2088], 's_21_26': [3627], 35: [1955, 1954, 3252, 3700, 1908, 1907, 3414, 1906, 3250, 3251], 's_21_35': [2326], 's_21_38': [1834], 's_21_41': [3654], 's_29_1': [3838], 's_29_3': [2494], 12: [2028, 2025, 2026, 2027], 's_29_12': [3550], 's_29_13': [3864], 14: [1806, 3928, 4029, 4030, 4031, 2510, 4033, 4032], 's_29_14': [2120], 's_29_15': [2374, 3747], 16: [3476, 3373, 3372, 3371, 2178, 3340, 3341, 3311, 2177], 's_29_16': [3611, 2148], 18: [3234, 1745, 3879, 1729, 1728, 1727, 1725, 1726, 3233], 's_29_18': [3878, 1490], 's_29_19': [2015], 's_29_31': [2524], 's_29_37': [2224, 3911], 's_29_41': [1805], 43: [3057, 3056, 1624, 1623, 1622, 1621, 3203, 3055, 3054, 1625, 3053, 1710], 's_29_43': [3863], 's_31_3': [2644], 's_31_9': [3658], 's_31_17': [3583], 28: [1773, 3777, 3776, 1774, 2090, 2089, 3773, 3774, 3775], 's_31_28': [3808, 2479], 34: [2450, 2449, 2448, 2445, 2446, 3537, 3538, 2447], 's_31_34': [3718], 's_31_36': [2537], 's_31_39': [3478], 's_31_40': [2432], 4: [3716, 1980, 1981, 3235, 2056, 3898, 3897, 3896, 2059, 2058, 2057], 's_32_4': [2011], 5: [3206, 2161, 3564, 3563, 3565, 3568, 2162, 3567, 2163, 3566], 's_32_5': [1696, 3248, 1697], 's_32_11': [2070], 's_32_12': [3161], 's_32_18': [1786], 30: [1655, 3608, 1654, 1653, 3355, 3354, 1652], 's_32_30': [3504, 1668], 's_32_35': [2191], 's_32_36': [3130], 's_32_41': [3489], 's_32_42': [1921], 's_36_3': [3417], 6: [3398, 3100, 3099, 1743, 1742, 1741, 3101, 1740], 's_36_6': [3819, 1744], 's_36_11': [3114], 's_36_14': [4104], 's_36_16': [2552], 's_36_18': [4014], 20: [3968, 3972, 3971, 3969, 3970], 's_36_20': [1835], 's_36_37': [2222], 's_36_39': [2492], 's_36_41': [4164], 8: [3431, 3428, 3429, 3430], 's_37_8': [3446], 's_37_16': [3416], 's_37_22': [2195], 's_37_25': [1879], 27: [3580, 2266, 2267, 3581, 2270, 2269, 2268], 's_37_27': [4017], 's_37_33': [2240], 's_37_34': [3522], 's_37_35': [1909], 's_39_7': [2192], 's_39_13': [2236], 's_39_15': [3493], 's_39_16': [2431], 's_39_34': [3433], 's_39_38': [2508], 's_40_6': [1965], 's_40_7': [2282], 's_40_8': [2087], 's_40_9': [2042], 's_40_12': [3131], 's_40_16': [2176, 3116], 's_40_20': [3987], 23: [2599, 2460, 3069, 3070, 2598, 2597, 2596, 2595, 3071, 3072, 3073], 's_40_23': [2100], 's_40_43': [2010], 's_41_11': [1804], 's_41_14': [4044], 's_41_20': [3984], 's_41_38': [1910], 's_1_3': [2404], 's_1_5': [2523, 3613], 's_1_15': [3912], 's_1_19': [2375], 's_1_20': [3973], 's_1_23': [3628], 's_1_27': [3582], 's_3_5': [3552], 's_3_7': [3477], 's_3_9': [1969], 's_3_16': [3312], 's_3_17': [2584], 's_3_18': [1684], 's_3_22': [1759], 's_3_30': [1669], 's_9_5': [2493], 's_9_19': [3956], 's_9_23': [2583], 's_9_27': [3595], 's_9_8': [1952], 's_9_16': [2179], 's_9_18': [1698, 1699], 's_9_26': [3701], 's_9_30': [3653], 's_9_42': [1938], 's_9_43': [3683, 1548], 's_10_27': [2251], 's_10_4': [1996], 's_10_7': [2086], 's_10_16': [2131], 's_10_22': [3368], 's_10_25': [3520], 's_10_28': [3534], 's_10_35': [2341], 's_11_5': [2296], 's_11_15': [2400], 's_11_23': [1800], 's_11_4': [1951], 's_11_6': [2979], 's_11_13': [2101], 's_11_25': [3459], 's_11_30': [3309], 's_11_34': [3207], 's_11_43': [3188], 's_17_5': [2553], 's_17_23': [2600], 's_17_4': [2525], 's_17_14': [2629], 's_17_22': [2689], 's_17_34': [3539], 's_17_38': [3674], 's_19_4': [2330], 's_19_34': [3957], 's_19_35': [3895], 's_19_38': [2045], 's_22_5': [2658], 's_22_15': [2433], 's_22_23': [3869], 's_22_27': [2253], 's_22_7': [3717], 's_22_8': [1607], 's_22_24': [1609], 's_22_34': [2193], 's_22_35': [1999], 's_22_38': [3788], 's_33_5': [3549], 's_33_27': [2255], 's_33_7': [3280], 's_33_16': [3310], 's_33_18': [3909, 3908], 's_33_25': [1865], 's_33_35': [4045], 's_33_38': [2031], 's_33_43': [3039], 's_38_15': [3673], 's_38_27': [2133], 's_38_25': [3685], 's_38_26': [2073], 's_42_4': [3445], 's_42_8': [2147], 's_42_18': [3219], 's_42_35': [3460], 's_7_4': [2071], 's_7_6': [2145], 's_7_30': [1982], 's_7_35': [2146], 's_13_5': [1953], 's_13_15': [3282], 's_13_20': [1730], 's_13_4': [3835], 's_13_6': [3593], 's_13_8': [2207], 's_13_25': [3624], 's_13_28': [3684], 's_15_4': [3883], 's_15_35': [2401], 's_24_5': [1638], 's_24_30': [1563], 's_24_43': [3623], 's_24_6': [3548], 's_25_8': [3444], 's_26_27': [2208], 's_26_4': [3625], 's_35_5': [2281], 's_35_8': [1787], 's_35_28': [3699], 's_12_5': [3521], 's_12_43': [1905, 3115], 's_14_23': [3913], 's_14_27': [4047], 's_14_18': [1760], 's_14_28': [2075], 's_16_23': [3388], 's_16_30': [1832], 's_18_23': [3084], 's_18_6': [3218], 's_43_20': [3983], 's_43_23': [2310], 's_43_4': [1995], 's_43_8': [1637], 's_43_28': [1639], 's_43_34': [3042], 's_28_20': [3986], 's_28_34': [2434], 's_34_5': [2283], 's_34_23': [3253], 's_30_20': [1670], 's_6_23': [1860], 's_6_8': [1667]}</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0006763636363636364</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.001565765991614286</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{0: [2140, 2141], 2: [5096, 1901, 5095], 3: [2156], 5: [2260, 4887, 4886, 2230], 6: [1870, 4931, 4930], 7: [1722, 1721, 1720, 4870, 4871, 4869], 19: [2185, 4782, 4780, 4781], 20: [2231, 5080, 5081], 22: [5111, 2110, 2111], 23: [5126, 2082, 2080, 2081], 38: [4977, 4975, 4976], 11: [5155, 1990, 1992, 1991], 15: [1900, 4856, 4855, 4854], 25: [2005, 5110, 2007, 2006], 28: [1902, 5275, 5215, 1962], 35: [2245, 5140, 2246, 5141, 5142], 40: [5004, 1976, 5006, 5005], 43: [5019, 5021, 5020], 21: [5051, 2202, 2200, 2201], 27: [1946, 5064, 5066, 5065], 34: [2171, 4961], 37: [1780, 2155, 4796, 4795, 4794], 14: [1975, 4916, 4914, 4915], 26: [1811, 1810, 4885, 4809, 1945], 29: [5035, 2127, 2125, 2126], 44: [5184, 5185, 2261, 5186], 1: [1930, 1931, 1932], 12: [2094, 2096, 2095], 17: [1960, 4990, 1961], 24: [1840, 2036, 5050, 5049, 1841], 31: [1857, 1856, 4901, 4900, 4899], 10: [1855, 4839], 13: [4825, 4824, 1826, 4779, 1825], 16: [5079, 5034, 4944, 1795, 1796], 30: [1827, 5231, 5230, 5229], 33: [1915, 1916], 39: [2067, 2065, 2066], 9: [2187, 2186], 4: [2051, 5171, 5170], 18: [4902, 2290, 2291, 5036], 41: [2215, 2217, 2216, 4991], 42: [4945, 4946, 2022, 2021], 8: [5200, 1781, 1782, 5199], 32: [1812, 1947, 5244, 5246, 5245], 36: [4960, 4959]}</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.01069958847736626</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01465390437429206</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>{0: [2140, 2141], 2: [5096, 1901, 5095], 3: [2156], 5: [2260, 4887, 4886, 2230], 6: [1870, 4931, 4930], 7: [1722, 1721, 1720, 4870, 4871, 4869], 19: [2185, 4782, 4780, 4781], 20: [2231, 5080, 5081], 22: [5111, 2110, 2111], 23: [5126, 2082, 2080, 2081], 38: [4977, 4975, 4976], 11: [5155, 1990, 1992, 1991], 15: [1900, 4856, 4855, 4854], 25: [2005, 5110, 2007, 2006], 28: [1902, 5275, 5215, 1962], 35: [2245, 5140, 2246, 5141, 5142], 40: [5004, 1976, 5006, 5005], 43: [5019, 5021, 5020], 21: [5051, 2202, 2200, 2201], 27: [1946, 5064, 5066, 5065], 34: [2171, 4961], 37: [1780, 2155, 4796, 4795, 4794], 14: [1975, 4916, 4914, 4915], 26: [1811, 1810, 4885, 4809, 1945], 29: [5035, 2127, 2125, 2126], 44: [5184, 5185, 2261, 5186], 1: [1930, 1931, 1932], 12: [2094, 2096, 2095], 17: [1960, 4990, 1961], 24: [1840, 2036, 5050, 5049, 1841], 31: [1857, 1856, 4901, 4900, 4899], 10: [1855, 4839], 13: [4825, 4824, 1826, 4779, 1825], 16: [5079, 5034, 4944, 1795, 1796], 30: [1827, 5231, 5230, 5229], 33: [1915, 1916], 39: [2067, 2065, 2066], 9: [2187, 2186], 4: [2051, 5171, 5170], 18: [4902, 2290, 2291, 5036], 41: [2215, 2217, 2216, 4991], 42: [4945, 4946, 2022, 2021], 8: [5200, 1781, 1782, 5199], 32: [1812, 1947, 5244, 5246, 5245], 36: [4960, 4959]}</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0.01069958847736626</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01465390437429206</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>{0: [759, 4636, 4637, 4638, 1044, 4641, 4640, 4639], 2: [819, 4701, 820, 821, 822, 4700, 823, 4699, 818], 's_0_2': [1254], 3: [987, 5015, 1148, 1149, 1150, 5239, 5240, 1152, 1151], 's_0_3': [4625], 5: [4710, 999, 4715, 4711, 4712, 4714, 4713], 's_0_5': [1029], 6: [611, 4761, 4759, 4758, 609, 4906, 4760, 4907, 610], 's_0_6': [1224], 7: [909, 910, 4861, 475, 595, 4864, 4863, 4865, 4862], 's_0_7': [714, 745, 4728], 19: [508, 507, 4683, 4682, 504, 506, 505], 's_0_19': [774], 20: [1168, 849, 4894, 4895, 1167, 1166, 850, 1165], 's_0_20': [864], 22: [1274, 1273, 1272, 1181, 5061, 1271, 1269, 1270], 's_0_22': [1284], 23: [5043, 4611, 5058, 4610, 4607, 4608, 4609, 879, 880, 4924, 761], 's_0_23': [968], 38: [4698, 5479, 898, 897, 789, 4789, 895, 896], 's_0_38': [894], 11: [4696, 4668, 4667, 4697, 4982, 625, 624], 's_2_11': [4623, 699], 15: [1089, 5599, 5600, 1090, 1091, 899, 1092, 1093, 1094], 's_2_15': [824], 's_2_20': [1164], 's_2_22': [1314, 4551], 25: [748, 1347, 5253, 5254, 5256, 5255], 's_2_25': [5358], 28: [387, 5206, 5208, 5207], 's_2_28': [5193], 35: [984, 4968, 4969, 985, 4970], 's_2_35': [969], 40: [988, 883, 5419, 5418, 5417, 4921, 4922, 551, 552, 553], 's_2_40': [5404], 43: [638, 4548, 1123, 4776, 1122, 1121, 4549, 4550, 1119, 1120], 's_2_43': [1043, 4505, 4504], 21: [5136, 448, 1255, 1256, 1257, 1258, 5466, 5465, 5464, 5462, 5463], 's_3_21': [4971], 's_3_22': [4956], 27: [4655, 5191, 4654, 924, 4594, 4593, 4592, 4591, 339, 340, 341, 342], 's_3_27': [4670], 34: [986, 5076, 1109, 1108, 1107, 5075, 5074], 's_3_34': [1211, 5030], 37: [852, 5163, 444, 446, 445, 5162, 5161], 's_3_37': [867], 's_3_38': [912, 5119], 's_3_40': [5359], 's_3_43': [4566], 14: [549, 4835, 550, 4832, 4834, 4833], 's_5_14': [925], 's_5_15': [4790], 's_5_20': [4729], 's_5_23': [1074], 26: [594, 4580, 4579, 4578, 237, 4577, 4576, 234, 235, 236], 's_5_26': [1058, 1059, 4745], 29: [808, 5375, 5374, 5373, 5372, 5371, 403, 402, 401, 400, 399], 's_5_29': [4726], 's_5_37': [429], 44: [4806, 4805, 4802, 4803, 4804], 's_5_44': [1014], 1: [5313, 583, 5086, 580, 5087, 581, 582], 's_6_1': [5027], 's_6_7': [1135], 12: [5133, 5134, 5150, 5135], 's_6_12': [5148], 's_6_15': [1105, 4730], 17: [5211, 4951, 4952, 1182, 5210, 5209, 882, 881, 4954, 4953], 's_6_17': [416], 's_6_22': [4746], 24: [355, 5013, 746, 4936, 4937, 5014, 4938], 's_6_24': [310], 's_6_29': [4891], 31: [5010, 5012, 5011, 5285, 5284, 5283, 627, 626], 's_6_31': [386], 's_6_37': [430], 's_6_38': [684], 10: [565, 4848, 4846, 4847], 's_7_10': [370], 13: [5177, 5180, 734, 5179, 5178, 729, 730, 731, 733, 732], 's_7_13': [4788], 16: [1000, 1003, 1001, 1002], 's_7_16': [4880], 's_7_23': [790], 's_7_24': [295], 30: [700, 5103, 5223, 703, 702, 701], 's_7_30': [4773], 33: [1346, 833, 835, 4818, 1345, 1344, 834, 4684, 4685, 4686], 's_7_33': [775], 's_7_35': [970], 39: [5511, 5510, 973, 5449, 5448, 5447, 5446, 313, 312, 280, 281, 5146], 's_7_39': [4981, 4980], 's_19_1': [5312], 9: [926, 927, 5106, 5105, 5104, 777, 5402, 5403, 778], 's_19_9': [493], 's_19_10': [564], 's_19_11': [669], 's_19_13': [5118, 5117], 's_19_17': [4967], 's_19_21': [5386], 's_19_24': [4831], 's_19_26': [503], 's_19_37': [5147], 4: [4998, 805, 806, 5316, 5315, 5314, 807], 's_20_4': [851], 's_20_9': [5121], 's_20_11': [4653], 's_20_16': [5450], 's_20_17': [5331], 18: [1045, 1046, 5435, 1048, 1047], 's_20_18': [5090], 's_20_21': [1153], 's_20_33': [4896], 's_20_39': [5496], 41: [954, 955, 956, 959, 958, 957], 's_20_41': [941], 42: [913, 1075, 612, 1076, 1077, 5298, 5301, 5300, 5299], 's_20_42': [4910], 's_20_43': [848], 's_20_44': [1060], 's_22_4': [1288], 's_22_9': [1196], 's_22_13': [5181], 's_22_17': [1362, 5361], 's_22_23': [4596], 's_22_34': [1316, 1317], 's_22_39': [1289], 's_22_43': [4581], 's_23_4': [4908], 8: [644, 641, 643, 642], 's_23_8': [656], 's_23_9': [5059], 's_23_17': [911], 's_23_27': [443], 's_23_29': [414], 's_23_30': [716], 32: [5057, 5101, 5102, 5267, 523, 521, 522], 's_23_32': [5042], 's_23_38': [4744], 's_23_43': [983], 's_23_44': [865], 's_38_11': [654], 's_38_15': [929], 's_38_25': [5269], 's_38_35': [4879], 36: [779, 462, 463, 464, 5585, 5584, 5583, 5582], 's_38_36': [764], 's_38_40': [838], 's_11_1': [4997], 's_11_17': [671], 's_11_24': [4876, 4877], 's_11_26': [4652, 4651, 4650], 's_11_32': [536], 's_11_33': [804], 's_11_35': [686], 's_11_37': [4666], 's_11_40': [4892], 's_15_13': [5598], 's_15_25': [5270], 's_15_31': [1017, 5225], 's_15_35': [4940], 's_15_18': [5330], 's_15_21': [914], 's_15_26': [1013, 4595], 's_15_33': [1104], 's_15_36': [989], 's_15_41': [5495], 's_15_42': [4985], 's_25_1': [5328], 's_25_4': [1197], 's_25_17': [1227], 's_25_29': [928], 's_25_30': [5268], 's_25_33': [1332, 1331, 1330], 's_25_40': [5252], 's_25_42': [5302], 's_28_1': [5222, 537], 's_28_8': [5192], 's_28_4': [792], 's_28_29': [5221], 's_28_30': [597], 's_28_32': [432, 5266, 327], 's_28_39': [388, 5281], 's_28_42': [5237, 5236], 's_35_1': [596], 's_35_27': [4669], 's_35_4': [776], 's_35_9': [4999], 's_35_14': [655], 's_35_18': [4984], 's_35_42': [4775], 's_40_1': [5357], 's_40_8': [554, 5522], 's_40_14': [520], 's_40_17': [460], 's_40_26': [221], 's_40_39': [793], 's_40_41': [5344], 's_40_42': [5297, 418, 5327], 's_43_13': [4534, 4533], 's_43_27': [653], 's_43_44': [1225], 's_43_4': [1138], 's_43_21': [1240], 's_43_26': [668], 's_43_29': [5390], 's_43_33': [4926, 4927], 's_43_34': [5405], 's_43_42': [5195], 's_21_32': [5477], 's_21_44': [4821], 's_21_12': [5151], 's_21_41': [5480], 's_27_1': [5071], 's_27_13': [744], 's_27_26': [428], 's_27_31': [5026], 's_27_32': [5056, 296, 297, 5251], 's_27_33': [4656], 's_27_36': [477], 's_27_39': [5190], 's_27_41': [939], 's_34_31': [837, 836], 's_34_9': [1241], 's_34_12': [942], 's_34_18': [1031], 's_34_24': [866], 's_34_36': [5555, 1169], 's_34_39': [5539, 5540, 1139], 's_34_41': [5570, 5569], 's_37_1': [5041, 311], 's_37_8': [5088, 747], 's_37_10': [4772], 's_37_31': [431], 's_37_17': [5164], 's_37_29': [4801], 's_14_42': [4850], 's_14_16': [1015], 's_14_26': [4756, 4757], 's_14_41': [940], 's_26_31': [5025], 's_26_32': [222], 's_26_39': [251, 250, 4890], 's_29_8': [5433], 's_29_13': [5538], 's_29_4': [5329, 868], 's_29_24': [371, 4996], 's_29_16': [5389], 's_29_17': [5360, 1063], 's_29_18': [1033], 's_29_30': [718], 's_44_1': [4817], 's_44_18': [1030], 's_1_8': [5387], 's_1_10': [4727], 's_1_13': [4743], 's_1_31': [326], 's_1_32': [598], 's_12_13': [971], 's_12_31': [1062], 's_12_4': [5149], 's_12_42': [687], 's_17_39': [1183], 's_17_41': [5089], 's_24_10': [490, 4787], 's_24_4': [4939], 's_24_16': [5029], 's_24_39': [4995, 265], 's_31_9': [763], 's_31_18': [1032], 's_31_30': [717], 's_31_32': [566], 's_31_39': [266], 's_10_13': [4878, 640], 's_10_33': [760], 's_13_16': [1016], 's_13_30': [5028], 's_13_36': [749], 's_16_42': [4955], 's_30_32': [5073, 5072, 567], 's_30_42': [672], 's_30_9': [5224], 's_39_8': [658], 's_9_32': [568], 's_9_42': [5120], 's_9_41': [5044], 's_4_42': [972], 's_42_8': [657], 's_8_36': [659]}</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0009653979238754325</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.001754700587055729</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>{0: [759, 4636, 4637, 4638, 1044, 4641, 4640, 4639], 2: [819, 4701, 820, 821, 822, 4700, 823, 4699, 818], 's_0_2': [1254], 3: [987, 5015, 1148, 1149, 1150, 5239, 5240, 1152, 1151], 's_0_3': [4625], 5: [4710, 999, 4715, 4711, 4712, 4714, 4713], 's_0_5': [1029], 6: [611, 4761, 4759, 4758, 609, 4906, 4760, 4907, 610], 's_0_6': [1224], 7: [909, 910, 4861, 475, 595, 4864, 4863, 4865, 4862], 's_0_7': [714, 745, 4728], 19: [508, 507, 4683, 4682, 504, 506, 505], 's_0_19': [774], 20: [1168, 849, 4894, 4895, 1167, 1166, 850, 1165], 's_0_20': [864], 22: [1274, 1273, 1272, 1181, 5061, 1271, 1269, 1270], 's_0_22': [1284], 23: [5043, 4611, 5058, 4610, 4607, 4608, 4609, 879, 880, 4924, 761], 's_0_23': [968], 38: [4698, 5479, 898, 897, 789, 4789, 895, 896], 's_0_38': [894], 11: [4696, 4668, 4667, 4697, 4982, 625, 624], 's_2_11': [4623, 699], 15: [1089, 5599, 5600, 1090, 1091, 899, 1092, 1093, 1094], 's_2_15': [824], 's_2_20': [1164], 's_2_22': [1314, 4551], 25: [748, 1347, 5253, 5254, 5256, 5255], 's_2_25': [5358], 28: [387, 5206, 5208, 5207], 's_2_28': [5193], 35: [984, 4968, 4969, 985, 4970], 's_2_35': [969], 40: [988, 883, 5419, 5418, 5417, 4921, 4922, 551, 552, 553], 's_2_40': [5404], 43: [638, 4548, 1123, 4776, 1122, 1121, 4549, 4550, 1119, 1120], 's_2_43': [1043, 4505, 4504], 21: [5136, 448, 1255, 1256, 1257, 1258, 5466, 5465, 5464, 5462, 5463], 's_3_21': [4971], 's_3_22': [4956], 27: [4655, 5191, 4654, 924, 4594, 4593, 4592, 4591, 339, 340, 341, 342], 's_3_27': [4670], 34: [986, 5076, 1109, 1108, 1107, 5075, 5074], 's_3_34': [1211, 5030], 37: [852, 5163, 444, 446, 445, 5162, 5161], 's_3_37': [867], 's_3_38': [912, 5119], 's_3_40': [5359], 's_3_43': [4566], 14: [549, 4835, 550, 4832, 4834, 4833], 's_5_14': [925], 's_5_15': [4790], 's_5_20': [4729], 's_5_23': [1074], 26: [594, 4580, 4579, 4578, 237, 4577, 4576, 234, 235, 236], 's_5_26': [1058, 1059, 4745], 29: [808, 5375, 5374, 5373, 5372, 5371, 403, 402, 401, 400, 399], 's_5_29': [4726], 's_5_37': [429], 44: [4806, 4805, 4802, 4803, 4804], 's_5_44': [1014], 1: [5313, 583, 5086, 580, 5087, 581, 582], 's_6_1': [5027], 's_6_7': [1135], 12: [5133, 5134, 5150, 5135], 's_6_12': [5148], 's_6_15': [1105, 4730], 17: [5211, 4951, 4952, 1182, 5210, 5209, 882, 881, 4954, 4953], 's_6_17': [416], 's_6_22': [4746], 24: [355, 5013, 746, 4936, 4937, 5014, 4938], 's_6_24': [310], 's_6_29': [4891], 31: [5010, 5012, 5011, 5285, 5284, 5283, 627, 626], 's_6_31': [386], 's_6_37': [430], 's_6_38': [684], 10: [565, 4848, 4846, 4847], 's_7_10': [370], 13: [5177, 5180, 734, 5179, 5178, 729, 730, 731, 733, 732], 's_7_13': [4788], 16: [1000, 1003, 1001, 1002], 's_7_16': [4880], 's_7_23': [790], 's_7_24': [295], 30: [700, 5103, 5223, 703, 702, 701], 's_7_30': [4773], 33: [1346, 833, 835, 4818, 1345, 1344, 834, 4684, 4685, 4686], 's_7_33': [775], 's_7_35': [970], 39: [5511, 5510, 973, 5449, 5448, 5447, 5446, 313, 312, 280, 281, 5146], 's_7_39': [4981, 4980], 's_19_1': [5312], 9: [926, 927, 5106, 5105, 5104, 777, 5402, 5403, 778], 's_19_9': [493], 's_19_10': [564], 's_19_11': [669], 's_19_13': [5118, 5117], 's_19_17': [4967], 's_19_21': [5386], 's_19_24': [4831], 's_19_26': [503], 's_19_37': [5147], 4: [4998, 805, 806, 5316, 5315, 5314, 807], 's_20_4': [851], 's_20_9': [5121], 's_20_11': [4653], 's_20_16': [5450], 's_20_17': [5331], 18: [1045, 1046, 5435, 1048, 1047], 's_20_18': [5090], 's_20_21': [1153], 's_20_33': [4896], 's_20_39': [5496], 41: [954, 955, 956, 959, 958, 957], 's_20_41': [941], 42: [913, 1075, 612, 1076, 1077, 5298, 5301, 5300, 5299], 's_20_42': [4910], 's_20_43': [848], 's_20_44': [1060], 's_22_4': [1288], 's_22_9': [1196], 's_22_13': [5181], 's_22_17': [1362, 5361], 's_22_23': [4596], 's_22_34': [1316, 1317], 's_22_39': [1289], 's_22_43': [4581], 's_23_4': [4908], 8: [644, 641, 643, 642], 's_23_8': [656], 's_23_9': [5059], 's_23_17': [911], 's_23_27': [443], 's_23_29': [414], 's_23_30': [716], 32: [5057, 5101, 5102, 5267, 523, 521, 522], 's_23_32': [5042], 's_23_38': [4744], 's_23_43': [983], 's_23_44': [865], 's_38_11': [654], 's_38_15': [929], 's_38_25': [5269], 's_38_35': [4879], 36: [779, 462, 463, 464, 5585, 5584, 5583, 5582], 's_38_36': [764], 's_38_40': [838], 's_11_1': [4997], 's_11_17': [671], 's_11_24': [4876, 4877], 's_11_26': [4652, 4651, 4650], 's_11_32': [536], 's_11_33': [804], 's_11_35': [686], 's_11_37': [4666], 's_11_40': [4892], 's_15_13': [5598], 's_15_25': [5270], 's_15_31': [1017, 5225], 's_15_35': [4940], 's_15_18': [5330], 's_15_21': [914], 's_15_26': [1013, 4595], 's_15_33': [1104], 's_15_36': [989], 's_15_41': [5495], 's_15_42': [4985], 's_25_1': [5328], 's_25_4': [1197], 's_25_17': [1227], 's_25_29': [928], 's_25_30': [5268], 's_25_33': [1332, 1331, 1330], 's_25_40': [5252], 's_25_42': [5302], 's_28_1': [5222, 537], 's_28_8': [5192], 's_28_4': [792], 's_28_29': [5221], 's_28_30': [597], 's_28_32': [432, 5266, 327], 's_28_39': [388, 5281], 's_28_42': [5237, 5236], 's_35_1': [596], 's_35_27': [4669], 's_35_4': [776], 's_35_9': [4999], 's_35_14': [655], 's_35_18': [4984], 's_35_42': [4775], 's_40_1': [5357], 's_40_8': [554, 5522], 's_40_14': [520], 's_40_17': [460], 's_40_26': [221], 's_40_39': [793], 's_40_41': [5344], 's_40_42': [5297, 418, 5327], 's_43_13': [4534, 4533], 's_43_27': [653], 's_43_44': [1225], 's_43_4': [1138], 's_43_21': [1240], 's_43_26': [668], 's_43_29': [5390], 's_43_33': [4926, 4927], 's_43_34': [5405], 's_43_42': [5195], 's_21_32': [5477], 's_21_44': [4821], 's_21_12': [5151], 's_21_41': [5480], 's_27_1': [5071], 's_27_13': [744], 's_27_26': [428], 's_27_31': [5026], 's_27_32': [5056, 296, 297, 5251], 's_27_33': [4656], 's_27_36': [477], 's_27_39': [5190], 's_27_41': [939], 's_34_31': [837, 836], 's_34_9': [1241], 's_34_12': [942], 's_34_18': [1031], 's_34_24': [866], 's_34_36': [5555, 1169], 's_34_39': [5539, 5540, 1139], 's_34_41': [5570, 5569], 's_37_1': [5041, 311], 's_37_8': [5088, 747], 's_37_10': [4772], 's_37_31': [431], 's_37_17': [5164], 's_37_29': [4801], 's_14_42': [4850], 's_14_16': [1015], 's_14_26': [4756, 4757], 's_14_41': [940], 's_26_31': [5025], 's_26_32': [222], 's_26_39': [251, 250, 4890], 's_29_8': [5433], 's_29_13': [5538], 's_29_4': [5329, 868], 's_29_24': [371, 4996], 's_29_16': [5389], 's_29_17': [5360, 1063], 's_29_18': [1033], 's_29_30': [718], 's_44_1': [4817], 's_44_18': [1030], 's_1_8': [5387], 's_1_10': [4727], 's_1_13': [4743], 's_1_31': [326], 's_1_32': [598], 's_12_13': [971], 's_12_31': [1062], 's_12_4': [5149], 's_12_42': [687], 's_17_39': [1183], 's_17_41': [5089], 's_24_10': [490, 4787], 's_24_4': [4939], 's_24_16': [5029], 's_24_39': [4995, 265], 's_31_9': [763], 's_31_18': [1032], 's_31_30': [717], 's_31_32': [566], 's_31_39': [266], 's_10_13': [4878, 640], 's_10_33': [760], 's_13_16': [1016], 's_13_30': [5028], 's_13_36': [749], 's_16_42': [4955], 's_30_32': [5073, 5072, 567], 's_30_42': [672], 's_30_9': [5224], 's_39_8': [658], 's_9_32': [568], 's_9_42': [5120], 's_9_41': [5044], 's_4_42': [972], 's_42_8': [657], 's_8_36': [659]}</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0009653979238754325</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.001754700587055729</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>{0: [1864, 3760, 3758, 3759], 1: [3866, 3864, 3865], 5: [1758, 1759, 3790, 3789], 7: [1668, 1669, 3833, 1670], 11: [3700, 3698, 1654, 3699], 13: [1623, 1624, 3909, 3908, 1625], 14: [3595, 1954, 1953], 16: [3773, 3775, 3774], 17: [3565, 1998, 2000, 1999], 19: [1595, 1594], 22: [1969, 1968], 23: [3534, 3834, 1743, 1744], 31: [2059, 3819, 3820], 38: [3653, 1608, 3713, 1609], 42: [3655, 1894, 1893], 45: [3880, 1728, 1729, 3879], 2: [1610, 1835, 3954, 3953], 4: [1938, 3835, 1939], 10: [1684, 3788], 20: [1655, 3818], 24: [1879, 1878], 32: [1818, 1820, 3654, 1819], 33: [1985, 3669, 1984, 3670], 37: [2028, 2029, 2030], 40: [1712, 1714, 1713], 44: [1909], 12: [3848, 3850, 3849], 15: [3638, 2014, 3640, 3639], 25: [3716, 3714, 3715], 28: [2058, 3623, 3624, 3625], 3: [1563, 1564], 27: [1862, 3563, 3564], 29: [3580, 3579, 3578], 34: [3593, 1908, 3594], 36: [1699, 1698], 39: [1774, 1775, 3922, 3923, 3924], 8: [1549, 3610, 3609, 3608, 1548], 35: [1923, 1925, 1924], 9: [1850, 3535, 1848, 1849], 21: [1640, 1639, 3685, 3684, 3683], 43: [3745, 1834, 3744], 30: [1895, 1804, 3939, 1805], 18: [3550, 3549, 1789, 1788], 41: [3805, 3803, 3804], 26: [3730, 1863, 3728, 3729], 6: [3895, 3894]}</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.01236192714453584</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.01612440160088333</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>{0: [1864, 3760, 3758, 3759], 1: [3866, 3864, 3865], 5: [1758, 1759, 3790, 3789], 7: [1668, 1669, 3833, 1670], 11: [3700, 3698, 1654, 3699], 13: [1623, 1624, 3909, 3908, 1625], 14: [3595, 1954, 1953], 16: [3773, 3775, 3774], 17: [3565, 1998, 2000, 1999], 19: [1595, 1594], 22: [1969, 1968], 23: [3534, 3834, 1743, 1744], 31: [2059, 3819, 3820], 38: [3653, 1608, 3713, 1609], 42: [3655, 1894, 1893], 45: [3880, 1728, 1729, 3879], 2: [1610, 1835, 3954, 3953], 4: [1938, 3835, 1939], 10: [1684, 3788], 20: [1655, 3818], 24: [1879, 1878], 32: [1818, 1820, 3654, 1819], 33: [1985, 3669, 1984, 3670], 37: [2028, 2029, 2030], 40: [1712, 1714, 1713], 44: [1909], 12: [3848, 3850, 3849], 15: [3638, 2014, 3640, 3639], 25: [3716, 3714, 3715], 28: [2058, 3623, 3624, 3625], 3: [1563, 1564], 27: [1862, 3563, 3564], 29: [3580, 3579, 3578], 34: [3593, 1908, 3594], 36: [1699, 1698], 39: [1774, 1775, 3922, 3923, 3924], 8: [1549, 3610, 3609, 3608, 1548], 35: [1923, 1925, 1924], 9: [1850, 3535, 1848, 1849], 21: [1640, 1639, 3685, 3684, 3683], 43: [3745, 1834, 3744], 30: [1895, 1804, 3939, 1805], 18: [3550, 3549, 1789, 1788], 41: [3805, 3803, 3804], 26: [3730, 1863, 3728, 3729], 6: [3895, 3894]}</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0.01236192714453584</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01612440160088333</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>{0: [3575, 946, 947, 3570, 3571, 3572, 3573, 3574, 948, 423, 3544], 1: [1054, 3170, 1051, 3169, 3168, 934, 1052, 3166, 1053, 316, 3167, 3680], 's_0_1': [1066, 3305], 5: [170, 165, 166, 169, 168, 167], 's_0_5': [3585], 7: [3317, 545, 544, 542, 3587, 543], 's_0_7': [603], 11: [887, 390, 3451, 3122, 3454, 3453, 3452, 482, 481, 3196, 391], 's_0_11': [3455, 1098], 13: [3666, 1218, 3560, 915, 916, 917, 918, 3559], 's_0_13': [3424], 14: [3979, 3647, 3648, 978, 919, 920, 3649], 's_0_14': [3646], 16: [1040, 1039, 1038, 3015, 3016, 3017, 3018, 3019, 3124, 3125, 1037, 1036, 1035], 's_0_16': [931], 17: [3766, 3736, 499, 964, 3784, 3783, 3735, 3782], 's_0_17': [288], 19: [841, 511, 3199, 3197, 3198], 's_0_19': [3259], 22: [485, 3692, 484, 3541, 483], 's_0_22': [393], 23: [740, 1082, 289, 3871, 3872, 3873, 3874, 1083, 1084, 1085, 3875], 's_0_23': [424, 439], 31: [991, 1127, 3350, 1097, 3290], 's_0_31': [3351, 1112, 1113], 38: [3363, 721, 723, 722], 's_0_38': [3588], 42: [3525, 3526, 815, 466, 467, 3753, 3752, 514, 814, 513, 3527], 's_0_42': [318], 45: [977, 677, 678, 976, 679, 3379, 3378, 3225, 3500, 3226, 3227, 646, 3377], 's_0_45': [3320], 2: [676, 3289, 3287, 3288], 's_1_2': [3286], 4: [182, 183, 184, 185, 3840, 3841, 3842, 3843, 3844, 874, 992, 993, 3724], 's_1_4': [3845], 10: [3123, 3182, 615, 616], 's_1_10': [3153], 's_1_14': [949], 's_1_17': [3860], 20: [407, 406], 's_1_20': [3271], 24: [3696, 1280, 1219, 3816, 1069, 994, 3815], 's_1_24': [3740], 32: [3331, 3333, 1068, 1067, 3335, 3332, 3334], 's_1_32': [3365], 33: [619, 1055, 3962, 4040, 921, 4039, 620, 4038], 's_1_33': [1099, 1100, 1101], 37: [1096, 3095, 3094, 3093, 3092, 3091, 3090, 228, 226, 3420, 227], 's_1_37': [960], 40: [3603, 827, 3723, 933, 1128, 828, 3606, 3605, 3604], 's_1_40': [3681, 1248], 44: [3300, 3165, 150, 151], 's_1_44': [3180], 12: [855, 856, 3900, 3901, 3902, 3903, 857, 858, 859, 860], 's_5_12': [155], 15: [3795, 3797, 3798, 769, 3107, 3796, 3108, 766, 767, 768], 's_5_15': [154], 's_5_16': [3000], 's_5_17': [3720], 25: [3660, 3661, 3662, 1024, 1023, 3665, 3664, 738, 739, 3663], 's_5_25': [3675], 28: [215, 3347, 527, 3495, 3497, 214, 213, 3496], 's_5_28': [3750], 's_5_42': [153], 's_5_44': [3075], 's_5_45': [211, 3390, 212], 's_7_2': [3272], 3: [420, 451, 450, 3139, 3138, 3137], 's_7_3': [541], 's_7_12': [3917], 's_7_19': [3302], 's_7_23': [3887], 27: [812, 3558, 3556, 3557], 's_7_27': [573], 's_7_28': [526], 29: [1143, 3620, 3615, 3616, 3617, 3618, 3619], 's_7_29': [618], 34: [3438, 3528, 648, 647], 's_7_34': [3722], 36: [3857, 558, 559, 560], 's_7_36': [3767], 39: [1021, 1022, 3409, 3707, 453, 452, 3406, 3407, 3408], 's_7_39': [3602], 8: [377, 3375, 3436, 302, 303, 304, 3811, 3919, 3918, 725, 3813, 3812], 's_11_8': [317], 's_11_10': [3181], 's_11_15': [510], 's_11_16': [405], 's_11_19': [512], 's_11_22': [408], 's_11_25': [3468], 's_11_32': [662], 35: [345, 3977, 3976, 350, 349, 346, 347, 348], 's_11_35': [3361], 's_11_36': [3482], 's_11_45': [962], 's_13_2': [902], 9: [3079, 3078, 3542, 630, 633, 632, 631], 's_13_9': [3064], 's_13_19': [3274], 's_13_24': [1279], 's_13_27': [3439], 's_13_29': [1158, 1157], 's_13_32': [3545], 's_13_40': [3621], 's_14_4': [3829], 's_14_9': [528], 's_14_12': [3814], 21: [3362, 3511, 890, 587, 588, 3512, 3513, 889, 888, 3514], 's_14_21': [3799], 's_14_22': [498], 's_14_29': [843], 's_14_33': [3980], 's_14_34': [663], 43: [800, 796, 797, 3710, 3709, 798, 799], 's_14_43': [3859], 's_16_15': [780], 's_16_19': [751], 30: [3245, 3241, 3242, 811, 3244, 3243], 's_16_30': [3260], 's_16_31': [1141, 1140, 3126], 's_16_33': [3965], 's_16_35': [3001], 's_16_37': [3136, 315], 's_16_43': [795], 's_16_44': [195, 2985], 's_17_4': [3769], 's_17_8': [3765], 's_17_15': [574], 18: [259, 255, 258, 256, 257], 's_17_18': [229, 3645], 's_17_22': [500], 's_17_28': [334, 3691], 's_17_33': [965, 4025], 's_17_42': [589], 's_17_43': [844], 's_19_2': [886], 's_19_10': [600], 's_19_12': [3154], 's_19_39': [3155, 990], 41: [3030, 3031, 1010, 3032, 3033, 3034, 1005, 1009, 1008, 1007, 1006], 's_19_41': [645], 's_22_8': [3540], 's_22_9': [3693], 's_22_15': [409], 's_22_21': [437], 26: [3781, 3421, 361, 362, 363, 364], 's_22_26': [3721], 's_22_29': [438], 's_22_33': [4037], 's_23_4': [634], 's_23_8': [950], 's_23_15': [3826, 319], 's_23_18': [3886], 's_23_24': [3876], 's_23_25': [1025], 's_23_26': [365], 's_23_31': [3410, 1187], 's_23_32': [3590], 's_23_41': [3890], 's_23_45': [680], 's_31_4': [3425], 's_31_30': [3246, 3291, 1231], 's_31_37': [1126], 's_31_39': [3364], 's_31_40': [932], 's_31_45': [3229], 's_38_2': [737], 's_38_3': [736], 's_38_15': [3183], 's_38_25': [724], 's_38_32': [707], 's_38_34': [3423], 6: [575, 709, 3858], 's_42_6': [3768], 's_42_8': [784, 3889], 's_42_28': [33], 's_42_29': [123], 's_42_30': [3257], 's_42_33': [4069], 's_42_35': [3376], 's_42_37': [107], 's_42_43': [4083], 's_45_6': [3828], 's_45_9': [3212], 's_45_10': [661], 's_45_15': [664], 's_45_20': [3211], 's_45_30': [496], 's_45_40': [3485], 's_45_41': [3394], 's_45_44': [3210], 's_2_9': [3273], 's_2_21': [572], 's_2_30': [871], 's_2_43': [781], 's_4_8': [905], 's_4_12': [604], 's_4_25': [199], 's_4_28': [3465], 's_4_29': [3725], 's_4_35': [4021, 3945, 320], 's_4_37': [3255, 181], 's_4_41': [3530], 's_4_43': [3948, 755], 's_4_44': [3315], 's_10_3': [571], 's_10_21': [3348], 's_10_41': [3047], 's_20_3': [3152], 's_20_8': [392], 's_24_8': [3920, 1189], 's_24_25': [3800], 's_24_29': [3711], 's_24_41': [995], 's_24_43': [3695], 's_32_15': [752], 's_32_18': [3346], 's_32_29': [3650], 's_32_30': [961], 's_32_39': [692], 's_32_40': [3515], 's_33_6': [3932], 's_33_21': [3994], 's_33_35': [4006, 4007, 605], 's_33_36': [3827], 's_33_41': [4084], 's_37_8': [3360], 's_37_15': [525], 's_37_18': [3121], 's_37_26': [3301], 's_37_29': [3600], 's_40_6': [3738], 's_40_12': [3469], 's_40_21': [873], 's_40_25': [754], 's_40_27': [3543], 's_12_30': [3228], 's_12_3': [840], 's_12_18': [244], 's_12_36': [454], 's_12_39': [842], 's_15_21': [3679], 's_15_30': [556], 's_15_43': [3319], 's_15_28': [3780], 's_15_8': [694], 's_15_35': [3916, 469], 's_25_43': [783], 's_25_28': [138, 137], 's_25_18': [243], 's_25_26': [379], 's_25_34': [3708], 's_25_35': [3676], 's_25_36': [3677], 's_25_39': [394], 's_28_3': [421], 's_28_26': [287, 3466], 's_28_29': [198], 's_3_41': [3046], 's_27_35': [333], 's_27_26': [378], 's_29_34': [708], 's_29_35': [3601], 's_34_9': [3633], 's_34_43': [3529], 's_36_8': [3856], 's_36_6': [3947], 's_36_39': [529], 's_39_21': [617], 's_39_30': [901, 3184], 's_39_41': [1020], 's_39_8': [3437], 's_39_35': [332], 's_39_26': [3391], 's_8_21': [875], 's_8_41': [3904], 's_8_18': [3435], 's_8_35': [3978], 's_35_30': [331], 's_35_6': [590], 's_9_30': [810], 's_9_41': [3080], 's_21_18': [242], 's_21_26': [3422], 's_43_41': [3933, 3934], 's_30_26': [3256], 's_18_41': [240]}</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0008923611111111112</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.001753217803324807</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>{0: [3575, 946, 947, 3570, 3571, 3572, 3573, 3574, 948, 423, 3544], 1: [1054, 3170, 1051, 3169, 3168, 934, 1052, 3166, 1053, 316, 3167, 3680], 's_0_1': [1066, 3305], 5: [170, 165, 166, 169, 168, 167], 's_0_5': [3585], 7: [3317, 545, 544, 542, 3587, 543], 's_0_7': [603], 11: [887, 390, 3451, 3122, 3454, 3453, 3452, 482, 481, 3196, 391], 's_0_11': [3455, 1098], 13: [3666, 1218, 3560, 915, 916, 917, 918, 3559], 's_0_13': [3424], 14: [3979, 3647, 3648, 978, 919, 920, 3649], 's_0_14': [3646], 16: [1040, 1039, 1038, 3015, 3016, 3017, 3018, 3019, 3124, 3125, 1037, 1036, 1035], 's_0_16': [931], 17: [3766, 3736, 499, 964, 3784, 3783, 3735, 3782], 's_0_17': [288], 19: [841, 511, 3199, 3197, 3198], 's_0_19': [3259], 22: [485, 3692, 484, 3541, 483], 's_0_22': [393], 23: [740, 1082, 289, 3871, 3872, 3873, 3874, 1083, 1084, 1085, 3875], 's_0_23': [424, 439], 31: [991, 1127, 3350, 1097, 3290], 's_0_31': [3351, 1112, 1113], 38: [3363, 721, 723, 722], 's_0_38': [3588], 42: [3525, 3526, 815, 466, 467, 3753, 3752, 514, 814, 513, 3527], 's_0_42': [318], 45: [977, 677, 678, 976, 679, 3379, 3378, 3225, 3500, 3226, 3227, 646, 3377], 's_0_45': [3320], 2: [676, 3289, 3287, 3288], 's_1_2': [3286], 4: [182, 183, 184, 185, 3840, 3841, 3842, 3843, 3844, 874, 992, 993, 3724], 's_1_4': [3845], 10: [3123, 3182, 615, 616], 's_1_10': [3153], 's_1_14': [949], 's_1_17': [3860], 20: [407, 406], 's_1_20': [3271], 24: [3696, 1280, 1219, 3816, 1069, 994, 3815], 's_1_24': [3740], 32: [3331, 3333, 1068, 1067, 3335, 3332, 3334], 's_1_32': [3365], 33: [619, 1055, 3962, 4040, 921, 4039, 620, 4038], 's_1_33': [1099, 1100, 1101], 37: [1096, 3095, 3094, 3093, 3092, 3091, 3090, 228, 226, 3420, 227], 's_1_37': [960], 40: [3603, 827, 3723, 933, 1128, 828, 3606, 3605, 3604], 's_1_40': [3681, 1248], 44: [3300, 3165, 150, 151], 's_1_44': [3180], 12: [855, 856, 3900, 3901, 3902, 3903, 857, 858, 859, 860], 's_5_12': [155], 15: [3795, 3797, 3798, 769, 3107, 3796, 3108, 766, 767, 768], 's_5_15': [154], 's_5_16': [3000], 's_5_17': [3720], 25: [3660, 3661, 3662, 1024, 1023, 3665, 3664, 738, 739, 3663], 's_5_25': [3675], 28: [215, 3347, 527, 3495, 3497, 214, 213, 3496], 's_5_28': [3750], 's_5_42': [153], 's_5_44': [3075], 's_5_45': [211, 3390, 212], 's_7_2': [3272], 3: [420, 451, 450, 3139, 3138, 3137], 's_7_3': [541], 's_7_12': [3917], 's_7_19': [3302], 's_7_23': [3887], 27: [812, 3558, 3556, 3557], 's_7_27': [573], 's_7_28': [526], 29: [1143, 3620, 3615, 3616, 3617, 3618, 3619], 's_7_29': [618], 34: [3438, 3528, 648, 647], 's_7_34': [3722], 36: [3857, 558, 559, 560], 's_7_36': [3767], 39: [1021, 1022, 3409, 3707, 453, 452, 3406, 3407, 3408], 's_7_39': [3602], 8: [377, 3375, 3436, 302, 303, 304, 3811, 3919, 3918, 725, 3813, 3812], 's_11_8': [317], 's_11_10': [3181], 's_11_15': [510], 's_11_16': [405], 's_11_19': [512], 's_11_22': [408], 's_11_25': [3468], 's_11_32': [662], 35: [345, 3977, 3976, 350, 349, 346, 347, 348], 's_11_35': [3361], 's_11_36': [3482], 's_11_45': [962], 's_13_2': [902], 9: [3079, 3078, 3542, 630, 633, 632, 631], 's_13_9': [3064], 's_13_19': [3274], 's_13_24': [1279], 's_13_27': [3439], 's_13_29': [1158, 1157], 's_13_32': [3545], 's_13_40': [3621], 's_14_4': [3829], 's_14_9': [528], 's_14_12': [3814], 21: [3362, 3511, 890, 587, 588, 3512, 3513, 889, 888, 3514], 's_14_21': [3799], 's_14_22': [498], 's_14_29': [843], 's_14_33': [3980], 's_14_34': [663], 43: [800, 796, 797, 3710, 3709, 798, 799], 's_14_43': [3859], 's_16_15': [780], 's_16_19': [751], 30: [3245, 3241, 3242, 811, 3244, 3243], 's_16_30': [3260], 's_16_31': [1141, 1140, 3126], 's_16_33': [3965], 's_16_35': [3001], 's_16_37': [3136, 315], 's_16_43': [795], 's_16_44': [195, 2985], 's_17_4': [3769], 's_17_8': [3765], 's_17_15': [574], 18: [259, 255, 258, 256, 257], 's_17_18': [229, 3645], 's_17_22': [500], 's_17_28': [334, 3691], 's_17_33': [965, 4025], 's_17_42': [589], 's_17_43': [844], 's_19_2': [886], 's_19_10': [600], 's_19_12': [3154], 's_19_39': [3155, 990], 41: [3030, 3031, 1010, 3032, 3033, 3034, 1005, 1009, 1008, 1007, 1006], 's_19_41': [645], 's_22_8': [3540], 's_22_9': [3693], 's_22_15': [409], 's_22_21': [437], 26: [3781, 3421, 361, 362, 363, 364], 's_22_26': [3721], 's_22_29': [438], 's_22_33': [4037], 's_23_4': [634], 's_23_8': [950], 's_23_15': [3826, 319], 's_23_18': [3886], 's_23_24': [3876], 's_23_25': [1025], 's_23_26': [365], 's_23_31': [3410, 1187], 's_23_32': [3590], 's_23_41': [3890], 's_23_45': [680], 's_31_4': [3425], 's_31_30': [3246, 3291, 1231], 's_31_37': [1126], 's_31_39': [3364], 's_31_40': [932], 's_31_45': [3229], 's_38_2': [737], 's_38_3': [736], 's_38_15': [3183], 's_38_25': [724], 's_38_32': [707], 's_38_34': [3423], 6: [575, 709, 3858], 's_42_6': [3768], 's_42_8': [784, 3889], 's_42_28': [33], 's_42_29': [123], 's_42_30': [3257], 's_42_33': [4069], 's_42_35': [3376], 's_42_37': [107], 's_42_43': [4083], 's_45_6': [3828], 's_45_9': [3212], 's_45_10': [661], 's_45_15': [664], 's_45_20': [3211], 's_45_30': [496], 's_45_40': [3485], 's_45_41': [3394], 's_45_44': [3210], 's_2_9': [3273], 's_2_21': [572], 's_2_30': [871], 's_2_43': [781], 's_4_8': [905], 's_4_12': [604], 's_4_25': [199], 's_4_28': [3465], 's_4_29': [3725], 's_4_35': [4021, 3945, 320], 's_4_37': [3255, 181], 's_4_41': [3530], 's_4_43': [3948, 755], 's_4_44': [3315], 's_10_3': [571], 's_10_21': [3348], 's_10_41': [3047], 's_20_3': [3152], 's_20_8': [392], 's_24_8': [3920, 1189], 's_24_25': [3800], 's_24_29': [3711], 's_24_41': [995], 's_24_43': [3695], 's_32_15': [752], 's_32_18': [3346], 's_32_29': [3650], 's_32_30': [961], 's_32_39': [692], 's_32_40': [3515], 's_33_6': [3932], 's_33_21': [3994], 's_33_35': [4006, 4007, 605], 's_33_36': [3827], 's_33_41': [4084], 's_37_8': [3360], 's_37_15': [525], 's_37_18': [3121], 's_37_26': [3301], 's_37_29': [3600], 's_40_6': [3738], 's_40_12': [3469], 's_40_21': [873], 's_40_25': [754], 's_40_27': [3543], 's_12_30': [3228], 's_12_3': [840], 's_12_18': [244], 's_12_36': [454], 's_12_39': [842], 's_15_21': [3679], 's_15_30': [556], 's_15_43': [3319], 's_15_28': [3780], 's_15_8': [694], 's_15_35': [3916, 469], 's_25_43': [783], 's_25_28': [138, 137], 's_25_18': [243], 's_25_26': [379], 's_25_34': [3708], 's_25_35': [3676], 's_25_36': [3677], 's_25_39': [394], 's_28_3': [421], 's_28_26': [287, 3466], 's_28_29': [198], 's_3_41': [3046], 's_27_35': [333], 's_27_26': [378], 's_29_34': [708], 's_29_35': [3601], 's_34_9': [3633], 's_34_43': [3529], 's_36_8': [3856], 's_36_6': [3947], 's_36_39': [529], 's_39_21': [617], 's_39_30': [901, 3184], 's_39_41': [1020], 's_39_8': [3437], 's_39_35': [332], 's_39_26': [3391], 's_8_21': [875], 's_8_41': [3904], 's_8_18': [3435], 's_8_35': [3978], 's_35_30': [331], 's_35_6': [590], 's_9_30': [810], 's_9_41': [3080], 's_21_18': [242], 's_21_26': [3422], 's_43_41': [3933, 3934], 's_30_26': [3256], 's_18_41': [240]}</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0008923611111111112</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.001753217803324807</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{0: [4831, 488, 490, 489], 3: [4816, 4517, 459, 4592, 458], 6: [4863, 4861, 4862, 579, 580], 10: [218, 4426, 4427], 16: [4623, 4620, 4622, 4621], 18: [368, 369, 4682, 4681], 24: [519, 4758, 4756, 4757], 26: [4503, 4501, 503, 4502], 36: [638, 594, 4562, 4563], 39: [413, 415, 414], 40: [384, 385], 42: [383, 4443, 593, 4440, 4441, 4442], 43: [4742, 4743, 683, 684], 45: [4471, 4472], 7: [505, 233, 234, 4650, 504, 4651], 9: [4428, 607, 4802, 609, 608], 17: [219, 4665, 4668, 4667, 4666], 21: [4846, 4847, 4787, 4788, 595], 25: [730, 729, 728, 4383, 4382, 548], 28: [444, 442, 443], 32: [654, 4487, 4518, 653], 37: [4606, 4608, 473, 4607], 4: [4548, 4546, 4547, 518], 14: [715, 713, 4638, 714], 19: [4593, 624, 622, 623], 20: [4771, 4772, 698, 699, 700, 4773], 22: [517, 4366, 578, 4367], 29: [340, 338, 339], 33: [532, 533, 534, 4652], 34: [4712, 400, 4711], 46: [295, 4470, 292, 294, 293], 1: [4396, 4397, 563, 565, 564], 2: [427, 4635, 428, 4637, 4636], 11: [4710, 4591, 264, 262, 263], 38: [4698, 353, 354, 4696, 4697], 41: [4411, 4412], 23: [325, 324, 322, 323], 27: [4530, 4533, 4531, 549, 4532], 35: [309, 308], 5: [4578, 4576, 4577], 8: [4485, 4486], 12: [4352, 4351, 399, 398], 31: [277, 4561, 278], 44: [668, 669, 4726, 4727, 4728], 13: [249, 4741], 30: [4800, 429, 4801], 15: [4456, 4457]}</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.01705240223215278</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01928564739001346</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>{0: [4831, 488, 490, 489], 3: [4816, 4517, 459, 4592, 458], 6: [4863, 4861, 4862, 579, 580], 10: [218, 4426, 4427], 16: [4623, 4620, 4622, 4621], 18: [368, 369, 4682, 4681], 24: [519, 4758, 4756, 4757], 26: [4503, 4501, 503, 4502], 36: [638, 594, 4562, 4563], 39: [413, 415, 414], 40: [384, 385], 42: [383, 4443, 593, 4440, 4441, 4442], 43: [4742, 4743, 683, 684], 45: [4471, 4472], 7: [505, 233, 234, 4650, 504, 4651], 9: [4428, 607, 4802, 609, 608], 17: [219, 4665, 4668, 4667, 4666], 21: [4846, 4847, 4787, 4788, 595], 25: [730, 729, 728, 4383, 4382, 548], 28: [444, 442, 443], 32: [654, 4487, 4518, 653], 37: [4606, 4608, 473, 4607], 4: [4548, 4546, 4547, 518], 14: [715, 713, 4638, 714], 19: [4593, 624, 622, 623], 20: [4771, 4772, 698, 699, 700, 4773], 22: [517, 4366, 578, 4367], 29: [340, 338, 339], 33: [532, 533, 534, 4652], 34: [4712, 400, 4711], 46: [295, 4470, 292, 294, 293], 1: [4396, 4397, 563, 565, 564], 2: [427, 4635, 428, 4637, 4636], 11: [4710, 4591, 264, 262, 263], 38: [4698, 353, 354, 4696, 4697], 41: [4411, 4412], 23: [325, 324, 322, 323], 27: [4530, 4533, 4531, 549, 4532], 35: [309, 308], 5: [4578, 4576, 4577], 8: [4485, 4486], 12: [4352, 4351, 399, 398], 31: [277, 4561, 278], 44: [668, 669, 4726, 4727, 4728], 13: [249, 4741], 30: [4800, 429, 4801], 15: [4456, 4457]}</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0.01705240223215278</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01928564739001346</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{0: [4934, 1843, 1842, 1841, 4933, 4932, 4931, 4930], 3: [4674, 5212, 1943, 1944, 1945, 5213, 5214, 1947, 1946], 's_0_3': [5184], 6: [4899, 4513, 4512, 4511, 4510, 1798, 1797, 1796, 1795, 4809, 1899, 4585, 1898], 's_0_6': [5004], 10: [2023, 5412, 5034, 5411, 1916, 1826, 5410, 5378, 5379, 1917, 1918], 's_0_10': [5409], 16: [2305, 2093, 2094, 4913, 4914, 4915, 4918, 4917, 2095, 4916], 's_0_16': [2260], 18: [5097, 4947, 5590, 5591, 5592, 2369, 2368, 2367, 2363, 2364, 2365, 2366], 's_0_18': [2216], 24: [5064, 2201, 5066, 5065], 's_0_24': [2171], 26: [1829, 4450, 2033, 5439, 5440, 2068, 2067, 2066, 5020, 2036, 2035, 2034], 's_0_26': [2065], 36: [2409, 4798, 2408, 2515, 5382, 5383, 2518, 2517, 2516], 's_0_36': [2410], 39: [4597, 2323, 1449, 1450, 1451, 1452, 5322, 5242, 5321, 5320, 1872, 5244, 5243], 's_0_39': [5274], 40: [5353, 4643, 4644, 4645, 4646, 4647, 2469, 2607, 2606, 5053, 2471, 2470], 's_0_40': [4888, 4889, 2695], 42: [2547, 2546, 2574, 4539, 4540, 4541, 4542, 2545, 2544, 4543], 's_0_42': [2531], 43: [4928, 2307, 2308, 5337, 5336, 1539, 1540, 1541, 1542, 5333, 5334, 5335], 's_0_43': [1858], 45: [5398, 5397, 5396, 1778, 1779, 1780, 1781, 5124, 5395, 2008, 2007, 5125], 's_0_45': [4929], 7: [1978, 2174, 1631, 1632, 5456, 1633, 1634, 5455, 5454, 5453], 's_3_7': [5303, 1587], 9: [1479, 1480, 1481, 1483, 5362, 1949, 1948, 1482, 5364, 1753, 5363], 's_3_9': [1557, 5197], 17: [5140, 1962, 4751, 1961, 4748, 4749, 4750, 1959, 1960], 's_3_17': [4900], 21: [4557, 4556, 2169, 4481, 4480, 4598, 4599, 4600, 2048, 4601], 's_3_21': [1824], 25: [4723, 5049, 1736, 1735, 1733, 4722, 4721, 4658, 4720, 4719, 1734], 's_3_25': [4659], 28: [5277, 4570, 4571, 4572, 4573, 2398, 2397, 2382, 2381, 4569, 2380, 2379], 's_3_28': [1809], 32: [2439, 2020, 4822, 4823, 4824, 4827, 4826, 4825], 's_3_32': [4885], 37: [2457, 1914, 4781, 2125, 2126, 2127, 2487, 5248, 5247, 4780, 5246], 's_3_37': [5245], 's_3_39': [1422], 's_3_40': [1794], 's_3_42': [4615, 1913], 4: [4963, 4852, 4853, 2338, 4854, 4855, 4856, 2275, 2337, 2336, 4962], 's_6_4': [1870, 4884], 's_6_7': [5168, 5169], 's_6_9': [5469], 14: [4868, 1854, 1855, 4869], 's_6_14': [4795], 's_6_16': [4810], 19: [2591, 2590, 4493, 4494, 4495, 4496, 4708, 4497, 4498, 2588, 2589], 's_6_19': [2513], 20: [2079, 2019, 4692, 4691, 4688, 4689, 4690], 's_6_20': [2018], 's_6_21': [1958], 22: [2168, 4451, 4452, 2452, 2455, 2453, 2454], 's_6_22': [4528], 's_6_25': [1840], 29: [1993, 5308, 5153, 5154, 1782, 5307, 5304, 5305, 5306], 's_6_29': [5319, 1737], 33: [1660, 1661, 2440, 2441, 2442, 5202, 5201, 5198, 5199, 1662, 5200], 's_6_33': [4779], 34: [5500, 1903, 5289, 5290, 1932, 5230, 1902], 's_6_34': [5229], 's_6_37': [1869], 's_6_40': [4648, 2603], 46: [1799, 5499, 4841, 1693, 5514, 5515, 5516, 2185, 2186, 2187, 2188, 2189], 's_6_46': [1783, 1784], 1: [4783, 2500, 5108, 5109, 1901, 5110, 5111, 5112, 5113, 2501], 's_10_1': [5019], 2: [5078, 1598, 1599, 2158, 1600, 1601, 1602, 1603, 5423, 5424, 5425, 5426], 's_10_2': [2098], 's_10_4': [1915], 's_10_7': [1933], 's_10_9': [5394], 11: [1990, 4943, 2080, 5530, 4946, 2053, 2052, 4944, 4945, 1991, 5035, 2051], 's_10_11': [5529], 's_10_17': [5275], 's_10_25': [5050], 's_10_26': [1738], 's_10_28': [5427], 's_10_29': [1813], 38: [1763, 4584, 5081, 1722, 5080, 5079, 1721, 1674, 1675, 1676, 5018], 's_10_38': [1723], 's_10_39': [2038], 41: [2081, 2082, 2218, 5367, 5366, 5365], 's_10_41': [1963], 's_10_46': [5485, 1873], 's_16_1': [4782], 's_16_2': [1615], 's_16_7': [4898], 's_16_17': [4660], 's_16_18': [4797], 's_16_19': [2605], 23: [4705, 4706, 4707, 4768, 2426, 2425, 2424], 's_16_23': [4902], 's_16_24': [2021], 's_16_25': [4736], 27: [2243, 1751, 1525, 4987, 4988, 1720, 1719, 1752, 4526, 4525, 4524, 1718], 's_16_27': [1690], 35: [2214, 4871, 2215], 's_16_35': [4811], 's_16_36': [4903], 's_16_37': [4990], 's_16_40': [2576, 4979], 's_16_43': [2306], 's_16_46': [2230], 5: [2229, 5263, 4617, 2204, 2203, 5261, 5262, 2322, 4752, 2319, 2320, 2321], 's_18_5': [5292], 's_18_7': [2009], 8: [5170, 2113, 4887, 2112, 4886, 2111, 2110], 's_18_8': [2290], 's_18_9': [1934], 's_18_11': [5501, 2129], 12: [2291, 5036, 5096, 2141, 4972, 4973, 4974, 4975, 4976], 's_18_12': [4977], 's_18_19': [4482], 's_18_23': [5022], 's_18_33': [5007], 's_18_39': [2293, 5487], 's_24_1': [2156], 's_24_4': [5067], 's_24_11': [4901], 's_24_25': [1811], 's_24_46': [5006], 's_26_1': [5095], 's_26_7': [1859], 's_26_8': [5441], 's_26_9': [5574, 1814], 's_26_20': [4675], 's_26_22': [4436, 4437, 4438], 's_26_27': [1823, 4464, 4465, 2092], 31: [5188, 2142, 5141, 5187, 5291, 2157, 5186], 's_26_31': [2096], 's_26_33': [5215], 's_26_37': [4796], 's_26_41': [5126], 44: [5323, 1570, 1571, 1572, 1573, 1574, 5603, 5604, 5605, 5606, 5607, 5608, 2549, 2548], 's_26_44': [2069], 's_36_5': [2563], 's_36_19': [4603, 2529], 's_36_20': [4662, 2394], 's_36_21': [2423], 's_36_25': [2514], 's_36_31': [2502], 's_36_32': [4828], 's_36_39': [2353], 's_36_44': [2503], 's_36_45': [2473], 's_39_8': [2128], 's_39_12': [4957], 's_39_21': [4613, 4612], 's_39_27': [1466], 's_39_38': [1812], 's_39_41': [2173], 's_39_43': [4837], 13: [2155, 2154], 's_40_13': [2139], 's_40_21': [2258], 30: [5408, 5003, 1644, 1645, 1648, 1647, 1646], 's_40_30': [4628], 's_40_37': [2592], 's_40_42': [2228], 's_40_44': [5368], 's_42_14': [4554], 15: [5173, 2532, 2231, 5142, 5143], 's_42_15': [5098], 's_42_19': [4663], 's_42_20': [4693], 's_42_23': [2530], 's_42_28': [2123], 's_42_35': [2199], 's_42_38': [4538], 's_42_45': [1793], 's_43_4': [5457], 's_43_5': [2292], 's_43_9': [5347], 's_43_14': [1810, 4794, 4793], 's_43_15': [5171], 's_43_17': [4763], 's_43_28': [5338], 's_43_30': [4718], 's_43_33': [4733], 's_43_34': [1707], 's_43_38': [5017], 's_43_45': [5381], 's_45_1': [1691], 's_45_8': [5380], 's_45_19': [4479], 's_45_25': [4704], 's_45_38': [4614], 's_45_44': [5473, 2413], 's_45_46': [5471, 2083], 's_7_1': [5138, 1511], 's_7_5': [5576], 's_7_2': [2248], 's_7_11': [5486], 's_7_12': [4958], 's_7_30': [5123], 's_7_33': [5063], 's_7_34': [1844], 's_7_41': [2219], 's_9_1': [1498, 1497], 's_9_2': [5077], 's_9_4': [4867, 1435], 's_9_21': [1494], 's_9_30': [4568], 's_9_32': [1495], 's_9_34': [5470], 's_17_1': [5155], 's_17_5': [5260], 's_17_12': [4960], 's_17_13': [4766], 's_17_14': [1825], 's_17_20': [1554], 's_17_23': [2109], 's_17_29': [1977], 's_17_30': [1630], 's_17_31': [5185], 's_17_46': [4840], 's_21_25': [1764], 's_21_19': [4555, 1928], 's_21_30': [1629], 's_21_14': [1839], 's_21_28': [2138], 's_25_1': [2499], 's_25_5': [2304], 's_25_22': [4738], 's_25_14': [1856], 's_25_19': [1614, 1613], 's_25_20': [1749], 's_25_28': [4737], 's_28_5': [5052], 's_28_15': [5128], 's_28_41': [2383], 's_28_38': [1688], 's_28_44': [2412], 's_28_4': [2396], 's_28_8': [2395], 's_28_20': [2184], 's_28_37': [2488, 5352], 's_32_5': [2274], 's_32_22': [4812], 's_32_33': [2350, 4842], 's_32_38': [1931, 1930], 's_32_44': [4807], 's_32_4': [1465], 's_32_8': [2335], 's_32_14': [1765], 's_32_20': [2259], 's_32_27': [4734, 4735], 's_37_12': [2172], 's_37_31': [5172, 2456], 's_37_33': [5293], 's_37_44': [5278], 's_37_46': [2170], 's_37_4': [1975], 's_37_8': [5276], 's_37_20': [2049], 's_37_29': [2247], 's_4_5': [5217, 2472], 's_4_15': [5127], 's_4_22': [4992], 's_4_12': [5082], 's_4_31': [2351, 2352], 's_4_33': [4857], 's_4_46': [2245], 's_4_27': [1555], 's_4_35': [2200], 's_14_44': [4883], 's_19_15': [5083], 's_19_2': [4478], 's_19_27': [1808], 's_20_11': [1989], 's_20_23': [2124], 's_20_30': [4703], 's_20_38': [1659], 's_20_27': [4630, 2078], 's_22_1': [4873], 's_22_23': [4978], 's_22_33': [4948], 's_29_5': [2533], 's_29_34': [1678], 's_29_41': [2097], 's_29_44': [2427], 's_29_27': [1767], 's_33_34': [1663], 's_33_41': [2232], 's_33_2': [4808], 's_33_12': [4959], 's_33_44': [5093], 's_34_1': [1992], 's_34_11': [1964], 's_34_46': [1994], 's_46_11': [5531], 's_46_2': [2159], 's_46_12': [4991], 's_46_30': [5393], 's_46_31': [5231], 's_46_44': [1649, 5438], 's_1_5': [5038, 5037], 's_1_11': [1900], 's_1_15': [2261], 's_1_23': [2486, 2485, 2484], 's_1_41': [2217], 's_2_5': [5351], 's_2_12': [1586], 's_2_30': [1616], 's_2_31': [2143], 's_2_38': [5348], 's_2_44': [1604], 's_11_8': [4961], 's_11_13': [2140], 's_11_27': [1496], 's_11_30': [1705], 's_11_35': [4870], 's_11_38': [1976], 's_38_15': [2246], 's_38_30': [4553], 's_38_27': [4838], 's_41_12': [5051], 's_23_31': [2411], 's_23_35': [4872], 's_27_5': [4527, 2318], 's_27_44': [5002], 's_35_5': [4602], 's_35_13': [4631], 's_5_44': [5503, 5502, 5517], 's_8_31': [5156], 's_12_15': [5021], 's_12_31': [2202]}</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.001272455089820359</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.001950421290538231</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>{0: [4934, 1843, 1842, 1841, 4933, 4932, 4931, 4930], 3: [4674, 5212, 1943, 1944, 1945, 5213, 5214, 1947, 1946], 's_0_3': [5184], 6: [4899, 4513, 4512, 4511, 4510, 1798, 1797, 1796, 1795, 4809, 1899, 4585, 1898], 's_0_6': [5004], 10: [2023, 5412, 5034, 5411, 1916, 1826, 5410, 5378, 5379, 1917, 1918], 's_0_10': [5409], 16: [2305, 2093, 2094, 4913, 4914, 4915, 4918, 4917, 2095, 4916], 's_0_16': [2260], 18: [5097, 4947, 5590, 5591, 5592, 2369, 2368, 2367, 2363, 2364, 2365, 2366], 's_0_18': [2216], 24: [5064, 2201, 5066, 5065], 's_0_24': [2171], 26: [1829, 4450, 2033, 5439, 5440, 2068, 2067, 2066, 5020, 2036, 2035, 2034], 's_0_26': [2065], 36: [2409, 4798, 2408, 2515, 5382, 5383, 2518, 2517, 2516], 's_0_36': [2410], 39: [4597, 2323, 1449, 1450, 1451, 1452, 5322, 5242, 5321, 5320, 1872, 5244, 5243], 's_0_39': [5274], 40: [5353, 4643, 4644, 4645, 4646, 4647, 2469, 2607, 2606, 5053, 2471, 2470], 's_0_40': [4888, 4889, 2695], 42: [2547, 2546, 2574, 4539, 4540, 4541, 4542, 2545, 2544, 4543], 's_0_42': [2531], 43: [4928, 2307, 2308, 5337, 5336, 1539, 1540, 1541, 1542, 5333, 5334, 5335], 's_0_43': [1858], 45: [5398, 5397, 5396, 1778, 1779, 1780, 1781, 5124, 5395, 2008, 2007, 5125], 's_0_45': [4929], 7: [1978, 2174, 1631, 1632, 5456, 1633, 1634, 5455, 5454, 5453], 's_3_7': [5303, 1587], 9: [1479, 1480, 1481, 1483, 5362, 1949, 1948, 1482, 5364, 1753, 5363], 's_3_9': [1557, 5197], 17: [5140, 1962, 4751, 1961, 4748, 4749, 4750, 1959, 1960], 's_3_17': [4900], 21: [4557, 4556, 2169, 4481, 4480, 4598, 4599, 4600, 2048, 4601], 's_3_21': [1824], 25: [4723, 5049, 1736, 1735, 1733, 4722, 4721, 4658, 4720, 4719, 1734], 's_3_25': [4659], 28: [5277, 4570, 4571, 4572, 4573, 2398, 2397, 2382, 2381, 4569, 2380, 2379], 's_3_28': [1809], 32: [2439, 2020, 4822, 4823, 4824, 4827, 4826, 4825], 's_3_32': [4885], 37: [2457, 1914, 4781, 2125, 2126, 2127, 2487, 5248, 5247, 4780, 5246], 's_3_37': [5245], 's_3_39': [1422], 's_3_40': [1794], 's_3_42': [4615, 1913], 4: [4963, 4852, 4853, 2338, 4854, 4855, 4856, 2275, 2337, 2336, 4962], 's_6_4': [1870, 4884], 's_6_7': [5168, 5169], 's_6_9': [5469], 14: [4868, 1854, 1855, 4869], 's_6_14': [4795], 's_6_16': [4810], 19: [2591, 2590, 4493, 4494, 4495, 4496, 4708, 4497, 4498, 2588, 2589], 's_6_19': [2513], 20: [2079, 2019, 4692, 4691, 4688, 4689, 4690], 's_6_20': [2018], 's_6_21': [1958], 22: [2168, 4451, 4452, 2452, 2455, 2453, 2454], 's_6_22': [4528], 's_6_25': [1840], 29: [1993, 5308, 5153, 5154, 1782, 5307, 5304, 5305, 5306], 's_6_29': [5319, 1737], 33: [1660, 1661, 2440, 2441, 2442, 5202, 5201, 5198, 5199, 1662, 5200], 's_6_33': [4779], 34: [5500, 1903, 5289, 5290, 1932, 5230, 1902], 's_6_34': [5229], 's_6_37': [1869], 's_6_40': [4648, 2603], 46: [1799, 5499, 4841, 1693, 5514, 5515, 5516, 2185, 2186, 2187, 2188, 2189], 's_6_46': [1783, 1784], 1: [4783, 2500, 5108, 5109, 1901, 5110, 5111, 5112, 5113, 2501], 's_10_1': [5019], 2: [5078, 1598, 1599, 2158, 1600, 1601, 1602, 1603, 5423, 5424, 5425, 5426], 's_10_2': [2098], 's_10_4': [1915], 's_10_7': [1933], 's_10_9': [5394], 11: [1990, 4943, 2080, 5530, 4946, 2053, 2052, 4944, 4945, 1991, 5035, 2051], 's_10_11': [5529], 's_10_17': [5275], 's_10_25': [5050], 's_10_26': [1738], 's_10_28': [5427], 's_10_29': [1813], 38: [1763, 4584, 5081, 1722, 5080, 5079, 1721, 1674, 1675, 1676, 5018], 's_10_38': [1723], 's_10_39': [2038], 41: [2081, 2082, 2218, 5367, 5366, 5365], 's_10_41': [1963], 's_10_46': [5485, 1873], 's_16_1': [4782], 's_16_2': [1615], 's_16_7': [4898], 's_16_17': [4660], 's_16_18': [4797], 's_16_19': [2605], 23: [4705, 4706, 4707, 4768, 2426, 2425, 2424], 's_16_23': [4902], 's_16_24': [2021], 's_16_25': [4736], 27: [2243, 1751, 1525, 4987, 4988, 1720, 1719, 1752, 4526, 4525, 4524, 1718], 's_16_27': [1690], 35: [2214, 4871, 2215], 's_16_35': [4811], 's_16_36': [4903], 's_16_37': [4990], 's_16_40': [2576, 4979], 's_16_43': [2306], 's_16_46': [2230], 5: [2229, 5263, 4617, 2204, 2203, 5261, 5262, 2322, 4752, 2319, 2320, 2321], 's_18_5': [5292], 's_18_7': [2009], 8: [5170, 2113, 4887, 2112, 4886, 2111, 2110], 's_18_8': [2290], 's_18_9': [1934], 's_18_11': [5501, 2129], 12: [2291, 5036, 5096, 2141, 4972, 4973, 4974, 4975, 4976], 's_18_12': [4977], 's_18_19': [4482], 's_18_23': [5022], 's_18_33': [5007], 's_18_39': [2293, 5487], 's_24_1': [2156], 's_24_4': [5067], 's_24_11': [4901], 's_24_25': [1811], 's_24_46': [5006], 's_26_1': [5095], 's_26_7': [1859], 's_26_8': [5441], 's_26_9': [5574, 1814], 's_26_20': [4675], 's_26_22': [4436, 4437, 4438], 's_26_27': [1823, 4464, 4465, 2092], 31: [5188, 2142, 5141, 5187, 5291, 2157, 5186], 's_26_31': [2096], 's_26_33': [5215], 's_26_37': [4796], 's_26_41': [5126], 44: [5323, 1570, 1571, 1572, 1573, 1574, 5603, 5604, 5605, 5606, 5607, 5608, 2549, 2548], 's_26_44': [2069], 's_36_5': [2563], 's_36_19': [4603, 2529], 's_36_20': [4662, 2394], 's_36_21': [2423], 's_36_25': [2514], 's_36_31': [2502], 's_36_32': [4828], 's_36_39': [2353], 's_36_44': [2503], 's_36_45': [2473], 's_39_8': [2128], 's_39_12': [4957], 's_39_21': [4613, 4612], 's_39_27': [1466], 's_39_38': [1812], 's_39_41': [2173], 's_39_43': [4837], 13: [2155, 2154], 's_40_13': [2139], 's_40_21': [2258], 30: [5408, 5003, 1644, 1645, 1648, 1647, 1646], 's_40_30': [4628], 's_40_37': [2592], 's_40_42': [2228], 's_40_44': [5368], 's_42_14': [4554], 15: [5173, 2532, 2231, 5142, 5143], 's_42_15': [5098], 's_42_19': [4663], 's_42_20': [4693], 's_42_23': [2530], 's_42_28': [2123], 's_42_35': [2199], 's_42_38': [4538], 's_42_45': [1793], 's_43_4': [5457], 's_43_5': [2292], 's_43_9': [5347], 's_43_14': [1810, 4794, 4793], 's_43_15': [5171], 's_43_17': [4763], 's_43_28': [5338], 's_43_30': [4718], 's_43_33': [4733], 's_43_34': [1707], 's_43_38': [5017], 's_43_45': [5381], 's_45_1': [1691], 's_45_8': [5380], 's_45_19': [4479], 's_45_25': [4704], 's_45_38': [4614], 's_45_44': [5473, 2413], 's_45_46': [5471, 2083], 's_7_1': [5138, 1511], 's_7_5': [5576], 's_7_2': [2248], 's_7_11': [5486], 's_7_12': [4958], 's_7_30': [5123], 's_7_33': [5063], 's_7_34': [1844], 's_7_41': [2219], 's_9_1': [1498, 1497], 's_9_2': [5077], 's_9_4': [4867, 1435], 's_9_21': [1494], 's_9_30': [4568], 's_9_32': [1495], 's_9_34': [5470], 's_17_1': [5155], 's_17_5': [5260], 's_17_12': [4960], 's_17_13': [4766], 's_17_14': [1825], 's_17_20': [1554], 's_17_23': [2109], 's_17_29': [1977], 's_17_30': [1630], 's_17_31': [5185], 's_17_46': [4840], 's_21_25': [1764], 's_21_19': [4555, 1928], 's_21_30': [1629], 's_21_14': [1839], 's_21_28': [2138], 's_25_1': [2499], 's_25_5': [2304], 's_25_22': [4738], 's_25_14': [1856], 's_25_19': [1614, 1613], 's_25_20': [1749], 's_25_28': [4737], 's_28_5': [5052], 's_28_15': [5128], 's_28_41': [2383], 's_28_38': [1688], 's_28_44': [2412], 's_28_4': [2396], 's_28_8': [2395], 's_28_20': [2184], 's_28_37': [2488, 5352], 's_32_5': [2274], 's_32_22': [4812], 's_32_33': [2350, 4842], 's_32_38': [1931, 1930], 's_32_44': [4807], 's_32_4': [1465], 's_32_8': [2335], 's_32_14': [1765], 's_32_20': [2259], 's_32_27': [4734, 4735], 's_37_12': [2172], 's_37_31': [5172, 2456], 's_37_33': [5293], 's_37_44': [5278], 's_37_46': [2170], 's_37_4': [1975], 's_37_8': [5276], 's_37_20': [2049], 's_37_29': [2247], 's_4_5': [5217, 2472], 's_4_15': [5127], 's_4_22': [4992], 's_4_12': [5082], 's_4_31': [2351, 2352], 's_4_33': [4857], 's_4_46': [2245], 's_4_27': [1555], 's_4_35': [2200], 's_14_44': [4883], 's_19_15': [5083], 's_19_2': [4478], 's_19_27': [1808], 's_20_11': [1989], 's_20_23': [2124], 's_20_30': [4703], 's_20_38': [1659], 's_20_27': [4630, 2078], 's_22_1': [4873], 's_22_23': [4978], 's_22_33': [4948], 's_29_5': [2533], 's_29_34': [1678], 's_29_41': [2097], 's_29_44': [2427], 's_29_27': [1767], 's_33_34': [1663], 's_33_41': [2232], 's_33_2': [4808], 's_33_12': [4959], 's_33_44': [5093], 's_34_1': [1992], 's_34_11': [1964], 's_34_46': [1994], 's_46_11': [5531], 's_46_2': [2159], 's_46_12': [4991], 's_46_30': [5393], 's_46_31': [5231], 's_46_44': [1649, 5438], 's_1_5': [5038, 5037], 's_1_11': [1900], 's_1_15': [2261], 's_1_23': [2486, 2485, 2484], 's_1_41': [2217], 's_2_5': [5351], 's_2_12': [1586], 's_2_30': [1616], 's_2_31': [2143], 's_2_38': [5348], 's_2_44': [1604], 's_11_8': [4961], 's_11_13': [2140], 's_11_27': [1496], 's_11_30': [1705], 's_11_35': [4870], 's_11_38': [1976], 's_38_15': [2246], 's_38_30': [4553], 's_38_27': [4838], 's_41_12': [5051], 's_23_31': [2411], 's_23_35': [4872], 's_27_5': [4527, 2318], 's_27_44': [5002], 's_35_5': [4602], 's_35_13': [4631], 's_5_44': [5503, 5502, 5517], 's_8_31': [5156], 's_12_15': [5021], 's_12_31': [2202]}</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0.001272455089820359</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.001950421290538231</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>{0: [3355, 1905, 1906, 3296, 3295], 7: [3222, 2146, 3221], 10: [2416, 3297], 12: [2295, 3130, 3132, 3131], 24: [2163, 3327, 3326, 2162], 27: [1950, 1952, 1951], 30: [3162, 2117, 2115, 2116, 3161], 31: [3070, 1997, 1995, 1996], 35: [2175, 2177, 2176], 38: [3462, 3461, 1967, 3460], 41: [3250, 3252, 3251], 15: [3384, 3385, 2236, 3386], 20: [3207, 3177, 2341], 23: [3372, 2327, 2325, 2326], 28: [3175, 2131, 3176], 40: [2160, 3116, 3237, 2161, 3236], 42: [3432, 2147, 3430, 3431], 43: [2343, 2342, 3311, 3312], 5: [2041, 3265, 3267, 3266], 6: [2250, 2251], 21: [2220, 2281, 3206], 34: [3370, 2266, 3371], 36: [2372, 2371, 3100, 3101, 3102], 37: [2312, 2310, 2311], 44: [3190, 3191, 2297, 2296], 1: [3416, 3415, 1981, 1982], 2: [1965, 2087, 2086, 1966, 3235], 11: [2356, 2357, 3447, 3446, 3445], 9: [2102, 3477, 3476], 25: [3220, 2027, 3115, 2026], 39: [2013, 2011, 2012], 46: [3400, 2070, 2072, 2071], 8: [1907, 3506, 3505], 17: [3010, 2101, 2100], 29: [3282, 3280, 3281], 13: [3342, 3340, 3341], 26: [2208, 2206, 2207], 32: [2192, 2191], 47: [3147, 3146], 4: [1998, 3490], 22: [3493, 3071, 2402, 2401, 2400, 3072], 45: [2055, 2056, 2057], 19: [1922, 1921], 33: [3402, 2221, 2222, 3401], 14: [1892, 1891, 1890, 3086, 3085], 3: [3357], 16: [3414, 1937], 18: [2282, 3491, 3492]}</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01059898872034228</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.01444821209128572</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>{0: [3355, 1905, 1906, 3296, 3295], 7: [3222, 2146, 3221], 10: [2416, 3297], 12: [2295, 3130, 3132, 3131], 24: [2163, 3327, 3326, 2162], 27: [1950, 1952, 1951], 30: [3162, 2117, 2115, 2116, 3161], 31: [3070, 1997, 1995, 1996], 35: [2175, 2177, 2176], 38: [3462, 3461, 1967, 3460], 41: [3250, 3252, 3251], 15: [3384, 3385, 2236, 3386], 20: [3207, 3177, 2341], 23: [3372, 2327, 2325, 2326], 28: [3175, 2131, 3176], 40: [2160, 3116, 3237, 2161, 3236], 42: [3432, 2147, 3430, 3431], 43: [2343, 2342, 3311, 3312], 5: [2041, 3265, 3267, 3266], 6: [2250, 2251], 21: [2220, 2281, 3206], 34: [3370, 2266, 3371], 36: [2372, 2371, 3100, 3101, 3102], 37: [2312, 2310, 2311], 44: [3190, 3191, 2297, 2296], 1: [3416, 3415, 1981, 1982], 2: [1965, 2087, 2086, 1966, 3235], 11: [2356, 2357, 3447, 3446, 3445], 9: [2102, 3477, 3476], 25: [3220, 2027, 3115, 2026], 39: [2013, 2011, 2012], 46: [3400, 2070, 2072, 2071], 8: [1907, 3506, 3505], 17: [3010, 2101, 2100], 29: [3282, 3280, 3281], 13: [3342, 3340, 3341], 26: [2208, 2206, 2207], 32: [2192, 2191], 47: [3147, 3146], 4: [1998, 3490], 22: [3493, 3071, 2402, 2401, 2400, 3072], 45: [2055, 2056, 2057], 19: [1922, 1921], 33: [3402, 2221, 2222, 3401], 14: [1892, 1891, 1890, 3086, 3085], 3: [3357], 16: [3414, 1937], 18: [2282, 3491, 3492]}</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.01059898872034228</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01444821209128572</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{0: [1151, 1149, 5002, 5001, 1150, 5000], 7: [4688, 4687, 4686, 4685, 4684, 819, 820, 4968, 4969], 's_0_7': [4700], 10: [748, 747, 5133, 1137, 5136, 1062, 5134, 5135], 's_0_10': [5075], 12: [1168, 4835, 1165, 5180, 1167, 1166], 's_0_12': [4985], 24: [5046, 4732, 1480, 1481, 5512, 1378, 1377, 1376, 5047], 's_0_24': [1375], 27: [1634, 1633, 1632, 1631, 1630, 4760, 4761, 4762, 4763], 's_0_27': [5003], 30: [5224, 5301, 5300, 958, 957, 956, 955, 4745, 4671, 4670, 1074], 's_0_30': [4640, 1148], 31: [1513, 5438, 5468, 1574, 1571, 1572, 1573], 's_0_31': [4987], 35: [1256, 4939, 1271, 1255, 1254, 1121, 985, 4940, 4941], 's_0_35': [1091], 38: [4879, 4880, 4883, 4882, 4881], 's_0_38': [1510], 41: [5139, 5138, 1029, 1030, 1511, 5032, 1496, 4912, 4910, 4911], 's_0_41': [1586], 15: [1554, 1555, 1556, 5167, 1437, 5600, 5601, 5602, 1499, 1498, 5272], 's_7_15': [4703], 20: [5028, 5178, 822, 821], 's_7_20': [716], 23: [869, 5240, 5239, 868, 866, 867], 's_7_23': [851], 28: [954, 4610, 4611, 1599, 4613, 1390, 1389, 4612], 's_7_28': [4702], 's_7_30': [984], 's_7_35': [761], 40: [732, 733, 5253, 5254, 1314, 1315, 1316, 1317, 1318, 5255, 5256], 's_7_40': [5118, 671, 672, 5283], 42: [1359, 1424, 4790, 4791, 1423, 1422, 1421, 4789, 4792, 1420], 's_7_42': [834], 43: [5177, 5511, 5510, 988, 5434, 655, 656, 657, 658, 5433], 's_7_43': [686, 5103], 5: [1273, 1272, 5153, 5152, 5149, 971, 5150, 5151], 's_10_5': [927], 6: [882, 793, 5299, 792], 's_10_6': [5268], 21: [5058, 5061, 1136, 5060, 5059], 's_10_21': [746], 34: [5073, 4954, 791, 790, 730, 1015, 1014, 4833, 4834], 's_10_34': [5088], 36: [5183, 1063, 1662, 1663, 5408, 5407, 5406, 5405, 5404, 837, 838], 's_10_36': [5403], 37: [1123, 1124, 734, 5467, 5466, 5465, 5464, 688, 749, 5463], 's_10_37': [687], 's_10_40': [5148], 44: [4851, 4926, 1198, 1240, 5452, 5451, 4925, 1243, 1241, 1242], 's_10_44': [5106], 1: [1781, 1780, 4794, 4793, 4728, 4729, 4730, 1164, 1495, 4807, 4806, 4805], 's_12_1': [1060], 2: [4717, 1450, 1451, 1197, 1453, 5195, 5196, 5197, 1452], 's_12_2': [5210], 11: [5226, 5225, 5555, 1109, 1108, 4820, 1105, 1106, 1107], 's_12_11': [4850], 's_12_21': [1181], 's_12_30': [1090], 's_12_35': [4895], 's_12_36': [5420], 's_12_37': [1153], 's_12_40': [1212], 's_24_1': [1509, 4822], 9: [5284, 5329, 5361, 774, 775, 776, 777, 5360, 5359, 5358, 778], 's_24_9': [5346], 's_24_15': [1304], 's_24_21': [1331], 25: [1723, 1438, 5393, 5390, 5391, 5392], 's_24_25': [1363], 's_24_28': [1434], 's_24_35': [5045], 39: [1617, 5258, 1244, 1707, 1708, 5526, 5527, 5528], 's_24_39': [1394], 's_24_42': [5107], 's_24_43': [5541, 1274], 46: [4955, 4956, 1330, 1406, 4957], 's_24_46': [5077], 's_27_2': [1419], 's_27_5': [5303, 5302, 1407], 8: [1528, 1288, 1768, 5378, 5377, 5375, 1334, 1333, 5376], 's_27_8': [5348], 's_27_11': [1120], 's_27_15': [5078], 17: [1362, 5330, 5333, 5332, 5331], 's_27_17': [1648], 29: [1542, 4718, 1539, 1540, 5014, 5015, 5016, 5017, 1541], 's_27_29': [5018], 's_27_31': [5423], 's_27_34': [999], 's_27_36': [5168], 's_27_41': [1044, 4595, 939], 's_27_42': [969], 's_30_2': [1374], 's_30_5': [5029], 's_30_6': [5179], 's_30_8': [5286], 's_30_11': [1227], 13: [5419, 910, 4999, 5570, 5569, 914, 911, 912, 913], 's_30_13': [4804], 's_30_17': [1017], 's_30_23': [5269], 26: [1284, 4653, 4654, 4655, 4658, 4657, 4656], 's_30_26': [1119], 's_30_28': [1269], 32: [5166, 1347, 4972, 1344, 1346, 1345], 's_30_32': [1194, 4701], 's_30_34': [4819], 's_30_36': [1138], 's_30_37': [959], 's_30_41': [4775], 's_30_42': [1179], 47: [1033, 1031, 1032], 's_30_47': [5374], 's_31_2': [5212], 4: [5104, 806, 807, 808, 5497, 5496, 5495, 5498, 5494], 's_31_4': [1649], 's_31_5': [1587], 's_31_15': [5603], 22: [943, 5123, 5122, 5121, 5193, 5194, 942, 5120], 's_31_22': [5108], 's_31_25': [1618], 's_31_29': [5243], 's_31_36': [1603], 's_31_44': [5437], 45: [5198, 1753, 1752, 1751, 4959, 4958, 4863, 4864, 4865, 4866, 4867, 1525], 's_31_45': [5439], 's_35_5': [986], 's_35_13': [4924], 's_35_22': [1122], 's_35_28': [4641], 's_35_29': [5030], 's_35_41': [1075], 's_35_44': [1239, 4596], 's_38_1': [1645], 's_38_11': [1210], 's_38_13': [925], 's_38_15': [4868], 19: [4624, 879, 880, 881], 's_38_19': [895], 33: [1614, 1661, 4929, 4927, 1616, 1615, 4928], 's_38_33': [1690], 's_38_34': [865], 's_38_44': [1360], 's_38_45': [1465], 's_38_46': [1405], 's_41_1': [4852, 4853, 1720, 1721, 5109], 's_41_2': [4897], 's_41_5': [5154], 14: [1004, 5389, 1003, 1000, 5450, 1001, 1002], 's_41_14': [4849], 's_41_15': [1436], 's_41_19': [4909], 's_41_21': [1286], 's_41_22': [1647], 's_41_33': [4913, 1676], 's_41_39': [1602], 's_15_1': [4748], 3: [1214, 5525, 5523, 5524], 's_15_3': [1049, 5539], 's_15_14': [1019], 16: [1782, 1798, 5499, 1783, 1784, 1199, 5664, 1514, 5661, 5662, 5663], 's_15_16': [5587], 's_15_25': [5347, 1483, 5288, 5287], 's_15_29': [4672], 's_15_32': [1392], 's_15_42': [5572], 's_20_5': [836], 's_20_6': [852], 's_20_23': [5013], 's_20_21': [5044], 's_20_22': [717], 's_20_36': [5314], 's_20_43': [5027], 's_23_9': [853], 's_23_34': [4998], 's_23_5': [5074], 's_23_3': [854], 's_23_11': [1077], 's_23_22': [5089], 's_23_47': [1047], 's_28_1': [1600], 's_28_2': [1449], 's_28_29': [1538], 's_28_44': [4986, 1391], 's_40_26': [4551], 's_40_32': [5076], 's_40_33': [1301], 's_40_34': [5163], 's_40_44': [1285, 4716], 's_40_2': [5271, 5270], 's_40_5': [5421], 's_40_17': [5257], 's_40_6': [897], 's_40_22': [987], 's_40_37': [1319], 's_40_46': [4836], 's_42_1': [804], 's_42_16': [5557], 's_42_19': [4774], 's_42_36': [5422], 's_42_37': [5482], 's_42_39': [5542], 's_42_45': [1435], 's_42_46': [5092], 's_43_45': [640], 's_43_6': [5448], 's_43_11': [1064], 's_43_37': [5313], 18: [1228, 700, 701, 1229, 702, 703, 704, 5616, 5615, 5614, 5613], 's_43_18': [5223], 's_43_21': [641], 's_43_39': [1289], 's_5_13': [970], 's_5_32': [1287], 's_5_2': [1497], 's_5_17': [972], 's_6_13': [928], 's_6_3': [5538], 's_6_22': [5164], 's_6_36': [5388], 's_21_32': [4971], 's_21_29': [1076], 's_21_14': [1016], 's_34_1': [789], 's_34_26': [4669], 's_34_18': [4773], 's_34_44': [1045], 's_34_45': [745], 's_36_33': [5093], 's_36_37': [883], 's_36_22': [5124], 's_37_13': [5568], 's_37_3': [944], 's_37_18': [5598], 's_44_1': [1225], 's_44_32': [5241], 's_44_3': [5540], 's_44_17': [5211], 's_44_25': [1393], 's_44_39': [1484], 's_1_9': [4713], 's_1_13': [4714], 's_1_16': [1796, 1795, 1797], 's_1_26': [1734], 's_1_32': [4821], 's_1_33': [1719, 4808], 's_1_45': [5094], 's_2_9': [5345], 's_2_45': [1524], 's_2_8': [5316], 's_2_17': [5242], 's_2_25': [1182, 1183], 's_2_29': [5182], 's_2_46': [1466], 's_11_16': [1154], 's_11_32': [1257], 's_11_45': [1135], 's_11_8': [5556], 's_11_25': [1332, 5317], 's_11_3': [5554, 1034], 's_11_14': [1139], 's_11_18': [1184], 's_11_22': [5285], 's_11_47': [5090], 's_9_22': [762], 's_9_26': [4668], 's_25_45': [5469], 's_25_17': [1093], 's_25_14': [1078], 's_25_39': [5543], 's_39_8': [5334], 's_39_29': [1557], 's_39_18': [1259], 's_46_33': [4942], 's_46_29': [5031], 's_46_22': [1061], 's_46_47': [1046], 's_8_16': [5424], 's_8_45': [5484], 's_8_4': [1558], 's_8_18': [5586], 's_17_14': [5315], 's_17_22': [1361], 's_17_29': [5318], 's_17_47': [1048], 's_29_26': [1584], 's_29_19': [896], 's_29_22': [1196], 's_13_3': [884], 's_13_16': [1169], 's_13_18': [989], 's_26_33': [4673], 's_32_33': [4973], 's_4_16': [1409], 's_4_14': [5105], 's_4_19': [5119], 's_22_33': [1601], 's_22_14': [5344], 's_22_18': [5208], 's_45_18': [4878]}</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0009039735099337749</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.001734767548278259</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>{0: [1151, 1149, 5002, 5001, 1150, 5000], 7: [4688, 4687, 4686, 4685, 4684, 819, 820, 4968, 4969], 's_0_7': [4700], 10: [748, 747, 5133, 1137, 5136, 1062, 5134, 5135], 's_0_10': [5075], 12: [1168, 4835, 1165, 5180, 1167, 1166], 's_0_12': [4985], 24: [5046, 4732, 1480, 1481, 5512, 1378, 1377, 1376, 5047], 's_0_24': [1375], 27: [1634, 1633, 1632, 1631, 1630, 4760, 4761, 4762, 4763], 's_0_27': [5003], 30: [5224, 5301, 5300, 958, 957, 956, 955, 4745, 4671, 4670, 1074], 's_0_30': [4640, 1148], 31: [1513, 5438, 5468, 1574, 1571, 1572, 1573], 's_0_31': [4987], 35: [1256, 4939, 1271, 1255, 1254, 1121, 985, 4940, 4941], 's_0_35': [1091], 38: [4879, 4880, 4883, 4882, 4881], 's_0_38': [1510], 41: [5139, 5138, 1029, 1030, 1511, 5032, 1496, 4912, 4910, 4911], 's_0_41': [1586], 15: [1554, 1555, 1556, 5167, 1437, 5600, 5601, 5602, 1499, 1498, 5272], 's_7_15': [4703], 20: [5028, 5178, 822, 821], 's_7_20': [716], 23: [869, 5240, 5239, 868, 866, 867], 's_7_23': [851], 28: [954, 4610, 4611, 1599, 4613, 1390, 1389, 4612], 's_7_28': [4702], 's_7_30': [984], 's_7_35': [761], 40: [732, 733, 5253, 5254, 1314, 1315, 1316, 1317, 1318, 5255, 5256], 's_7_40': [5118, 671, 672, 5283], 42: [1359, 1424, 4790, 4791, 1423, 1422, 1421, 4789, 4792, 1420], 's_7_42': [834], 43: [5177, 5511, 5510, 988, 5434, 655, 656, 657, 658, 5433], 's_7_43': [686, 5103], 5: [1273, 1272, 5153, 5152, 5149, 971, 5150, 5151], 's_10_5': [927], 6: [882, 793, 5299, 792], 's_10_6': [5268], 21: [5058, 5061, 1136, 5060, 5059], 's_10_21': [746], 34: [5073, 4954, 791, 790, 730, 1015, 1014, 4833, 4834], 's_10_34': [5088], 36: [5183, 1063, 1662, 1663, 5408, 5407, 5406, 5405, 5404, 837, 838], 's_10_36': [5403], 37: [1123, 1124, 734, 5467, 5466, 5465, 5464, 688, 749, 5463], 's_10_37': [687], 's_10_40': [5148], 44: [4851, 4926, 1198, 1240, 5452, 5451, 4925, 1243, 1241, 1242], 's_10_44': [5106], 1: [1781, 1780, 4794, 4793, 4728, 4729, 4730, 1164, 1495, 4807, 4806, 4805], 's_12_1': [1060], 2: [4717, 1450, 1451, 1197, 1453, 5195, 5196, 5197, 1452], 's_12_2': [5210], 11: [5226, 5225, 5555, 1109, 1108, 4820, 1105, 1106, 1107], 's_12_11': [4850], 's_12_21': [1181], 's_12_30': [1090], 's_12_35': [4895], 's_12_36': [5420], 's_12_37': [1153], 's_12_40': [1212], 's_24_1': [1509, 4822], 9: [5284, 5329, 5361, 774, 775, 776, 777, 5360, 5359, 5358, 778], 's_24_9': [5346], 's_24_15': [1304], 's_24_21': [1331], 25: [1723, 1438, 5393, 5390, 5391, 5392], 's_24_25': [1363], 's_24_28': [1434], 's_24_35': [5045], 39: [1617, 5258, 1244, 1707, 1708, 5526, 5527, 5528], 's_24_39': [1394], 's_24_42': [5107], 's_24_43': [5541, 1274], 46: [4955, 4956, 1330, 1406, 4957], 's_24_46': [5077], 's_27_2': [1419], 's_27_5': [5303, 5302, 1407], 8: [1528, 1288, 1768, 5378, 5377, 5375, 1334, 1333, 5376], 's_27_8': [5348], 's_27_11': [1120], 's_27_15': [5078], 17: [1362, 5330, 5333, 5332, 5331], 's_27_17': [1648], 29: [1542, 4718, 1539, 1540, 5014, 5015, 5016, 5017, 1541], 's_27_29': [5018], 's_27_31': [5423], 's_27_34': [999], 's_27_36': [5168], 's_27_41': [1044, 4595, 939], 's_27_42': [969], 's_30_2': [1374], 's_30_5': [5029], 's_30_6': [5179], 's_30_8': [5286], 's_30_11': [1227], 13: [5419, 910, 4999, 5570, 5569, 914, 911, 912, 913], 's_30_13': [4804], 's_30_17': [1017], 's_30_23': [5269], 26: [1284, 4653, 4654, 4655, 4658, 4657, 4656], 's_30_26': [1119], 's_30_28': [1269], 32: [5166, 1347, 4972, 1344, 1346, 1345], 's_30_32': [1194, 4701], 's_30_34': [4819], 's_30_36': [1138], 's_30_37': [959], 's_30_41': [4775], 's_30_42': [1179], 47: [1033, 1031, 1032], 's_30_47': [5374], 's_31_2': [5212], 4: [5104, 806, 807, 808, 5497, 5496, 5495, 5498, 5494], 's_31_4': [1649], 's_31_5': [1587], 's_31_15': [5603], 22: [943, 5123, 5122, 5121, 5193, 5194, 942, 5120], 's_31_22': [5108], 's_31_25': [1618], 's_31_29': [5243], 's_31_36': [1603], 's_31_44': [5437], 45: [5198, 1753, 1752, 1751, 4959, 4958, 4863, 4864, 4865, 4866, 4867, 1525], 's_31_45': [5439], 's_35_5': [986], 's_35_13': [4924], 's_35_22': [1122], 's_35_28': [4641], 's_35_29': [5030], 's_35_41': [1075], 's_35_44': [1239, 4596], 's_38_1': [1645], 's_38_11': [1210], 's_38_13': [925], 's_38_15': [4868], 19: [4624, 879, 880, 881], 's_38_19': [895], 33: [1614, 1661, 4929, 4927, 1616, 1615, 4928], 's_38_33': [1690], 's_38_34': [865], 's_38_44': [1360], 's_38_45': [1465], 's_38_46': [1405], 's_41_1': [4852, 4853, 1720, 1721, 5109], 's_41_2': [4897], 's_41_5': [5154], 14: [1004, 5389, 1003, 1000, 5450, 1001, 1002], 's_41_14': [4849], 's_41_15': [1436], 's_41_19': [4909], 's_41_21': [1286], 's_41_22': [1647], 's_41_33': [4913, 1676], 's_41_39': [1602], 's_15_1': [4748], 3: [1214, 5525, 5523, 5524], 's_15_3': [1049, 5539], 's_15_14': [1019], 16: [1782, 1798, 5499, 1783, 1784, 1199, 5664, 1514, 5661, 5662, 5663], 's_15_16': [5587], 's_15_25': [5347, 1483, 5288, 5287], 's_15_29': [4672], 's_15_32': [1392], 's_15_42': [5572], 's_20_5': [836], 's_20_6': [852], 's_20_23': [5013], 's_20_21': [5044], 's_20_22': [717], 's_20_36': [5314], 's_20_43': [5027], 's_23_9': [853], 's_23_34': [4998], 's_23_5': [5074], 's_23_3': [854], 's_23_11': [1077], 's_23_22': [5089], 's_23_47': [1047], 's_28_1': [1600], 's_28_2': [1449], 's_28_29': [1538], 's_28_44': [4986, 1391], 's_40_26': [4551], 's_40_32': [5076], 's_40_33': [1301], 's_40_34': [5163], 's_40_44': [1285, 4716], 's_40_2': [5271, 5270], 's_40_5': [5421], 's_40_17': [5257], 's_40_6': [897], 's_40_22': [987], 's_40_37': [1319], 's_40_46': [4836], 's_42_1': [804], 's_42_16': [5557], 's_42_19': [4774], 's_42_36': [5422], 's_42_37': [5482], 's_42_39': [5542], 's_42_45': [1435], 's_42_46': [5092], 's_43_45': [640], 's_43_6': [5448], 's_43_11': [1064], 's_43_37': [5313], 18: [1228, 700, 701, 1229, 702, 703, 704, 5616, 5615, 5614, 5613], 's_43_18': [5223], 's_43_21': [641], 's_43_39': [1289], 's_5_13': [970], 's_5_32': [1287], 's_5_2': [1497], 's_5_17': [972], 's_6_13': [928], 's_6_3': [5538], 's_6_22': [5164], 's_6_36': [5388], 's_21_32': [4971], 's_21_29': [1076], 's_21_14': [1016], 's_34_1': [789], 's_34_26': [4669], 's_34_18': [4773], 's_34_44': [1045], 's_34_45': [745], 's_36_33': [5093], 's_36_37': [883], 's_36_22': [5124], 's_37_13': [5568], 's_37_3': [944], 's_37_18': [5598], 's_44_1': [1225], 's_44_32': [5241], 's_44_3': [5540], 's_44_17': [5211], 's_44_25': [1393], 's_44_39': [1484], 's_1_9': [4713], 's_1_13': [4714], 's_1_16': [1796, 1795, 1797], 's_1_26': [1734], 's_1_32': [4821], 's_1_33': [1719, 4808], 's_1_45': [5094], 's_2_9': [5345], 's_2_45': [1524], 's_2_8': [5316], 's_2_17': [5242], 's_2_25': [1182, 1183], 's_2_29': [5182], 's_2_46': [1466], 's_11_16': [1154], 's_11_32': [1257], 's_11_45': [1135], 's_11_8': [5556], 's_11_25': [1332, 5317], 's_11_3': [5554, 1034], 's_11_14': [1139], 's_11_18': [1184], 's_11_22': [5285], 's_11_47': [5090], 's_9_22': [762], 's_9_26': [4668], 's_25_45': [5469], 's_25_17': [1093], 's_25_14': [1078], 's_25_39': [5543], 's_39_8': [5334], 's_39_29': [1557], 's_39_18': [1259], 's_46_33': [4942], 's_46_29': [5031], 's_46_22': [1061], 's_46_47': [1046], 's_8_16': [5424], 's_8_45': [5484], 's_8_4': [1558], 's_8_18': [5586], 's_17_14': [5315], 's_17_22': [1361], 's_17_29': [5318], 's_17_47': [1048], 's_29_26': [1584], 's_29_19': [896], 's_29_22': [1196], 's_13_3': [884], 's_13_16': [1169], 's_13_18': [989], 's_26_33': [4673], 's_32_33': [4973], 's_4_16': [1409], 's_4_14': [5105], 's_4_19': [5119], 's_22_33': [1601], 's_22_14': [5344], 's_22_18': [5208], 's_45_18': [4878]}</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0009039735099337749</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.001734767548278259</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>{0: [694, 859, 906, 905, 3843, 3844], 2: [756, 4038, 4039, 936, 4040], 6: [514, 3828, 3827], 10: [965, 964, 3814, 3572, 3573, 813, 814], 11: [605, 3964, 3962, 3963], 12: [3829, 890, 889, 3709, 754, 3633], 17: [3888, 723, 724, 725], 19: [4022, 4024, 4023], 21: [755, 3948, 3947, 815], 23: [603, 604], 24: [3695, 3692, 3694, 3693], 25: [935, 3722, 3723, 3724, 934], 27: [891, 4096, 4099, 4097, 4098], 39: [3603, 785, 784, 783], 41: [829, 830, 4054], 45: [3919, 860, 3918], 48: [4007, 4008, 875, 951, 4009], 5: [874, 771, 3858, 770, 3859], 15: [4084, 4082, 4083], 30: [3994, 3992, 3993], 32: [3933, 708, 709, 710], 38: [621, 618, 3917, 620, 619], 42: [741, 4052, 4053], 18: [528, 3647, 513], 22: [634, 544, 3767, 3769, 3768], 37: [559, 561, 560], 43: [3857, 531, 530, 3753, 3752, 529], 44: [801, 798, 800, 799, 3812, 3813], 1: [3799, 3798, 455, 454, 3797], 14: [4067, 4068, 3934, 995, 4070, 4069], 20: [573, 3932, 576, 575, 574], 26: [3979, 3977, 695, 3978], 33: [663, 665, 664], 35: [828, 950, 949, 3679, 873, 3634], 36: [3619, 769, 3618, 768], 40: [966, 486, 816, 4142, 4144, 4143], 16: [501, 3783, 3782, 500, 499], 34: [649, 515, 3902], 3: [979, 978, 3663, 3664, 3665], 9: [3903, 739, 740], 31: [3677, 3678, 3587, 648], 13: [3784, 921, 3649, 920, 3648, 919], 28: [3887, 545, 4157, 546], 47: [3708, 589, 591, 590], 4: [3542, 681, 680, 678, 679], 7: [3602, 485, 3662, 484, 483], 29: [3875, 3873, 3874], 8: [3514, 843, 846, 844, 845], 46: [980, 981, 861, 4158, 4159]}</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0202388009145567</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.01884446329276015</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>{0: [694, 859, 906, 905, 3843, 3844], 2: [756, 4038, 4039, 936, 4040], 6: [514, 3828, 3827], 10: [965, 964, 3814, 3572, 3573, 813, 814], 11: [605, 3964, 3962, 3963], 12: [3829, 890, 889, 3709, 754, 3633], 17: [3888, 723, 724, 725], 19: [4022, 4024, 4023], 21: [755, 3948, 3947, 815], 23: [603, 604], 24: [3695, 3692, 3694, 3693], 25: [935, 3722, 3723, 3724, 934], 27: [891, 4096, 4099, 4097, 4098], 39: [3603, 785, 784, 783], 41: [829, 830, 4054], 45: [3919, 860, 3918], 48: [4007, 4008, 875, 951, 4009], 5: [874, 771, 3858, 770, 3859], 15: [4084, 4082, 4083], 30: [3994, 3992, 3993], 32: [3933, 708, 709, 710], 38: [621, 618, 3917, 620, 619], 42: [741, 4052, 4053], 18: [528, 3647, 513], 22: [634, 544, 3767, 3769, 3768], 37: [559, 561, 560], 43: [3857, 531, 530, 3753, 3752, 529], 44: [801, 798, 800, 799, 3812, 3813], 1: [3799, 3798, 455, 454, 3797], 14: [4067, 4068, 3934, 995, 4070, 4069], 20: [573, 3932, 576, 575, 574], 26: [3979, 3977, 695, 3978], 33: [663, 665, 664], 35: [828, 950, 949, 3679, 873, 3634], 36: [3619, 769, 3618, 768], 40: [966, 486, 816, 4142, 4144, 4143], 16: [501, 3783, 3782, 500, 499], 34: [649, 515, 3902], 3: [979, 978, 3663, 3664, 3665], 9: [3903, 739, 740], 31: [3677, 3678, 3587, 648], 13: [3784, 921, 3649, 920, 3648, 919], 28: [3887, 545, 4157, 546], 47: [3708, 589, 591, 590], 4: [3542, 681, 680, 678, 679], 7: [3602, 485, 3662, 484, 483], 29: [3875, 3873, 3874], 8: [3514, 843, 846, 844, 845], 46: [980, 981, 861, 4158, 4159]}</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0.0202388009145567</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01884446329276015</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{0: [4423, 2528, 2527, 2526, 2525, 2524, 4422, 2312, 2419, 2313, 2418, 3658, 3657], 2: [2077, 4270, 2076, 2075, 3476, 2072, 2073, 3477, 2074], 's_0_2': [2417], 6: [2467, 3747, 3628, 2463, 4198, 2466, 2465, 2464], 's_0_6': [3823], 10: [1519, 3757, 4091, 2167, 2166, 2165, 2164, 3807, 3806, 3805, 3804, 3803, 1564], 's_0_10': [2389], 11: [4214, 2646, 2645, 2644, 2373, 2643, 3598, 3596, 3597], 's_0_11': [3778], 12: [3838, 1728, 1727, 3412, 2585, 2584, 2583, 2582, 3418, 3417, 3416, 3413, 3414, 3415], 's_0_12': [3402], 17: [3760, 3762, 3761, 3759, 4151, 4152, 2256, 2255, 2254], 's_0_17': [3763], 19: [2162, 3581, 3534, 1682, 3507, 3504, 2163, 3506, 3505], 's_0_19': [2298], 21: [3730, 2433, 3732, 3731], 's_0_21': [3703], 23: [2572, 4333, 4332, 4331, 4312, 4313, 4314, 4315, 2107], 's_0_23': [4288], 24: [4421, 4420, 4419, 4418, 3952, 1522, 1521, 1520], 's_0_24': [4435, 4436, 4437, 4438], 25: [4358, 4359, 2508, 2509, 4374, 4375, 4376, 4377, 4378, 2510, 2511, 2512], 's_0_25': [4393, 2393], 27: [3687, 3686, 3684, 1834, 3685], 's_0_27': [3688], 39: [2600, 3748, 2599, 2598, 2597, 3433, 3432, 3431, 3430, 3488, 3489, 3490, 1892], 's_0_39': [3733], 41: [4105, 4106, 2286, 3358, 3357, 2285, 2282, 2283, 2284], 's_0_41': [3342], 45: [2087, 3536, 2358, 2222, 2330, 2329, 2328, 3537], 's_0_45': [3612], 48: [1625, 3922, 3923, 3924, 3925, 3493, 3492, 3491, 2028, 2029, 2030], 's_0_48': [2523], 5: [1432, 3627, 1431, 1430, 1429, 3626, 3625, 1893, 3729, 3728, 3727], 's_2_5': [2388], 's_2_10': [3821], 15: [1623, 3593, 3594, 2060, 2059, 2058, 3595], 's_2_15': [4076], 's_2_21': [2088], 's_2_25': [1957], 30: [4241, 4240, 1881, 1879, 3550, 1880, 3549, 1818, 1819, 3774], 's_2_30': [4269], 32: [3401, 3400, 3460, 1537, 3459, 3458, 1458, 3457, 1459, 1460, 1461, 4132, 2042, 1536], 's_2_32': [2297], 38: [3895, 2000, 3958, 3957, 3956, 3865, 3866, 2180], 's_2_38': [3851], 's_2_41': [2090], 42: [3563, 1593, 1594, 1595, 1596, 4123, 4122, 4121, 4120, 4119, 4118], 's_2_42': [4135], 's_2_45': [2327], 's_6_5': [3567, 3566, 2148], 's_6_12': [4018], 's_6_17': [2479], 18: [4077, 2377, 2301, 4197, 4182], 's_6_18': [4213], 's_6_21': [3613], 22: [4034, 1416, 4222, 2675, 4223, 2676, 4229, 4228, 4227, 4226, 4225, 4224], 's_6_22': [2436], 's_6_23': [4183], 's_6_25': [2496], 37: [3673, 3671, 3672, 2359, 2360, 4029, 4030, 4031, 4032, 2361], 's_6_37': [4137], 43: [1702, 4258, 4257, 4256, 4255, 4254, 1668, 1669, 1670, 1671, 4148, 1701], 's_6_43': [2451], 44: [2478, 3552, 2402, 3462, 3368, 3369, 1969, 1968, 1967, 3370, 2102, 3461], 's_6_44': [3538, 2493], 1: [2374, 3642, 3641, 3577, 3578, 3579, 1984, 3640, 1938], 's_10_1': [1518], 's_10_5': [1414, 3817], 14: [1762, 1759, 1729, 3894, 1761, 1760], 's_10_14': [1699], 's_10_17': [2299], 's_10_18': [4181], 20: [1685, 1927, 1926, 1925, 2194, 2195, 3971, 3967, 3968, 3969, 3970], 's_10_20': [2209], 's_10_24': [2168], 26: [1822, 2223, 2224, 1821, 1820, 3913, 3912, 3911, 3909, 3910], 's_10_26': [3656], 's_10_27': [1804], 33: [3547, 1592, 3473, 1547, 4210, 4209, 4208, 1551, 1548, 1549, 1550], 's_10_33': [3772], 35: [2267, 2272, 2268, 3793, 2271, 2270, 3792, 3926, 2269], 's_10_35': [2404], 36: [2690, 2691, 4342, 4343, 4344, 4345, 4346, 2197, 4064, 4063, 4062, 2196], 's_10_36': [4061], 40: [3297, 3296, 3295, 3745, 1999, 1998, 3310, 1997], 's_10_40': [3790], 's_10_43': [3788], 's_10_45': [2314], 's_11_1': [2133], 's_11_5': [2178], 16: [4004, 4003, 1861, 1862, 4002, 4001, 4000, 1863, 1864, 1865, 3999], 's_11_16': [2660], 's_11_23': [2557], 34: [4194, 4195, 2032, 2615, 2616, 4273, 4272, 4271, 2105, 4211, 2182, 4046, 2181], 's_11_34': [4169], 's_11_35': [3808, 3809], 's_11_39': [2659], 's_11_41': [2372], 's_11_42': [2661], 's_11_48': [3508], 3: [3878, 1472, 1477, 1476, 1473, 1474, 1475], 's_12_3': [1487], 9: [1610, 3445, 3938, 3953, 2012, 2013, 2014, 2015, 3940, 3939], 's_12_9': [1937], 's_12_14': [3699], 's_12_16': [3399], 's_12_22': [4049], 's_12_26': [3884, 2555], 's_12_27': [1712, 1713], 31: [1370, 1415, 3988, 3987, 3986, 3982, 3983, 3984, 3985], 's_12_31': [3973], 's_12_36': [2571, 4108], 's_12_45': [2057], 's_17_1': [3777], 's_17_9': [3941], 13: [1731, 1847, 1848, 1849, 4168, 4167, 4166, 4165, 4164, 1850, 1851], 's_17_13': [2406], 's_17_16': [2376], 's_17_22': [2226], 28: [3908, 4150, 4149, 1746, 1743, 1744, 1745], 's_17_28': [3758], 's_17_36': [4136], 's_17_38': [1894], 's_17_43': [2421], 's_17_44': [3775], 's_17_45': [4017], 47: [2241, 2240, 2238, 3834, 3835, 3836, 2239], 's_17_47': [3852], 4: [2342, 2343, 4092, 2346, 3942, 3282, 2345, 2344], 's_19_4': [3281, 2146], 's_19_5': [2193], 's_19_26': [3611], 's_19_28': [1742], 's_19_32': [1697], 's_19_41': [3386], 's_19_42': [3533], 's_19_43': [3519], 's_19_45': [2208], 's_19_47': [2237], 's_19_48': [3580], 's_21_15': [2043], 's_21_20': [3746], 's_21_26': [2434], 's_21_37': [2253], 's_21_40': [2119], 's_21_45': [3582], 's_23_3': [1567, 4253], 's_23_5': [4297], 7: [1492, 1626, 4028, 1491, 4012, 1400, 3715, 3714, 3713, 3712, 1399], 's_23_7': [1627], 's_23_22': [1462], 's_23_24': [2047], 's_23_25': [2287], 29: [3898, 2542, 3881, 3882, 3883, 2541, 2540], 's_23_29': [4348], 's_23_34': [4244], 's_23_43': [2317], 's_24_3': [4282], 's_24_5': [4192], 's_24_7': [4073], 's_24_9': [3937], 's_24_22': [4177], 's_24_31': [1505], 's_24_32': [4447], 's_24_33': [1506], 's_24_43': [4433, 4434], 8: [1788, 1789, 1790, 4301, 4300, 4299, 1791, 1792], 's_25_8': [1777], 's_25_13': [1732], 's_25_14': [1747], 's_25_20': [1838, 4405], 's_25_26': [3928], 's_25_29': [4048], 's_25_31': [2495], 's_25_32': [4373], 's_25_35': [2494], 's_25_36': [2227], 's_25_37': [4033], 's_25_38': [3943], 's_25_39': [3583], 's_27_16': [3744], 's_27_28': [3789], 's_27_37': [2179], 's_27_48': [1835], 's_39_3': [3503], 's_39_4': [2357], 's_39_9': [1922], 's_39_13': [3429], 's_39_15': [1803], 's_39_16': [1877], 's_39_30': [1833], 's_39_33': [1532], 's_39_35': [2539], 's_39_36': [3899], 's_39_43': [1653], 's_41_29': [2300], 's_41_32': [2207], 's_41_35': [3776], 's_41_42': [2121], 's_41_44': [3523, 3522], 46: [2031, 1446, 4087, 4090, 4089, 4088], 's_41_46': [2106], 's_41_48': [2477], 's_45_9': [3446], 's_45_26': [3717], 's_45_29': [3897], 's_45_30': [3565], 's_45_35': [3972], 's_45_38': [2315], 's_45_48': [3521], 's_48_4': [3327, 3326, 2027], 's_48_7': [3716], 's_48_29': [3896], 's_48_32': [2117], 's_48_33': [3907], 's_48_35': [3702, 3701], 's_48_38': [1985], 's_48_46': [1445], 's_48_47': [1909], 's_5_1': [1908], 's_5_9': [3655], 's_5_33': [1428], 's_5_40': [3610], 's_5_46': [4042], 's_5_47': [1939], 's_15_8': [1773], 's_15_42': [3518], 's_15_20': [4015], 's_15_28': [2061], 's_15_37': [2118], 's_15_43': [3623], 's_15_44': [1622], 's_30_1': [1953], 's_30_8': [2002], 's_30_13': [4179], 's_30_33': [1852], 's_30_34': [2046], 's_30_37': [4045], 's_30_38': [1924], 's_30_42': [2091], 's_32_13': [3474], 's_32_9': [1611, 4133], 's_32_20': [4072, 1355], 's_32_22': [4102], 's_32_31': [3892], 's_32_43': [4328], 's_38_16': [2135], 's_38_4': [2450], 's_38_14': [3864], 's_38_29': [3880], 's_38_31': [2420], 's_38_34': [2630], 's_38_40': [2104], 's_38_44': [3820], 's_38_47': [2149], 's_42_1': [1608], 's_42_4': [2316], 's_42_9': [1609, 3818], 's_42_14': [3743], 's_42_37': [2211], 's_42_43': [3638], 's_18_13': [2331], 's_18_4': [2347, 4287], 's_18_43': [2392], 's_18_47': [4212], 's_22_3': [4162], 's_22_8': [2212], 's_22_13': [2481], 's_22_16': [4075, 1941], 's_22_33': [1642], 's_22_29': [4139, 4138], 's_22_31': [1371], 's_22_35': [3794, 2674], 's_22_36': [3959], 's_37_26': [1775], 's_37_7': [1656, 4163], 's_37_14': [4044], 's_37_43': [2362], 's_37_44': [1970], 's_43_8': [3879], 's_43_26': [4074], 's_43_7': [3832, 3833], 's_44_13': [3384], 's_44_16': [3355, 1906], 's_44_33': [3383], 's_44_7': [3700], 's_44_9': [3385, 1952], 's_44_40': [2401], 's_44_35': [3447], 's_1_3': [3592], 's_1_8': [3639], 's_1_13': [3670], 's_1_16': [3564], 's_1_26': [2375], 's_1_33': [1563], 's_14_8': [4329], 's_14_16': [4014, 1730], 's_14_46': [4103], 's_14_47': [1714], 's_14_20': [1684], 's_20_33': [1686], 's_20_7': [1565], 's_20_29': [2120], 's_20_31': [1490], 's_26_13': [3819], 's_26_16': [3954], 's_26_4': [3927], 's_26_28': [4059], 's_26_29': [2089], 's_26_34': [2614], 's_26_35': [2150], 's_26_46': [1806], 's_33_13': [1911], 's_33_31': [1535], 's_33_34': [1716], 's_35_8': [2257], 's_35_36': [4286], 's_35_29': [2449], 's_35_31': [2210], 's_36_3': [4327], 's_36_8': [2062], 's_36_16': [2706], 's_36_4': [4047], 's_40_13': [3294], 's_40_16': [3520], 's_40_7': [1954], 's_40_4': [2326], 's_16_4': [2435], 's_16_7': [1878], 's_16_28': [3654], 's_16_34': [1866], 's_34_9': [2045], 's_34_31': [3989], 's_34_47': [4196, 2151], 's_34_28': [1956], 's_3_7': [4043], 's_3_9': [3893], 's_3_46': [3997], 's_9_8': [1655, 3849], 's_9_13': [3444], 's_9_47': [1805], 's_31_7': [4027], 's_31_4': [2405], 's_13_8': [3609], 's_13_46': [1836], 's_28_46': [2001], 's_4_29': [4093], 's_8_46': [1776]}</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.001097421203438395</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.001839869558094995</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>{0: [4423, 2528, 2527, 2526, 2525, 2524, 4422, 2312, 2419, 2313, 2418, 3658, 3657], 2: [2077, 4270, 2076, 2075, 3476, 2072, 2073, 3477, 2074], 's_0_2': [2417], 6: [2467, 3747, 3628, 2463, 4198, 2466, 2465, 2464], 's_0_6': [3823], 10: [1519, 3757, 4091, 2167, 2166, 2165, 2164, 3807, 3806, 3805, 3804, 3803, 1564], 's_0_10': [2389], 11: [4214, 2646, 2645, 2644, 2373, 2643, 3598, 3596, 3597], 's_0_11': [3778], 12: [3838, 1728, 1727, 3412, 2585, 2584, 2583, 2582, 3418, 3417, 3416, 3413, 3414, 3415], 's_0_12': [3402], 17: [3760, 3762, 3761, 3759, 4151, 4152, 2256, 2255, 2254], 's_0_17': [3763], 19: [2162, 3581, 3534, 1682, 3507, 3504, 2163, 3506, 3505], 's_0_19': [2298], 21: [3730, 2433, 3732, 3731], 's_0_21': [3703], 23: [2572, 4333, 4332, 4331, 4312, 4313, 4314, 4315, 2107], 's_0_23': [4288], 24: [4421, 4420, 4419, 4418, 3952, 1522, 1521, 1520], 's_0_24': [4435, 4436, 4437, 4438], 25: [4358, 4359, 2508, 2509, 4374, 4375, 4376, 4377, 4378, 2510, 2511, 2512], 's_0_25': [4393, 2393], 27: [3687, 3686, 3684, 1834, 3685], 's_0_27': [3688], 39: [2600, 3748, 2599, 2598, 2597, 3433, 3432, 3431, 3430, 3488, 3489, 3490, 1892], 's_0_39': [3733], 41: [4105, 4106, 2286, 3358, 3357, 2285, 2282, 2283, 2284], 's_0_41': [3342], 45: [2087, 3536, 2358, 2222, 2330, 2329, 2328, 3537], 's_0_45': [3612], 48: [1625, 3922, 3923, 3924, 3925, 3493, 3492, 3491, 2028, 2029, 2030], 's_0_48': [2523], 5: [1432, 3627, 1431, 1430, 1429, 3626, 3625, 1893, 3729, 3728, 3727], 's_2_5': [2388], 's_2_10': [3821], 15: [1623, 3593, 3594, 2060, 2059, 2058, 3595], 's_2_15': [4076], 's_2_21': [2088], 's_2_25': [1957], 30: [4241, 4240, 1881, 1879, 3550, 1880, 3549, 1818, 1819, 3774], 's_2_30': [4269], 32: [3401, 3400, 3460, 1537, 3459, 3458, 1458, 3457, 1459, 1460, 1461, 4132, 2042, 1536], 's_2_32': [2297], 38: [3895, 2000, 3958, 3957, 3956, 3865, 3866, 2180], 's_2_38': [3851], 's_2_41': [2090], 42: [3563, 1593, 1594, 1595, 1596, 4123, 4122, 4121, 4120, 4119, 4118], 's_2_42': [4135], 's_2_45': [2327], 's_6_5': [3567, 3566, 2148], 's_6_12': [4018], 's_6_17': [2479], 18: [4077, 2377, 2301, 4197, 4182], 's_6_18': [4213], 's_6_21': [3613], 22: [4034, 1416, 4222, 2675, 4223, 2676, 4229, 4228, 4227, 4226, 4225, 4224], 's_6_22': [2436], 's_6_23': [4183], 's_6_25': [2496], 37: [3673, 3671, 3672, 2359, 2360, 4029, 4030, 4031, 4032, 2361], 's_6_37': [4137], 43: [1702, 4258, 4257, 4256, 4255, 4254, 1668, 1669, 1670, 1671, 4148, 1701], 's_6_43': [2451], 44: [2478, 3552, 2402, 3462, 3368, 3369, 1969, 1968, 1967, 3370, 2102, 3461], 's_6_44': [3538, 2493], 1: [2374, 3642, 3641, 3577, 3578, 3579, 1984, 3640, 1938], 's_10_1': [1518], 's_10_5': [1414, 3817], 14: [1762, 1759, 1729, 3894, 1761, 1760], 's_10_14': [1699], 's_10_17': [2299], 's_10_18': [4181], 20: [1685, 1927, 1926, 1925, 2194, 2195, 3971, 3967, 3968, 3969, 3970], 's_10_20': [2209], 's_10_24': [2168], 26: [1822, 2223, 2224, 1821, 1820, 3913, 3912, 3911, 3909, 3910], 's_10_26': [3656], 's_10_27': [1804], 33: [3547, 1592, 3473, 1547, 4210, 4209, 4208, 1551, 1548, 1549, 1550], 's_10_33': [3772], 35: [2267, 2272, 2268, 3793, 2271, 2270, 3792, 3926, 2269], 's_10_35': [2404], 36: [2690, 2691, 4342, 4343, 4344, 4345, 4346, 2197, 4064, 4063, 4062, 2196], 's_10_36': [4061], 40: [3297, 3296, 3295, 3745, 1999, 1998, 3310, 1997], 's_10_40': [3790], 's_10_43': [3788], 's_10_45': [2314], 's_11_1': [2133], 's_11_5': [2178], 16: [4004, 4003, 1861, 1862, 4002, 4001, 4000, 1863, 1864, 1865, 3999], 's_11_16': [2660], 's_11_23': [2557], 34: [4194, 4195, 2032, 2615, 2616, 4273, 4272, 4271, 2105, 4211, 2182, 4046, 2181], 's_11_34': [4169], 's_11_35': [3808, 3809], 's_11_39': [2659], 's_11_41': [2372], 's_11_42': [2661], 's_11_48': [3508], 3: [3878, 1472, 1477, 1476, 1473, 1474, 1475], 's_12_3': [1487], 9: [1610, 3445, 3938, 3953, 2012, 2013, 2014, 2015, 3940, 3939], 's_12_9': [1937], 's_12_14': [3699], 's_12_16': [3399], 's_12_22': [4049], 's_12_26': [3884, 2555], 's_12_27': [1712, 1713], 31: [1370, 1415, 3988, 3987, 3986, 3982, 3983, 3984, 3985], 's_12_31': [3973], 's_12_36': [2571, 4108], 's_12_45': [2057], 's_17_1': [3777], 's_17_9': [3941], 13: [1731, 1847, 1848, 1849, 4168, 4167, 4166, 4165, 4164, 1850, 1851], 's_17_13': [2406], 's_17_16': [2376], 's_17_22': [2226], 28: [3908, 4150, 4149, 1746, 1743, 1744, 1745], 's_17_28': [3758], 's_17_36': [4136], 's_17_38': [1894], 's_17_43': [2421], 's_17_44': [3775], 's_17_45': [4017], 47: [2241, 2240, 2238, 3834, 3835, 3836, 2239], 's_17_47': [3852], 4: [2342, 2343, 4092, 2346, 3942, 3282, 2345, 2344], 's_19_4': [3281, 2146], 's_19_5': [2193], 's_19_26': [3611], 's_19_28': [1742], 's_19_32': [1697], 's_19_41': [3386], 's_19_42': [3533], 's_19_43': [3519], 's_19_45': [2208], 's_19_47': [2237], 's_19_48': [3580], 's_21_15': [2043], 's_21_20': [3746], 's_21_26': [2434], 's_21_37': [2253], 's_21_40': [2119], 's_21_45': [3582], 's_23_3': [1567, 4253], 's_23_5': [4297], 7: [1492, 1626, 4028, 1491, 4012, 1400, 3715, 3714, 3713, 3712, 1399], 's_23_7': [1627], 's_23_22': [1462], 's_23_24': [2047], 's_23_25': [2287], 29: [3898, 2542, 3881, 3882, 3883, 2541, 2540], 's_23_29': [4348], 's_23_34': [4244], 's_23_43': [2317], 's_24_3': [4282], 's_24_5': [4192], 's_24_7': [4073], 's_24_9': [3937], 's_24_22': [4177], 's_24_31': [1505], 's_24_32': [4447], 's_24_33': [1506], 's_24_43': [4433, 4434], 8: [1788, 1789, 1790, 4301, 4300, 4299, 1791, 1792], 's_25_8': [1777], 's_25_13': [1732], 's_25_14': [1747], 's_25_20': [1838, 4405], 's_25_26': [3928], 's_25_29': [4048], 's_25_31': [2495], 's_25_32': [4373], 's_25_35': [2494], 's_25_36': [2227], 's_25_37': [4033], 's_25_38': [3943], 's_25_39': [3583], 's_27_16': [3744], 's_27_28': [3789], 's_27_37': [2179], 's_27_48': [1835], 's_39_3': [3503], 's_39_4': [2357], 's_39_9': [1922], 's_39_13': [3429], 's_39_15': [1803], 's_39_16': [1877], 's_39_30': [1833], 's_39_33': [1532], 's_39_35': [2539], 's_39_36': [3899], 's_39_43': [1653], 's_41_29': [2300], 's_41_32': [2207], 's_41_35': [3776], 's_41_42': [2121], 's_41_44': [3523, 3522], 46: [2031, 1446, 4087, 4090, 4089, 4088], 's_41_46': [2106], 's_41_48': [2477], 's_45_9': [3446], 's_45_26': [3717], 's_45_29': [3897], 's_45_30': [3565], 's_45_35': [3972], 's_45_38': [2315], 's_45_48': [3521], 's_48_4': [3327, 3326, 2027], 's_48_7': [3716], 's_48_29': [3896], 's_48_32': [2117], 's_48_33': [3907], 's_48_35': [3702, 3701], 's_48_38': [1985], 's_48_46': [1445], 's_48_47': [1909], 's_5_1': [1908], 's_5_9': [3655], 's_5_33': [1428], 's_5_40': [3610], 's_5_46': [4042], 's_5_47': [1939], 's_15_8': [1773], 's_15_42': [3518], 's_15_20': [4015], 's_15_28': [2061], 's_15_37': [2118], 's_15_43': [3623], 's_15_44': [1622], 's_30_1': [1953], 's_30_8': [2002], 's_30_13': [4179], 's_30_33': [1852], 's_30_34': [2046], 's_30_37': [4045], 's_30_38': [1924], 's_30_42': [2091], 's_32_13': [3474], 's_32_9': [1611, 4133], 's_32_20': [4072, 1355], 's_32_22': [4102], 's_32_31': [3892], 's_32_43': [4328], 's_38_16': [2135], 's_38_4': [2450], 's_38_14': [3864], 's_38_29': [3880], 's_38_31': [2420], 's_38_34': [2630], 's_38_40': [2104], 's_38_44': [3820], 's_38_47': [2149], 's_42_1': [1608], 's_42_4': [2316], 's_42_9': [1609, 3818], 's_42_14': [3743], 's_42_37': [2211], 's_42_43': [3638], 's_18_13': [2331], 's_18_4': [2347, 4287], 's_18_43': [2392], 's_18_47': [4212], 's_22_3': [4162], 's_22_8': [2212], 's_22_13': [2481], 's_22_16': [4075, 1941], 's_22_33': [1642], 's_22_29': [4139, 4138], 's_22_31': [1371], 's_22_35': [3794, 2674], 's_22_36': [3959], 's_37_26': [1775], 's_37_7': [1656, 4163], 's_37_14': [4044], 's_37_43': [2362], 's_37_44': [1970], 's_43_8': [3879], 's_43_26': [4074], 's_43_7': [3832, 3833], 's_44_13': [3384], 's_44_16': [3355, 1906], 's_44_33': [3383], 's_44_7': [3700], 's_44_9': [3385, 1952], 's_44_40': [2401], 's_44_35': [3447], 's_1_3': [3592], 's_1_8': [3639], 's_1_13': [3670], 's_1_16': [3564], 's_1_26': [2375], 's_1_33': [1563], 's_14_8': [4329], 's_14_16': [4014, 1730], 's_14_46': [4103], 's_14_47': [1714], 's_14_20': [1684], 's_20_33': [1686], 's_20_7': [1565], 's_20_29': [2120], 's_20_31': [1490], 's_26_13': [3819], 's_26_16': [3954], 's_26_4': [3927], 's_26_28': [4059], 's_26_29': [2089], 's_26_34': [2614], 's_26_35': [2150], 's_26_46': [1806], 's_33_13': [1911], 's_33_31': [1535], 's_33_34': [1716], 's_35_8': [2257], 's_35_36': [4286], 's_35_29': [2449], 's_35_31': [2210], 's_36_3': [4327], 's_36_8': [2062], 's_36_16': [2706], 's_36_4': [4047], 's_40_13': [3294], 's_40_16': [3520], 's_40_7': [1954], 's_40_4': [2326], 's_16_4': [2435], 's_16_7': [1878], 's_16_28': [3654], 's_16_34': [1866], 's_34_9': [2045], 's_34_31': [3989], 's_34_47': [4196, 2151], 's_34_28': [1956], 's_3_7': [4043], 's_3_9': [3893], 's_3_46': [3997], 's_9_8': [1655, 3849], 's_9_13': [3444], 's_9_47': [1805], 's_31_7': [4027], 's_31_4': [2405], 's_13_8': [3609], 's_13_46': [1836], 's_28_46': [2001], 's_4_29': [4093], 's_8_46': [1776]}</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0.001097421203438395</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.001839869558094995</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{0: [1713, 1610, 1609, 3743], 2: [1728, 4118, 1731, 1729, 1730], 3: [3701, 3699, 3700], 4: [3953, 1940, 3954], 5: [3851, 3624, 2120, 3625, 2119, 2118, 3626], 7: [1595, 3910, 3909, 3908, 1699, 1698], 8: [2059, 3638, 3639, 3640, 2058], 9: [1938, 3836, 3835, 3758, 1939, 3759], 16: [1773, 3608, 2043, 3609, 3610], 21: [3685, 1909, 3593, 3594, 1908], 23: [2045, 4028, 4029, 4031, 4030], 25: [3744, 3820, 1774, 3819], 27: [3893, 1791, 1790, 3895, 3894], 31: [3866, 3863, 3865, 3864], 33: [1564, 1788, 3805, 3803, 1789, 3804], 35: [4088, 1716, 1714, 1715], 49: [4209, 1743, 1746, 1744, 1745], 1: [3983, 3984], 11: [4148, 2014, 2015, 4149, 4150, 2016], 14: [3971, 1910, 3969, 3970], 15: [1671, 1669, 1670], 18: [4015, 1820, 1821, 4014], 19: [1834, 3773, 3775, 3774], 29: [4119, 4120, 2106, 3716, 2104, 2105], 41: [1926, 3788, 4060, 4059, 1685, 1684, 3923], 46: [1775, 3880, 3879], 47: [2060, 4001, 3999, 4000], 6: [1758, 1759, 1761, 1760], 12: [1984, 4164, 4165, 1985, 1986], 28: [1849, 3790, 3789], 39: [4090, 4089, 1878, 1879, 1880], 42: [1654, 3939, 3938, 1655], 44: [1804, 1806, 3834, 1805], 10: [1835, 1836], 13: [1923, 3985, 1925, 1924], 38: [1971, 4045, 3714, 1970, 1969, 3715], 20: [1851, 1850, 3849, 3850], 30: [2121, 4135, 1656, 4133, 4134], 37: [2089, 2088, 1639, 3728, 3730, 3729], 40: [3745, 1955, 1954], 17: [4061, 2074, 2075], 22: [4074, 1999, 2000, 2001, 4075], 26: [3653, 3655, 3654], 43: [4073, 4044, 4043, 1566, 1565], 45: [3671, 3670, 1819, 3669], 34: [1626, 3878, 1623, 1625, 1624], 48: [4103, 1776, 4104, 1893, 1894, 1895], 36: [3924, 3925], 32: [1863, 1866, 4194, 1864, 1865], 24: [2029, 2030, 4210, 2031, 4105, 1956]}</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.02075433231396534</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.01821386691786223</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>{0: [1713, 1610, 1609, 3743], 2: [1728, 4118, 1731, 1729, 1730], 3: [3701, 3699, 3700], 4: [3953, 1940, 3954], 5: [3851, 3624, 2120, 3625, 2119, 2118, 3626], 7: [1595, 3910, 3909, 3908, 1699, 1698], 8: [2059, 3638, 3639, 3640, 2058], 9: [1938, 3836, 3835, 3758, 1939, 3759], 16: [1773, 3608, 2043, 3609, 3610], 21: [3685, 1909, 3593, 3594, 1908], 23: [2045, 4028, 4029, 4031, 4030], 25: [3744, 3820, 1774, 3819], 27: [3893, 1791, 1790, 3895, 3894], 31: [3866, 3863, 3865, 3864], 33: [1564, 1788, 3805, 3803, 1789, 3804], 35: [4088, 1716, 1714, 1715], 49: [4209, 1743, 1746, 1744, 1745], 1: [3983, 3984], 11: [4148, 2014, 2015, 4149, 4150, 2016], 14: [3971, 1910, 3969, 3970], 15: [1671, 1669, 1670], 18: [4015, 1820, 1821, 4014], 19: [1834, 3773, 3775, 3774], 29: [4119, 4120, 2106, 3716, 2104, 2105], 41: [1926, 3788, 4060, 4059, 1685, 1684, 3923], 46: [1775, 3880, 3879], 47: [2060, 4001, 3999, 4000], 6: [1758, 1759, 1761, 1760], 12: [1984, 4164, 4165, 1985, 1986], 28: [1849, 3790, 3789], 39: [4090, 4089, 1878, 1879, 1880], 42: [1654, 3939, 3938, 1655], 44: [1804, 1806, 3834, 1805], 10: [1835, 1836], 13: [1923, 3985, 1925, 1924], 38: [1971, 4045, 3714, 1970, 1969, 3715], 20: [1851, 1850, 3849, 3850], 30: [2121, 4135, 1656, 4133, 4134], 37: [2089, 2088, 1639, 3728, 3730, 3729], 40: [3745, 1955, 1954], 17: [4061, 2074, 2075], 22: [4074, 1999, 2000, 2001, 4075], 26: [3653, 3655, 3654], 43: [4073, 4044, 4043, 1566, 1565], 45: [3671, 3670, 1819, 3669], 34: [1626, 3878, 1623, 1625, 1624], 48: [4103, 1776, 4104, 1893, 1894, 1895], 36: [3924, 3925], 32: [1863, 1866, 4194, 1864, 1865], 24: [2029, 2030, 4210, 2031, 4105, 1956]}</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0.02075433231396534</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01821386691786223</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>{0: [2215, 4778, 1797, 1796, 1795, 2439, 4783, 4782, 4781, 4780, 4779], 2: [1598, 1599, 1600, 4853, 4889, 1765, 4884, 4888, 4887, 4886, 4885], 's_0_2': [4929], 3: [1557, 1555, 5288, 1883, 4524, 4523, 1553, 1556, 1554], 's_0_3': [1884], 4: [4659, 4660, 2559, 4663, 4662, 4661], 's_0_4': [4753, 2469], 5: [1777, 1838, 1837, 4269, 4270, 4271, 5248, 2532, 2531, 2530, 2529, 4543, 4542, 2288, 2287], 's_0_5': [4798], 7: [5142, 2353, 2352, 5005, 2093, 2094, 2095, 2096, 5127, 5126], 's_0_7': [4736], 8: [5051, 2549, 5006, 5439, 5440, 5473, 2216, 5157, 2217, 2218, 5441, 5472, 2219], 's_0_8': [1798], 9: [1673, 4568, 1674, 2306, 1703, 4541, 4570, 4571, 5067, 5066, 4569, 2171, 2170, 2169], 's_0_9': [1675], 16: [1573, 1572, 5243, 1887, 5246, 5244, 5245], 's_0_16': [5304, 1767], 21: [2591, 5093, 2696, 5099, 5098, 5097, 5094, 5095, 5096], 's_0_21': [5079], 23: [1853, 4587, 1854, 4704, 4705, 2199, 2574, 4709, 4708, 4707, 4706], 's_0_23': [2424], 25: [4723, 2363, 2364, 4692, 2394, 4722, 2395, 2472, 2471, 4979, 4978, 2396], 's_0_25': [2409], 27: [4949, 2033, 2034, 2080, 2035, 2590, 4843, 4842, 4854, 4855, 4840, 2290, 4841], 's_0_27': [2470], 31: [4738, 4363, 4345, 2338, 4346, 4347, 4348, 5367, 2602, 2603, 2604, 2605, 2606, 2607, 5368], 's_0_31': [4693], 33: [5363, 1707, 4904, 4903, 4902, 4901, 4900, 5139, 1706, 1705, 4898, 4899], 's_0_33': [2320], 35: [4318, 4317, 2243, 2242, 4316, 4315, 4314, 4313, 5063, 1647, 1646, 1645, 1644, 1643, 1642], 's_0_35': [2438, 2437], 49: [4765, 4766, 2182, 2183, 2184, 5171, 2187, 2186, 2185], 's_0_49': [1869], 1: [5200, 1977, 1976, 1972, 1973, 1974, 1975], 's_2_1': [1960], 's_2_3': [4553], 's_2_5': [4873], 11: [4628, 4629, 1839, 4839, 1844, 1843, 1840, 1842, 5023, 5022, 5021, 5020, 5019, 1841], 's_2_11': [1764], 14: [4933, 4932, 2230, 2229, 4556, 4496, 2227, 2228], 's_2_14': [2245], 15: [5275, 1912, 1917, 1916, 1915, 4539, 4540, 1913, 1914], 's_2_15': [4870], 18: [4362, 2257, 2258, 2292, 2291, 4977, 2293, 4824, 2260, 4825, 4826, 2259], 's_2_18': [4823], 19: [2561, 2562, 1630, 1631, 1632, 1633, 1634, 2563, 2564, 5608, 5607, 5606, 5605, 5068, 5604, 5603], 's_2_19': [4718], 's_2_25': [2440], 's_2_27': [1870], 29: [2007, 2006, 2695, 4919, 4918, 4914, 4915, 4916, 2694, 4917], 's_2_29': [2335], 's_2_33': [4883, 4868], 's_2_35': [4493], 41: [5413, 4361, 5412, 5411, 5410, 5409, 1813, 1812, 1811, 1810, 2047, 1809, 1808, 4359, 4360], 's_2_41': [1732, 4448], 46: [2771, 2770, 2785, 2784, 4514, 4300, 4301, 4302, 4303, 4304, 2782, 2783], 's_2_46': [4874], 47: [4618, 4828, 4948, 2407, 5293, 2548, 2547, 2546, 4394, 4393, 2543, 2544, 2545], 's_2_47': [2665], 's_2_49': [2005], 's_3_5': [4494], 6: [5458, 5198, 5457, 1617, 1618, 5453, 5456, 5455, 5454], 's_3_6': [5197], 's_3_9': [4508], 's_3_11': [1688], 12: [2428, 4599, 4600, 2427, 2426, 2425, 4872, 4603, 2423, 4602, 4601, 2154, 2155, 4871], 's_3_12': [4598], 's_3_15': [4538], 's_3_16': [1542], 's_3_21': [5078], 28: [5007, 2261, 2486, 1748, 1749, 4734, 4735, 5037, 5036, 5035, 2020, 2021], 's_3_28': [1763], 39: [5274, 1858, 1946, 5173, 5172, 1857, 4961, 4962, 2365, 2366, 1856, 2367, 5273, 5174, 2368, 4960, 2369], 's_3_39': [1648], 42: [1988, 2127, 4529, 4528, 5156, 5155, 1901, 1900, 4527, 4526, 4525, 1898, 1899], 's_3_42': [4615], 44: [4769, 4813, 4812, 4811, 4586, 2589, 2138, 2139, 4793, 4794, 4795, 4796, 2140], 's_3_44': [1539], 's_4_7': [4675], 's_4_9': [4658], 10: [5069, 2621, 2620, 2619, 4589, 2318, 4497, 4498, 2618], 's_4_10': [2319], 13: [5004, 4454, 4453, 4451, 4450, 1826, 4452, 1825, 1824, 1823, 4449], 's_4_13': [2558], 's_4_14': [2214], 's_4_15': [1989], 38: [4634, 4633, 5008, 2514, 2518, 2517, 2516, 2515], 's_4_38': [4648], 's_5_9': [4404], 's_5_13': [2483], 's_5_14': [4392], 's_5_19': [5203], 20: [4435, 2727, 4480, 2003, 4481, 4483, 4482, 2726, 2725, 2724, 4559, 2633], 's_5_20': [4479], 's_5_21': [2577], 30: [4674, 4464, 5395, 5394, 1783, 1778, 1928, 1779, 1780, 1782, 1781], 's_5_30': [1927], 37: [2158, 2159, 2442, 2697, 5576, 5577, 5578, 2534, 5279, 5189, 5278, 2533], 's_5_37': [5249], 40: [4513, 4512, 4511, 4959, 4958, 4510, 1735, 1734, 1733, 4509], 's_5_40': [2303], 's_5_47': [2457], 's_5_49': [2167], 's_7_1': [4495], 's_7_13': [2092], 17: [2488, 5338, 5324, 2383, 5322, 5323], 's_7_17': [5427], 22: [1872, 1601, 1602, 5228, 5229, 5230, 5129, 5128, 2382, 5232, 5231], 's_7_22': [5143], 's_7_23': [2124, 4931, 2125], 26: [2156, 5109, 5110, 2174, 2173, 2172, 5111], 's_7_26': [1961], 's_7_27': [2110, 2109, 4645], 's_7_29': [1991], 's_7_31': [5382], 's_7_39': [5187], 's_7_42': [2066], 43: [5141, 5140, 1962, 1963, 5381, 5378, 1978, 5379, 5380], 's_7_43': [5185], 45: [2233, 5335, 5336, 5262, 5263, 2157, 5396, 2188, 5261], 's_7_45': [5277, 2322], 's_8_6': [1738], 's_8_9': [2201], 's_8_12': [5503], 's_8_16': [1888], 's_8_19': [2384], 's_8_22': [2337], 's_8_33': [5319, 1753], 34: [2339, 5502, 5501, 5575, 5138, 5471, 1587, 5560, 2022, 5258, 5259, 2024, 2023, 5260], 's_8_34': [1994], 's_8_37': [2189], 's_8_39': [5517], 's_8_42': [5050], 's_8_47': [4947], 's_8_49': [2246], 's_9_11': [4643], 's_9_15': [1718], 's_9_19': [1629], 's_9_21': [2321], 's_9_25': [4721], 's_9_26': [2126], 's_9_28': [4751], 's_9_39': [2411], 's_9_41': [4584], 's_9_49': [4691], 's_16_29': [1992], 's_16_33': [5362], 's_16_34': [2052], 's_16_39': [1947], 's_16_45': [2112], 48: [2008, 2678, 5305, 2679, 2680, 2681, 2682, 5306, 5307, 5308, 5309], 's_16_48': [2067], 's_16_49': [2202], 's_21_12': [5082], 's_21_27': [2081], 's_21_28': [2336], 's_21_31': [5083], 's_21_34': [5080], 36: [2815, 4679, 5009, 2828, 2829, 2832, 2831, 2830], 's_21_36': [4994], 's_21_39': [2757], 's_21_46': [5084], 's_23_10': [2573], 's_23_12': [2379], 's_23_13': [2333], 's_23_14': [4676], 's_23_27': [2019], 's_23_29': [4694], 's_23_30': [4644], 32: [2497, 2097, 2098, 5545, 5546, 2498, 2499, 2500, 5547, 5548, 2638, 2637, 2636, 2635, 4858], 's_23_32': [4558], 's_23_35': [4631], 's_23_38': [2754], 's_23_41': [4554], 's_23_48': [4544, 2709], 's_25_10': [4557], 's_25_11': [2651], 's_25_18': [4422], 's_25_19': [5233], 's_25_20': [4964], 's_25_31': [2473], 's_25_32': [4588], 's_25_37': [5202], 's_25_39': [4992], 's_25_40': [2348], 's_25_44': [2350], 's_27_11': [4630], 's_27_14': [4991, 4990], 's_27_15': [4720], 's_27_29': [2065], 's_27_32': [4857], 's_27_33': [2036], 's_27_39': [1945], 's_27_40': [2018], 's_27_41': [4436], 's_27_47': [4993], 's_27_48': [4844], 's_31_10': [5114], 's_31_13': [2452], 's_31_15': [1897], 's_31_17': [2622], 's_31_34': [5487, 5486, 2053], 's_31_35': [2482], 's_31_39': [5352], 's_31_44': [2588], 's_31_48': [4439], 's_31_49': [4333, 4332, 4331], 's_33_19': [5348], 's_33_20': [2711], 's_33_22': [5289, 1737], 's_33_28': [2485], 's_33_35': [1691], 's_33_38': [2576], 's_33_39': [1721, 1722], 's_33_40': [4988], 's_33_41': [5334], 's_33_42': [5154], 's_33_43': [1603], 's_33_44': [1570], 's_35_6': [5153], 's_35_11': [5018], 's_35_14': [4572], 's_35_18': [4646], 's_35_19': [4928], 's_35_20': [2002], 's_35_22': [5123], 's_35_32': [2512], 's_35_34': [1541], 's_35_41': [1762], 's_49_12': [1944], 's_49_14': [4376], 's_49_18': [4856], 24: [2247, 4944, 1661, 1662, 5216, 5215, 5214, 5213], 's_49_24': [2307], 's_49_26': [5186], 's_49_28': [4946], 's_49_42': [2168], 's_49_44': [1990], 's_1_18': [4810], 's_1_20': [4465], 's_1_32': [2082], 's_1_39': [5065], 's_1_43': [5170], 's_1_46': [1957], 's_11_18': [1855], 's_11_43': [5290], 's_11_6': [1859], 's_11_24': [5199], 's_11_26': [1931], 's_11_28': [5034], 's_11_30': [5424], 's_11_38': [2501], 's_11_41': [5049], 's_11_47': [5038], 's_14_18': [4466], 's_14_32': [4437, 4438, 2513], 's_14_39': [4752], 's_14_40': [2153], 's_14_41': [2198], 's_14_44': [2078], 's_15_20': [4390], 's_15_30': [1793], 's_15_45': [2038], 's_15_48': [1902, 5320], 's_18_12': [2305], 's_18_13': [2378], 's_18_24': [5201], 's_18_29': [1930], 's_18_30': [4809], 's_18_43': [2308], 's_18_44': [2200], 's_18_45': [5366], 's_18_46': [2317], 's_19_32': [2504], 's_19_39': [5592], 's_19_10': [5159], 's_19_17': [5339], 's_19_24': [4943], 's_19_26': [5591], 's_19_34': [1964], 's_19_41': [2128, 2129], 's_29_32': [4859], 's_29_12': [2410], 's_29_24': [4913], 's_29_38': [4649], 's_29_40': [1720], 's_29_44': [4784], 's_29_47': [4619], 's_41_46': [2152], 's_41_12': [4614], 's_41_13': [4764], 's_41_17': [5428], 's_41_28': [4719], 's_41_34': [5425], 's_41_37': [2578], 's_41_38': [2398, 5397, 5398], 's_41_42': [5169], 's_41_48': [2203], 's_46_20': [2693], 's_46_32': [5054], 's_46_39': [2786], 's_46_36': [4484], 's_46_42': [2753], 's_46_47': [2692], 's_46_48': [2677], 's_47_12': [4963], 's_47_13': [2723], 's_47_17': [2487], 's_47_38': [5353], 's_47_40': [2528], 's_47_48': [5292], 's_6_43': [1723], 's_6_12': [5442], 's_6_22': [1752], 's_6_30': [5393], 's_6_38': [2503], 's_6_45': [2278], 's_12_32': [2413], 's_12_10': [2453], 's_12_13': [2422], 's_12_22': [5247], 's_12_28': [5052], 's_12_40': [2048], 's_12_48': [2412], 's_28_39': [4976], 's_28_22': [5113], 's_28_26': [2111], 's_28_38': [5053], 's_28_40': [4749], 's_28_44': [1719], 's_39_32': [2354], 's_39_17': [5337], 's_39_26': [5125], 's_39_36': [2816], 's_39_44': [4827], 's_39_48': [2667], 's_42_32': [5291], 's_42_10': [2648], 's_42_26': [2051], 's_42_30': [4555], 's_42_34': [1932], 's_42_45': [5276], 's_44_20': [4814], 's_44_10': [2634], 's_44_30': [4585], 's_44_48': [4754], 's_10_20': [5144], 's_10_22': [2666], 's_10_38': [5188], 's_13_24': [4974], 's_13_36': [2843], 's_38_32': [2519], 's_38_36': [2844], 's_38_45': [2502], 's_20_22': [2712], 's_20_36': [2739], 's_20_48': [5234], 's_30_32': [2068], 's_30_43': [2113], 's_30_22': [5364], 's_30_24': [5124], 's_30_48': [1993], 's_37_32': [2579], 's_37_26': [5561], 's_37_34': [2144], 's_37_36': [5219], 's_37_45': [2234], 's_40_22': [5003], 's_40_24': [1690], 's_22_43': [1873], 's_22_26': [5108], 's_26_45': [5321], 's_26_24': [1827], 's_43_34': [5350], 's_45_24': [2232], 's_45_48': [2142], 's_48_36': [5204], 's_32_24': [2248]}</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E97" t="n">
         <v>0.001616402116402117</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F97" t="n">
         <v>0.002034938450370085</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>{0: [2215, 4778, 1797, 1796, 1795, 2439, 4783, 4782, 4781, 4780, 4779], 2: [1598, 1599, 1600, 4853, 4889, 1765, 4884, 4888, 4887, 4886, 4885], 's_0_2': [4929], 3: [1557, 1555, 5288, 1883, 4524, 4523, 1553, 1556, 1554], 's_0_3': [1884], 4: [4659, 4660, 2559, 4663, 4662, 4661], 's_0_4': [4753, 2469], 5: [1777, 1838, 1837, 4269, 4270, 4271, 5248, 2532, 2531, 2530, 2529, 4543, 4542, 2288, 2287], 's_0_5': [4798], 7: [5142, 2353, 2352, 5005, 2093, 2094, 2095, 2096, 5127, 5126], 's_0_7': [4736], 8: [5051, 2549, 5006, 5439, 5440, 5473, 2216, 5157, 2217, 2218, 5441, 5472, 2219], 's_0_8': [1798], 9: [1673, 4568, 1674, 2306, 1703, 4541, 4570, 4571, 5067, 5066, 4569, 2171, 2170, 2169], 's_0_9': [1675], 16: [1573, 1572, 5243, 1887, 5246, 5244, 5245], 's_0_16': [5304, 1767], 21: [2591, 5093, 2696, 5099, 5098, 5097, 5094, 5095, 5096], 's_0_21': [5079], 23: [1853, 4587, 1854, 4704, 4705, 2199, 2574, 4709, 4708, 4707, 4706], 's_0_23': [2424], 25: [4723, 2363, 2364, 4692, 2394, 4722, 2395, 2472, 2471, 4979, 4978, 2396], 's_0_25': [2409], 27: [4949, 2033, 2034, 2080, 2035, 2590, 4843, 4842, 4854, 4855, 4840, 2290, 4841], 's_0_27': [2470], 31: [4738, 4363, 4345, 2338, 4346, 4347, 4348, 5367, 2602, 2603, 2604, 2605, 2606, 2607, 5368], 's_0_31': [4693], 33: [5363, 1707, 4904, 4903, 4902, 4901, 4900, 5139, 1706, 1705, 4898, 4899], 's_0_33': [2320], 35: [4318, 4317, 2243, 2242, 4316, 4315, 4314, 4313, 5063, 1647, 1646, 1645, 1644, 1643, 1642], 's_0_35': [2438, 2437], 49: [4765, 4766, 2182, 2183, 2184, 5171, 2187, 2186, 2185], 's_0_49': [1869], 1: [5200, 1977, 1976, 1972, 1973, 1974, 1975], 's_2_1': [1960], 's_2_3': [4553], 's_2_5': [4873], 11: [4628, 4629, 1839, 4839, 1844, 1843, 1840, 1842, 5023, 5022, 5021, 5020, 5019, 1841], 's_2_11': [1764], 14: [4933, 4932, 2230, 2229, 4556, 4496, 2227, 2228], 's_2_14': [2245], 15: [5275, 1912, 1917, 1916, 1915, 4539, 4540, 1913, 1914], 's_2_15': [4870], 18: [4362, 2257, 2258, 2292, 2291, 4977, 2293, 4824, 2260, 4825, 4826, 2259], 's_2_18': [4823], 19: [2561, 2562, 1630, 1631, 1632, 1633, 1634, 2563, 2564, 5608, 5607, 5606, 5605, 5068, 5604, 5603], 's_2_19': [4718], 's_2_25': [2440], 's_2_27': [1870], 29: [2007, 2006, 2695, 4919, 4918, 4914, 4915, 4916, 2694, 4917], 's_2_29': [2335], 's_2_33': [4883, 4868], 's_2_35': [4493], 41: [5413, 4361, 5412, 5411, 5410, 5409, 1813, 1812, 1811, 1810, 2047, 1809, 1808, 4359, 4360], 's_2_41': [1732, 4448], 46: [2771, 2770, 2785, 2784, 4514, 4300, 4301, 4302, 4303, 4304, 2782, 2783], 's_2_46': [4874], 47: [4618, 4828, 4948, 2407, 5293, 2548, 2547, 2546, 4394, 4393, 2543, 2544, 2545], 's_2_47': [2665], 's_2_49': [2005], 's_3_5': [4494], 6: [5458, 5198, 5457, 1617, 1618, 5453, 5456, 5455, 5454], 's_3_6': [5197], 's_3_9': [4508], 's_3_11': [1688], 12: [2428, 4599, 4600, 2427, 2426, 2425, 4872, 4603, 2423, 4602, 4601, 2154, 2155, 4871], 's_3_12': [4598], 's_3_15': [4538], 's_3_16': [1542], 's_3_21': [5078], 28: [5007, 2261, 2486, 1748, 1749, 4734, 4735, 5037, 5036, 5035, 2020, 2021], 's_3_28': [1763], 39: [5274, 1858, 1946, 5173, 5172, 1857, 4961, 4962, 2365, 2366, 1856, 2367, 5273, 5174, 2368, 4960, 2369], 's_3_39': [1648], 42: [1988, 2127, 4529, 4528, 5156, 5155, 1901, 1900, 4527, 4526, 4525, 1898, 1899], 's_3_42': [4615], 44: [4769, 4813, 4812, 4811, 4586, 2589, 2138, 2139, 4793, 4794, 4795, 4796, 2140], 's_3_44': [1539], 's_4_7': [4675], 's_4_9': [4658], 10: [5069, 2621, 2620, 2619, 4589, 2318, 4497, 4498, 2618], 's_4_10': [2319], 13: [5004, 4454, 4453, 4451, 4450, 1826, 4452, 1825, 1824, 1823, 4449], 's_4_13': [2558], 's_4_14': [2214], 's_4_15': [1989], 38: [4634, 4633, 5008, 2514, 2518, 2517, 2516, 2515], 's_4_38': [4648], 's_5_9': [4404], 's_5_13': [2483], 's_5_14': [4392], 's_5_19': [5203], 20: [4435, 2727, 4480, 2003, 4481, 4483, 4482, 2726, 2725, 2724, 4559, 2633], 's_5_20': [4479], 's_5_21': [2577], 30: [4674, 4464, 5395, 5394, 1783, 1778, 1928, 1779, 1780, 1782, 1781], 's_5_30': [1927], 37: [2158, 2159, 2442, 2697, 5576, 5577, 5578, 2534, 5279, 5189, 5278, 2533], 's_5_37': [5249], 40: [4513, 4512, 4511, 4959, 4958, 4510, 1735, 1734, 1733, 4509], 's_5_40': [2303], 's_5_47': [2457], 's_5_49': [2167], 's_7_1': [4495], 's_7_13': [2092], 17: [2488, 5338, 5324, 2383, 5322, 5323], 's_7_17': [5427], 22: [1872, 1601, 1602, 5228, 5229, 5230, 5129, 5128, 2382, 5232, 5231], 's_7_22': [5143], 's_7_23': [2124, 4931, 2125], 26: [2156, 5109, 5110, 2174, 2173, 2172, 5111], 's_7_26': [1961], 's_7_27': [2110, 2109, 4645], 's_7_29': [1991], 's_7_31': [5382], 's_7_39': [5187], 's_7_42': [2066], 43: [5141, 5140, 1962, 1963, 5381, 5378, 1978, 5379, 5380], 's_7_43': [5185], 45: [2233, 5335, 5336, 5262, 5263, 2157, 5396, 2188, 5261], 's_7_45': [5277, 2322], 's_8_6': [1738], 's_8_9': [2201], 's_8_12': [5503], 's_8_16': [1888], 's_8_19': [2384], 's_8_22': [2337], 's_8_33': [5319, 1753], 34: [2339, 5502, 5501, 5575, 5138, 5471, 1587, 5560, 2022, 5258, 5259, 2024, 2023, 5260], 's_8_34': [1994], 's_8_37': [2189], 's_8_39': [5517], 's_8_42': [5050], 's_8_47': [4947], 's_8_49': [2246], 's_9_11': [4643], 's_9_15': [1718], 's_9_19': [1629], 's_9_21': [2321], 's_9_25': [4721], 's_9_26': [2126], 's_9_28': [4751], 's_9_39': [2411], 's_9_41': [4584], 's_9_49': [4691], 's_16_29': [1992], 's_16_33': [5362], 's_16_34': [2052], 's_16_39': [1947], 's_16_45': [2112], 48: [2008, 2678, 5305, 2679, 2680, 2681, 2682, 5306, 5307, 5308, 5309], 's_16_48': [2067], 's_16_49': [2202], 's_21_12': [5082], 's_21_27': [2081], 's_21_28': [2336], 's_21_31': [5083], 's_21_34': [5080], 36: [2815, 4679, 5009, 2828, 2829, 2832, 2831, 2830], 's_21_36': [4994], 's_21_39': [2757], 's_21_46': [5084], 's_23_10': [2573], 's_23_12': [2379], 's_23_13': [2333], 's_23_14': [4676], 's_23_27': [2019], 's_23_29': [4694], 's_23_30': [4644], 32: [2497, 2097, 2098, 5545, 5546, 2498, 2499, 2500, 5547, 5548, 2638, 2637, 2636, 2635, 4858], 's_23_32': [4558], 's_23_35': [4631], 's_23_38': [2754], 's_23_41': [4554], 's_23_48': [4544, 2709], 's_25_10': [4557], 's_25_11': [2651], 's_25_18': [4422], 's_25_19': [5233], 's_25_20': [4964], 's_25_31': [2473], 's_25_32': [4588], 's_25_37': [5202], 's_25_39': [4992], 's_25_40': [2348], 's_25_44': [2350], 's_27_11': [4630], 's_27_14': [4991, 4990], 's_27_15': [4720], 's_27_29': [2065], 's_27_32': [4857], 's_27_33': [2036], 's_27_39': [1945], 's_27_40': [2018], 's_27_41': [4436], 's_27_47': [4993], 's_27_48': [4844], 's_31_10': [5114], 's_31_13': [2452], 's_31_15': [1897], 's_31_17': [2622], 's_31_34': [5487, 5486, 2053], 's_31_35': [2482], 's_31_39': [5352], 's_31_44': [2588], 's_31_48': [4439], 's_31_49': [4333, 4332, 4331], 's_33_19': [5348], 's_33_20': [2711], 's_33_22': [5289, 1737], 's_33_28': [2485], 's_33_35': [1691], 's_33_38': [2576], 's_33_39': [1721, 1722], 's_33_40': [4988], 's_33_41': [5334], 's_33_42': [5154], 's_33_43': [1603], 's_33_44': [1570], 's_35_6': [5153], 's_35_11': [5018], 's_35_14': [4572], 's_35_18': [4646], 's_35_19': [4928], 's_35_20': [2002], 's_35_22': [5123], 's_35_32': [2512], 's_35_34': [1541], 's_35_41': [1762], 's_49_12': [1944], 's_49_14': [4376], 's_49_18': [4856], 24: [2247, 4944, 1661, 1662, 5216, 5215, 5214, 5213], 's_49_24': [2307], 's_49_26': [5186], 's_49_28': [4946], 's_49_42': [2168], 's_49_44': [1990], 's_1_18': [4810], 's_1_20': [4465], 's_1_32': [2082], 's_1_39': [5065], 's_1_43': [5170], 's_1_46': [1957], 's_11_18': [1855], 's_11_43': [5290], 's_11_6': [1859], 's_11_24': [5199], 's_11_26': [1931], 's_11_28': [5034], 's_11_30': [5424], 's_11_38': [2501], 's_11_41': [5049], 's_11_47': [5038], 's_14_18': [4466], 's_14_32': [4437, 4438, 2513], 's_14_39': [4752], 's_14_40': [2153], 's_14_41': [2198], 's_14_44': [2078], 's_15_20': [4390], 's_15_30': [1793], 's_15_45': [2038], 's_15_48': [1902, 5320], 's_18_12': [2305], 's_18_13': [2378], 's_18_24': [5201], 's_18_29': [1930], 's_18_30': [4809], 's_18_43': [2308], 's_18_44': [2200], 's_18_45': [5366], 's_18_46': [2317], 's_19_32': [2504], 's_19_39': [5592], 's_19_10': [5159], 's_19_17': [5339], 's_19_24': [4943], 's_19_26': [5591], 's_19_34': [1964], 's_19_41': [2128, 2129], 's_29_32': [4859], 's_29_12': [2410], 's_29_24': [4913], 's_29_38': [4649], 's_29_40': [1720], 's_29_44': [4784], 's_29_47': [4619], 's_41_46': [2152], 's_41_12': [4614], 's_41_13': [4764], 's_41_17': [5428], 's_41_28': [4719], 's_41_34': [5425], 's_41_37': [2578], 's_41_38': [2398, 5397, 5398], 's_41_42': [5169], 's_41_48': [2203], 's_46_20': [2693], 's_46_32': [5054], 's_46_39': [2786], 's_46_36': [4484], 's_46_42': [2753], 's_46_47': [2692], 's_46_48': [2677], 's_47_12': [4963], 's_47_13': [2723], 's_47_17': [2487], 's_47_38': [5353], 's_47_40': [2528], 's_47_48': [5292], 's_6_43': [1723], 's_6_12': [5442], 's_6_22': [1752], 's_6_30': [5393], 's_6_38': [2503], 's_6_45': [2278], 's_12_32': [2413], 's_12_10': [2453], 's_12_13': [2422], 's_12_22': [5247], 's_12_28': [5052], 's_12_40': [2048], 's_12_48': [2412], 's_28_39': [4976], 's_28_22': [5113], 's_28_26': [2111], 's_28_38': [5053], 's_28_40': [4749], 's_28_44': [1719], 's_39_32': [2354], 's_39_17': [5337], 's_39_26': [5125], 's_39_36': [2816], 's_39_44': [4827], 's_39_48': [2667], 's_42_32': [5291], 's_42_10': [2648], 's_42_26': [2051], 's_42_30': [4555], 's_42_34': [1932], 's_42_45': [5276], 's_44_20': [4814], 's_44_10': [2634], 's_44_30': [4585], 's_44_48': [4754], 's_10_20': [5144], 's_10_22': [2666], 's_10_38': [5188], 's_13_24': [4974], 's_13_36': [2843], 's_38_32': [2519], 's_38_36': [2844], 's_38_45': [2502], 's_20_22': [2712], 's_20_36': [2739], 's_20_48': [5234], 's_30_32': [2068], 's_30_43': [2113], 's_30_22': [5364], 's_30_24': [5124], 's_30_48': [1993], 's_37_32': [2579], 's_37_26': [5561], 's_37_34': [2144], 's_37_36': [5219], 's_37_45': [2234], 's_40_22': [5003], 's_40_24': [1690], 's_22_43': [1873], 's_22_26': [5108], 's_26_45': [5321], 's_26_24': [1827], 's_43_34': [5350], 's_45_24': [2232], 's_45_48': [2142], 's_48_36': [5204], 's_32_24': [2248]}</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I97" t="n">
         <v>0.001616402116402117</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J97" t="n">
         <v>0.002034938450370085</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K97" t="n">
         <v>0.001</v>
       </c>
     </row>
